--- a/Prototypes/Mungbean/Exp3observed.xlsx
+++ b/Prototypes/Mungbean/Exp3observed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF76D180-08B4-4E15-AC0D-5812B2863746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2422440E-FAA1-458C-8F3E-6C5DF929838C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="1725" windowWidth="21600" windowHeight="11385" xr2:uid="{8C69385E-AA3F-4CF3-AF00-E1E4599E61EE}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C69385E-AA3F-4CF3-AF00-E1E4599E61EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -182,33 +182,6 @@
     <t>Soybean.Nodule.NFixed</t>
   </si>
   <si>
-    <t>exp3SowDec17Irr</t>
-  </si>
-  <si>
-    <t>exp3SowDec17RF</t>
-  </si>
-  <si>
-    <t>exp3SowDec17RO</t>
-  </si>
-  <si>
-    <t>exp3SowDec30Irr</t>
-  </si>
-  <si>
-    <t>exp3SowDec30RF</t>
-  </si>
-  <si>
-    <t>exp3SowDec30RO</t>
-  </si>
-  <si>
-    <t>exp3SowDec3Irr</t>
-  </si>
-  <si>
-    <t>exp3SowDec3RF</t>
-  </si>
-  <si>
-    <t>exp3SowDec3RO</t>
-  </si>
-  <si>
     <t>Soybean.Phenology.CurrentStageName</t>
   </si>
   <si>
@@ -216,6 +189,33 @@
   </si>
   <si>
     <t>Yield</t>
+  </si>
+  <si>
+    <t>exp3SowDec17IrrCultivarEmerald</t>
+  </si>
+  <si>
+    <t>exp3SowDec30IrrCultivarEmerald</t>
+  </si>
+  <si>
+    <t>exp3SowDec3IrrCultivarEmerald</t>
+  </si>
+  <si>
+    <t>exp3SowDec17RFCultivarEmerald</t>
+  </si>
+  <si>
+    <t>exp3SowDec30RFCultivarEmerald</t>
+  </si>
+  <si>
+    <t>exp3SowDec3RFCultivarEmerald</t>
+  </si>
+  <si>
+    <t>exp3SowDec17ROCultivarEmerald</t>
+  </si>
+  <si>
+    <t>exp3SowDec30ROCultivarEmerald</t>
+  </si>
+  <si>
+    <t>exp3SowDec3ROCultivarEmerald</t>
   </si>
 </sst>
 </file>
@@ -601,8 +601,8 @@
   <dimension ref="A1:AX499"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F502" sqref="F502"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -628,7 +628,7 @@
         <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="2" spans="1:50">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B2" s="5">
         <v>35782</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="3" spans="1:50">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B3" s="5">
         <v>35804</v>
@@ -846,7 +846,7 @@
     </row>
     <row r="4" spans="1:50">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B4" s="5">
         <v>35809</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="5" spans="1:50">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B5" s="5">
         <v>35811</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="6" spans="1:50">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B6" s="5">
         <v>35814</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="7" spans="1:50">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B7" s="5">
         <v>35817</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="8" spans="1:50">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B8" s="5">
         <v>35821</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="9" spans="1:50">
       <c r="A9" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5">
         <v>35826</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="10" spans="1:50">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B10" s="5">
         <v>35827</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="11" spans="1:50">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B11" s="5">
         <v>35829</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="12" spans="1:50">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="5">
         <v>35830</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="13" spans="1:50">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B13" s="5">
         <v>35831</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="14" spans="1:50">
       <c r="A14" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14" s="5">
         <v>35832</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="15" spans="1:50">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B15" s="5">
         <v>35834</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="16" spans="1:50">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B16" s="5">
         <v>35838</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="17" spans="1:50">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B17" s="5">
         <v>35842</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="18" spans="1:50">
       <c r="A18" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B18" s="5">
         <v>35844</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="19" spans="1:50">
       <c r="A19" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B19" s="5">
         <v>35845</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="20" spans="1:50">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B20" s="5">
         <v>35847</v>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="21" spans="1:50">
       <c r="A21" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B21" s="5">
         <v>35848</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="22" spans="1:50">
       <c r="A22" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B22" s="5">
         <v>35850</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="23" spans="1:50">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B23" s="5">
         <v>35851</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="24" spans="1:50">
       <c r="A24" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B24" s="5">
         <v>35853</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="25" spans="1:50">
       <c r="A25" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B25" s="5">
         <v>35854</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="26" spans="1:50">
       <c r="A26" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B26" s="5">
         <v>35856</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="27" spans="1:50">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B27" s="5">
         <v>35857</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="28" spans="1:50">
       <c r="A28" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B28" s="5">
         <v>35858</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="29" spans="1:50">
       <c r="A29" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B29" s="5">
         <v>35859</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="30" spans="1:50">
       <c r="A30" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B30" s="5">
         <v>35862</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="31" spans="1:50">
       <c r="A31" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B31" s="5">
         <v>35864</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="32" spans="1:50">
       <c r="A32" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B32" s="5">
         <v>35865</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="33" spans="1:48">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="5">
         <v>35866</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="34" spans="1:48">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B34" s="5">
         <v>35867</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="35" spans="1:48">
       <c r="A35" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B35" s="5">
         <v>35868</v>
@@ -1963,7 +1963,7 @@
     </row>
     <row r="36" spans="1:48">
       <c r="A36" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B36" s="5">
         <v>35869</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="37" spans="1:48">
       <c r="A37" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B37" s="5">
         <v>35870</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="38" spans="1:48">
       <c r="A38" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B38" s="5">
         <v>35871</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="39" spans="1:48">
       <c r="A39" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B39" s="5">
         <v>35872</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="40" spans="1:48">
       <c r="A40" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B40" s="5">
         <v>35873</v>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="41" spans="1:48">
       <c r="A41" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B41" s="5">
         <v>35874</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="42" spans="1:48">
       <c r="A42" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B42" s="5">
         <v>35875</v>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="43" spans="1:48">
       <c r="A43" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B43" s="5">
         <v>35876</v>
@@ -2260,7 +2260,7 @@
     </row>
     <row r="44" spans="1:48">
       <c r="A44" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44" s="5">
         <v>35877</v>
@@ -2293,7 +2293,7 @@
     </row>
     <row r="45" spans="1:48">
       <c r="A45" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45" s="5">
         <v>35878</v>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="46" spans="1:48">
       <c r="A46" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46" s="5">
         <v>35879</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="47" spans="1:48">
       <c r="A47" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47" s="5">
         <v>35880</v>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="48" spans="1:48">
       <c r="A48" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48" s="5">
         <v>35882</v>
@@ -2425,7 +2425,7 @@
     </row>
     <row r="49" spans="1:49" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B49" s="5">
         <v>35883</v>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="50" spans="1:49">
       <c r="A50" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B50" s="5">
         <v>35884</v>
@@ -2497,13 +2497,13 @@
     </row>
     <row r="51" spans="1:49">
       <c r="A51" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B51" s="5">
         <v>35885</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D51" s="6">
         <v>104.081291759465</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="52" spans="1:49">
       <c r="A52" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B52" s="5">
         <v>35886</v>
@@ -2608,7 +2608,7 @@
     </row>
     <row r="53" spans="1:49">
       <c r="A53" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B53" s="5">
         <v>35887</v>
@@ -2641,7 +2641,7 @@
     </row>
     <row r="54" spans="1:49">
       <c r="A54" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B54" s="5">
         <v>35890</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="55" spans="1:49">
       <c r="A55" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B55" s="5">
         <v>35891</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="56" spans="1:49">
       <c r="A56" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B56" s="5">
         <v>35892</v>
@@ -2740,7 +2740,7 @@
     </row>
     <row r="57" spans="1:49">
       <c r="A57" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B57" s="5">
         <v>35893</v>
@@ -2776,7 +2776,7 @@
     </row>
     <row r="58" spans="1:49">
       <c r="A58" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B58" s="5">
         <v>35895</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="59" spans="1:49">
       <c r="A59" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B59" s="5">
         <v>35896</v>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="60" spans="1:49">
       <c r="A60" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B60" s="5">
         <v>35898</v>
@@ -2902,7 +2902,7 @@
     </row>
     <row r="61" spans="1:49">
       <c r="A61" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B61" s="5">
         <v>35899</v>
@@ -2941,7 +2941,7 @@
     </row>
     <row r="62" spans="1:49">
       <c r="A62" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B62" s="5">
         <v>35900</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="63" spans="1:49">
       <c r="A63" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B63" s="5">
         <v>35782</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="64" spans="1:49">
       <c r="A64" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B64" s="5">
         <v>35804</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="65" spans="1:36">
       <c r="A65" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B65" s="5">
         <v>35809</v>
@@ -3076,7 +3076,7 @@
     </row>
     <row r="66" spans="1:36">
       <c r="A66" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B66" s="5">
         <v>35811</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="67" spans="1:36">
       <c r="A67" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B67" s="5">
         <v>35815</v>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="68" spans="1:36">
       <c r="A68" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B68" s="5">
         <v>35817</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="69" spans="1:36">
       <c r="A69" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B69" s="5">
         <v>35821</v>
@@ -3208,7 +3208,7 @@
     </row>
     <row r="70" spans="1:36">
       <c r="A70" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B70" s="5">
         <v>35827</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="71" spans="1:36">
       <c r="A71" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B71" s="5">
         <v>35829</v>
@@ -3298,7 +3298,7 @@
     </row>
     <row r="72" spans="1:36">
       <c r="A72" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B72" s="5">
         <v>35830</v>
@@ -3334,7 +3334,7 @@
     </row>
     <row r="73" spans="1:36">
       <c r="A73" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B73" s="5">
         <v>35831</v>
@@ -3370,7 +3370,7 @@
     </row>
     <row r="74" spans="1:36">
       <c r="A74" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B74" s="5">
         <v>35832</v>
@@ -3403,7 +3403,7 @@
     </row>
     <row r="75" spans="1:36">
       <c r="A75" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B75" s="5">
         <v>35834</v>
@@ -3436,7 +3436,7 @@
     </row>
     <row r="76" spans="1:36">
       <c r="A76" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B76" s="5">
         <v>35838</v>
@@ -3469,7 +3469,7 @@
     </row>
     <row r="77" spans="1:36">
       <c r="A77" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B77" s="5">
         <v>35843</v>
@@ -3508,7 +3508,7 @@
     </row>
     <row r="78" spans="1:36">
       <c r="A78" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B78" s="5">
         <v>35844</v>
@@ -3544,7 +3544,7 @@
     </row>
     <row r="79" spans="1:36">
       <c r="A79" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B79" s="5">
         <v>35845</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="80" spans="1:36">
       <c r="A80" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B80" s="5">
         <v>35846</v>
@@ -3613,7 +3613,7 @@
     </row>
     <row r="81" spans="1:42">
       <c r="A81" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B81" s="5">
         <v>35847</v>
@@ -3649,7 +3649,7 @@
     </row>
     <row r="82" spans="1:42">
       <c r="A82" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B82" s="5">
         <v>35849</v>
@@ -3685,7 +3685,7 @@
     </row>
     <row r="83" spans="1:42">
       <c r="A83" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B83" s="5">
         <v>35850</v>
@@ -3721,7 +3721,7 @@
     </row>
     <row r="84" spans="1:42">
       <c r="A84" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B84" s="5">
         <v>35852</v>
@@ -3754,7 +3754,7 @@
     </row>
     <row r="85" spans="1:42">
       <c r="A85" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B85" s="5">
         <v>35853</v>
@@ -3787,7 +3787,7 @@
     </row>
     <row r="86" spans="1:42">
       <c r="A86" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B86" s="5">
         <v>35854</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="87" spans="1:42">
       <c r="A87" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B87" s="5">
         <v>35855</v>
@@ -3856,7 +3856,7 @@
     </row>
     <row r="88" spans="1:42">
       <c r="A88" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B88" s="5">
         <v>35856</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="89" spans="1:42">
       <c r="A89" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B89" s="5">
         <v>35857</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="90" spans="1:42">
       <c r="A90" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B90" s="5">
         <v>35858</v>
@@ -4012,7 +4012,7 @@
     </row>
     <row r="91" spans="1:42">
       <c r="A91" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B91" s="5">
         <v>35860</v>
@@ -4045,7 +4045,7 @@
     </row>
     <row r="92" spans="1:42">
       <c r="A92" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B92" s="5">
         <v>35862</v>
@@ -4081,7 +4081,7 @@
     </row>
     <row r="93" spans="1:42">
       <c r="A93" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B93" s="5">
         <v>35863</v>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="94" spans="1:42">
       <c r="A94" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B94" s="5">
         <v>35865</v>
@@ -4150,7 +4150,7 @@
     </row>
     <row r="95" spans="1:42">
       <c r="A95" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B95" s="5">
         <v>35866</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="96" spans="1:42">
       <c r="A96" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B96" s="5">
         <v>35867</v>
@@ -4219,7 +4219,7 @@
     </row>
     <row r="97" spans="1:48">
       <c r="A97" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B97" s="5">
         <v>35868</v>
@@ -4252,7 +4252,7 @@
     </row>
     <row r="98" spans="1:48">
       <c r="A98" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B98" s="5">
         <v>35869</v>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="99" spans="1:48">
       <c r="A99" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B99" s="5">
         <v>35870</v>
@@ -4330,7 +4330,7 @@
     </row>
     <row r="100" spans="1:48">
       <c r="A100" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B100" s="5">
         <v>35871</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="101" spans="1:48">
       <c r="A101" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B101" s="5">
         <v>35872</v>
@@ -4414,7 +4414,7 @@
     </row>
     <row r="102" spans="1:48">
       <c r="A102" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B102" s="5">
         <v>35873</v>
@@ -4450,7 +4450,7 @@
     </row>
     <row r="103" spans="1:48">
       <c r="A103" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B103" s="5">
         <v>35874</v>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="104" spans="1:48">
       <c r="A104" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B104" s="5">
         <v>35875</v>
@@ -4540,13 +4540,13 @@
     </row>
     <row r="105" spans="1:48">
       <c r="A105" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B105" s="5">
         <v>35877</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D105" s="6">
         <v>96.424668665414998</v>
@@ -4612,7 +4612,7 @@
     </row>
     <row r="106" spans="1:48">
       <c r="A106" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B106" s="5">
         <v>35878</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="107" spans="1:48">
       <c r="A107" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B107" s="5">
         <v>35879</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="108" spans="1:48">
       <c r="A108" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B108" s="5">
         <v>35882</v>
@@ -4714,7 +4714,7 @@
     </row>
     <row r="109" spans="1:48">
       <c r="A109" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B109" s="5">
         <v>35883</v>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="110" spans="1:48">
       <c r="A110" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B110" s="5">
         <v>35884</v>
@@ -4789,7 +4789,7 @@
     </row>
     <row r="111" spans="1:48">
       <c r="A111" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B111" s="5">
         <v>35885</v>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="112" spans="1:48">
       <c r="A112" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B112" s="5">
         <v>35886</v>
@@ -4861,7 +4861,7 @@
     </row>
     <row r="113" spans="1:50">
       <c r="A113" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B113" s="5">
         <v>35887</v>
@@ -4894,7 +4894,7 @@
     </row>
     <row r="114" spans="1:50">
       <c r="A114" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B114" s="5">
         <v>35889</v>
@@ -4936,7 +4936,7 @@
     </row>
     <row r="115" spans="1:50">
       <c r="A115" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B115" s="5">
         <v>35890</v>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="116" spans="1:50">
       <c r="A116" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B116" s="5">
         <v>35891</v>
@@ -5032,7 +5032,7 @@
     </row>
     <row r="117" spans="1:50" ht="15.75" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B117" s="5">
         <v>35782</v>
@@ -5065,7 +5065,7 @@
     </row>
     <row r="118" spans="1:50">
       <c r="A118" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B118" s="5">
         <v>35789</v>
@@ -5098,7 +5098,7 @@
     </row>
     <row r="119" spans="1:50">
       <c r="A119" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B119" s="5">
         <v>35804</v>
@@ -5131,7 +5131,7 @@
     </row>
     <row r="120" spans="1:50">
       <c r="A120" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B120" s="5">
         <v>35810</v>
@@ -5164,7 +5164,7 @@
     </row>
     <row r="121" spans="1:50">
       <c r="A121" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B121" s="5">
         <v>35813</v>
@@ -5197,7 +5197,7 @@
     </row>
     <row r="122" spans="1:50">
       <c r="A122" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B122" s="5">
         <v>35814</v>
@@ -5254,7 +5254,7 @@
     </row>
     <row r="123" spans="1:50">
       <c r="A123" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B123" s="5">
         <v>35817</v>
@@ -5287,7 +5287,7 @@
     </row>
     <row r="124" spans="1:50">
       <c r="A124" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B124" s="5">
         <v>35818</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="125" spans="1:50">
       <c r="A125" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B125" s="5">
         <v>35822</v>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="126" spans="1:50">
       <c r="A126" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B126" s="5">
         <v>35826</v>
@@ -5390,7 +5390,7 @@
     </row>
     <row r="127" spans="1:50">
       <c r="A127" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B127" s="5">
         <v>35827</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="128" spans="1:50">
       <c r="A128" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B128" s="5">
         <v>35830</v>
@@ -5462,7 +5462,7 @@
     </row>
     <row r="129" spans="1:50">
       <c r="A129" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B129" s="5">
         <v>35831</v>
@@ -5501,7 +5501,7 @@
     </row>
     <row r="130" spans="1:50">
       <c r="A130" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B130" s="5">
         <v>35834</v>
@@ -5537,7 +5537,7 @@
     </row>
     <row r="131" spans="1:50">
       <c r="A131" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B131" s="5">
         <v>35837</v>
@@ -5573,7 +5573,7 @@
     </row>
     <row r="132" spans="1:50">
       <c r="A132" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B132" s="5">
         <v>35838</v>
@@ -5612,7 +5612,7 @@
     </row>
     <row r="133" spans="1:50">
       <c r="A133" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B133" s="5">
         <v>35842</v>
@@ -5672,7 +5672,7 @@
     </row>
     <row r="134" spans="1:50">
       <c r="A134" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B134" s="5">
         <v>35843</v>
@@ -5705,7 +5705,7 @@
     </row>
     <row r="135" spans="1:50">
       <c r="A135" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B135" s="5">
         <v>35844</v>
@@ -5738,7 +5738,7 @@
     </row>
     <row r="136" spans="1:50">
       <c r="A136" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B136" s="5">
         <v>35845</v>
@@ -5774,7 +5774,7 @@
     </row>
     <row r="137" spans="1:50">
       <c r="A137" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B137" s="5">
         <v>35846</v>
@@ -5807,7 +5807,7 @@
     </row>
     <row r="138" spans="1:50">
       <c r="A138" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B138" s="5">
         <v>35847</v>
@@ -5840,7 +5840,7 @@
     </row>
     <row r="139" spans="1:50">
       <c r="A139" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B139" s="5">
         <v>35848</v>
@@ -5876,7 +5876,7 @@
     </row>
     <row r="140" spans="1:50">
       <c r="A140" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B140" s="5">
         <v>35849</v>
@@ -5909,7 +5909,7 @@
     </row>
     <row r="141" spans="1:50">
       <c r="A141" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B141" s="5">
         <v>35851</v>
@@ -5951,7 +5951,7 @@
     </row>
     <row r="142" spans="1:50">
       <c r="A142" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B142" s="5">
         <v>35852</v>
@@ -5984,7 +5984,7 @@
     </row>
     <row r="143" spans="1:50">
       <c r="A143" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B143" s="5">
         <v>35853</v>
@@ -6017,7 +6017,7 @@
     </row>
     <row r="144" spans="1:50">
       <c r="A144" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B144" s="5">
         <v>35855</v>
@@ -6068,7 +6068,7 @@
     </row>
     <row r="145" spans="1:48">
       <c r="A145" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B145" s="5">
         <v>35856</v>
@@ -6104,7 +6104,7 @@
     </row>
     <row r="146" spans="1:48">
       <c r="A146" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B146" s="5">
         <v>35857</v>
@@ -6140,7 +6140,7 @@
     </row>
     <row r="147" spans="1:48">
       <c r="A147" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B147" s="5">
         <v>35858</v>
@@ -6182,7 +6182,7 @@
     </row>
     <row r="148" spans="1:48">
       <c r="A148" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B148" s="5">
         <v>35860</v>
@@ -6215,7 +6215,7 @@
     </row>
     <row r="149" spans="1:48">
       <c r="A149" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B149" s="5">
         <v>35861</v>
@@ -6248,7 +6248,7 @@
     </row>
     <row r="150" spans="1:48">
       <c r="A150" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B150" s="5">
         <v>35862</v>
@@ -6284,7 +6284,7 @@
     </row>
     <row r="151" spans="1:48">
       <c r="A151" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B151" s="5">
         <v>35863</v>
@@ -6317,7 +6317,7 @@
     </row>
     <row r="152" spans="1:48">
       <c r="A152" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B152" s="5">
         <v>35865</v>
@@ -6353,7 +6353,7 @@
     </row>
     <row r="153" spans="1:48">
       <c r="A153" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B153" s="5">
         <v>35866</v>
@@ -6392,7 +6392,7 @@
     </row>
     <row r="154" spans="1:48">
       <c r="A154" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B154" s="5">
         <v>35867</v>
@@ -6425,7 +6425,7 @@
     </row>
     <row r="155" spans="1:48">
       <c r="A155" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B155" s="5">
         <v>35868</v>
@@ -6464,7 +6464,7 @@
     </row>
     <row r="156" spans="1:48">
       <c r="A156" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B156" s="5">
         <v>35869</v>
@@ -6497,7 +6497,7 @@
     </row>
     <row r="157" spans="1:48">
       <c r="A157" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B157" s="5">
         <v>35870</v>
@@ -6530,7 +6530,7 @@
     </row>
     <row r="158" spans="1:48">
       <c r="A158" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B158" s="5">
         <v>35871</v>
@@ -6581,7 +6581,7 @@
     </row>
     <row r="159" spans="1:48">
       <c r="A159" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B159" s="5">
         <v>35872</v>
@@ -6617,7 +6617,7 @@
     </row>
     <row r="160" spans="1:48">
       <c r="A160" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B160" s="5">
         <v>35873</v>
@@ -6653,7 +6653,7 @@
     </row>
     <row r="161" spans="1:50">
       <c r="A161" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B161" s="5">
         <v>35876</v>
@@ -6689,13 +6689,13 @@
     </row>
     <row r="162" spans="1:50">
       <c r="A162" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B162" s="5">
         <v>35877</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D162" s="6">
         <v>95.5483163357178</v>
@@ -6797,7 +6797,7 @@
     </row>
     <row r="163" spans="1:50">
       <c r="A163" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B163" s="5">
         <v>35878</v>
@@ -6830,7 +6830,7 @@
     </row>
     <row r="164" spans="1:50">
       <c r="A164" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B164" s="5">
         <v>35879</v>
@@ -6863,7 +6863,7 @@
     </row>
     <row r="165" spans="1:50">
       <c r="A165" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B165" s="5">
         <v>35882</v>
@@ -6899,7 +6899,7 @@
     </row>
     <row r="166" spans="1:50">
       <c r="A166" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B166" s="5">
         <v>35883</v>
@@ -6938,7 +6938,7 @@
     </row>
     <row r="167" spans="1:50">
       <c r="A167" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B167" s="5">
         <v>35884</v>
@@ -6971,7 +6971,7 @@
     </row>
     <row r="168" spans="1:50">
       <c r="A168" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B168" s="5">
         <v>35885</v>
@@ -7016,7 +7016,7 @@
     </row>
     <row r="169" spans="1:50">
       <c r="A169" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B169" s="5">
         <v>35886</v>
@@ -7058,7 +7058,7 @@
     </row>
     <row r="170" spans="1:50">
       <c r="A170" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B170" s="5">
         <v>35889</v>
@@ -7094,7 +7094,7 @@
     </row>
     <row r="171" spans="1:50" ht="16.5" customHeight="1">
       <c r="A171" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B171" s="5">
         <v>35890</v>
@@ -7130,7 +7130,7 @@
     </row>
     <row r="172" spans="1:50">
       <c r="A172" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B172" s="5">
         <v>35891</v>
@@ -7184,7 +7184,7 @@
     </row>
     <row r="173" spans="1:50">
       <c r="A173" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B173" s="5">
         <v>35895</v>
@@ -7217,7 +7217,7 @@
     </row>
     <row r="174" spans="1:50">
       <c r="A174" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B174" s="5">
         <v>35795</v>
@@ -7250,7 +7250,7 @@
     </row>
     <row r="175" spans="1:50">
       <c r="A175" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B175" s="5">
         <v>35826</v>
@@ -7286,7 +7286,7 @@
     </row>
     <row r="176" spans="1:50">
       <c r="A176" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B176" s="5">
         <v>35828</v>
@@ -7319,7 +7319,7 @@
     </row>
     <row r="177" spans="1:50">
       <c r="A177" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B177" s="5">
         <v>35831</v>
@@ -7352,7 +7352,7 @@
     </row>
     <row r="178" spans="1:50">
       <c r="A178" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B178" s="5">
         <v>35835</v>
@@ -7385,7 +7385,7 @@
     </row>
     <row r="179" spans="1:50">
       <c r="A179" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B179" s="5">
         <v>35841</v>
@@ -7418,7 +7418,7 @@
     </row>
     <row r="180" spans="1:50">
       <c r="A180" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B180" s="5">
         <v>35842</v>
@@ -7451,7 +7451,7 @@
     </row>
     <row r="181" spans="1:50">
       <c r="A181" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B181" s="5">
         <v>35843</v>
@@ -7487,7 +7487,7 @@
     </row>
     <row r="182" spans="1:50">
       <c r="A182" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B182" s="5">
         <v>35844</v>
@@ -7523,7 +7523,7 @@
     </row>
     <row r="183" spans="1:50">
       <c r="A183" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B183" s="5">
         <v>35847</v>
@@ -7556,7 +7556,7 @@
     </row>
     <row r="184" spans="1:50">
       <c r="A184" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B184" s="5">
         <v>35851</v>
@@ -7589,7 +7589,7 @@
     </row>
     <row r="185" spans="1:50">
       <c r="A185" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B185" s="5">
         <v>35855</v>
@@ -7628,7 +7628,7 @@
     </row>
     <row r="186" spans="1:50">
       <c r="A186" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B186" s="5">
         <v>35861</v>
@@ -7661,7 +7661,7 @@
     </row>
     <row r="187" spans="1:50">
       <c r="A187" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B187" s="5">
         <v>35863</v>
@@ -7694,7 +7694,7 @@
     </row>
     <row r="188" spans="1:50">
       <c r="A188" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B188" s="5">
         <v>35864</v>
@@ -7727,7 +7727,7 @@
     </row>
     <row r="189" spans="1:50">
       <c r="A189" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B189" s="5">
         <v>35865</v>
@@ -7760,7 +7760,7 @@
     </row>
     <row r="190" spans="1:50">
       <c r="A190" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B190" s="5">
         <v>35866</v>
@@ -7793,7 +7793,7 @@
     </row>
     <row r="191" spans="1:50">
       <c r="A191" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B191" s="5">
         <v>35867</v>
@@ -7826,7 +7826,7 @@
     </row>
     <row r="192" spans="1:50">
       <c r="A192" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B192" s="5">
         <v>35868</v>
@@ -7862,7 +7862,7 @@
     </row>
     <row r="193" spans="1:48">
       <c r="A193" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B193" s="5">
         <v>35869</v>
@@ -7895,7 +7895,7 @@
     </row>
     <row r="194" spans="1:48">
       <c r="A194" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B194" s="5">
         <v>35870</v>
@@ -7937,7 +7937,7 @@
     </row>
     <row r="195" spans="1:48">
       <c r="A195" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B195" s="5">
         <v>35871</v>
@@ -7979,7 +7979,7 @@
     </row>
     <row r="196" spans="1:48">
       <c r="A196" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B196" s="5">
         <v>35872</v>
@@ -8015,7 +8015,7 @@
     </row>
     <row r="197" spans="1:48">
       <c r="A197" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B197" s="5">
         <v>35875</v>
@@ -8048,7 +8048,7 @@
     </row>
     <row r="198" spans="1:48">
       <c r="A198" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B198" s="5">
         <v>35877</v>
@@ -8081,7 +8081,7 @@
     </row>
     <row r="199" spans="1:48">
       <c r="A199" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B199" s="5">
         <v>35878</v>
@@ -8114,7 +8114,7 @@
     </row>
     <row r="200" spans="1:48">
       <c r="A200" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B200" s="5">
         <v>35879</v>
@@ -8153,7 +8153,7 @@
     </row>
     <row r="201" spans="1:48">
       <c r="A201" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B201" s="5">
         <v>35881</v>
@@ -8186,7 +8186,7 @@
     </row>
     <row r="202" spans="1:48">
       <c r="A202" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B202" s="5">
         <v>35882</v>
@@ -8225,7 +8225,7 @@
     </row>
     <row r="203" spans="1:48">
       <c r="A203" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B203" s="5">
         <v>35883</v>
@@ -8258,7 +8258,7 @@
     </row>
     <row r="204" spans="1:48">
       <c r="A204" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B204" s="5">
         <v>35884</v>
@@ -8309,7 +8309,7 @@
     </row>
     <row r="205" spans="1:48">
       <c r="A205" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B205" s="5">
         <v>35885</v>
@@ -8351,7 +8351,7 @@
     </row>
     <row r="206" spans="1:48">
       <c r="A206" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B206" s="5">
         <v>35886</v>
@@ -8387,7 +8387,7 @@
     </row>
     <row r="207" spans="1:48">
       <c r="A207" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B207" s="5">
         <v>35887</v>
@@ -8420,7 +8420,7 @@
     </row>
     <row r="208" spans="1:48">
       <c r="A208" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B208" s="5">
         <v>35888</v>
@@ -8453,7 +8453,7 @@
     </row>
     <row r="209" spans="1:50">
       <c r="A209" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B209" s="5">
         <v>35889</v>
@@ -8486,7 +8486,7 @@
     </row>
     <row r="210" spans="1:50">
       <c r="A210" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B210" s="5">
         <v>35890</v>
@@ -8522,7 +8522,7 @@
     </row>
     <row r="211" spans="1:50">
       <c r="A211" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B211" s="5">
         <v>35891</v>
@@ -8555,7 +8555,7 @@
     </row>
     <row r="212" spans="1:50">
       <c r="A212" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B212" s="5">
         <v>35892</v>
@@ -8588,7 +8588,7 @@
     </row>
     <row r="213" spans="1:50">
       <c r="A213" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B213" s="5">
         <v>35893</v>
@@ -8621,7 +8621,7 @@
     </row>
     <row r="214" spans="1:50">
       <c r="A214" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B214" s="5">
         <v>35895</v>
@@ -8654,7 +8654,7 @@
     </row>
     <row r="215" spans="1:50">
       <c r="A215" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B215" s="5">
         <v>35896</v>
@@ -8687,7 +8687,7 @@
     </row>
     <row r="216" spans="1:50">
       <c r="A216" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B216" s="5">
         <v>35897</v>
@@ -8729,7 +8729,7 @@
     </row>
     <row r="217" spans="1:50">
       <c r="A217" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B217" s="5">
         <v>35898</v>
@@ -8765,13 +8765,13 @@
     </row>
     <row r="218" spans="1:50">
       <c r="A218" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B218" s="5">
         <v>35899</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D218" s="6">
         <v>104.649220489977</v>
@@ -8840,7 +8840,7 @@
     </row>
     <row r="219" spans="1:50">
       <c r="A219" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B219" s="5">
         <v>35900</v>
@@ -8873,7 +8873,7 @@
     </row>
     <row r="220" spans="1:50">
       <c r="A220" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B220" s="5">
         <v>35903</v>
@@ -8909,7 +8909,7 @@
     </row>
     <row r="221" spans="1:50">
       <c r="A221" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B221" s="5">
         <v>35905</v>
@@ -8942,7 +8942,7 @@
     </row>
     <row r="222" spans="1:50">
       <c r="A222" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B222" s="5">
         <v>35906</v>
@@ -8978,7 +8978,7 @@
     </row>
     <row r="223" spans="1:50">
       <c r="A223" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B223" s="5">
         <v>35909</v>
@@ -9014,7 +9014,7 @@
     </row>
     <row r="224" spans="1:50">
       <c r="A224" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B224" s="5">
         <v>35911</v>
@@ -9056,7 +9056,7 @@
     </row>
     <row r="225" spans="1:49">
       <c r="A225" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B225" s="5">
         <v>35912</v>
@@ -9098,7 +9098,7 @@
     </row>
     <row r="226" spans="1:49">
       <c r="A226" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B226" s="5">
         <v>35916</v>
@@ -9131,7 +9131,7 @@
     </row>
     <row r="227" spans="1:49">
       <c r="A227" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B227" s="5">
         <v>35920</v>
@@ -9170,7 +9170,7 @@
     </row>
     <row r="228" spans="1:49">
       <c r="A228" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B228" s="5">
         <v>35924</v>
@@ -9203,7 +9203,7 @@
     </row>
     <row r="229" spans="1:49">
       <c r="A229" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B229" s="5">
         <v>35925</v>
@@ -9236,7 +9236,7 @@
     </row>
     <row r="230" spans="1:49">
       <c r="A230" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B230" s="5">
         <v>35926</v>
@@ -9299,7 +9299,7 @@
     </row>
     <row r="231" spans="1:49">
       <c r="A231" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B231" s="5">
         <v>35795</v>
@@ -9332,7 +9332,7 @@
     </row>
     <row r="232" spans="1:49">
       <c r="A232" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B232" s="5">
         <v>35829</v>
@@ -9365,7 +9365,7 @@
     </row>
     <row r="233" spans="1:49">
       <c r="A233" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B233" s="5">
         <v>35831</v>
@@ -9398,7 +9398,7 @@
     </row>
     <row r="234" spans="1:49">
       <c r="A234" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B234" s="5">
         <v>35835</v>
@@ -9431,7 +9431,7 @@
     </row>
     <row r="235" spans="1:49">
       <c r="A235" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B235" s="5">
         <v>35841</v>
@@ -9464,7 +9464,7 @@
     </row>
     <row r="236" spans="1:49">
       <c r="A236" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B236" s="5">
         <v>35842</v>
@@ -9521,7 +9521,7 @@
     </row>
     <row r="237" spans="1:49">
       <c r="A237" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B237" s="5">
         <v>35843</v>
@@ -9557,7 +9557,7 @@
     </row>
     <row r="238" spans="1:49">
       <c r="A238" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B238" s="5">
         <v>35844</v>
@@ -9593,7 +9593,7 @@
     </row>
     <row r="239" spans="1:49">
       <c r="A239" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B239" s="5">
         <v>35845</v>
@@ -9626,7 +9626,7 @@
     </row>
     <row r="240" spans="1:49">
       <c r="A240" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B240" s="5">
         <v>35847</v>
@@ -9659,7 +9659,7 @@
     </row>
     <row r="241" spans="1:42">
       <c r="A241" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B241" s="5">
         <v>35852</v>
@@ -9692,7 +9692,7 @@
     </row>
     <row r="242" spans="1:42">
       <c r="A242" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B242" s="5">
         <v>35856</v>
@@ -9725,7 +9725,7 @@
     </row>
     <row r="243" spans="1:42">
       <c r="A243" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B243" s="5">
         <v>35861</v>
@@ -9758,7 +9758,7 @@
     </row>
     <row r="244" spans="1:42">
       <c r="A244" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B244" s="5">
         <v>35862</v>
@@ -9794,7 +9794,7 @@
     </row>
     <row r="245" spans="1:42">
       <c r="A245" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B245" s="5">
         <v>35863</v>
@@ -9827,7 +9827,7 @@
     </row>
     <row r="246" spans="1:42">
       <c r="A246" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B246" s="5">
         <v>35865</v>
@@ -9860,7 +9860,7 @@
     </row>
     <row r="247" spans="1:42">
       <c r="A247" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B247" s="5">
         <v>35866</v>
@@ -9896,7 +9896,7 @@
     </row>
     <row r="248" spans="1:42">
       <c r="A248" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B248" s="5">
         <v>35867</v>
@@ -9929,7 +9929,7 @@
     </row>
     <row r="249" spans="1:42">
       <c r="A249" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B249" s="5">
         <v>35868</v>
@@ -9965,7 +9965,7 @@
     </row>
     <row r="250" spans="1:42">
       <c r="A250" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B250" s="5">
         <v>35869</v>
@@ -10004,7 +10004,7 @@
     </row>
     <row r="251" spans="1:42">
       <c r="A251" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B251" s="5">
         <v>35870</v>
@@ -10067,7 +10067,7 @@
     </row>
     <row r="252" spans="1:42">
       <c r="A252" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B252" s="5">
         <v>35871</v>
@@ -10112,7 +10112,7 @@
     </row>
     <row r="253" spans="1:42">
       <c r="A253" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B253" s="5">
         <v>35872</v>
@@ -10145,7 +10145,7 @@
     </row>
     <row r="254" spans="1:42">
       <c r="A254" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B254" s="5">
         <v>35874</v>
@@ -10178,7 +10178,7 @@
     </row>
     <row r="255" spans="1:42">
       <c r="A255" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B255" s="5">
         <v>35876</v>
@@ -10214,7 +10214,7 @@
     </row>
     <row r="256" spans="1:42">
       <c r="A256" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B256" s="5">
         <v>35877</v>
@@ -10247,7 +10247,7 @@
     </row>
     <row r="257" spans="1:48">
       <c r="A257" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B257" s="5">
         <v>35878</v>
@@ -10280,7 +10280,7 @@
     </row>
     <row r="258" spans="1:48">
       <c r="A258" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B258" s="5">
         <v>35879</v>
@@ -10313,7 +10313,7 @@
     </row>
     <row r="259" spans="1:48">
       <c r="A259" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B259" s="5">
         <v>35880</v>
@@ -10346,7 +10346,7 @@
     </row>
     <row r="260" spans="1:48">
       <c r="A260" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B260" s="5">
         <v>35881</v>
@@ -10385,7 +10385,7 @@
     </row>
     <row r="261" spans="1:48">
       <c r="A261" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B261" s="5">
         <v>35882</v>
@@ -10421,7 +10421,7 @@
     </row>
     <row r="262" spans="1:48">
       <c r="A262" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B262" s="5">
         <v>35883</v>
@@ -10457,7 +10457,7 @@
     </row>
     <row r="263" spans="1:48">
       <c r="A263" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B263" s="5">
         <v>35884</v>
@@ -10517,13 +10517,13 @@
     </row>
     <row r="264" spans="1:48">
       <c r="A264" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B264" s="5">
         <v>35885</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D264" s="6">
         <v>90.914127423822606</v>
@@ -10619,7 +10619,7 @@
     </row>
     <row r="265" spans="1:48">
       <c r="A265" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B265" s="5">
         <v>35886</v>
@@ -10655,7 +10655,7 @@
     </row>
     <row r="266" spans="1:48">
       <c r="A266" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B266" s="5">
         <v>35887</v>
@@ -10688,7 +10688,7 @@
     </row>
     <row r="267" spans="1:48">
       <c r="A267" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B267" s="5">
         <v>35888</v>
@@ -10745,7 +10745,7 @@
     </row>
     <row r="268" spans="1:48">
       <c r="A268" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B268" s="5">
         <v>35889</v>
@@ -10778,7 +10778,7 @@
     </row>
     <row r="269" spans="1:48">
       <c r="A269" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B269" s="5">
         <v>35890</v>
@@ -10811,7 +10811,7 @@
     </row>
     <row r="270" spans="1:48">
       <c r="A270" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B270" s="5">
         <v>35891</v>
@@ -10844,7 +10844,7 @@
     </row>
     <row r="271" spans="1:48">
       <c r="A271" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B271" s="5">
         <v>35892</v>
@@ -10880,7 +10880,7 @@
     </row>
     <row r="272" spans="1:48">
       <c r="A272" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B272" s="5">
         <v>35895</v>
@@ -10913,7 +10913,7 @@
     </row>
     <row r="273" spans="1:49">
       <c r="A273" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B273" s="5">
         <v>35897</v>
@@ -10955,7 +10955,7 @@
     </row>
     <row r="274" spans="1:49">
       <c r="A274" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B274" s="5">
         <v>35898</v>
@@ -10991,7 +10991,7 @@
     </row>
     <row r="275" spans="1:49">
       <c r="A275" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B275" s="5">
         <v>35899</v>
@@ -11024,7 +11024,7 @@
     </row>
     <row r="276" spans="1:49">
       <c r="A276" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B276" s="5">
         <v>35900</v>
@@ -11057,7 +11057,7 @@
     </row>
     <row r="277" spans="1:49">
       <c r="A277" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B277" s="5">
         <v>35903</v>
@@ -11093,7 +11093,7 @@
     </row>
     <row r="278" spans="1:49">
       <c r="A278" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B278" s="5">
         <v>35905</v>
@@ -11126,7 +11126,7 @@
     </row>
     <row r="279" spans="1:49">
       <c r="A279" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B279" s="5">
         <v>35906</v>
@@ -11159,7 +11159,7 @@
     </row>
     <row r="280" spans="1:49">
       <c r="A280" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B280" s="5">
         <v>35907</v>
@@ -11192,7 +11192,7 @@
     </row>
     <row r="281" spans="1:49">
       <c r="A281" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B281" s="5">
         <v>35909</v>
@@ -11225,7 +11225,7 @@
     </row>
     <row r="282" spans="1:49">
       <c r="A282" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B282" s="5">
         <v>35910</v>
@@ -11264,7 +11264,7 @@
     </row>
     <row r="283" spans="1:49">
       <c r="A283" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B283" s="5">
         <v>35911</v>
@@ -11300,7 +11300,7 @@
     </row>
     <row r="284" spans="1:49">
       <c r="A284" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B284" s="5">
         <v>35912</v>
@@ -11348,7 +11348,7 @@
     </row>
     <row r="285" spans="1:49">
       <c r="A285" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B285" s="5">
         <v>35913</v>
@@ -11384,7 +11384,7 @@
     </row>
     <row r="286" spans="1:49">
       <c r="A286" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B286" s="5">
         <v>35795</v>
@@ -11417,7 +11417,7 @@
     </row>
     <row r="287" spans="1:49">
       <c r="A287" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B287" s="5">
         <v>35802</v>
@@ -11450,7 +11450,7 @@
     </row>
     <row r="288" spans="1:49">
       <c r="A288" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B288" s="5">
         <v>35815</v>
@@ -11504,7 +11504,7 @@
     </row>
     <row r="289" spans="1:50">
       <c r="A289" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B289" s="5">
         <v>35826</v>
@@ -11540,7 +11540,7 @@
     </row>
     <row r="290" spans="1:50">
       <c r="A290" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B290" s="5">
         <v>35829</v>
@@ -11573,7 +11573,7 @@
     </row>
     <row r="291" spans="1:50">
       <c r="A291" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B291" s="5">
         <v>35830</v>
@@ -11606,7 +11606,7 @@
     </row>
     <row r="292" spans="1:50">
       <c r="A292" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B292" s="5">
         <v>35831</v>
@@ -11639,7 +11639,7 @@
     </row>
     <row r="293" spans="1:50">
       <c r="A293" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B293" s="5">
         <v>35835</v>
@@ -11672,7 +11672,7 @@
     </row>
     <row r="294" spans="1:50">
       <c r="A294" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B294" s="5">
         <v>35841</v>
@@ -11705,7 +11705,7 @@
     </row>
     <row r="295" spans="1:50">
       <c r="A295" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B295" s="5">
         <v>35843</v>
@@ -11744,7 +11744,7 @@
     </row>
     <row r="296" spans="1:50">
       <c r="A296" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B296" s="5">
         <v>35844</v>
@@ -11780,7 +11780,7 @@
     </row>
     <row r="297" spans="1:50">
       <c r="A297" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B297" s="5">
         <v>35845</v>
@@ -11813,7 +11813,7 @@
     </row>
     <row r="298" spans="1:50">
       <c r="A298" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B298" s="5">
         <v>35847</v>
@@ -11846,7 +11846,7 @@
     </row>
     <row r="299" spans="1:50">
       <c r="A299" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B299" s="5">
         <v>35851</v>
@@ -11879,7 +11879,7 @@
     </row>
     <row r="300" spans="1:50">
       <c r="A300" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B300" s="5">
         <v>35855</v>
@@ -11936,7 +11936,7 @@
     </row>
     <row r="301" spans="1:50">
       <c r="A301" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B301" s="5">
         <v>35857</v>
@@ -11969,7 +11969,7 @@
     </row>
     <row r="302" spans="1:50">
       <c r="A302" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B302" s="5">
         <v>35858</v>
@@ -12002,7 +12002,7 @@
     </row>
     <row r="303" spans="1:50">
       <c r="A303" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B303" s="5">
         <v>35861</v>
@@ -12035,7 +12035,7 @@
     </row>
     <row r="304" spans="1:50">
       <c r="A304" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B304" s="5">
         <v>35862</v>
@@ -12068,7 +12068,7 @@
     </row>
     <row r="305" spans="1:50">
       <c r="A305" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B305" s="5">
         <v>35865</v>
@@ -12104,7 +12104,7 @@
     </row>
     <row r="306" spans="1:50">
       <c r="A306" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B306" s="5">
         <v>35866</v>
@@ -12137,7 +12137,7 @@
     </row>
     <row r="307" spans="1:50">
       <c r="A307" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B307" s="5">
         <v>35869</v>
@@ -12188,7 +12188,7 @@
     </row>
     <row r="308" spans="1:50">
       <c r="A308" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B308" s="5">
         <v>35870</v>
@@ -12224,7 +12224,7 @@
     </row>
     <row r="309" spans="1:50">
       <c r="A309" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B309" s="5">
         <v>35871</v>
@@ -12272,7 +12272,7 @@
     </row>
     <row r="310" spans="1:50">
       <c r="A310" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B310" s="5">
         <v>35872</v>
@@ -12305,7 +12305,7 @@
     </row>
     <row r="311" spans="1:50">
       <c r="A311" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B311" s="5">
         <v>35875</v>
@@ -12341,7 +12341,7 @@
     </row>
     <row r="312" spans="1:50">
       <c r="A312" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B312" s="5">
         <v>35876</v>
@@ -12377,7 +12377,7 @@
     </row>
     <row r="313" spans="1:50">
       <c r="A313" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B313" s="5">
         <v>35879</v>
@@ -12416,7 +12416,7 @@
     </row>
     <row r="314" spans="1:50">
       <c r="A314" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B314" s="5">
         <v>35880</v>
@@ -12449,7 +12449,7 @@
     </row>
     <row r="315" spans="1:50">
       <c r="A315" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B315" s="5">
         <v>35881</v>
@@ -12482,7 +12482,7 @@
     </row>
     <row r="316" spans="1:50">
       <c r="A316" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B316" s="5">
         <v>35882</v>
@@ -12521,7 +12521,7 @@
     </row>
     <row r="317" spans="1:50">
       <c r="A317" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B317" s="5">
         <v>35883</v>
@@ -12557,7 +12557,7 @@
     </row>
     <row r="318" spans="1:50">
       <c r="A318" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B318" s="5">
         <v>35884</v>
@@ -12590,13 +12590,13 @@
     </row>
     <row r="319" spans="1:50">
       <c r="A319" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B319" s="5">
         <v>35885</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D319" s="6">
         <v>90.557029177718803</v>
@@ -12704,7 +12704,7 @@
     </row>
     <row r="320" spans="1:50">
       <c r="A320" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B320" s="5">
         <v>35886</v>
@@ -12740,7 +12740,7 @@
     </row>
     <row r="321" spans="1:50">
       <c r="A321" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B321" s="5">
         <v>35887</v>
@@ -12773,7 +12773,7 @@
     </row>
     <row r="322" spans="1:50">
       <c r="A322" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B322" s="5">
         <v>35889</v>
@@ -12806,7 +12806,7 @@
     </row>
     <row r="323" spans="1:50">
       <c r="A323" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B323" s="5">
         <v>35890</v>
@@ -12845,7 +12845,7 @@
     </row>
     <row r="324" spans="1:50">
       <c r="A324" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B324" s="5">
         <v>35892</v>
@@ -12878,7 +12878,7 @@
     </row>
     <row r="325" spans="1:50">
       <c r="A325" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B325" s="5">
         <v>35895</v>
@@ -12911,7 +12911,7 @@
     </row>
     <row r="326" spans="1:50">
       <c r="A326" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B326" s="5">
         <v>35896</v>
@@ -12947,7 +12947,7 @@
     </row>
     <row r="327" spans="1:50">
       <c r="A327" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B327" s="5">
         <v>35897</v>
@@ -12992,7 +12992,7 @@
     </row>
     <row r="328" spans="1:50">
       <c r="A328" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B328" s="5">
         <v>35898</v>
@@ -13037,7 +13037,7 @@
     </row>
     <row r="329" spans="1:50">
       <c r="A329" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B329" s="5">
         <v>35899</v>
@@ -13076,7 +13076,7 @@
     </row>
     <row r="330" spans="1:50">
       <c r="A330" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B330" s="5">
         <v>35900</v>
@@ -13109,7 +13109,7 @@
     </row>
     <row r="331" spans="1:50">
       <c r="A331" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B331" s="5">
         <v>35903</v>
@@ -13145,7 +13145,7 @@
     </row>
     <row r="332" spans="1:50">
       <c r="A332" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B332" s="5">
         <v>35904</v>
@@ -13184,7 +13184,7 @@
     </row>
     <row r="333" spans="1:50">
       <c r="A333" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B333" s="5">
         <v>35910</v>
@@ -13220,7 +13220,7 @@
     </row>
     <row r="334" spans="1:50">
       <c r="A334" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B334" s="5">
         <v>35911</v>
@@ -13259,7 +13259,7 @@
     </row>
     <row r="335" spans="1:50">
       <c r="A335" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B335" s="5">
         <v>35912</v>
@@ -13310,7 +13310,7 @@
     </row>
     <row r="336" spans="1:50">
       <c r="A336" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B336" s="5">
         <v>35913</v>
@@ -13343,7 +13343,7 @@
     </row>
     <row r="337" spans="1:50">
       <c r="A337" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B337" s="5">
         <v>35768</v>
@@ -13376,7 +13376,7 @@
     </row>
     <row r="338" spans="1:50">
       <c r="A338" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B338" s="5">
         <v>35774</v>
@@ -13409,7 +13409,7 @@
     </row>
     <row r="339" spans="1:50">
       <c r="A339" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B339" s="5">
         <v>35782</v>
@@ -13442,7 +13442,7 @@
     </row>
     <row r="340" spans="1:50">
       <c r="A340" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B340" s="5">
         <v>35790</v>
@@ -13475,7 +13475,7 @@
     </row>
     <row r="341" spans="1:50">
       <c r="A341" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B341" s="5">
         <v>35794</v>
@@ -13508,7 +13508,7 @@
     </row>
     <row r="342" spans="1:50">
       <c r="A342" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B342" s="5">
         <v>35796</v>
@@ -13541,7 +13541,7 @@
     </row>
     <row r="343" spans="1:50">
       <c r="A343" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B343" s="5">
         <v>35801</v>
@@ -13574,7 +13574,7 @@
     </row>
     <row r="344" spans="1:50">
       <c r="A344" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B344" s="5">
         <v>35803</v>
@@ -13607,7 +13607,7 @@
     </row>
     <row r="345" spans="1:50">
       <c r="A345" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B345" s="5">
         <v>35807</v>
@@ -13640,7 +13640,7 @@
     </row>
     <row r="346" spans="1:50">
       <c r="A346" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B346" s="5">
         <v>35813</v>
@@ -13673,7 +13673,7 @@
     </row>
     <row r="347" spans="1:50">
       <c r="A347" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B347" s="5">
         <v>35815</v>
@@ -13709,7 +13709,7 @@
     </row>
     <row r="348" spans="1:50">
       <c r="A348" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B348" s="5">
         <v>35816</v>
@@ -13745,7 +13745,7 @@
     </row>
     <row r="349" spans="1:50">
       <c r="A349" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B349" s="5">
         <v>35817</v>
@@ -13784,7 +13784,7 @@
     </row>
     <row r="350" spans="1:50">
       <c r="A350" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B350" s="5">
         <v>35820</v>
@@ -13820,7 +13820,7 @@
     </row>
     <row r="351" spans="1:50">
       <c r="A351" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B351" s="5">
         <v>35821</v>
@@ -13856,7 +13856,7 @@
     </row>
     <row r="352" spans="1:50">
       <c r="A352" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B352" s="5">
         <v>35822</v>
@@ -13889,7 +13889,7 @@
     </row>
     <row r="353" spans="1:42">
       <c r="A353" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B353" s="5">
         <v>35823</v>
@@ -13922,7 +13922,7 @@
     </row>
     <row r="354" spans="1:42">
       <c r="A354" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B354" s="5">
         <v>35824</v>
@@ -13955,7 +13955,7 @@
     </row>
     <row r="355" spans="1:42">
       <c r="A355" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B355" s="5">
         <v>35827</v>
@@ -13991,7 +13991,7 @@
     </row>
     <row r="356" spans="1:42">
       <c r="A356" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B356" s="5">
         <v>35830</v>
@@ -14024,7 +14024,7 @@
     </row>
     <row r="357" spans="1:42">
       <c r="A357" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B357" s="5">
         <v>35831</v>
@@ -14060,7 +14060,7 @@
     </row>
     <row r="358" spans="1:42">
       <c r="A358" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B358" s="5">
         <v>35832</v>
@@ -14093,7 +14093,7 @@
     </row>
     <row r="359" spans="1:42">
       <c r="A359" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B359" s="5">
         <v>35834</v>
@@ -14129,7 +14129,7 @@
     </row>
     <row r="360" spans="1:42">
       <c r="A360" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B360" s="5">
         <v>35835</v>
@@ -14162,7 +14162,7 @@
     </row>
     <row r="361" spans="1:42">
       <c r="A361" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B361" s="5">
         <v>35836</v>
@@ -14195,7 +14195,7 @@
     </row>
     <row r="362" spans="1:42">
       <c r="A362" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B362" s="5">
         <v>35837</v>
@@ -14228,7 +14228,7 @@
     </row>
     <row r="363" spans="1:42">
       <c r="A363" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B363" s="5">
         <v>35838</v>
@@ -14261,7 +14261,7 @@
     </row>
     <row r="364" spans="1:42">
       <c r="A364" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B364" s="5">
         <v>35840</v>
@@ -14294,7 +14294,7 @@
     </row>
     <row r="365" spans="1:42">
       <c r="A365" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B365" s="5">
         <v>35841</v>
@@ -14336,7 +14336,7 @@
     </row>
     <row r="366" spans="1:42">
       <c r="A366" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B366" s="5">
         <v>35843</v>
@@ -14378,7 +14378,7 @@
     </row>
     <row r="367" spans="1:42">
       <c r="A367" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B367" s="5">
         <v>35844</v>
@@ -14426,7 +14426,7 @@
     </row>
     <row r="368" spans="1:42">
       <c r="A368" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B368" s="5">
         <v>35845</v>
@@ -14459,7 +14459,7 @@
     </row>
     <row r="369" spans="1:50">
       <c r="A369" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B369" s="5">
         <v>35846</v>
@@ -14489,7 +14489,7 @@
     </row>
     <row r="370" spans="1:50">
       <c r="A370" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B370" s="5">
         <v>35848</v>
@@ -14522,7 +14522,7 @@
     </row>
     <row r="371" spans="1:50">
       <c r="A371" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B371" s="5">
         <v>35850</v>
@@ -14555,7 +14555,7 @@
     </row>
     <row r="372" spans="1:50">
       <c r="A372" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B372" s="5">
         <v>35851</v>
@@ -14594,7 +14594,7 @@
     </row>
     <row r="373" spans="1:50">
       <c r="A373" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B373" s="5">
         <v>35852</v>
@@ -14627,7 +14627,7 @@
     </row>
     <row r="374" spans="1:50">
       <c r="A374" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B374" s="5">
         <v>35854</v>
@@ -14669,7 +14669,7 @@
     </row>
     <row r="375" spans="1:50">
       <c r="A375" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B375" s="5">
         <v>35856</v>
@@ -14705,7 +14705,7 @@
     </row>
     <row r="376" spans="1:50">
       <c r="A376" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B376" s="5">
         <v>35857</v>
@@ -14756,7 +14756,7 @@
     </row>
     <row r="377" spans="1:50">
       <c r="A377" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B377" s="5">
         <v>35858</v>
@@ -14801,7 +14801,7 @@
     </row>
     <row r="378" spans="1:50">
       <c r="A378" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B378" s="5">
         <v>35859</v>
@@ -14834,7 +14834,7 @@
     </row>
     <row r="379" spans="1:50">
       <c r="A379" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B379" s="5">
         <v>35860</v>
@@ -14873,7 +14873,7 @@
     </row>
     <row r="380" spans="1:50">
       <c r="A380" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B380" s="5">
         <v>35861</v>
@@ -14906,7 +14906,7 @@
     </row>
     <row r="381" spans="1:50">
       <c r="A381" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B381" s="5">
         <v>35862</v>
@@ -14939,7 +14939,7 @@
     </row>
     <row r="382" spans="1:50">
       <c r="A382" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B382" s="5">
         <v>35863</v>
@@ -14972,7 +14972,7 @@
     </row>
     <row r="383" spans="1:50">
       <c r="A383" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B383" s="5">
         <v>35864</v>
@@ -15008,7 +15008,7 @@
     </row>
     <row r="384" spans="1:50">
       <c r="A384" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B384" s="5">
         <v>35865</v>
@@ -15041,7 +15041,7 @@
     </row>
     <row r="385" spans="1:50">
       <c r="A385" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B385" s="5">
         <v>35866</v>
@@ -15074,7 +15074,7 @@
     </row>
     <row r="386" spans="1:50">
       <c r="A386" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B386" s="5">
         <v>35868</v>
@@ -15107,7 +15107,7 @@
     </row>
     <row r="387" spans="1:50">
       <c r="A387" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B387" s="5">
         <v>35869</v>
@@ -15143,7 +15143,7 @@
     </row>
     <row r="388" spans="1:50">
       <c r="A388" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B388" s="5">
         <v>35871</v>
@@ -15191,7 +15191,7 @@
     </row>
     <row r="389" spans="1:50">
       <c r="A389" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B389" s="5">
         <v>35873</v>
@@ -15227,7 +15227,7 @@
     </row>
     <row r="390" spans="1:50">
       <c r="A390" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B390" s="5">
         <v>35874</v>
@@ -15263,7 +15263,7 @@
     </row>
     <row r="391" spans="1:50">
       <c r="A391" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B391" s="5">
         <v>35876</v>
@@ -15299,13 +15299,13 @@
     </row>
     <row r="392" spans="1:50">
       <c r="A392" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B392" s="5">
         <v>35877</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D392" s="6">
         <v>109.526726057906</v>
@@ -15398,7 +15398,7 @@
     </row>
     <row r="393" spans="1:50">
       <c r="A393" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B393" s="5">
         <v>35878</v>
@@ -15434,7 +15434,7 @@
     </row>
     <row r="394" spans="1:50">
       <c r="A394" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B394" s="5">
         <v>35768</v>
@@ -15467,7 +15467,7 @@
     </row>
     <row r="395" spans="1:50">
       <c r="A395" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B395" s="5">
         <v>35773</v>
@@ -15500,7 +15500,7 @@
     </row>
     <row r="396" spans="1:50">
       <c r="A396" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B396" s="5">
         <v>35781</v>
@@ -15533,7 +15533,7 @@
     </row>
     <row r="397" spans="1:50">
       <c r="A397" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B397" s="5">
         <v>35790</v>
@@ -15566,7 +15566,7 @@
     </row>
     <row r="398" spans="1:50">
       <c r="A398" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B398" s="5">
         <v>35794</v>
@@ -15599,7 +15599,7 @@
     </row>
     <row r="399" spans="1:50">
       <c r="A399" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B399" s="5">
         <v>35796</v>
@@ -15632,7 +15632,7 @@
     </row>
     <row r="400" spans="1:50">
       <c r="A400" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B400" s="5">
         <v>35800</v>
@@ -15665,7 +15665,7 @@
     </row>
     <row r="401" spans="1:36">
       <c r="A401" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B401" s="5">
         <v>35804</v>
@@ -15698,7 +15698,7 @@
     </row>
     <row r="402" spans="1:36">
       <c r="A402" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B402" s="5">
         <v>35808</v>
@@ -15731,7 +15731,7 @@
     </row>
     <row r="403" spans="1:36">
       <c r="A403" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B403" s="5">
         <v>35813</v>
@@ -15764,7 +15764,7 @@
     </row>
     <row r="404" spans="1:36">
       <c r="A404" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B404" s="5">
         <v>35814</v>
@@ -15797,7 +15797,7 @@
     </row>
     <row r="405" spans="1:36">
       <c r="A405" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B405" s="5">
         <v>35815</v>
@@ -15854,7 +15854,7 @@
     </row>
     <row r="406" spans="1:36">
       <c r="A406" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B406" s="5">
         <v>35816</v>
@@ -15893,7 +15893,7 @@
     </row>
     <row r="407" spans="1:36">
       <c r="A407" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B407" s="5">
         <v>35817</v>
@@ -15932,7 +15932,7 @@
     </row>
     <row r="408" spans="1:36">
       <c r="A408" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B408" s="5">
         <v>35819</v>
@@ -15965,7 +15965,7 @@
     </row>
     <row r="409" spans="1:36">
       <c r="A409" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B409" s="5">
         <v>35821</v>
@@ -16007,7 +16007,7 @@
     </row>
     <row r="410" spans="1:36">
       <c r="A410" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B410" s="5">
         <v>35822</v>
@@ -16040,7 +16040,7 @@
     </row>
     <row r="411" spans="1:36">
       <c r="A411" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B411" s="5">
         <v>35824</v>
@@ -16073,7 +16073,7 @@
     </row>
     <row r="412" spans="1:36">
       <c r="A412" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B412" s="5">
         <v>35828</v>
@@ -16109,7 +16109,7 @@
     </row>
     <row r="413" spans="1:36">
       <c r="A413" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B413" s="5">
         <v>35829</v>
@@ -16142,7 +16142,7 @@
     </row>
     <row r="414" spans="1:36">
       <c r="A414" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B414" s="5">
         <v>35830</v>
@@ -16175,7 +16175,7 @@
     </row>
     <row r="415" spans="1:36">
       <c r="A415" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B415" s="5">
         <v>35831</v>
@@ -16208,7 +16208,7 @@
     </row>
     <row r="416" spans="1:36">
       <c r="A416" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B416" s="5">
         <v>35832</v>
@@ -16244,7 +16244,7 @@
     </row>
     <row r="417" spans="1:42">
       <c r="A417" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B417" s="5">
         <v>35833</v>
@@ -16277,7 +16277,7 @@
     </row>
     <row r="418" spans="1:42">
       <c r="A418" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B418" s="5">
         <v>35835</v>
@@ -16316,7 +16316,7 @@
     </row>
     <row r="419" spans="1:42">
       <c r="A419" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B419" s="5">
         <v>35836</v>
@@ -16352,7 +16352,7 @@
     </row>
     <row r="420" spans="1:42">
       <c r="A420" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B420" s="5">
         <v>35839</v>
@@ -16388,7 +16388,7 @@
     </row>
     <row r="421" spans="1:42">
       <c r="A421" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B421" s="5">
         <v>35840</v>
@@ -16421,7 +16421,7 @@
     </row>
     <row r="422" spans="1:42">
       <c r="A422" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B422" s="5">
         <v>35841</v>
@@ -16454,7 +16454,7 @@
     </row>
     <row r="423" spans="1:42">
       <c r="A423" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B423" s="5">
         <v>35842</v>
@@ -16493,7 +16493,7 @@
     </row>
     <row r="424" spans="1:42">
       <c r="A424" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B424" s="5">
         <v>35843</v>
@@ -16562,7 +16562,7 @@
     </row>
     <row r="425" spans="1:42">
       <c r="A425" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B425" s="5">
         <v>35844</v>
@@ -16604,7 +16604,7 @@
     </row>
     <row r="426" spans="1:42">
       <c r="A426" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B426" s="5">
         <v>35846</v>
@@ -16637,7 +16637,7 @@
     </row>
     <row r="427" spans="1:42">
       <c r="A427" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B427" s="5">
         <v>35848</v>
@@ -16670,7 +16670,7 @@
     </row>
     <row r="428" spans="1:42">
       <c r="A428" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B428" s="5">
         <v>35849</v>
@@ -16709,7 +16709,7 @@
     </row>
     <row r="429" spans="1:42">
       <c r="A429" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B429" s="5">
         <v>35852</v>
@@ -16745,7 +16745,7 @@
     </row>
     <row r="430" spans="1:42">
       <c r="A430" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B430" s="5">
         <v>35853</v>
@@ -16778,7 +16778,7 @@
     </row>
     <row r="431" spans="1:42">
       <c r="A431" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B431" s="5">
         <v>35854</v>
@@ -16817,7 +16817,7 @@
     </row>
     <row r="432" spans="1:42">
       <c r="A432" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B432" s="5">
         <v>35855</v>
@@ -16850,7 +16850,7 @@
     </row>
     <row r="433" spans="1:49">
       <c r="A433" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B433" s="5">
         <v>35856</v>
@@ -16886,7 +16886,7 @@
     </row>
     <row r="434" spans="1:49">
       <c r="A434" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B434" s="5">
         <v>35857</v>
@@ -16940,7 +16940,7 @@
     </row>
     <row r="435" spans="1:49">
       <c r="A435" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B435" s="5">
         <v>35858</v>
@@ -16979,7 +16979,7 @@
     </row>
     <row r="436" spans="1:49">
       <c r="A436" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B436" s="5">
         <v>35859</v>
@@ -17012,7 +17012,7 @@
     </row>
     <row r="437" spans="1:49">
       <c r="A437" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B437" s="5">
         <v>35860</v>
@@ -17048,7 +17048,7 @@
     </row>
     <row r="438" spans="1:49">
       <c r="A438" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B438" s="5">
         <v>35861</v>
@@ -17105,7 +17105,7 @@
     </row>
     <row r="439" spans="1:49">
       <c r="A439" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B439" s="5">
         <v>35863</v>
@@ -17138,7 +17138,7 @@
     </row>
     <row r="440" spans="1:49">
       <c r="A440" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B440" s="5">
         <v>35864</v>
@@ -17174,7 +17174,7 @@
     </row>
     <row r="441" spans="1:49">
       <c r="A441" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B441" s="5">
         <v>35865</v>
@@ -17210,7 +17210,7 @@
     </row>
     <row r="442" spans="1:49">
       <c r="A442" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B442" s="5">
         <v>35867</v>
@@ -17246,7 +17246,7 @@
     </row>
     <row r="443" spans="1:49">
       <c r="A443" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B443" s="5">
         <v>35869</v>
@@ -17294,13 +17294,13 @@
     </row>
     <row r="444" spans="1:49">
       <c r="A444" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B444" s="5">
         <v>35870</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D444" s="6">
         <v>102.83020062021301</v>
@@ -17408,7 +17408,7 @@
     </row>
     <row r="445" spans="1:49">
       <c r="A445" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B445" s="5">
         <v>35768</v>
@@ -17441,7 +17441,7 @@
     </row>
     <row r="446" spans="1:49">
       <c r="A446" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B446" s="5">
         <v>35774</v>
@@ -17474,7 +17474,7 @@
     </row>
     <row r="447" spans="1:49">
       <c r="A447" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B447" s="5">
         <v>35776</v>
@@ -17507,7 +17507,7 @@
     </row>
     <row r="448" spans="1:49">
       <c r="A448" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B448" s="5">
         <v>35781</v>
@@ -17540,7 +17540,7 @@
     </row>
     <row r="449" spans="1:50">
       <c r="A449" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B449" s="5">
         <v>35790</v>
@@ -17573,7 +17573,7 @@
     </row>
     <row r="450" spans="1:50">
       <c r="A450" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B450" s="5">
         <v>35795</v>
@@ -17606,7 +17606,7 @@
     </row>
     <row r="451" spans="1:50">
       <c r="A451" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B451" s="5">
         <v>35797</v>
@@ -17639,7 +17639,7 @@
     </row>
     <row r="452" spans="1:50">
       <c r="A452" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B452" s="5">
         <v>35801</v>
@@ -17672,7 +17672,7 @@
     </row>
     <row r="453" spans="1:50">
       <c r="A453" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B453" s="5">
         <v>35803</v>
@@ -17705,7 +17705,7 @@
     </row>
     <row r="454" spans="1:50">
       <c r="A454" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B454" s="5">
         <v>35806</v>
@@ -17762,7 +17762,7 @@
     </row>
     <row r="455" spans="1:50">
       <c r="A455" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B455" s="5">
         <v>35808</v>
@@ -17795,7 +17795,7 @@
     </row>
     <row r="456" spans="1:50">
       <c r="A456" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B456" s="5">
         <v>35813</v>
@@ -17828,7 +17828,7 @@
     </row>
     <row r="457" spans="1:50">
       <c r="A457" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B457" s="5">
         <v>35814</v>
@@ -17864,7 +17864,7 @@
     </row>
     <row r="458" spans="1:50">
       <c r="A458" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B458" s="5">
         <v>35816</v>
@@ -17921,7 +17921,7 @@
     </row>
     <row r="459" spans="1:50">
       <c r="A459" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B459" s="5">
         <v>35817</v>
@@ -17966,7 +17966,7 @@
     </row>
     <row r="460" spans="1:50">
       <c r="A460" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B460" s="5">
         <v>35818</v>
@@ -17999,7 +17999,7 @@
     </row>
     <row r="461" spans="1:50">
       <c r="A461" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B461" s="5">
         <v>35820</v>
@@ -18032,7 +18032,7 @@
     </row>
     <row r="462" spans="1:50">
       <c r="A462" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B462" s="5">
         <v>35821</v>
@@ -18068,7 +18068,7 @@
     </row>
     <row r="463" spans="1:50">
       <c r="A463" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B463" s="5">
         <v>35824</v>
@@ -18104,7 +18104,7 @@
     </row>
     <row r="464" spans="1:50">
       <c r="A464" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B464" s="5">
         <v>35825</v>
@@ -18137,7 +18137,7 @@
     </row>
     <row r="465" spans="1:50">
       <c r="A465" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B465" s="5">
         <v>35826</v>
@@ -18173,7 +18173,7 @@
     </row>
     <row r="466" spans="1:50">
       <c r="A466" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B466" s="5">
         <v>35828</v>
@@ -18215,7 +18215,7 @@
     </row>
     <row r="467" spans="1:50">
       <c r="A467" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B467" s="5">
         <v>35829</v>
@@ -18248,7 +18248,7 @@
     </row>
     <row r="468" spans="1:50">
       <c r="A468" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B468" s="5">
         <v>35831</v>
@@ -18281,7 +18281,7 @@
     </row>
     <row r="469" spans="1:50">
       <c r="A469" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B469" s="5">
         <v>35832</v>
@@ -18317,7 +18317,7 @@
     </row>
     <row r="470" spans="1:50">
       <c r="A470" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B470" s="5">
         <v>35834</v>
@@ -18353,7 +18353,7 @@
     </row>
     <row r="471" spans="1:50">
       <c r="A471" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B471" s="5">
         <v>35835</v>
@@ -18389,7 +18389,7 @@
     </row>
     <row r="472" spans="1:50">
       <c r="A472" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B472" s="5">
         <v>35836</v>
@@ -18422,7 +18422,7 @@
     </row>
     <row r="473" spans="1:50">
       <c r="A473" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B473" s="5">
         <v>35838</v>
@@ -18458,7 +18458,7 @@
     </row>
     <row r="474" spans="1:50">
       <c r="A474" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B474" s="5">
         <v>35839</v>
@@ -18491,7 +18491,7 @@
     </row>
     <row r="475" spans="1:50">
       <c r="A475" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B475" s="5">
         <v>35841</v>
@@ -18533,7 +18533,7 @@
     </row>
     <row r="476" spans="1:50">
       <c r="A476" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B476" s="5">
         <v>35842</v>
@@ -18569,7 +18569,7 @@
     </row>
     <row r="477" spans="1:50">
       <c r="A477" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B477" s="5">
         <v>35844</v>
@@ -18617,7 +18617,7 @@
     </row>
     <row r="478" spans="1:50">
       <c r="A478" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B478" s="5">
         <v>35845</v>
@@ -18650,7 +18650,7 @@
     </row>
     <row r="479" spans="1:50">
       <c r="A479" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B479" s="5">
         <v>35846</v>
@@ -18710,7 +18710,7 @@
     </row>
     <row r="480" spans="1:50">
       <c r="A480" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B480" s="5">
         <v>35848</v>
@@ -18749,7 +18749,7 @@
     </row>
     <row r="481" spans="1:50">
       <c r="A481" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B481" s="5">
         <v>35849</v>
@@ -18782,7 +18782,7 @@
     </row>
     <row r="482" spans="1:50">
       <c r="A482" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B482" s="5">
         <v>35851</v>
@@ -18815,7 +18815,7 @@
     </row>
     <row r="483" spans="1:50">
       <c r="A483" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B483" s="5">
         <v>35852</v>
@@ -18854,7 +18854,7 @@
     </row>
     <row r="484" spans="1:50">
       <c r="A484" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B484" s="5">
         <v>35853</v>
@@ -18887,7 +18887,7 @@
     </row>
     <row r="485" spans="1:50">
       <c r="A485" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B485" s="5">
         <v>35854</v>
@@ -18920,7 +18920,7 @@
     </row>
     <row r="486" spans="1:50">
       <c r="A486" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B486" s="5">
         <v>35855</v>
@@ -18962,7 +18962,7 @@
     </row>
     <row r="487" spans="1:50">
       <c r="A487" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B487" s="5">
         <v>35856</v>
@@ -18998,7 +18998,7 @@
     </row>
     <row r="488" spans="1:50">
       <c r="A488" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B488" s="5">
         <v>35857</v>
@@ -19034,7 +19034,7 @@
     </row>
     <row r="489" spans="1:50">
       <c r="A489" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B489" s="5">
         <v>35858</v>
@@ -19067,7 +19067,7 @@
     </row>
     <row r="490" spans="1:50">
       <c r="A490" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B490" s="5">
         <v>35859</v>
@@ -19106,7 +19106,7 @@
     </row>
     <row r="491" spans="1:50">
       <c r="A491" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B491" s="5">
         <v>35860</v>
@@ -19142,7 +19142,7 @@
     </row>
     <row r="492" spans="1:50">
       <c r="A492" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B492" s="5">
         <v>35862</v>
@@ -19175,7 +19175,7 @@
     </row>
     <row r="493" spans="1:50">
       <c r="A493" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B493" s="5">
         <v>35864</v>
@@ -19217,7 +19217,7 @@
     </row>
     <row r="494" spans="1:50">
       <c r="A494" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B494" s="5">
         <v>35865</v>
@@ -19259,13 +19259,13 @@
     </row>
     <row r="495" spans="1:50">
       <c r="A495" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B495" s="5">
         <v>35866</v>
       </c>
       <c r="C495" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D495" s="6">
         <v>98.832891246684298</v>
@@ -19367,7 +19367,7 @@
     </row>
     <row r="496" spans="1:50">
       <c r="A496" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B496" s="5">
         <v>35867</v>
@@ -19403,7 +19403,7 @@
     </row>
     <row r="497" spans="1:36">
       <c r="A497" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B497" s="5">
         <v>35868</v>
@@ -19436,7 +19436,7 @@
     </row>
     <row r="498" spans="1:36">
       <c r="A498" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B498" s="5">
         <v>35870</v>
@@ -19469,7 +19469,7 @@
     </row>
     <row r="499" spans="1:36">
       <c r="A499" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B499" s="5">
         <v>35874</v>

--- a/Prototypes/Mungbean/Exp3observed.xlsx
+++ b/Prototypes/Mungbean/Exp3observed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2422440E-FAA1-458C-8F3E-6C5DF929838C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753656D7-8488-4D61-BD01-3500FA76450C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C69385E-AA3F-4CF3-AF00-E1E4599E61EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C69385E-AA3F-4CF3-AF00-E1E4599E61EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>Clock.Today</t>
   </si>
   <si>
-    <t>Soybean.DaysAfterSowing</t>
-  </si>
-  <si>
     <t>SW10</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
   </si>
   <si>
     <t>Soybean.Leaf.LAI</t>
-  </si>
-  <si>
-    <t>Trifoliate Number</t>
   </si>
   <si>
     <t>Soybean.AboveGroundLive.Wt</t>
@@ -216,6 +210,12 @@
   </si>
   <si>
     <t>exp3SowDec3ROCultivarEmerald</t>
+  </si>
+  <si>
+    <t>Soybean.leaf.NodeNumber</t>
+  </si>
+  <si>
+    <t>Days after Sowing (usually first sowing)</t>
   </si>
 </sst>
 </file>
@@ -600,9 +600,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21968B1A-9F2D-47BD-B4B3-097E93366914}">
   <dimension ref="A1:AX499"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -619,153 +619,153 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AT1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AU1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AV1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AW1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:50">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="5">
         <v>35782</v>
@@ -813,10 +813,10 @@
     </row>
     <row r="3" spans="1:50">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="5">
-        <v>35804</v>
+        <v>35790</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6">
@@ -846,10 +846,10 @@
     </row>
     <row r="4" spans="1:50">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" s="5">
-        <v>35809</v>
+        <v>35795</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="6">
@@ -879,10 +879,10 @@
     </row>
     <row r="5" spans="1:50">
       <c r="A5" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" s="5">
-        <v>35811</v>
+        <v>35797</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6">
@@ -912,10 +912,10 @@
     </row>
     <row r="6" spans="1:50">
       <c r="A6" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6" s="5">
-        <v>35814</v>
+        <v>35800</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6">
@@ -945,10 +945,10 @@
     </row>
     <row r="7" spans="1:50">
       <c r="A7" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7" s="5">
-        <v>35817</v>
+        <v>35803</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6">
@@ -978,10 +978,10 @@
     </row>
     <row r="8" spans="1:50">
       <c r="A8" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" s="5">
-        <v>35821</v>
+        <v>35807</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6">
@@ -1011,10 +1011,10 @@
     </row>
     <row r="9" spans="1:50">
       <c r="A9" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5">
-        <v>35826</v>
+        <v>35812</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6">
@@ -1048,10 +1048,10 @@
     </row>
     <row r="10" spans="1:50">
       <c r="A10" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5">
-        <v>35827</v>
+        <v>35813</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6">
@@ -1081,10 +1081,10 @@
     </row>
     <row r="11" spans="1:50">
       <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" s="5">
-        <v>35829</v>
+        <v>35815</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6">
@@ -1114,10 +1114,10 @@
     </row>
     <row r="12" spans="1:50">
       <c r="A12" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" s="5">
-        <v>35830</v>
+        <v>35816</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="6">
@@ -1150,10 +1150,10 @@
     </row>
     <row r="13" spans="1:50">
       <c r="A13" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" s="5">
-        <v>35831</v>
+        <v>35817</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="6">
@@ -1183,10 +1183,10 @@
     </row>
     <row r="14" spans="1:50">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B14" s="5">
-        <v>35832</v>
+        <v>35818</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6">
@@ -1216,10 +1216,10 @@
     </row>
     <row r="15" spans="1:50">
       <c r="A15" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" s="5">
-        <v>35834</v>
+        <v>35820</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6">
@@ -1249,10 +1249,10 @@
     </row>
     <row r="16" spans="1:50">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B16" s="5">
-        <v>35838</v>
+        <v>35824</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="6">
@@ -1282,10 +1282,10 @@
     </row>
     <row r="17" spans="1:50">
       <c r="A17" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B17" s="5">
-        <v>35842</v>
+        <v>35828</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6">
@@ -1315,10 +1315,10 @@
     </row>
     <row r="18" spans="1:50">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B18" s="5">
-        <v>35844</v>
+        <v>35830</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="6">
@@ -1354,10 +1354,10 @@
     </row>
     <row r="19" spans="1:50">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B19" s="5">
-        <v>35845</v>
+        <v>35831</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="6">
@@ -1384,10 +1384,10 @@
     </row>
     <row r="20" spans="1:50">
       <c r="A20" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B20" s="5">
-        <v>35847</v>
+        <v>35833</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="6">
@@ -1420,10 +1420,10 @@
     </row>
     <row r="21" spans="1:50">
       <c r="A21" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B21" s="5">
-        <v>35848</v>
+        <v>35834</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="6">
@@ -1453,10 +1453,10 @@
     </row>
     <row r="22" spans="1:50">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" s="5">
-        <v>35850</v>
+        <v>35836</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="6">
@@ -1486,10 +1486,10 @@
     </row>
     <row r="23" spans="1:50">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B23" s="5">
-        <v>35851</v>
+        <v>35837</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="6">
@@ -1525,10 +1525,10 @@
     </row>
     <row r="24" spans="1:50">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B24" s="5">
-        <v>35853</v>
+        <v>35839</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="6">
@@ -1558,10 +1558,10 @@
     </row>
     <row r="25" spans="1:50">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B25" s="5">
-        <v>35854</v>
+        <v>35840</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="6">
@@ -1594,10 +1594,10 @@
     </row>
     <row r="26" spans="1:50">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" s="5">
-        <v>35856</v>
+        <v>35842</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="6">
@@ -1636,10 +1636,10 @@
     </row>
     <row r="27" spans="1:50">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B27" s="5">
-        <v>35857</v>
+        <v>35843</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="6">
@@ -1675,10 +1675,10 @@
     </row>
     <row r="28" spans="1:50">
       <c r="A28" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28" s="5">
-        <v>35858</v>
+        <v>35844</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="6">
@@ -1720,10 +1720,10 @@
     </row>
     <row r="29" spans="1:50">
       <c r="A29" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B29" s="5">
-        <v>35859</v>
+        <v>35845</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6">
@@ -1756,10 +1756,10 @@
     </row>
     <row r="30" spans="1:50">
       <c r="A30" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B30" s="5">
-        <v>35862</v>
+        <v>35848</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="6">
@@ -1789,10 +1789,10 @@
     </row>
     <row r="31" spans="1:50">
       <c r="A31" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B31" s="5">
-        <v>35864</v>
+        <v>35850</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="6">
@@ -1825,10 +1825,10 @@
     </row>
     <row r="32" spans="1:50">
       <c r="A32" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B32" s="5">
-        <v>35865</v>
+        <v>35851</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="6">
@@ -1858,10 +1858,10 @@
     </row>
     <row r="33" spans="1:48">
       <c r="A33" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B33" s="5">
-        <v>35866</v>
+        <v>35852</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="6">
@@ -1894,10 +1894,10 @@
     </row>
     <row r="34" spans="1:48">
       <c r="A34" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B34" s="5">
-        <v>35867</v>
+        <v>35853</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="6">
@@ -1927,10 +1927,10 @@
     </row>
     <row r="35" spans="1:48">
       <c r="A35" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B35" s="5">
-        <v>35868</v>
+        <v>35854</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="6">
@@ -1963,10 +1963,10 @@
     </row>
     <row r="36" spans="1:48">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B36" s="5">
-        <v>35869</v>
+        <v>35855</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="6">
@@ -1996,10 +1996,10 @@
     </row>
     <row r="37" spans="1:48">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B37" s="5">
-        <v>35870</v>
+        <v>35856</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="6">
@@ -2032,10 +2032,10 @@
     </row>
     <row r="38" spans="1:48">
       <c r="A38" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B38" s="5">
-        <v>35871</v>
+        <v>35857</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="6">
@@ -2092,10 +2092,10 @@
     </row>
     <row r="39" spans="1:48">
       <c r="A39" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B39" s="5">
-        <v>35872</v>
+        <v>35858</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="6">
@@ -2128,10 +2128,10 @@
     </row>
     <row r="40" spans="1:48">
       <c r="A40" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B40" s="5">
-        <v>35873</v>
+        <v>35859</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="6">
@@ -2161,10 +2161,10 @@
     </row>
     <row r="41" spans="1:48">
       <c r="A41" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B41" s="5">
-        <v>35874</v>
+        <v>35860</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="6">
@@ -2194,10 +2194,10 @@
     </row>
     <row r="42" spans="1:48">
       <c r="A42" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B42" s="5">
-        <v>35875</v>
+        <v>35861</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="6">
@@ -2227,10 +2227,10 @@
     </row>
     <row r="43" spans="1:48">
       <c r="A43" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B43" s="5">
-        <v>35876</v>
+        <v>35862</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="6">
@@ -2260,10 +2260,10 @@
     </row>
     <row r="44" spans="1:48">
       <c r="A44" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B44" s="5">
-        <v>35877</v>
+        <v>35863</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="6">
@@ -2293,10 +2293,10 @@
     </row>
     <row r="45" spans="1:48">
       <c r="A45" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B45" s="5">
-        <v>35878</v>
+        <v>35864</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="6">
@@ -2329,10 +2329,10 @@
     </row>
     <row r="46" spans="1:48">
       <c r="A46" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B46" s="5">
-        <v>35879</v>
+        <v>35865</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="6">
@@ -2362,10 +2362,10 @@
     </row>
     <row r="47" spans="1:48">
       <c r="A47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B47" s="5">
-        <v>35880</v>
+        <v>35866</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="6">
@@ -2395,10 +2395,10 @@
     </row>
     <row r="48" spans="1:48">
       <c r="A48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B48" s="5">
-        <v>35882</v>
+        <v>35868</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="6">
@@ -2425,10 +2425,10 @@
     </row>
     <row r="49" spans="1:49" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B49" s="5">
-        <v>35883</v>
+        <v>35869</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="6">
@@ -2458,10 +2458,10 @@
     </row>
     <row r="50" spans="1:49">
       <c r="A50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B50" s="5">
-        <v>35884</v>
+        <v>35870</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="6">
@@ -2497,13 +2497,13 @@
     </row>
     <row r="51" spans="1:49">
       <c r="A51" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B51" s="5">
-        <v>35885</v>
+        <v>35871</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D51" s="6">
         <v>104.081291759465</v>
@@ -2575,10 +2575,10 @@
     </row>
     <row r="52" spans="1:49">
       <c r="A52" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52" s="5">
-        <v>35886</v>
+        <v>35872</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="6">
@@ -2608,10 +2608,10 @@
     </row>
     <row r="53" spans="1:49">
       <c r="A53" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B53" s="5">
-        <v>35887</v>
+        <v>35873</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="6">
@@ -2641,10 +2641,10 @@
     </row>
     <row r="54" spans="1:49">
       <c r="A54" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B54" s="5">
-        <v>35890</v>
+        <v>35876</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="6">
@@ -2674,10 +2674,10 @@
     </row>
     <row r="55" spans="1:49">
       <c r="A55" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B55" s="5">
-        <v>35891</v>
+        <v>35877</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="6">
@@ -2707,10 +2707,10 @@
     </row>
     <row r="56" spans="1:49">
       <c r="A56" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B56" s="5">
-        <v>35892</v>
+        <v>35878</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="6">
@@ -2740,10 +2740,10 @@
     </row>
     <row r="57" spans="1:49">
       <c r="A57" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B57" s="5">
-        <v>35893</v>
+        <v>35879</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="6">
@@ -2776,10 +2776,10 @@
     </row>
     <row r="58" spans="1:49">
       <c r="A58" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B58" s="5">
-        <v>35895</v>
+        <v>35881</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="6">
@@ -2812,10 +2812,10 @@
     </row>
     <row r="59" spans="1:49">
       <c r="A59" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B59" s="5">
-        <v>35896</v>
+        <v>35882</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="6">
@@ -2869,10 +2869,10 @@
     </row>
     <row r="60" spans="1:49">
       <c r="A60" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B60" s="5">
-        <v>35898</v>
+        <v>35884</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="6">
@@ -2902,10 +2902,10 @@
     </row>
     <row r="61" spans="1:49">
       <c r="A61" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B61" s="5">
-        <v>35899</v>
+        <v>35885</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="6">
@@ -2941,10 +2941,10 @@
     </row>
     <row r="62" spans="1:49">
       <c r="A62" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B62" s="5">
-        <v>35900</v>
+        <v>35886</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="6">
@@ -2977,7 +2977,7 @@
     </row>
     <row r="63" spans="1:49">
       <c r="A63" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B63" s="5">
         <v>35782</v>
@@ -3010,10 +3010,10 @@
     </row>
     <row r="64" spans="1:49">
       <c r="A64" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B64" s="5">
-        <v>35804</v>
+        <v>35790</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="6">
@@ -3043,10 +3043,10 @@
     </row>
     <row r="65" spans="1:36">
       <c r="A65" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B65" s="5">
-        <v>35809</v>
+        <v>35795</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="6">
@@ -3076,10 +3076,10 @@
     </row>
     <row r="66" spans="1:36">
       <c r="A66" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B66" s="5">
-        <v>35811</v>
+        <v>35797</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="6">
@@ -3109,10 +3109,10 @@
     </row>
     <row r="67" spans="1:36">
       <c r="A67" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B67" s="5">
-        <v>35815</v>
+        <v>35801</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="6">
@@ -3142,10 +3142,10 @@
     </row>
     <row r="68" spans="1:36">
       <c r="A68" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B68" s="5">
-        <v>35817</v>
+        <v>35803</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="6">
@@ -3175,10 +3175,10 @@
     </row>
     <row r="69" spans="1:36">
       <c r="A69" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B69" s="5">
-        <v>35821</v>
+        <v>35807</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="6">
@@ -3208,10 +3208,10 @@
     </row>
     <row r="70" spans="1:36">
       <c r="A70" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B70" s="5">
-        <v>35827</v>
+        <v>35813</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="6">
@@ -3241,10 +3241,10 @@
     </row>
     <row r="71" spans="1:36">
       <c r="A71" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B71" s="5">
-        <v>35829</v>
+        <v>35815</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="6">
@@ -3298,10 +3298,10 @@
     </row>
     <row r="72" spans="1:36">
       <c r="A72" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B72" s="5">
-        <v>35830</v>
+        <v>35816</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="6">
@@ -3334,10 +3334,10 @@
     </row>
     <row r="73" spans="1:36">
       <c r="A73" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B73" s="5">
-        <v>35831</v>
+        <v>35817</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="6">
@@ -3370,10 +3370,10 @@
     </row>
     <row r="74" spans="1:36">
       <c r="A74" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B74" s="5">
-        <v>35832</v>
+        <v>35818</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="6">
@@ -3403,10 +3403,10 @@
     </row>
     <row r="75" spans="1:36">
       <c r="A75" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B75" s="5">
-        <v>35834</v>
+        <v>35820</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="6">
@@ -3436,10 +3436,10 @@
     </row>
     <row r="76" spans="1:36">
       <c r="A76" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B76" s="5">
-        <v>35838</v>
+        <v>35824</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="6">
@@ -3469,10 +3469,10 @@
     </row>
     <row r="77" spans="1:36">
       <c r="A77" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B77" s="5">
-        <v>35843</v>
+        <v>35829</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="6">
@@ -3508,10 +3508,10 @@
     </row>
     <row r="78" spans="1:36">
       <c r="A78" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B78" s="5">
-        <v>35844</v>
+        <v>35830</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="6">
@@ -3544,10 +3544,10 @@
     </row>
     <row r="79" spans="1:36">
       <c r="A79" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B79" s="5">
-        <v>35845</v>
+        <v>35831</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="6">
@@ -3580,10 +3580,10 @@
     </row>
     <row r="80" spans="1:36">
       <c r="A80" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B80" s="5">
-        <v>35846</v>
+        <v>35832</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="6">
@@ -3613,10 +3613,10 @@
     </row>
     <row r="81" spans="1:42">
       <c r="A81" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B81" s="5">
-        <v>35847</v>
+        <v>35833</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="6">
@@ -3649,10 +3649,10 @@
     </row>
     <row r="82" spans="1:42">
       <c r="A82" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B82" s="5">
-        <v>35849</v>
+        <v>35835</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="6">
@@ -3685,10 +3685,10 @@
     </row>
     <row r="83" spans="1:42">
       <c r="A83" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B83" s="5">
-        <v>35850</v>
+        <v>35836</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="6">
@@ -3721,10 +3721,10 @@
     </row>
     <row r="84" spans="1:42">
       <c r="A84" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B84" s="5">
-        <v>35852</v>
+        <v>35838</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="6">
@@ -3754,10 +3754,10 @@
     </row>
     <row r="85" spans="1:42">
       <c r="A85" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B85" s="5">
-        <v>35853</v>
+        <v>35839</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="6">
@@ -3787,10 +3787,10 @@
     </row>
     <row r="86" spans="1:42">
       <c r="A86" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B86" s="5">
-        <v>35854</v>
+        <v>35840</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="6">
@@ -3823,10 +3823,10 @@
     </row>
     <row r="87" spans="1:42">
       <c r="A87" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B87" s="5">
-        <v>35855</v>
+        <v>35841</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="6">
@@ -3856,10 +3856,10 @@
     </row>
     <row r="88" spans="1:42">
       <c r="A88" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B88" s="5">
-        <v>35856</v>
+        <v>35842</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="6">
@@ -3895,10 +3895,10 @@
     </row>
     <row r="89" spans="1:42">
       <c r="A89" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B89" s="5">
-        <v>35857</v>
+        <v>35843</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="6">
@@ -3967,10 +3967,10 @@
     </row>
     <row r="90" spans="1:42">
       <c r="A90" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B90" s="5">
-        <v>35858</v>
+        <v>35844</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="6">
@@ -4012,10 +4012,10 @@
     </row>
     <row r="91" spans="1:42">
       <c r="A91" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B91" s="5">
-        <v>35860</v>
+        <v>35846</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="6">
@@ -4045,10 +4045,10 @@
     </row>
     <row r="92" spans="1:42">
       <c r="A92" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B92" s="5">
-        <v>35862</v>
+        <v>35848</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="6">
@@ -4081,10 +4081,10 @@
     </row>
     <row r="93" spans="1:42">
       <c r="A93" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B93" s="5">
-        <v>35863</v>
+        <v>35849</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="6">
@@ -4117,10 +4117,10 @@
     </row>
     <row r="94" spans="1:42">
       <c r="A94" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B94" s="5">
-        <v>35865</v>
+        <v>35851</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="6">
@@ -4150,10 +4150,10 @@
     </row>
     <row r="95" spans="1:42">
       <c r="A95" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B95" s="5">
-        <v>35866</v>
+        <v>35852</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="6">
@@ -4186,10 +4186,10 @@
     </row>
     <row r="96" spans="1:42">
       <c r="A96" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B96" s="5">
-        <v>35867</v>
+        <v>35853</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="6">
@@ -4219,10 +4219,10 @@
     </row>
     <row r="97" spans="1:48">
       <c r="A97" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B97" s="5">
-        <v>35868</v>
+        <v>35854</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="6">
@@ -4252,10 +4252,10 @@
     </row>
     <row r="98" spans="1:48">
       <c r="A98" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B98" s="5">
-        <v>35869</v>
+        <v>35855</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="6">
@@ -4294,10 +4294,10 @@
     </row>
     <row r="99" spans="1:48">
       <c r="A99" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B99" s="5">
-        <v>35870</v>
+        <v>35856</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="6">
@@ -4330,10 +4330,10 @@
     </row>
     <row r="100" spans="1:48">
       <c r="A100" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B100" s="5">
-        <v>35871</v>
+        <v>35857</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="6">
@@ -4375,10 +4375,10 @@
     </row>
     <row r="101" spans="1:48">
       <c r="A101" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B101" s="5">
-        <v>35872</v>
+        <v>35858</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="6">
@@ -4414,10 +4414,10 @@
     </row>
     <row r="102" spans="1:48">
       <c r="A102" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B102" s="5">
-        <v>35873</v>
+        <v>35859</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="6">
@@ -4450,10 +4450,10 @@
     </row>
     <row r="103" spans="1:48">
       <c r="A103" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B103" s="5">
-        <v>35874</v>
+        <v>35860</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="6">
@@ -4486,10 +4486,10 @@
     </row>
     <row r="104" spans="1:48">
       <c r="A104" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B104" s="5">
-        <v>35875</v>
+        <v>35861</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104">
@@ -4540,13 +4540,13 @@
     </row>
     <row r="105" spans="1:48">
       <c r="A105" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B105" s="5">
-        <v>35877</v>
+        <v>35863</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D105" s="6">
         <v>96.424668665414998</v>
@@ -4612,10 +4612,10 @@
     </row>
     <row r="106" spans="1:48">
       <c r="A106" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B106" s="5">
-        <v>35878</v>
+        <v>35864</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="6">
@@ -4648,10 +4648,10 @@
     </row>
     <row r="107" spans="1:48">
       <c r="A107" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B107" s="5">
-        <v>35879</v>
+        <v>35865</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="6">
@@ -4681,10 +4681,10 @@
     </row>
     <row r="108" spans="1:48">
       <c r="A108" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B108" s="5">
-        <v>35882</v>
+        <v>35868</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="6">
@@ -4714,10 +4714,10 @@
     </row>
     <row r="109" spans="1:48">
       <c r="A109" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B109" s="5">
-        <v>35883</v>
+        <v>35869</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="6">
@@ -4747,10 +4747,10 @@
     </row>
     <row r="110" spans="1:48">
       <c r="A110" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B110" s="5">
-        <v>35884</v>
+        <v>35870</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="6">
@@ -4789,10 +4789,10 @@
     </row>
     <row r="111" spans="1:48">
       <c r="A111" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B111" s="5">
-        <v>35885</v>
+        <v>35871</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="6">
@@ -4825,10 +4825,10 @@
     </row>
     <row r="112" spans="1:48">
       <c r="A112" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B112" s="5">
-        <v>35886</v>
+        <v>35872</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="6">
@@ -4861,10 +4861,10 @@
     </row>
     <row r="113" spans="1:50">
       <c r="A113" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B113" s="5">
-        <v>35887</v>
+        <v>35873</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="6">
@@ -4894,10 +4894,10 @@
     </row>
     <row r="114" spans="1:50">
       <c r="A114" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B114" s="5">
-        <v>35889</v>
+        <v>35875</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="6">
@@ -4936,10 +4936,10 @@
     </row>
     <row r="115" spans="1:50">
       <c r="A115" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B115" s="5">
-        <v>35890</v>
+        <v>35876</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="6">
@@ -4969,10 +4969,10 @@
     </row>
     <row r="116" spans="1:50">
       <c r="A116" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B116" s="5">
-        <v>35891</v>
+        <v>35877</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="6">
@@ -5032,7 +5032,7 @@
     </row>
     <row r="117" spans="1:50" ht="15.75" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B117" s="5">
         <v>35782</v>
@@ -5065,10 +5065,10 @@
     </row>
     <row r="118" spans="1:50">
       <c r="A118" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B118" s="5">
-        <v>35789</v>
+        <v>35775</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="6">
@@ -5098,10 +5098,10 @@
     </row>
     <row r="119" spans="1:50">
       <c r="A119" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B119" s="5">
-        <v>35804</v>
+        <v>35790</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="6">
@@ -5131,10 +5131,10 @@
     </row>
     <row r="120" spans="1:50">
       <c r="A120" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B120" s="5">
-        <v>35810</v>
+        <v>35796</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="6">
@@ -5164,10 +5164,10 @@
     </row>
     <row r="121" spans="1:50">
       <c r="A121" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B121" s="5">
-        <v>35813</v>
+        <v>35799</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="6">
@@ -5197,10 +5197,10 @@
     </row>
     <row r="122" spans="1:50">
       <c r="A122" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B122" s="5">
-        <v>35814</v>
+        <v>35800</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="6">
@@ -5254,10 +5254,10 @@
     </row>
     <row r="123" spans="1:50">
       <c r="A123" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B123" s="5">
-        <v>35817</v>
+        <v>35803</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="6">
@@ -5287,10 +5287,10 @@
     </row>
     <row r="124" spans="1:50">
       <c r="A124" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B124" s="5">
-        <v>35818</v>
+        <v>35804</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="6">
@@ -5320,10 +5320,10 @@
     </row>
     <row r="125" spans="1:50">
       <c r="A125" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B125" s="5">
-        <v>35822</v>
+        <v>35808</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="6">
@@ -5353,10 +5353,10 @@
     </row>
     <row r="126" spans="1:50">
       <c r="A126" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B126" s="5">
-        <v>35826</v>
+        <v>35812</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="6">
@@ -5390,10 +5390,10 @@
     </row>
     <row r="127" spans="1:50">
       <c r="A127" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B127" s="5">
-        <v>35827</v>
+        <v>35813</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="6">
@@ -5423,10 +5423,10 @@
     </row>
     <row r="128" spans="1:50">
       <c r="A128" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B128" s="5">
-        <v>35830</v>
+        <v>35816</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="6">
@@ -5462,10 +5462,10 @@
     </row>
     <row r="129" spans="1:50">
       <c r="A129" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B129" s="5">
-        <v>35831</v>
+        <v>35817</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="6">
@@ -5501,10 +5501,10 @@
     </row>
     <row r="130" spans="1:50">
       <c r="A130" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B130" s="5">
-        <v>35834</v>
+        <v>35820</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="6">
@@ -5537,10 +5537,10 @@
     </row>
     <row r="131" spans="1:50">
       <c r="A131" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B131" s="5">
-        <v>35837</v>
+        <v>35823</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="6">
@@ -5573,10 +5573,10 @@
     </row>
     <row r="132" spans="1:50">
       <c r="A132" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B132" s="5">
-        <v>35838</v>
+        <v>35824</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="6">
@@ -5612,10 +5612,10 @@
     </row>
     <row r="133" spans="1:50">
       <c r="A133" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B133" s="5">
-        <v>35842</v>
+        <v>35828</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="6">
@@ -5672,10 +5672,10 @@
     </row>
     <row r="134" spans="1:50">
       <c r="A134" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B134" s="5">
-        <v>35843</v>
+        <v>35829</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="6">
@@ -5705,10 +5705,10 @@
     </row>
     <row r="135" spans="1:50">
       <c r="A135" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B135" s="5">
-        <v>35844</v>
+        <v>35830</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="6">
@@ -5738,10 +5738,10 @@
     </row>
     <row r="136" spans="1:50">
       <c r="A136" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B136" s="5">
-        <v>35845</v>
+        <v>35831</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="6">
@@ -5774,10 +5774,10 @@
     </row>
     <row r="137" spans="1:50">
       <c r="A137" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B137" s="5">
-        <v>35846</v>
+        <v>35832</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="6">
@@ -5807,10 +5807,10 @@
     </row>
     <row r="138" spans="1:50">
       <c r="A138" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B138" s="5">
-        <v>35847</v>
+        <v>35833</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="6">
@@ -5840,10 +5840,10 @@
     </row>
     <row r="139" spans="1:50">
       <c r="A139" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B139" s="5">
-        <v>35848</v>
+        <v>35834</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="6">
@@ -5876,10 +5876,10 @@
     </row>
     <row r="140" spans="1:50">
       <c r="A140" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B140" s="5">
-        <v>35849</v>
+        <v>35835</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="6">
@@ -5909,10 +5909,10 @@
     </row>
     <row r="141" spans="1:50">
       <c r="A141" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B141" s="5">
-        <v>35851</v>
+        <v>35837</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="6">
@@ -5951,10 +5951,10 @@
     </row>
     <row r="142" spans="1:50">
       <c r="A142" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B142" s="5">
-        <v>35852</v>
+        <v>35838</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="6">
@@ -5984,10 +5984,10 @@
     </row>
     <row r="143" spans="1:50">
       <c r="A143" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B143" s="5">
-        <v>35853</v>
+        <v>35839</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="6">
@@ -6017,10 +6017,10 @@
     </row>
     <row r="144" spans="1:50">
       <c r="A144" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B144" s="5">
-        <v>35855</v>
+        <v>35841</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="6">
@@ -6068,10 +6068,10 @@
     </row>
     <row r="145" spans="1:48">
       <c r="A145" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B145" s="5">
-        <v>35856</v>
+        <v>35842</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="6">
@@ -6104,10 +6104,10 @@
     </row>
     <row r="146" spans="1:48">
       <c r="A146" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B146" s="5">
-        <v>35857</v>
+        <v>35843</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="6">
@@ -6140,10 +6140,10 @@
     </row>
     <row r="147" spans="1:48">
       <c r="A147" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B147" s="5">
-        <v>35858</v>
+        <v>35844</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="6">
@@ -6182,10 +6182,10 @@
     </row>
     <row r="148" spans="1:48">
       <c r="A148" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B148" s="5">
-        <v>35860</v>
+        <v>35846</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="6">
@@ -6215,10 +6215,10 @@
     </row>
     <row r="149" spans="1:48">
       <c r="A149" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B149" s="5">
-        <v>35861</v>
+        <v>35847</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="6">
@@ -6248,10 +6248,10 @@
     </row>
     <row r="150" spans="1:48">
       <c r="A150" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B150" s="5">
-        <v>35862</v>
+        <v>35848</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="6">
@@ -6284,10 +6284,10 @@
     </row>
     <row r="151" spans="1:48">
       <c r="A151" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B151" s="5">
-        <v>35863</v>
+        <v>35849</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="6">
@@ -6317,10 +6317,10 @@
     </row>
     <row r="152" spans="1:48">
       <c r="A152" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B152" s="5">
-        <v>35865</v>
+        <v>35851</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="6">
@@ -6353,10 +6353,10 @@
     </row>
     <row r="153" spans="1:48">
       <c r="A153" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B153" s="5">
-        <v>35866</v>
+        <v>35852</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="6">
@@ -6392,10 +6392,10 @@
     </row>
     <row r="154" spans="1:48">
       <c r="A154" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B154" s="5">
-        <v>35867</v>
+        <v>35853</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="6">
@@ -6425,10 +6425,10 @@
     </row>
     <row r="155" spans="1:48">
       <c r="A155" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B155" s="5">
-        <v>35868</v>
+        <v>35854</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="6">
@@ -6464,10 +6464,10 @@
     </row>
     <row r="156" spans="1:48">
       <c r="A156" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B156" s="5">
-        <v>35869</v>
+        <v>35855</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="6">
@@ -6497,10 +6497,10 @@
     </row>
     <row r="157" spans="1:48">
       <c r="A157" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B157" s="5">
-        <v>35870</v>
+        <v>35856</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="6">
@@ -6530,10 +6530,10 @@
     </row>
     <row r="158" spans="1:48">
       <c r="A158" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B158" s="5">
-        <v>35871</v>
+        <v>35857</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="6">
@@ -6581,10 +6581,10 @@
     </row>
     <row r="159" spans="1:48">
       <c r="A159" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B159" s="5">
-        <v>35872</v>
+        <v>35858</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="6">
@@ -6617,10 +6617,10 @@
     </row>
     <row r="160" spans="1:48">
       <c r="A160" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B160" s="5">
-        <v>35873</v>
+        <v>35859</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="6">
@@ -6653,10 +6653,10 @@
     </row>
     <row r="161" spans="1:50">
       <c r="A161" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B161" s="5">
-        <v>35876</v>
+        <v>35862</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="6">
@@ -6689,13 +6689,13 @@
     </row>
     <row r="162" spans="1:50">
       <c r="A162" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B162" s="5">
-        <v>35877</v>
+        <v>35863</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D162" s="6">
         <v>95.5483163357178</v>
@@ -6797,10 +6797,10 @@
     </row>
     <row r="163" spans="1:50">
       <c r="A163" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B163" s="5">
-        <v>35878</v>
+        <v>35864</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="6">
@@ -6830,10 +6830,10 @@
     </row>
     <row r="164" spans="1:50">
       <c r="A164" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B164" s="5">
-        <v>35879</v>
+        <v>35865</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="6">
@@ -6863,10 +6863,10 @@
     </row>
     <row r="165" spans="1:50">
       <c r="A165" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B165" s="5">
-        <v>35882</v>
+        <v>35868</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="6">
@@ -6899,10 +6899,10 @@
     </row>
     <row r="166" spans="1:50">
       <c r="A166" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B166" s="5">
-        <v>35883</v>
+        <v>35869</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="6">
@@ -6938,10 +6938,10 @@
     </row>
     <row r="167" spans="1:50">
       <c r="A167" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B167" s="5">
-        <v>35884</v>
+        <v>35870</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="6">
@@ -6971,10 +6971,10 @@
     </row>
     <row r="168" spans="1:50">
       <c r="A168" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B168" s="5">
-        <v>35885</v>
+        <v>35871</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="6">
@@ -7016,10 +7016,10 @@
     </row>
     <row r="169" spans="1:50">
       <c r="A169" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B169" s="5">
-        <v>35886</v>
+        <v>35872</v>
       </c>
       <c r="C169" s="5"/>
       <c r="D169" s="6">
@@ -7058,10 +7058,10 @@
     </row>
     <row r="170" spans="1:50">
       <c r="A170" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B170" s="5">
-        <v>35889</v>
+        <v>35875</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="6">
@@ -7094,10 +7094,10 @@
     </row>
     <row r="171" spans="1:50" ht="16.5" customHeight="1">
       <c r="A171" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B171" s="5">
-        <v>35890</v>
+        <v>35876</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="6">
@@ -7130,10 +7130,10 @@
     </row>
     <row r="172" spans="1:50">
       <c r="A172" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B172" s="5">
-        <v>35891</v>
+        <v>35877</v>
       </c>
       <c r="C172" s="5"/>
       <c r="D172" s="6">
@@ -7184,10 +7184,10 @@
     </row>
     <row r="173" spans="1:50">
       <c r="A173" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B173" s="5">
-        <v>35895</v>
+        <v>35881</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="6">
@@ -7217,7 +7217,7 @@
     </row>
     <row r="174" spans="1:50">
       <c r="A174" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B174" s="5">
         <v>35795</v>
@@ -7250,10 +7250,10 @@
     </row>
     <row r="175" spans="1:50">
       <c r="A175" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B175" s="5">
-        <v>35826</v>
+        <v>35799</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175">
@@ -7286,10 +7286,10 @@
     </row>
     <row r="176" spans="1:50">
       <c r="A176" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B176" s="5">
-        <v>35828</v>
+        <v>35801</v>
       </c>
       <c r="C176" s="5"/>
       <c r="D176" s="6">
@@ -7319,10 +7319,10 @@
     </row>
     <row r="177" spans="1:50">
       <c r="A177" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B177" s="5">
-        <v>35831</v>
+        <v>35804</v>
       </c>
       <c r="C177" s="5"/>
       <c r="D177" s="6">
@@ -7352,10 +7352,10 @@
     </row>
     <row r="178" spans="1:50">
       <c r="A178" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B178" s="5">
-        <v>35835</v>
+        <v>35808</v>
       </c>
       <c r="C178" s="5"/>
       <c r="D178" s="6">
@@ -7385,10 +7385,10 @@
     </row>
     <row r="179" spans="1:50">
       <c r="A179" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B179" s="5">
-        <v>35841</v>
+        <v>35814</v>
       </c>
       <c r="C179" s="5"/>
       <c r="D179" s="6">
@@ -7418,10 +7418,10 @@
     </row>
     <row r="180" spans="1:50">
       <c r="A180" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B180" s="5">
-        <v>35842</v>
+        <v>35815</v>
       </c>
       <c r="C180" s="5"/>
       <c r="D180" s="6">
@@ -7451,10 +7451,10 @@
     </row>
     <row r="181" spans="1:50">
       <c r="A181" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B181" s="5">
-        <v>35843</v>
+        <v>35816</v>
       </c>
       <c r="C181" s="5"/>
       <c r="D181" s="6">
@@ -7487,10 +7487,10 @@
     </row>
     <row r="182" spans="1:50">
       <c r="A182" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B182" s="5">
-        <v>35844</v>
+        <v>35817</v>
       </c>
       <c r="C182" s="5"/>
       <c r="D182" s="6">
@@ -7523,10 +7523,10 @@
     </row>
     <row r="183" spans="1:50">
       <c r="A183" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B183" s="5">
-        <v>35847</v>
+        <v>35820</v>
       </c>
       <c r="C183" s="5"/>
       <c r="D183" s="6">
@@ -7556,10 +7556,10 @@
     </row>
     <row r="184" spans="1:50">
       <c r="A184" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B184" s="5">
-        <v>35851</v>
+        <v>35824</v>
       </c>
       <c r="C184" s="5"/>
       <c r="D184" s="6">
@@ -7589,10 +7589,10 @@
     </row>
     <row r="185" spans="1:50">
       <c r="A185" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B185" s="5">
-        <v>35855</v>
+        <v>35828</v>
       </c>
       <c r="C185" s="5"/>
       <c r="D185" s="6">
@@ -7628,10 +7628,10 @@
     </row>
     <row r="186" spans="1:50">
       <c r="A186" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B186" s="5">
-        <v>35861</v>
+        <v>35834</v>
       </c>
       <c r="C186" s="5"/>
       <c r="D186" s="6">
@@ -7661,10 +7661,10 @@
     </row>
     <row r="187" spans="1:50">
       <c r="A187" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B187" s="5">
-        <v>35863</v>
+        <v>35836</v>
       </c>
       <c r="C187" s="5"/>
       <c r="D187" s="6">
@@ -7694,10 +7694,10 @@
     </row>
     <row r="188" spans="1:50">
       <c r="A188" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B188" s="5">
-        <v>35864</v>
+        <v>35837</v>
       </c>
       <c r="C188" s="5"/>
       <c r="D188" s="6">
@@ -7727,10 +7727,10 @@
     </row>
     <row r="189" spans="1:50">
       <c r="A189" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B189" s="5">
-        <v>35865</v>
+        <v>35838</v>
       </c>
       <c r="C189" s="5"/>
       <c r="D189" s="6">
@@ -7760,10 +7760,10 @@
     </row>
     <row r="190" spans="1:50">
       <c r="A190" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B190" s="5">
-        <v>35866</v>
+        <v>35839</v>
       </c>
       <c r="C190" s="5"/>
       <c r="D190" s="6">
@@ -7793,10 +7793,10 @@
     </row>
     <row r="191" spans="1:50">
       <c r="A191" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B191" s="5">
-        <v>35867</v>
+        <v>35840</v>
       </c>
       <c r="C191" s="5"/>
       <c r="D191" s="6">
@@ -7826,10 +7826,10 @@
     </row>
     <row r="192" spans="1:50">
       <c r="A192" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B192" s="5">
-        <v>35868</v>
+        <v>35841</v>
       </c>
       <c r="C192" s="5"/>
       <c r="D192" s="6">
@@ -7862,10 +7862,10 @@
     </row>
     <row r="193" spans="1:48">
       <c r="A193" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B193" s="5">
-        <v>35869</v>
+        <v>35842</v>
       </c>
       <c r="C193" s="5"/>
       <c r="D193" s="6">
@@ -7895,10 +7895,10 @@
     </row>
     <row r="194" spans="1:48">
       <c r="A194" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B194" s="5">
-        <v>35870</v>
+        <v>35843</v>
       </c>
       <c r="C194" s="5"/>
       <c r="D194" s="6">
@@ -7937,10 +7937,10 @@
     </row>
     <row r="195" spans="1:48">
       <c r="A195" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B195" s="5">
-        <v>35871</v>
+        <v>35844</v>
       </c>
       <c r="C195" s="5"/>
       <c r="D195" s="6">
@@ -7979,10 +7979,10 @@
     </row>
     <row r="196" spans="1:48">
       <c r="A196" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B196" s="5">
-        <v>35872</v>
+        <v>35845</v>
       </c>
       <c r="C196" s="5"/>
       <c r="D196" s="6">
@@ -8015,10 +8015,10 @@
     </row>
     <row r="197" spans="1:48">
       <c r="A197" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B197" s="5">
-        <v>35875</v>
+        <v>35848</v>
       </c>
       <c r="C197" s="5"/>
       <c r="D197" s="6">
@@ -8048,10 +8048,10 @@
     </row>
     <row r="198" spans="1:48">
       <c r="A198" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B198" s="5">
-        <v>35877</v>
+        <v>35850</v>
       </c>
       <c r="C198" s="5"/>
       <c r="D198" s="6">
@@ -8081,10 +8081,10 @@
     </row>
     <row r="199" spans="1:48">
       <c r="A199" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B199" s="5">
-        <v>35878</v>
+        <v>35851</v>
       </c>
       <c r="C199" s="5"/>
       <c r="D199" s="6">
@@ -8114,10 +8114,10 @@
     </row>
     <row r="200" spans="1:48">
       <c r="A200" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B200" s="5">
-        <v>35879</v>
+        <v>35852</v>
       </c>
       <c r="C200" s="5"/>
       <c r="D200" s="6">
@@ -8153,10 +8153,10 @@
     </row>
     <row r="201" spans="1:48">
       <c r="A201" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B201" s="5">
-        <v>35881</v>
+        <v>35854</v>
       </c>
       <c r="C201" s="5"/>
       <c r="D201" s="6">
@@ -8186,10 +8186,10 @@
     </row>
     <row r="202" spans="1:48">
       <c r="A202" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B202" s="5">
-        <v>35882</v>
+        <v>35855</v>
       </c>
       <c r="C202" s="5"/>
       <c r="D202" s="6">
@@ -8225,10 +8225,10 @@
     </row>
     <row r="203" spans="1:48">
       <c r="A203" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B203" s="5">
-        <v>35883</v>
+        <v>35856</v>
       </c>
       <c r="C203" s="5"/>
       <c r="D203" s="6">
@@ -8258,10 +8258,10 @@
     </row>
     <row r="204" spans="1:48">
       <c r="A204" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B204" s="5">
-        <v>35884</v>
+        <v>35857</v>
       </c>
       <c r="C204" s="5"/>
       <c r="D204" s="6">
@@ -8309,10 +8309,10 @@
     </row>
     <row r="205" spans="1:48">
       <c r="A205" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B205" s="5">
-        <v>35885</v>
+        <v>35858</v>
       </c>
       <c r="C205" s="5"/>
       <c r="D205" s="6">
@@ -8351,10 +8351,10 @@
     </row>
     <row r="206" spans="1:48">
       <c r="A206" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B206" s="5">
-        <v>35886</v>
+        <v>35859</v>
       </c>
       <c r="C206" s="5"/>
       <c r="D206" s="6">
@@ -8387,10 +8387,10 @@
     </row>
     <row r="207" spans="1:48">
       <c r="A207" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B207" s="5">
-        <v>35887</v>
+        <v>35860</v>
       </c>
       <c r="C207" s="5"/>
       <c r="D207" s="6">
@@ -8420,10 +8420,10 @@
     </row>
     <row r="208" spans="1:48">
       <c r="A208" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B208" s="5">
-        <v>35888</v>
+        <v>35861</v>
       </c>
       <c r="C208" s="5"/>
       <c r="D208" s="6">
@@ -8453,10 +8453,10 @@
     </row>
     <row r="209" spans="1:50">
       <c r="A209" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B209" s="5">
-        <v>35889</v>
+        <v>35862</v>
       </c>
       <c r="C209" s="5"/>
       <c r="D209" s="6">
@@ -8486,10 +8486,10 @@
     </row>
     <row r="210" spans="1:50">
       <c r="A210" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B210" s="5">
-        <v>35890</v>
+        <v>35863</v>
       </c>
       <c r="C210" s="5"/>
       <c r="D210" s="6">
@@ -8522,10 +8522,10 @@
     </row>
     <row r="211" spans="1:50">
       <c r="A211" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B211" s="5">
-        <v>35891</v>
+        <v>35864</v>
       </c>
       <c r="C211" s="5"/>
       <c r="D211" s="6">
@@ -8555,10 +8555,10 @@
     </row>
     <row r="212" spans="1:50">
       <c r="A212" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B212" s="5">
-        <v>35892</v>
+        <v>35865</v>
       </c>
       <c r="C212" s="5"/>
       <c r="D212" s="6">
@@ -8588,10 +8588,10 @@
     </row>
     <row r="213" spans="1:50">
       <c r="A213" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B213" s="5">
-        <v>35893</v>
+        <v>35866</v>
       </c>
       <c r="C213" s="5"/>
       <c r="D213" s="6">
@@ -8621,10 +8621,10 @@
     </row>
     <row r="214" spans="1:50">
       <c r="A214" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B214" s="5">
-        <v>35895</v>
+        <v>35868</v>
       </c>
       <c r="C214" s="5"/>
       <c r="D214" s="6">
@@ -8654,10 +8654,10 @@
     </row>
     <row r="215" spans="1:50">
       <c r="A215" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B215" s="5">
-        <v>35896</v>
+        <v>35869</v>
       </c>
       <c r="C215" s="5"/>
       <c r="D215" s="6">
@@ -8687,10 +8687,10 @@
     </row>
     <row r="216" spans="1:50">
       <c r="A216" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B216" s="5">
-        <v>35897</v>
+        <v>35870</v>
       </c>
       <c r="C216" s="5"/>
       <c r="D216" s="6">
@@ -8729,10 +8729,10 @@
     </row>
     <row r="217" spans="1:50">
       <c r="A217" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B217" s="5">
-        <v>35898</v>
+        <v>35871</v>
       </c>
       <c r="C217" s="5"/>
       <c r="D217" s="6">
@@ -8765,13 +8765,13 @@
     </row>
     <row r="218" spans="1:50">
       <c r="A218" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B218" s="5">
-        <v>35899</v>
+        <v>35872</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D218" s="6">
         <v>104.649220489977</v>
@@ -8840,10 +8840,10 @@
     </row>
     <row r="219" spans="1:50">
       <c r="A219" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B219" s="5">
-        <v>35900</v>
+        <v>35873</v>
       </c>
       <c r="C219" s="5"/>
       <c r="D219" s="6">
@@ -8873,10 +8873,10 @@
     </row>
     <row r="220" spans="1:50">
       <c r="A220" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B220" s="5">
-        <v>35903</v>
+        <v>35876</v>
       </c>
       <c r="C220" s="5"/>
       <c r="D220" s="6">
@@ -8909,10 +8909,10 @@
     </row>
     <row r="221" spans="1:50">
       <c r="A221" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B221" s="5">
-        <v>35905</v>
+        <v>35878</v>
       </c>
       <c r="C221" s="5"/>
       <c r="D221" s="6">
@@ -8942,10 +8942,10 @@
     </row>
     <row r="222" spans="1:50">
       <c r="A222" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B222" s="5">
-        <v>35906</v>
+        <v>35879</v>
       </c>
       <c r="C222" s="5"/>
       <c r="D222" s="6">
@@ -8978,10 +8978,10 @@
     </row>
     <row r="223" spans="1:50">
       <c r="A223" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B223" s="5">
-        <v>35909</v>
+        <v>35882</v>
       </c>
       <c r="C223" s="5"/>
       <c r="D223" s="6">
@@ -9014,10 +9014,10 @@
     </row>
     <row r="224" spans="1:50">
       <c r="A224" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B224" s="5">
-        <v>35911</v>
+        <v>35884</v>
       </c>
       <c r="C224" s="5"/>
       <c r="D224" s="6">
@@ -9056,10 +9056,10 @@
     </row>
     <row r="225" spans="1:49">
       <c r="A225" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B225" s="5">
-        <v>35912</v>
+        <v>35885</v>
       </c>
       <c r="C225" s="5"/>
       <c r="D225" s="6">
@@ -9098,10 +9098,10 @@
     </row>
     <row r="226" spans="1:49">
       <c r="A226" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B226" s="5">
-        <v>35916</v>
+        <v>35889</v>
       </c>
       <c r="C226" s="5"/>
       <c r="D226" s="6">
@@ -9131,10 +9131,10 @@
     </row>
     <row r="227" spans="1:49">
       <c r="A227" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B227" s="5">
-        <v>35920</v>
+        <v>35893</v>
       </c>
       <c r="C227" s="5"/>
       <c r="D227" s="6">
@@ -9170,10 +9170,10 @@
     </row>
     <row r="228" spans="1:49">
       <c r="A228" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B228" s="5">
-        <v>35924</v>
+        <v>35897</v>
       </c>
       <c r="C228" s="5"/>
       <c r="D228" s="6">
@@ -9203,10 +9203,10 @@
     </row>
     <row r="229" spans="1:49">
       <c r="A229" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B229" s="5">
-        <v>35925</v>
+        <v>35898</v>
       </c>
       <c r="C229" s="5"/>
       <c r="D229" s="6">
@@ -9236,10 +9236,10 @@
     </row>
     <row r="230" spans="1:49">
       <c r="A230" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B230" s="5">
-        <v>35926</v>
+        <v>35899</v>
       </c>
       <c r="C230" s="5"/>
       <c r="D230" s="6">
@@ -9299,7 +9299,7 @@
     </row>
     <row r="231" spans="1:49">
       <c r="A231" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B231" s="5">
         <v>35795</v>
@@ -9332,10 +9332,10 @@
     </row>
     <row r="232" spans="1:49">
       <c r="A232" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B232" s="5">
-        <v>35829</v>
+        <v>35802</v>
       </c>
       <c r="C232" s="5"/>
       <c r="D232" s="6">
@@ -9365,10 +9365,10 @@
     </row>
     <row r="233" spans="1:49">
       <c r="A233" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B233" s="5">
-        <v>35831</v>
+        <v>35804</v>
       </c>
       <c r="C233" s="5"/>
       <c r="D233" s="6">
@@ -9398,10 +9398,10 @@
     </row>
     <row r="234" spans="1:49">
       <c r="A234" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B234" s="5">
-        <v>35835</v>
+        <v>35808</v>
       </c>
       <c r="C234" s="5"/>
       <c r="D234" s="6">
@@ -9431,10 +9431,10 @@
     </row>
     <row r="235" spans="1:49">
       <c r="A235" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B235" s="5">
-        <v>35841</v>
+        <v>35814</v>
       </c>
       <c r="C235" s="5"/>
       <c r="D235" s="6">
@@ -9464,10 +9464,10 @@
     </row>
     <row r="236" spans="1:49">
       <c r="A236" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B236" s="5">
-        <v>35842</v>
+        <v>35815</v>
       </c>
       <c r="C236" s="5"/>
       <c r="D236">
@@ -9521,10 +9521,10 @@
     </row>
     <row r="237" spans="1:49">
       <c r="A237" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B237" s="5">
-        <v>35843</v>
+        <v>35816</v>
       </c>
       <c r="C237" s="5"/>
       <c r="D237" s="6">
@@ -9557,10 +9557,10 @@
     </row>
     <row r="238" spans="1:49">
       <c r="A238" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B238" s="5">
-        <v>35844</v>
+        <v>35817</v>
       </c>
       <c r="C238" s="5"/>
       <c r="D238" s="6">
@@ -9593,10 +9593,10 @@
     </row>
     <row r="239" spans="1:49">
       <c r="A239" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B239" s="5">
-        <v>35845</v>
+        <v>35818</v>
       </c>
       <c r="C239" s="5"/>
       <c r="D239" s="6">
@@ -9626,10 +9626,10 @@
     </row>
     <row r="240" spans="1:49">
       <c r="A240" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B240" s="5">
-        <v>35847</v>
+        <v>35820</v>
       </c>
       <c r="C240" s="5"/>
       <c r="D240" s="6">
@@ -9659,10 +9659,10 @@
     </row>
     <row r="241" spans="1:42">
       <c r="A241" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B241" s="5">
-        <v>35852</v>
+        <v>35825</v>
       </c>
       <c r="C241" s="5"/>
       <c r="D241" s="6">
@@ -9692,10 +9692,10 @@
     </row>
     <row r="242" spans="1:42">
       <c r="A242" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B242" s="5">
-        <v>35856</v>
+        <v>35829</v>
       </c>
       <c r="C242" s="5"/>
       <c r="D242" s="6">
@@ -9725,10 +9725,10 @@
     </row>
     <row r="243" spans="1:42">
       <c r="A243" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B243" s="5">
-        <v>35861</v>
+        <v>35834</v>
       </c>
       <c r="C243" s="5"/>
       <c r="D243" s="6">
@@ -9758,10 +9758,10 @@
     </row>
     <row r="244" spans="1:42">
       <c r="A244" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B244" s="5">
-        <v>35862</v>
+        <v>35835</v>
       </c>
       <c r="C244" s="5"/>
       <c r="D244" s="6">
@@ -9794,10 +9794,10 @@
     </row>
     <row r="245" spans="1:42">
       <c r="A245" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B245" s="5">
-        <v>35863</v>
+        <v>35836</v>
       </c>
       <c r="C245" s="5"/>
       <c r="D245" s="6">
@@ -9827,10 +9827,10 @@
     </row>
     <row r="246" spans="1:42">
       <c r="A246" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B246" s="5">
-        <v>35865</v>
+        <v>35838</v>
       </c>
       <c r="C246" s="5"/>
       <c r="D246" s="6">
@@ -9860,10 +9860,10 @@
     </row>
     <row r="247" spans="1:42">
       <c r="A247" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B247" s="5">
-        <v>35866</v>
+        <v>35839</v>
       </c>
       <c r="C247" s="5"/>
       <c r="D247" s="6">
@@ -9896,10 +9896,10 @@
     </row>
     <row r="248" spans="1:42">
       <c r="A248" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B248" s="5">
-        <v>35867</v>
+        <v>35840</v>
       </c>
       <c r="C248" s="5"/>
       <c r="D248" s="6">
@@ -9929,10 +9929,10 @@
     </row>
     <row r="249" spans="1:42">
       <c r="A249" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B249" s="5">
-        <v>35868</v>
+        <v>35841</v>
       </c>
       <c r="C249" s="5"/>
       <c r="D249" s="6">
@@ -9965,10 +9965,10 @@
     </row>
     <row r="250" spans="1:42">
       <c r="A250" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B250" s="5">
-        <v>35869</v>
+        <v>35842</v>
       </c>
       <c r="C250" s="5"/>
       <c r="D250" s="6">
@@ -10004,10 +10004,10 @@
     </row>
     <row r="251" spans="1:42">
       <c r="A251" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B251" s="5">
-        <v>35870</v>
+        <v>35843</v>
       </c>
       <c r="C251" s="5"/>
       <c r="D251" s="6">
@@ -10067,10 +10067,10 @@
     </row>
     <row r="252" spans="1:42">
       <c r="A252" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B252" s="5">
-        <v>35871</v>
+        <v>35844</v>
       </c>
       <c r="C252" s="5"/>
       <c r="D252" s="6">
@@ -10112,10 +10112,10 @@
     </row>
     <row r="253" spans="1:42">
       <c r="A253" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B253" s="5">
-        <v>35872</v>
+        <v>35845</v>
       </c>
       <c r="C253" s="5"/>
       <c r="D253" s="6">
@@ -10145,10 +10145,10 @@
     </row>
     <row r="254" spans="1:42">
       <c r="A254" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B254" s="5">
-        <v>35874</v>
+        <v>35847</v>
       </c>
       <c r="C254" s="5"/>
       <c r="D254" s="6">
@@ -10178,10 +10178,10 @@
     </row>
     <row r="255" spans="1:42">
       <c r="A255" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B255" s="5">
-        <v>35876</v>
+        <v>35849</v>
       </c>
       <c r="C255" s="5"/>
       <c r="D255" s="6">
@@ -10214,10 +10214,10 @@
     </row>
     <row r="256" spans="1:42">
       <c r="A256" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B256" s="5">
-        <v>35877</v>
+        <v>35850</v>
       </c>
       <c r="C256" s="5"/>
       <c r="D256" s="6">
@@ -10247,10 +10247,10 @@
     </row>
     <row r="257" spans="1:48">
       <c r="A257" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B257" s="5">
-        <v>35878</v>
+        <v>35851</v>
       </c>
       <c r="C257" s="5"/>
       <c r="D257" s="6">
@@ -10280,10 +10280,10 @@
     </row>
     <row r="258" spans="1:48">
       <c r="A258" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B258" s="5">
-        <v>35879</v>
+        <v>35852</v>
       </c>
       <c r="C258" s="5"/>
       <c r="D258" s="6">
@@ -10313,10 +10313,10 @@
     </row>
     <row r="259" spans="1:48">
       <c r="A259" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B259" s="5">
-        <v>35880</v>
+        <v>35853</v>
       </c>
       <c r="C259" s="5"/>
       <c r="D259" s="6">
@@ -10346,10 +10346,10 @@
     </row>
     <row r="260" spans="1:48">
       <c r="A260" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B260" s="5">
-        <v>35881</v>
+        <v>35854</v>
       </c>
       <c r="C260" s="5"/>
       <c r="D260" s="6">
@@ -10385,10 +10385,10 @@
     </row>
     <row r="261" spans="1:48">
       <c r="A261" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B261" s="5">
-        <v>35882</v>
+        <v>35855</v>
       </c>
       <c r="C261" s="5"/>
       <c r="D261" s="6">
@@ -10421,10 +10421,10 @@
     </row>
     <row r="262" spans="1:48">
       <c r="A262" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B262" s="5">
-        <v>35883</v>
+        <v>35856</v>
       </c>
       <c r="C262" s="5"/>
       <c r="D262" s="6">
@@ -10457,10 +10457,10 @@
     </row>
     <row r="263" spans="1:48">
       <c r="A263" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B263" s="5">
-        <v>35884</v>
+        <v>35857</v>
       </c>
       <c r="C263" s="5"/>
       <c r="D263" s="6">
@@ -10517,13 +10517,13 @@
     </row>
     <row r="264" spans="1:48">
       <c r="A264" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B264" s="5">
-        <v>35885</v>
+        <v>35858</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D264" s="6">
         <v>90.914127423822606</v>
@@ -10619,10 +10619,10 @@
     </row>
     <row r="265" spans="1:48">
       <c r="A265" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B265" s="5">
-        <v>35886</v>
+        <v>35859</v>
       </c>
       <c r="C265" s="5"/>
       <c r="D265" s="6">
@@ -10655,10 +10655,10 @@
     </row>
     <row r="266" spans="1:48">
       <c r="A266" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B266" s="5">
-        <v>35887</v>
+        <v>35860</v>
       </c>
       <c r="C266" s="5"/>
       <c r="D266" s="6">
@@ -10688,10 +10688,10 @@
     </row>
     <row r="267" spans="1:48">
       <c r="A267" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B267" s="5">
-        <v>35888</v>
+        <v>35861</v>
       </c>
       <c r="C267" s="5"/>
       <c r="D267" s="6">
@@ -10745,10 +10745,10 @@
     </row>
     <row r="268" spans="1:48">
       <c r="A268" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B268" s="5">
-        <v>35889</v>
+        <v>35862</v>
       </c>
       <c r="C268" s="5"/>
       <c r="D268" s="6">
@@ -10778,10 +10778,10 @@
     </row>
     <row r="269" spans="1:48">
       <c r="A269" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B269" s="5">
-        <v>35890</v>
+        <v>35863</v>
       </c>
       <c r="C269" s="5"/>
       <c r="D269" s="6">
@@ -10811,10 +10811,10 @@
     </row>
     <row r="270" spans="1:48">
       <c r="A270" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B270" s="5">
-        <v>35891</v>
+        <v>35864</v>
       </c>
       <c r="C270" s="5"/>
       <c r="D270" s="6">
@@ -10844,10 +10844,10 @@
     </row>
     <row r="271" spans="1:48">
       <c r="A271" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B271" s="5">
-        <v>35892</v>
+        <v>35865</v>
       </c>
       <c r="C271" s="5"/>
       <c r="D271" s="6">
@@ -10880,10 +10880,10 @@
     </row>
     <row r="272" spans="1:48">
       <c r="A272" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B272" s="5">
-        <v>35895</v>
+        <v>35868</v>
       </c>
       <c r="C272" s="5"/>
       <c r="D272" s="6">
@@ -10913,10 +10913,10 @@
     </row>
     <row r="273" spans="1:49">
       <c r="A273" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B273" s="5">
-        <v>35897</v>
+        <v>35870</v>
       </c>
       <c r="C273" s="5"/>
       <c r="D273" s="6">
@@ -10955,10 +10955,10 @@
     </row>
     <row r="274" spans="1:49">
       <c r="A274" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B274" s="5">
-        <v>35898</v>
+        <v>35871</v>
       </c>
       <c r="C274" s="5"/>
       <c r="D274" s="6">
@@ -10991,10 +10991,10 @@
     </row>
     <row r="275" spans="1:49">
       <c r="A275" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B275" s="5">
-        <v>35899</v>
+        <v>35872</v>
       </c>
       <c r="C275" s="5"/>
       <c r="D275" s="6">
@@ -11024,10 +11024,10 @@
     </row>
     <row r="276" spans="1:49">
       <c r="A276" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B276" s="5">
-        <v>35900</v>
+        <v>35873</v>
       </c>
       <c r="C276" s="5"/>
       <c r="D276" s="6">
@@ -11057,10 +11057,10 @@
     </row>
     <row r="277" spans="1:49">
       <c r="A277" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B277" s="5">
-        <v>35903</v>
+        <v>35876</v>
       </c>
       <c r="C277" s="5"/>
       <c r="D277" s="6">
@@ -11093,10 +11093,10 @@
     </row>
     <row r="278" spans="1:49">
       <c r="A278" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B278" s="5">
-        <v>35905</v>
+        <v>35878</v>
       </c>
       <c r="C278" s="5"/>
       <c r="D278" s="6">
@@ -11126,10 +11126,10 @@
     </row>
     <row r="279" spans="1:49">
       <c r="A279" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B279" s="5">
-        <v>35906</v>
+        <v>35879</v>
       </c>
       <c r="C279" s="5"/>
       <c r="D279" s="6">
@@ -11159,10 +11159,10 @@
     </row>
     <row r="280" spans="1:49">
       <c r="A280" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B280" s="5">
-        <v>35907</v>
+        <v>35880</v>
       </c>
       <c r="C280" s="5"/>
       <c r="D280" s="6">
@@ -11192,10 +11192,10 @@
     </row>
     <row r="281" spans="1:49">
       <c r="A281" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B281" s="5">
-        <v>35909</v>
+        <v>35882</v>
       </c>
       <c r="C281" s="5"/>
       <c r="D281" s="6">
@@ -11225,10 +11225,10 @@
     </row>
     <row r="282" spans="1:49">
       <c r="A282" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B282" s="5">
-        <v>35910</v>
+        <v>35883</v>
       </c>
       <c r="C282" s="5"/>
       <c r="D282" s="6">
@@ -11264,10 +11264,10 @@
     </row>
     <row r="283" spans="1:49">
       <c r="A283" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B283" s="5">
-        <v>35911</v>
+        <v>35884</v>
       </c>
       <c r="C283" s="5"/>
       <c r="D283" s="6">
@@ -11300,10 +11300,10 @@
     </row>
     <row r="284" spans="1:49">
       <c r="A284" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B284" s="5">
-        <v>35912</v>
+        <v>35885</v>
       </c>
       <c r="C284" s="5"/>
       <c r="D284" s="6">
@@ -11348,10 +11348,10 @@
     </row>
     <row r="285" spans="1:49">
       <c r="A285" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B285" s="5">
-        <v>35913</v>
+        <v>35886</v>
       </c>
       <c r="C285" s="5"/>
       <c r="D285" s="6">
@@ -11384,7 +11384,7 @@
     </row>
     <row r="286" spans="1:49">
       <c r="A286" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B286" s="5">
         <v>35795</v>
@@ -11417,10 +11417,10 @@
     </row>
     <row r="287" spans="1:49">
       <c r="A287" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B287" s="5">
-        <v>35802</v>
+        <v>35775</v>
       </c>
       <c r="C287" s="5"/>
       <c r="D287" s="6">
@@ -11450,10 +11450,10 @@
     </row>
     <row r="288" spans="1:49">
       <c r="A288" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B288" s="5">
-        <v>35815</v>
+        <v>35788</v>
       </c>
       <c r="C288" s="5"/>
       <c r="D288" s="6">
@@ -11504,10 +11504,10 @@
     </row>
     <row r="289" spans="1:50">
       <c r="A289" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B289" s="5">
-        <v>35826</v>
+        <v>35799</v>
       </c>
       <c r="C289" s="5"/>
       <c r="D289" s="6">
@@ -11540,10 +11540,10 @@
     </row>
     <row r="290" spans="1:50">
       <c r="A290" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B290" s="5">
-        <v>35829</v>
+        <v>35802</v>
       </c>
       <c r="C290" s="5"/>
       <c r="D290" s="6">
@@ -11573,10 +11573,10 @@
     </row>
     <row r="291" spans="1:50">
       <c r="A291" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B291" s="5">
-        <v>35830</v>
+        <v>35803</v>
       </c>
       <c r="C291" s="5"/>
       <c r="D291" s="6">
@@ -11606,10 +11606,10 @@
     </row>
     <row r="292" spans="1:50">
       <c r="A292" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B292" s="5">
-        <v>35831</v>
+        <v>35804</v>
       </c>
       <c r="C292" s="5"/>
       <c r="D292" s="6">
@@ -11639,10 +11639,10 @@
     </row>
     <row r="293" spans="1:50">
       <c r="A293" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B293" s="5">
-        <v>35835</v>
+        <v>35808</v>
       </c>
       <c r="C293" s="5"/>
       <c r="D293" s="6">
@@ -11672,10 +11672,10 @@
     </row>
     <row r="294" spans="1:50">
       <c r="A294" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B294" s="5">
-        <v>35841</v>
+        <v>35814</v>
       </c>
       <c r="C294" s="5"/>
       <c r="D294" s="6">
@@ -11705,10 +11705,10 @@
     </row>
     <row r="295" spans="1:50">
       <c r="A295" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B295" s="5">
-        <v>35843</v>
+        <v>35816</v>
       </c>
       <c r="C295" s="5"/>
       <c r="D295" s="6">
@@ -11744,10 +11744,10 @@
     </row>
     <row r="296" spans="1:50">
       <c r="A296" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B296" s="5">
-        <v>35844</v>
+        <v>35817</v>
       </c>
       <c r="C296" s="5"/>
       <c r="D296" s="6">
@@ -11780,10 +11780,10 @@
     </row>
     <row r="297" spans="1:50">
       <c r="A297" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B297" s="5">
-        <v>35845</v>
+        <v>35818</v>
       </c>
       <c r="C297" s="5"/>
       <c r="D297" s="6">
@@ -11813,10 +11813,10 @@
     </row>
     <row r="298" spans="1:50">
       <c r="A298" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B298" s="5">
-        <v>35847</v>
+        <v>35820</v>
       </c>
       <c r="C298" s="5"/>
       <c r="D298" s="6">
@@ -11846,10 +11846,10 @@
     </row>
     <row r="299" spans="1:50">
       <c r="A299" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B299" s="5">
-        <v>35851</v>
+        <v>35824</v>
       </c>
       <c r="C299" s="5"/>
       <c r="D299" s="6">
@@ -11879,10 +11879,10 @@
     </row>
     <row r="300" spans="1:50">
       <c r="A300" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B300" s="5">
-        <v>35855</v>
+        <v>35828</v>
       </c>
       <c r="C300" s="5"/>
       <c r="D300" s="6">
@@ -11936,10 +11936,10 @@
     </row>
     <row r="301" spans="1:50">
       <c r="A301" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B301" s="5">
-        <v>35857</v>
+        <v>35830</v>
       </c>
       <c r="C301" s="5"/>
       <c r="D301" s="6">
@@ -11969,10 +11969,10 @@
     </row>
     <row r="302" spans="1:50">
       <c r="A302" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B302" s="5">
-        <v>35858</v>
+        <v>35831</v>
       </c>
       <c r="C302" s="5"/>
       <c r="D302" s="6">
@@ -12002,10 +12002,10 @@
     </row>
     <row r="303" spans="1:50">
       <c r="A303" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B303" s="5">
-        <v>35861</v>
+        <v>35834</v>
       </c>
       <c r="C303" s="5"/>
       <c r="D303" s="6">
@@ -12035,10 +12035,10 @@
     </row>
     <row r="304" spans="1:50">
       <c r="A304" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B304" s="5">
-        <v>35862</v>
+        <v>35835</v>
       </c>
       <c r="C304" s="5"/>
       <c r="D304" s="6">
@@ -12068,10 +12068,10 @@
     </row>
     <row r="305" spans="1:50">
       <c r="A305" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B305" s="5">
-        <v>35865</v>
+        <v>35838</v>
       </c>
       <c r="C305" s="5"/>
       <c r="D305" s="6">
@@ -12104,10 +12104,10 @@
     </row>
     <row r="306" spans="1:50">
       <c r="A306" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B306" s="5">
-        <v>35866</v>
+        <v>35839</v>
       </c>
       <c r="C306" s="5"/>
       <c r="D306" s="6">
@@ -12137,10 +12137,10 @@
     </row>
     <row r="307" spans="1:50">
       <c r="A307" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B307" s="5">
-        <v>35869</v>
+        <v>35842</v>
       </c>
       <c r="C307" s="5"/>
       <c r="D307" s="6">
@@ -12188,10 +12188,10 @@
     </row>
     <row r="308" spans="1:50">
       <c r="A308" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B308" s="5">
-        <v>35870</v>
+        <v>35843</v>
       </c>
       <c r="C308" s="5"/>
       <c r="D308" s="6">
@@ -12224,10 +12224,10 @@
     </row>
     <row r="309" spans="1:50">
       <c r="A309" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B309" s="5">
-        <v>35871</v>
+        <v>35844</v>
       </c>
       <c r="C309" s="5"/>
       <c r="D309" s="6">
@@ -12272,10 +12272,10 @@
     </row>
     <row r="310" spans="1:50">
       <c r="A310" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B310" s="5">
-        <v>35872</v>
+        <v>35845</v>
       </c>
       <c r="C310" s="5"/>
       <c r="D310" s="6">
@@ -12305,10 +12305,10 @@
     </row>
     <row r="311" spans="1:50">
       <c r="A311" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B311" s="5">
-        <v>35875</v>
+        <v>35848</v>
       </c>
       <c r="C311" s="5"/>
       <c r="D311" s="6">
@@ -12341,10 +12341,10 @@
     </row>
     <row r="312" spans="1:50">
       <c r="A312" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B312" s="5">
-        <v>35876</v>
+        <v>35849</v>
       </c>
       <c r="C312" s="5"/>
       <c r="D312" s="6">
@@ -12377,10 +12377,10 @@
     </row>
     <row r="313" spans="1:50">
       <c r="A313" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B313" s="5">
-        <v>35879</v>
+        <v>35852</v>
       </c>
       <c r="C313" s="5"/>
       <c r="D313" s="6">
@@ -12416,10 +12416,10 @@
     </row>
     <row r="314" spans="1:50">
       <c r="A314" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B314" s="5">
-        <v>35880</v>
+        <v>35853</v>
       </c>
       <c r="C314" s="5"/>
       <c r="D314" s="6">
@@ -12449,10 +12449,10 @@
     </row>
     <row r="315" spans="1:50">
       <c r="A315" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B315" s="5">
-        <v>35881</v>
+        <v>35854</v>
       </c>
       <c r="C315" s="5"/>
       <c r="D315" s="6">
@@ -12482,10 +12482,10 @@
     </row>
     <row r="316" spans="1:50">
       <c r="A316" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B316" s="5">
-        <v>35882</v>
+        <v>35855</v>
       </c>
       <c r="C316" s="5"/>
       <c r="D316" s="6">
@@ -12521,10 +12521,10 @@
     </row>
     <row r="317" spans="1:50">
       <c r="A317" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B317" s="5">
-        <v>35883</v>
+        <v>35856</v>
       </c>
       <c r="C317" s="5"/>
       <c r="D317" s="6">
@@ -12557,10 +12557,10 @@
     </row>
     <row r="318" spans="1:50">
       <c r="A318" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B318" s="5">
-        <v>35884</v>
+        <v>35857</v>
       </c>
       <c r="C318" s="5"/>
       <c r="D318" s="6">
@@ -12590,13 +12590,13 @@
     </row>
     <row r="319" spans="1:50">
       <c r="A319" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B319" s="5">
-        <v>35885</v>
+        <v>35858</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D319" s="6">
         <v>90.557029177718803</v>
@@ -12704,10 +12704,10 @@
     </row>
     <row r="320" spans="1:50">
       <c r="A320" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B320" s="5">
-        <v>35886</v>
+        <v>35859</v>
       </c>
       <c r="C320" s="5"/>
       <c r="D320" s="6">
@@ -12740,10 +12740,10 @@
     </row>
     <row r="321" spans="1:50">
       <c r="A321" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B321" s="5">
-        <v>35887</v>
+        <v>35860</v>
       </c>
       <c r="C321" s="5"/>
       <c r="D321" s="6">
@@ -12773,10 +12773,10 @@
     </row>
     <row r="322" spans="1:50">
       <c r="A322" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B322" s="5">
-        <v>35889</v>
+        <v>35862</v>
       </c>
       <c r="C322" s="5"/>
       <c r="D322" s="6">
@@ -12806,10 +12806,10 @@
     </row>
     <row r="323" spans="1:50">
       <c r="A323" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B323" s="5">
-        <v>35890</v>
+        <v>35863</v>
       </c>
       <c r="C323" s="5"/>
       <c r="D323" s="6">
@@ -12845,10 +12845,10 @@
     </row>
     <row r="324" spans="1:50">
       <c r="A324" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B324" s="5">
-        <v>35892</v>
+        <v>35865</v>
       </c>
       <c r="C324" s="5"/>
       <c r="D324" s="6">
@@ -12878,10 +12878,10 @@
     </row>
     <row r="325" spans="1:50">
       <c r="A325" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B325" s="5">
-        <v>35895</v>
+        <v>35868</v>
       </c>
       <c r="C325" s="5"/>
       <c r="D325" s="6">
@@ -12911,10 +12911,10 @@
     </row>
     <row r="326" spans="1:50">
       <c r="A326" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B326" s="5">
-        <v>35896</v>
+        <v>35869</v>
       </c>
       <c r="C326" s="5"/>
       <c r="D326" s="6">
@@ -12947,10 +12947,10 @@
     </row>
     <row r="327" spans="1:50">
       <c r="A327" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B327" s="5">
-        <v>35897</v>
+        <v>35870</v>
       </c>
       <c r="C327" s="5"/>
       <c r="D327" s="6">
@@ -12992,10 +12992,10 @@
     </row>
     <row r="328" spans="1:50">
       <c r="A328" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B328" s="5">
-        <v>35898</v>
+        <v>35871</v>
       </c>
       <c r="C328" s="5"/>
       <c r="D328" s="6">
@@ -13037,10 +13037,10 @@
     </row>
     <row r="329" spans="1:50">
       <c r="A329" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B329" s="5">
-        <v>35899</v>
+        <v>35872</v>
       </c>
       <c r="C329" s="5"/>
       <c r="D329" s="6">
@@ -13076,10 +13076,10 @@
     </row>
     <row r="330" spans="1:50">
       <c r="A330" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B330" s="5">
-        <v>35900</v>
+        <v>35873</v>
       </c>
       <c r="C330" s="5"/>
       <c r="D330" s="6">
@@ -13109,10 +13109,10 @@
     </row>
     <row r="331" spans="1:50">
       <c r="A331" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B331" s="5">
-        <v>35903</v>
+        <v>35876</v>
       </c>
       <c r="C331" s="5"/>
       <c r="D331" s="6">
@@ -13145,10 +13145,10 @@
     </row>
     <row r="332" spans="1:50">
       <c r="A332" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B332" s="5">
-        <v>35904</v>
+        <v>35877</v>
       </c>
       <c r="C332" s="5"/>
       <c r="D332" s="6">
@@ -13184,10 +13184,10 @@
     </row>
     <row r="333" spans="1:50">
       <c r="A333" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B333" s="5">
-        <v>35910</v>
+        <v>35883</v>
       </c>
       <c r="C333" s="5"/>
       <c r="D333" s="6">
@@ -13220,10 +13220,10 @@
     </row>
     <row r="334" spans="1:50">
       <c r="A334" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B334" s="5">
-        <v>35911</v>
+        <v>35884</v>
       </c>
       <c r="C334" s="5"/>
       <c r="D334" s="6">
@@ -13259,10 +13259,10 @@
     </row>
     <row r="335" spans="1:50">
       <c r="A335" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B335" s="5">
-        <v>35912</v>
+        <v>35885</v>
       </c>
       <c r="C335" s="5"/>
       <c r="D335" s="6">
@@ -13310,10 +13310,10 @@
     </row>
     <row r="336" spans="1:50">
       <c r="A336" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B336" s="5">
-        <v>35913</v>
+        <v>35886</v>
       </c>
       <c r="C336" s="5"/>
       <c r="D336" s="6">
@@ -13343,7 +13343,7 @@
     </row>
     <row r="337" spans="1:50">
       <c r="A337" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B337" s="5">
         <v>35768</v>
@@ -13376,7 +13376,7 @@
     </row>
     <row r="338" spans="1:50">
       <c r="A338" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B338" s="5">
         <v>35774</v>
@@ -13409,7 +13409,7 @@
     </row>
     <row r="339" spans="1:50">
       <c r="A339" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B339" s="5">
         <v>35782</v>
@@ -13442,7 +13442,7 @@
     </row>
     <row r="340" spans="1:50">
       <c r="A340" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B340" s="5">
         <v>35790</v>
@@ -13475,7 +13475,7 @@
     </row>
     <row r="341" spans="1:50">
       <c r="A341" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B341" s="5">
         <v>35794</v>
@@ -13508,7 +13508,7 @@
     </row>
     <row r="342" spans="1:50">
       <c r="A342" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B342" s="5">
         <v>35796</v>
@@ -13541,7 +13541,7 @@
     </row>
     <row r="343" spans="1:50">
       <c r="A343" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B343" s="5">
         <v>35801</v>
@@ -13574,7 +13574,7 @@
     </row>
     <row r="344" spans="1:50">
       <c r="A344" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B344" s="5">
         <v>35803</v>
@@ -13607,7 +13607,7 @@
     </row>
     <row r="345" spans="1:50">
       <c r="A345" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B345" s="5">
         <v>35807</v>
@@ -13640,7 +13640,7 @@
     </row>
     <row r="346" spans="1:50">
       <c r="A346" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B346" s="5">
         <v>35813</v>
@@ -13673,7 +13673,7 @@
     </row>
     <row r="347" spans="1:50">
       <c r="A347" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B347" s="5">
         <v>35815</v>
@@ -13709,7 +13709,7 @@
     </row>
     <row r="348" spans="1:50">
       <c r="A348" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B348" s="5">
         <v>35816</v>
@@ -13745,7 +13745,7 @@
     </row>
     <row r="349" spans="1:50">
       <c r="A349" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B349" s="5">
         <v>35817</v>
@@ -13784,7 +13784,7 @@
     </row>
     <row r="350" spans="1:50">
       <c r="A350" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B350" s="5">
         <v>35820</v>
@@ -13820,7 +13820,7 @@
     </row>
     <row r="351" spans="1:50">
       <c r="A351" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B351" s="5">
         <v>35821</v>
@@ -13856,7 +13856,7 @@
     </row>
     <row r="352" spans="1:50">
       <c r="A352" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B352" s="5">
         <v>35822</v>
@@ -13889,7 +13889,7 @@
     </row>
     <row r="353" spans="1:42">
       <c r="A353" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B353" s="5">
         <v>35823</v>
@@ -13922,7 +13922,7 @@
     </row>
     <row r="354" spans="1:42">
       <c r="A354" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B354" s="5">
         <v>35824</v>
@@ -13955,7 +13955,7 @@
     </row>
     <row r="355" spans="1:42">
       <c r="A355" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B355" s="5">
         <v>35827</v>
@@ -13991,7 +13991,7 @@
     </row>
     <row r="356" spans="1:42">
       <c r="A356" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B356" s="5">
         <v>35830</v>
@@ -14024,7 +14024,7 @@
     </row>
     <row r="357" spans="1:42">
       <c r="A357" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B357" s="5">
         <v>35831</v>
@@ -14060,7 +14060,7 @@
     </row>
     <row r="358" spans="1:42">
       <c r="A358" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B358" s="5">
         <v>35832</v>
@@ -14093,7 +14093,7 @@
     </row>
     <row r="359" spans="1:42">
       <c r="A359" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B359" s="5">
         <v>35834</v>
@@ -14129,7 +14129,7 @@
     </row>
     <row r="360" spans="1:42">
       <c r="A360" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B360" s="5">
         <v>35835</v>
@@ -14162,7 +14162,7 @@
     </row>
     <row r="361" spans="1:42">
       <c r="A361" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B361" s="5">
         <v>35836</v>
@@ -14195,7 +14195,7 @@
     </row>
     <row r="362" spans="1:42">
       <c r="A362" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B362" s="5">
         <v>35837</v>
@@ -14228,7 +14228,7 @@
     </row>
     <row r="363" spans="1:42">
       <c r="A363" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B363" s="5">
         <v>35838</v>
@@ -14261,7 +14261,7 @@
     </row>
     <row r="364" spans="1:42">
       <c r="A364" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B364" s="5">
         <v>35840</v>
@@ -14294,7 +14294,7 @@
     </row>
     <row r="365" spans="1:42">
       <c r="A365" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B365" s="5">
         <v>35841</v>
@@ -14336,7 +14336,7 @@
     </row>
     <row r="366" spans="1:42">
       <c r="A366" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B366" s="5">
         <v>35843</v>
@@ -14378,7 +14378,7 @@
     </row>
     <row r="367" spans="1:42">
       <c r="A367" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B367" s="5">
         <v>35844</v>
@@ -14426,7 +14426,7 @@
     </row>
     <row r="368" spans="1:42">
       <c r="A368" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B368" s="5">
         <v>35845</v>
@@ -14459,7 +14459,7 @@
     </row>
     <row r="369" spans="1:50">
       <c r="A369" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B369" s="5">
         <v>35846</v>
@@ -14489,7 +14489,7 @@
     </row>
     <row r="370" spans="1:50">
       <c r="A370" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B370" s="5">
         <v>35848</v>
@@ -14522,7 +14522,7 @@
     </row>
     <row r="371" spans="1:50">
       <c r="A371" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B371" s="5">
         <v>35850</v>
@@ -14555,7 +14555,7 @@
     </row>
     <row r="372" spans="1:50">
       <c r="A372" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B372" s="5">
         <v>35851</v>
@@ -14594,7 +14594,7 @@
     </row>
     <row r="373" spans="1:50">
       <c r="A373" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B373" s="5">
         <v>35852</v>
@@ -14627,7 +14627,7 @@
     </row>
     <row r="374" spans="1:50">
       <c r="A374" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B374" s="5">
         <v>35854</v>
@@ -14669,7 +14669,7 @@
     </row>
     <row r="375" spans="1:50">
       <c r="A375" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B375" s="5">
         <v>35856</v>
@@ -14705,7 +14705,7 @@
     </row>
     <row r="376" spans="1:50">
       <c r="A376" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B376" s="5">
         <v>35857</v>
@@ -14756,7 +14756,7 @@
     </row>
     <row r="377" spans="1:50">
       <c r="A377" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B377" s="5">
         <v>35858</v>
@@ -14801,7 +14801,7 @@
     </row>
     <row r="378" spans="1:50">
       <c r="A378" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B378" s="5">
         <v>35859</v>
@@ -14834,7 +14834,7 @@
     </row>
     <row r="379" spans="1:50">
       <c r="A379" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B379" s="5">
         <v>35860</v>
@@ -14873,7 +14873,7 @@
     </row>
     <row r="380" spans="1:50">
       <c r="A380" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B380" s="5">
         <v>35861</v>
@@ -14906,7 +14906,7 @@
     </row>
     <row r="381" spans="1:50">
       <c r="A381" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B381" s="5">
         <v>35862</v>
@@ -14939,7 +14939,7 @@
     </row>
     <row r="382" spans="1:50">
       <c r="A382" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B382" s="5">
         <v>35863</v>
@@ -14972,7 +14972,7 @@
     </row>
     <row r="383" spans="1:50">
       <c r="A383" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B383" s="5">
         <v>35864</v>
@@ -15008,7 +15008,7 @@
     </row>
     <row r="384" spans="1:50">
       <c r="A384" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B384" s="5">
         <v>35865</v>
@@ -15041,7 +15041,7 @@
     </row>
     <row r="385" spans="1:50">
       <c r="A385" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B385" s="5">
         <v>35866</v>
@@ -15074,7 +15074,7 @@
     </row>
     <row r="386" spans="1:50">
       <c r="A386" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B386" s="5">
         <v>35868</v>
@@ -15107,7 +15107,7 @@
     </row>
     <row r="387" spans="1:50">
       <c r="A387" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B387" s="5">
         <v>35869</v>
@@ -15143,7 +15143,7 @@
     </row>
     <row r="388" spans="1:50">
       <c r="A388" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B388" s="5">
         <v>35871</v>
@@ -15191,7 +15191,7 @@
     </row>
     <row r="389" spans="1:50">
       <c r="A389" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B389" s="5">
         <v>35873</v>
@@ -15227,7 +15227,7 @@
     </row>
     <row r="390" spans="1:50">
       <c r="A390" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B390" s="5">
         <v>35874</v>
@@ -15263,7 +15263,7 @@
     </row>
     <row r="391" spans="1:50">
       <c r="A391" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B391" s="5">
         <v>35876</v>
@@ -15299,13 +15299,13 @@
     </row>
     <row r="392" spans="1:50">
       <c r="A392" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B392" s="5">
         <v>35877</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D392" s="6">
         <v>109.526726057906</v>
@@ -15398,7 +15398,7 @@
     </row>
     <row r="393" spans="1:50">
       <c r="A393" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B393" s="5">
         <v>35878</v>
@@ -15434,7 +15434,7 @@
     </row>
     <row r="394" spans="1:50">
       <c r="A394" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B394" s="5">
         <v>35768</v>
@@ -15467,7 +15467,7 @@
     </row>
     <row r="395" spans="1:50">
       <c r="A395" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B395" s="5">
         <v>35773</v>
@@ -15500,7 +15500,7 @@
     </row>
     <row r="396" spans="1:50">
       <c r="A396" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B396" s="5">
         <v>35781</v>
@@ -15533,7 +15533,7 @@
     </row>
     <row r="397" spans="1:50">
       <c r="A397" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B397" s="5">
         <v>35790</v>
@@ -15566,7 +15566,7 @@
     </row>
     <row r="398" spans="1:50">
       <c r="A398" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B398" s="5">
         <v>35794</v>
@@ -15599,7 +15599,7 @@
     </row>
     <row r="399" spans="1:50">
       <c r="A399" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B399" s="5">
         <v>35796</v>
@@ -15632,7 +15632,7 @@
     </row>
     <row r="400" spans="1:50">
       <c r="A400" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B400" s="5">
         <v>35800</v>
@@ -15665,7 +15665,7 @@
     </row>
     <row r="401" spans="1:36">
       <c r="A401" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B401" s="5">
         <v>35804</v>
@@ -15698,7 +15698,7 @@
     </row>
     <row r="402" spans="1:36">
       <c r="A402" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B402" s="5">
         <v>35808</v>
@@ -15731,7 +15731,7 @@
     </row>
     <row r="403" spans="1:36">
       <c r="A403" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B403" s="5">
         <v>35813</v>
@@ -15764,7 +15764,7 @@
     </row>
     <row r="404" spans="1:36">
       <c r="A404" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B404" s="5">
         <v>35814</v>
@@ -15797,7 +15797,7 @@
     </row>
     <row r="405" spans="1:36">
       <c r="A405" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B405" s="5">
         <v>35815</v>
@@ -15854,7 +15854,7 @@
     </row>
     <row r="406" spans="1:36">
       <c r="A406" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B406" s="5">
         <v>35816</v>
@@ -15893,7 +15893,7 @@
     </row>
     <row r="407" spans="1:36">
       <c r="A407" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B407" s="5">
         <v>35817</v>
@@ -15932,7 +15932,7 @@
     </row>
     <row r="408" spans="1:36">
       <c r="A408" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B408" s="5">
         <v>35819</v>
@@ -15965,7 +15965,7 @@
     </row>
     <row r="409" spans="1:36">
       <c r="A409" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B409" s="5">
         <v>35821</v>
@@ -16007,7 +16007,7 @@
     </row>
     <row r="410" spans="1:36">
       <c r="A410" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B410" s="5">
         <v>35822</v>
@@ -16040,7 +16040,7 @@
     </row>
     <row r="411" spans="1:36">
       <c r="A411" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B411" s="5">
         <v>35824</v>
@@ -16073,7 +16073,7 @@
     </row>
     <row r="412" spans="1:36">
       <c r="A412" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B412" s="5">
         <v>35828</v>
@@ -16109,7 +16109,7 @@
     </row>
     <row r="413" spans="1:36">
       <c r="A413" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B413" s="5">
         <v>35829</v>
@@ -16142,7 +16142,7 @@
     </row>
     <row r="414" spans="1:36">
       <c r="A414" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B414" s="5">
         <v>35830</v>
@@ -16175,7 +16175,7 @@
     </row>
     <row r="415" spans="1:36">
       <c r="A415" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B415" s="5">
         <v>35831</v>
@@ -16208,7 +16208,7 @@
     </row>
     <row r="416" spans="1:36">
       <c r="A416" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B416" s="5">
         <v>35832</v>
@@ -16244,7 +16244,7 @@
     </row>
     <row r="417" spans="1:42">
       <c r="A417" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B417" s="5">
         <v>35833</v>
@@ -16277,7 +16277,7 @@
     </row>
     <row r="418" spans="1:42">
       <c r="A418" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B418" s="5">
         <v>35835</v>
@@ -16316,7 +16316,7 @@
     </row>
     <row r="419" spans="1:42">
       <c r="A419" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B419" s="5">
         <v>35836</v>
@@ -16352,7 +16352,7 @@
     </row>
     <row r="420" spans="1:42">
       <c r="A420" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B420" s="5">
         <v>35839</v>
@@ -16388,7 +16388,7 @@
     </row>
     <row r="421" spans="1:42">
       <c r="A421" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B421" s="5">
         <v>35840</v>
@@ -16421,7 +16421,7 @@
     </row>
     <row r="422" spans="1:42">
       <c r="A422" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B422" s="5">
         <v>35841</v>
@@ -16454,7 +16454,7 @@
     </row>
     <row r="423" spans="1:42">
       <c r="A423" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B423" s="5">
         <v>35842</v>
@@ -16493,7 +16493,7 @@
     </row>
     <row r="424" spans="1:42">
       <c r="A424" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B424" s="5">
         <v>35843</v>
@@ -16562,7 +16562,7 @@
     </row>
     <row r="425" spans="1:42">
       <c r="A425" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B425" s="5">
         <v>35844</v>
@@ -16604,7 +16604,7 @@
     </row>
     <row r="426" spans="1:42">
       <c r="A426" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B426" s="5">
         <v>35846</v>
@@ -16637,7 +16637,7 @@
     </row>
     <row r="427" spans="1:42">
       <c r="A427" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B427" s="5">
         <v>35848</v>
@@ -16670,7 +16670,7 @@
     </row>
     <row r="428" spans="1:42">
       <c r="A428" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B428" s="5">
         <v>35849</v>
@@ -16709,7 +16709,7 @@
     </row>
     <row r="429" spans="1:42">
       <c r="A429" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B429" s="5">
         <v>35852</v>
@@ -16745,7 +16745,7 @@
     </row>
     <row r="430" spans="1:42">
       <c r="A430" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B430" s="5">
         <v>35853</v>
@@ -16778,7 +16778,7 @@
     </row>
     <row r="431" spans="1:42">
       <c r="A431" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B431" s="5">
         <v>35854</v>
@@ -16817,7 +16817,7 @@
     </row>
     <row r="432" spans="1:42">
       <c r="A432" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B432" s="5">
         <v>35855</v>
@@ -16850,7 +16850,7 @@
     </row>
     <row r="433" spans="1:49">
       <c r="A433" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B433" s="5">
         <v>35856</v>
@@ -16886,7 +16886,7 @@
     </row>
     <row r="434" spans="1:49">
       <c r="A434" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B434" s="5">
         <v>35857</v>
@@ -16940,7 +16940,7 @@
     </row>
     <row r="435" spans="1:49">
       <c r="A435" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B435" s="5">
         <v>35858</v>
@@ -16979,7 +16979,7 @@
     </row>
     <row r="436" spans="1:49">
       <c r="A436" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B436" s="5">
         <v>35859</v>
@@ -17012,7 +17012,7 @@
     </row>
     <row r="437" spans="1:49">
       <c r="A437" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B437" s="5">
         <v>35860</v>
@@ -17048,7 +17048,7 @@
     </row>
     <row r="438" spans="1:49">
       <c r="A438" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B438" s="5">
         <v>35861</v>
@@ -17105,7 +17105,7 @@
     </row>
     <row r="439" spans="1:49">
       <c r="A439" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B439" s="5">
         <v>35863</v>
@@ -17138,7 +17138,7 @@
     </row>
     <row r="440" spans="1:49">
       <c r="A440" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B440" s="5">
         <v>35864</v>
@@ -17174,7 +17174,7 @@
     </row>
     <row r="441" spans="1:49">
       <c r="A441" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B441" s="5">
         <v>35865</v>
@@ -17210,7 +17210,7 @@
     </row>
     <row r="442" spans="1:49">
       <c r="A442" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B442" s="5">
         <v>35867</v>
@@ -17246,7 +17246,7 @@
     </row>
     <row r="443" spans="1:49">
       <c r="A443" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B443" s="5">
         <v>35869</v>
@@ -17294,13 +17294,13 @@
     </row>
     <row r="444" spans="1:49">
       <c r="A444" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B444" s="5">
         <v>35870</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D444" s="6">
         <v>102.83020062021301</v>
@@ -17408,7 +17408,7 @@
     </row>
     <row r="445" spans="1:49">
       <c r="A445" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B445" s="5">
         <v>35768</v>
@@ -17441,7 +17441,7 @@
     </row>
     <row r="446" spans="1:49">
       <c r="A446" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B446" s="5">
         <v>35774</v>
@@ -17474,7 +17474,7 @@
     </row>
     <row r="447" spans="1:49">
       <c r="A447" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B447" s="5">
         <v>35776</v>
@@ -17507,7 +17507,7 @@
     </row>
     <row r="448" spans="1:49">
       <c r="A448" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B448" s="5">
         <v>35781</v>
@@ -17540,7 +17540,7 @@
     </row>
     <row r="449" spans="1:50">
       <c r="A449" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B449" s="5">
         <v>35790</v>
@@ -17573,7 +17573,7 @@
     </row>
     <row r="450" spans="1:50">
       <c r="A450" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B450" s="5">
         <v>35795</v>
@@ -17606,7 +17606,7 @@
     </row>
     <row r="451" spans="1:50">
       <c r="A451" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B451" s="5">
         <v>35797</v>
@@ -17639,7 +17639,7 @@
     </row>
     <row r="452" spans="1:50">
       <c r="A452" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B452" s="5">
         <v>35801</v>
@@ -17672,7 +17672,7 @@
     </row>
     <row r="453" spans="1:50">
       <c r="A453" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B453" s="5">
         <v>35803</v>
@@ -17705,7 +17705,7 @@
     </row>
     <row r="454" spans="1:50">
       <c r="A454" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B454" s="5">
         <v>35806</v>
@@ -17762,7 +17762,7 @@
     </row>
     <row r="455" spans="1:50">
       <c r="A455" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B455" s="5">
         <v>35808</v>
@@ -17795,7 +17795,7 @@
     </row>
     <row r="456" spans="1:50">
       <c r="A456" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B456" s="5">
         <v>35813</v>
@@ -17828,7 +17828,7 @@
     </row>
     <row r="457" spans="1:50">
       <c r="A457" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B457" s="5">
         <v>35814</v>
@@ -17864,7 +17864,7 @@
     </row>
     <row r="458" spans="1:50">
       <c r="A458" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B458" s="5">
         <v>35816</v>
@@ -17921,7 +17921,7 @@
     </row>
     <row r="459" spans="1:50">
       <c r="A459" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B459" s="5">
         <v>35817</v>
@@ -17966,7 +17966,7 @@
     </row>
     <row r="460" spans="1:50">
       <c r="A460" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B460" s="5">
         <v>35818</v>
@@ -17999,7 +17999,7 @@
     </row>
     <row r="461" spans="1:50">
       <c r="A461" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B461" s="5">
         <v>35820</v>
@@ -18032,7 +18032,7 @@
     </row>
     <row r="462" spans="1:50">
       <c r="A462" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B462" s="5">
         <v>35821</v>
@@ -18068,7 +18068,7 @@
     </row>
     <row r="463" spans="1:50">
       <c r="A463" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B463" s="5">
         <v>35824</v>
@@ -18104,7 +18104,7 @@
     </row>
     <row r="464" spans="1:50">
       <c r="A464" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B464" s="5">
         <v>35825</v>
@@ -18137,7 +18137,7 @@
     </row>
     <row r="465" spans="1:50">
       <c r="A465" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B465" s="5">
         <v>35826</v>
@@ -18173,7 +18173,7 @@
     </row>
     <row r="466" spans="1:50">
       <c r="A466" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B466" s="5">
         <v>35828</v>
@@ -18215,7 +18215,7 @@
     </row>
     <row r="467" spans="1:50">
       <c r="A467" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B467" s="5">
         <v>35829</v>
@@ -18248,7 +18248,7 @@
     </row>
     <row r="468" spans="1:50">
       <c r="A468" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B468" s="5">
         <v>35831</v>
@@ -18281,7 +18281,7 @@
     </row>
     <row r="469" spans="1:50">
       <c r="A469" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B469" s="5">
         <v>35832</v>
@@ -18317,7 +18317,7 @@
     </row>
     <row r="470" spans="1:50">
       <c r="A470" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B470" s="5">
         <v>35834</v>
@@ -18353,7 +18353,7 @@
     </row>
     <row r="471" spans="1:50">
       <c r="A471" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B471" s="5">
         <v>35835</v>
@@ -18389,7 +18389,7 @@
     </row>
     <row r="472" spans="1:50">
       <c r="A472" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B472" s="5">
         <v>35836</v>
@@ -18422,7 +18422,7 @@
     </row>
     <row r="473" spans="1:50">
       <c r="A473" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B473" s="5">
         <v>35838</v>
@@ -18458,7 +18458,7 @@
     </row>
     <row r="474" spans="1:50">
       <c r="A474" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B474" s="5">
         <v>35839</v>
@@ -18491,7 +18491,7 @@
     </row>
     <row r="475" spans="1:50">
       <c r="A475" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B475" s="5">
         <v>35841</v>
@@ -18533,7 +18533,7 @@
     </row>
     <row r="476" spans="1:50">
       <c r="A476" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B476" s="5">
         <v>35842</v>
@@ -18569,7 +18569,7 @@
     </row>
     <row r="477" spans="1:50">
       <c r="A477" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B477" s="5">
         <v>35844</v>
@@ -18617,7 +18617,7 @@
     </row>
     <row r="478" spans="1:50">
       <c r="A478" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B478" s="5">
         <v>35845</v>
@@ -18650,7 +18650,7 @@
     </row>
     <row r="479" spans="1:50">
       <c r="A479" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B479" s="5">
         <v>35846</v>
@@ -18710,7 +18710,7 @@
     </row>
     <row r="480" spans="1:50">
       <c r="A480" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B480" s="5">
         <v>35848</v>
@@ -18749,7 +18749,7 @@
     </row>
     <row r="481" spans="1:50">
       <c r="A481" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B481" s="5">
         <v>35849</v>
@@ -18782,7 +18782,7 @@
     </row>
     <row r="482" spans="1:50">
       <c r="A482" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B482" s="5">
         <v>35851</v>
@@ -18815,7 +18815,7 @@
     </row>
     <row r="483" spans="1:50">
       <c r="A483" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B483" s="5">
         <v>35852</v>
@@ -18854,7 +18854,7 @@
     </row>
     <row r="484" spans="1:50">
       <c r="A484" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B484" s="5">
         <v>35853</v>
@@ -18887,7 +18887,7 @@
     </row>
     <row r="485" spans="1:50">
       <c r="A485" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B485" s="5">
         <v>35854</v>
@@ -18920,7 +18920,7 @@
     </row>
     <row r="486" spans="1:50">
       <c r="A486" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B486" s="5">
         <v>35855</v>
@@ -18962,7 +18962,7 @@
     </row>
     <row r="487" spans="1:50">
       <c r="A487" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B487" s="5">
         <v>35856</v>
@@ -18998,7 +18998,7 @@
     </row>
     <row r="488" spans="1:50">
       <c r="A488" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B488" s="5">
         <v>35857</v>
@@ -19034,7 +19034,7 @@
     </row>
     <row r="489" spans="1:50">
       <c r="A489" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B489" s="5">
         <v>35858</v>
@@ -19067,7 +19067,7 @@
     </row>
     <row r="490" spans="1:50">
       <c r="A490" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B490" s="5">
         <v>35859</v>
@@ -19106,7 +19106,7 @@
     </row>
     <row r="491" spans="1:50">
       <c r="A491" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B491" s="5">
         <v>35860</v>
@@ -19142,7 +19142,7 @@
     </row>
     <row r="492" spans="1:50">
       <c r="A492" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B492" s="5">
         <v>35862</v>
@@ -19175,7 +19175,7 @@
     </row>
     <row r="493" spans="1:50">
       <c r="A493" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B493" s="5">
         <v>35864</v>
@@ -19217,7 +19217,7 @@
     </row>
     <row r="494" spans="1:50">
       <c r="A494" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B494" s="5">
         <v>35865</v>
@@ -19259,13 +19259,13 @@
     </row>
     <row r="495" spans="1:50">
       <c r="A495" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B495" s="5">
         <v>35866</v>
       </c>
       <c r="C495" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D495" s="6">
         <v>98.832891246684298</v>
@@ -19367,7 +19367,7 @@
     </row>
     <row r="496" spans="1:50">
       <c r="A496" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B496" s="5">
         <v>35867</v>
@@ -19403,7 +19403,7 @@
     </row>
     <row r="497" spans="1:36">
       <c r="A497" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B497" s="5">
         <v>35868</v>
@@ -19436,7 +19436,7 @@
     </row>
     <row r="498" spans="1:36">
       <c r="A498" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B498" s="5">
         <v>35870</v>
@@ -19469,7 +19469,7 @@
     </row>
     <row r="499" spans="1:36">
       <c r="A499" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B499" s="5">
         <v>35874</v>
@@ -19501,6 +19501,10 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AX499">
+    <sortCondition ref="A2:A499"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Prototypes/Mungbean/Exp3observed.xlsx
+++ b/Prototypes/Mungbean/Exp3observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1E343E-4D49-47A9-A9D5-48FED1AF777E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AC5934-06C2-49AA-9F8C-984272EE5EB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C69385E-AA3F-4CF3-AF00-E1E4599E61EE}"/>
   </bookViews>
@@ -113,12 +113,6 @@
     <t>TotNO3160</t>
   </si>
   <si>
-    <t>Soybean.Phenology.FloweringDAS</t>
-  </si>
-  <si>
-    <t>Soybean.Phenology.EarlyPodDevelopmentDAS</t>
-  </si>
-  <si>
     <t>Soybean.Phenology.MaturityDAS</t>
   </si>
   <si>
@@ -216,6 +210,12 @@
   </si>
   <si>
     <t>Days after Sowing (usually first sowing)</t>
+  </si>
+  <si>
+    <t>Soybean.Phenology.StartPodDevDAS</t>
+  </si>
+  <si>
+    <t>Soybean.Phenology.StartFloweringDAS</t>
   </si>
 </sst>
 </file>
@@ -600,9 +600,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21968B1A-9F2D-47BD-B4B3-097E93366914}">
   <dimension ref="A1:AX499"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -619,16 +619,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -664,7 +664,7 @@
         <v>12</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>13</v>
@@ -703,75 +703,75 @@
         <v>24</v>
       </c>
       <c r="AE1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AH1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AK1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AL1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AT1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AU1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AV1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AW1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:50">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="5">
         <v>35870</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" s="6">
         <v>102.83020062021301</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="3" spans="1:50">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="5">
         <v>35815</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="4" spans="1:50">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" s="5">
         <v>35861</v>
@@ -990,7 +990,7 @@
     </row>
     <row r="5" spans="1:50">
       <c r="A5" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" s="5">
         <v>35843</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="6" spans="1:50">
       <c r="A6" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B6" s="5">
         <v>35861</v>
@@ -1119,13 +1119,13 @@
     </row>
     <row r="7" spans="1:50">
       <c r="A7" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="5">
         <v>35866</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" s="6">
         <v>98.832891246684298</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="8" spans="1:50">
       <c r="A8" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="5">
         <v>35846</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="9" spans="1:50">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" s="5">
         <v>35815</v>
@@ -1344,13 +1344,13 @@
     </row>
     <row r="10" spans="1:50">
       <c r="A10" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" s="5">
         <v>35858</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10" s="6">
         <v>90.914127423822606</v>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="11" spans="1:50">
       <c r="A11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11" s="5">
         <v>35800</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="12" spans="1:50">
       <c r="A12" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5">
         <v>35828</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="13" spans="1:50">
       <c r="A13" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B13" s="5">
         <v>35806</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="14" spans="1:50">
       <c r="A14" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" s="5">
         <v>35828</v>
@@ -1677,13 +1677,13 @@
     </row>
     <row r="15" spans="1:50">
       <c r="A15" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15" s="5">
         <v>35858</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" s="6">
         <v>90.557029177718803</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="16" spans="1:50">
       <c r="A16" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5">
         <v>35788</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="17" spans="1:50">
       <c r="A17" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B17" s="5">
         <v>35843</v>
@@ -1914,13 +1914,13 @@
     </row>
     <row r="18" spans="1:50">
       <c r="A18" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18" s="5">
         <v>35863</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D18" s="6">
         <v>95.5483163357178</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="19" spans="1:50">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B19" s="5">
         <v>35815</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="20" spans="1:50">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B20" s="5">
         <v>35861</v>
@@ -2136,7 +2136,7 @@
     </row>
     <row r="21" spans="1:50">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B21" s="5">
         <v>35843</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="22" spans="1:50">
       <c r="A22" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B22" s="5">
         <v>35782</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="23" spans="1:50">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B23" s="5">
         <v>35790</v>
@@ -2280,7 +2280,7 @@
     </row>
     <row r="24" spans="1:50">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" s="5">
         <v>35795</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="25" spans="1:50">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B25" s="5">
         <v>35797</v>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="26" spans="1:50">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26" s="5">
         <v>35800</v>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="27" spans="1:50">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B27" s="5">
         <v>35803</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="28" spans="1:50">
       <c r="A28" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5">
         <v>35807</v>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="29" spans="1:50">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29" s="5">
         <v>35812</v>
@@ -2482,7 +2482,7 @@
     </row>
     <row r="30" spans="1:50">
       <c r="A30" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B30" s="5">
         <v>35813</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="31" spans="1:50">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B31" s="5">
         <v>35815</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="32" spans="1:50">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B32" s="5">
         <v>35816</v>
@@ -2584,7 +2584,7 @@
     </row>
     <row r="33" spans="1:50">
       <c r="A33" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B33" s="5">
         <v>35817</v>
@@ -2617,7 +2617,7 @@
     </row>
     <row r="34" spans="1:50">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B34" s="5">
         <v>35818</v>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="35" spans="1:50">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35" s="5">
         <v>35820</v>
@@ -2683,7 +2683,7 @@
     </row>
     <row r="36" spans="1:50">
       <c r="A36" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B36" s="5">
         <v>35824</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="37" spans="1:50">
       <c r="A37" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B37" s="5">
         <v>35828</v>
@@ -2749,7 +2749,7 @@
     </row>
     <row r="38" spans="1:50">
       <c r="A38" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B38" s="5">
         <v>35830</v>
@@ -2788,7 +2788,7 @@
     </row>
     <row r="39" spans="1:50">
       <c r="A39" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B39" s="5">
         <v>35831</v>
@@ -2818,7 +2818,7 @@
     </row>
     <row r="40" spans="1:50">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B40" s="5">
         <v>35833</v>
@@ -2854,7 +2854,7 @@
     </row>
     <row r="41" spans="1:50">
       <c r="A41" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B41" s="5">
         <v>35834</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="42" spans="1:50">
       <c r="A42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B42" s="5">
         <v>35836</v>
@@ -2920,7 +2920,7 @@
     </row>
     <row r="43" spans="1:50">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B43" s="5">
         <v>35837</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="44" spans="1:50">
       <c r="A44" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B44" s="5">
         <v>35839</v>
@@ -2992,7 +2992,7 @@
     </row>
     <row r="45" spans="1:50">
       <c r="A45" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B45" s="5">
         <v>35840</v>
@@ -3028,7 +3028,7 @@
     </row>
     <row r="46" spans="1:50">
       <c r="A46" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B46" s="5">
         <v>35842</v>
@@ -3070,7 +3070,7 @@
     </row>
     <row r="47" spans="1:50">
       <c r="A47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B47" s="5">
         <v>35843</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="48" spans="1:50">
       <c r="A48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B48" s="5">
         <v>35844</v>
@@ -3154,7 +3154,7 @@
     </row>
     <row r="49" spans="1:48" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B49" s="5">
         <v>35845</v>
@@ -3190,7 +3190,7 @@
     </row>
     <row r="50" spans="1:48">
       <c r="A50" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B50" s="5">
         <v>35848</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="51" spans="1:48">
       <c r="A51" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B51" s="5">
         <v>35850</v>
@@ -3259,7 +3259,7 @@
     </row>
     <row r="52" spans="1:48">
       <c r="A52" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B52" s="5">
         <v>35851</v>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="53" spans="1:48">
       <c r="A53" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B53" s="5">
         <v>35852</v>
@@ -3328,7 +3328,7 @@
     </row>
     <row r="54" spans="1:48">
       <c r="A54" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B54" s="5">
         <v>35853</v>
@@ -3361,7 +3361,7 @@
     </row>
     <row r="55" spans="1:48">
       <c r="A55" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B55" s="5">
         <v>35854</v>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="56" spans="1:48">
       <c r="A56" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B56" s="5">
         <v>35855</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="57" spans="1:48">
       <c r="A57" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B57" s="5">
         <v>35856</v>
@@ -3466,7 +3466,7 @@
     </row>
     <row r="58" spans="1:48">
       <c r="A58" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B58" s="5">
         <v>35857</v>
@@ -3526,7 +3526,7 @@
     </row>
     <row r="59" spans="1:48">
       <c r="A59" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B59" s="5">
         <v>35858</v>
@@ -3562,7 +3562,7 @@
     </row>
     <row r="60" spans="1:48">
       <c r="A60" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B60" s="5">
         <v>35859</v>
@@ -3595,7 +3595,7 @@
     </row>
     <row r="61" spans="1:48">
       <c r="A61" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B61" s="5">
         <v>35860</v>
@@ -3628,7 +3628,7 @@
     </row>
     <row r="62" spans="1:48">
       <c r="A62" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B62" s="5">
         <v>35861</v>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="63" spans="1:48">
       <c r="A63" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B63" s="5">
         <v>35862</v>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="64" spans="1:48">
       <c r="A64" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B64" s="5">
         <v>35863</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="65" spans="1:49">
       <c r="A65" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B65" s="5">
         <v>35864</v>
@@ -3763,7 +3763,7 @@
     </row>
     <row r="66" spans="1:49">
       <c r="A66" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B66" s="5">
         <v>35865</v>
@@ -3796,7 +3796,7 @@
     </row>
     <row r="67" spans="1:49">
       <c r="A67" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B67" s="5">
         <v>35866</v>
@@ -3829,7 +3829,7 @@
     </row>
     <row r="68" spans="1:49">
       <c r="A68" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B68" s="5">
         <v>35868</v>
@@ -3859,7 +3859,7 @@
     </row>
     <row r="69" spans="1:49">
       <c r="A69" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B69" s="5">
         <v>35869</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="70" spans="1:49">
       <c r="A70" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B70" s="5">
         <v>35870</v>
@@ -3931,13 +3931,13 @@
     </row>
     <row r="71" spans="1:49">
       <c r="A71" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B71" s="5">
         <v>35871</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D71" s="6">
         <v>104.081291759465</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="72" spans="1:49">
       <c r="A72" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B72" s="5">
         <v>35872</v>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="73" spans="1:49">
       <c r="A73" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B73" s="5">
         <v>35873</v>
@@ -4075,7 +4075,7 @@
     </row>
     <row r="74" spans="1:49">
       <c r="A74" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B74" s="5">
         <v>35876</v>
@@ -4108,7 +4108,7 @@
     </row>
     <row r="75" spans="1:49">
       <c r="A75" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B75" s="5">
         <v>35877</v>
@@ -4141,7 +4141,7 @@
     </row>
     <row r="76" spans="1:49">
       <c r="A76" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B76" s="5">
         <v>35878</v>
@@ -4174,7 +4174,7 @@
     </row>
     <row r="77" spans="1:49">
       <c r="A77" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B77" s="5">
         <v>35879</v>
@@ -4210,7 +4210,7 @@
     </row>
     <row r="78" spans="1:49">
       <c r="A78" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B78" s="5">
         <v>35881</v>
@@ -4246,7 +4246,7 @@
     </row>
     <row r="79" spans="1:49">
       <c r="A79" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B79" s="5">
         <v>35882</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="80" spans="1:49">
       <c r="A80" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B80" s="5">
         <v>35884</v>
@@ -4336,7 +4336,7 @@
     </row>
     <row r="81" spans="1:36">
       <c r="A81" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B81" s="5">
         <v>35885</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="82" spans="1:36">
       <c r="A82" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B82" s="5">
         <v>35886</v>
@@ -4411,7 +4411,7 @@
     </row>
     <row r="83" spans="1:36">
       <c r="A83" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B83" s="5">
         <v>35782</v>
@@ -4444,7 +4444,7 @@
     </row>
     <row r="84" spans="1:36">
       <c r="A84" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B84" s="5">
         <v>35790</v>
@@ -4477,7 +4477,7 @@
     </row>
     <row r="85" spans="1:36">
       <c r="A85" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B85" s="5">
         <v>35795</v>
@@ -4510,7 +4510,7 @@
     </row>
     <row r="86" spans="1:36">
       <c r="A86" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B86" s="5">
         <v>35797</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="87" spans="1:36">
       <c r="A87" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B87" s="5">
         <v>35801</v>
@@ -4576,7 +4576,7 @@
     </row>
     <row r="88" spans="1:36">
       <c r="A88" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B88" s="5">
         <v>35803</v>
@@ -4609,7 +4609,7 @@
     </row>
     <row r="89" spans="1:36">
       <c r="A89" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B89" s="5">
         <v>35807</v>
@@ -4642,7 +4642,7 @@
     </row>
     <row r="90" spans="1:36">
       <c r="A90" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B90" s="5">
         <v>35813</v>
@@ -4675,7 +4675,7 @@
     </row>
     <row r="91" spans="1:36">
       <c r="A91" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B91" s="5">
         <v>35816</v>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="92" spans="1:36">
       <c r="A92" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B92" s="5">
         <v>35817</v>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="93" spans="1:36">
       <c r="A93" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B93" s="5">
         <v>35818</v>
@@ -4780,7 +4780,7 @@
     </row>
     <row r="94" spans="1:36">
       <c r="A94" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B94" s="5">
         <v>35820</v>
@@ -4813,7 +4813,7 @@
     </row>
     <row r="95" spans="1:36">
       <c r="A95" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B95" s="5">
         <v>35824</v>
@@ -4846,7 +4846,7 @@
     </row>
     <row r="96" spans="1:36">
       <c r="A96" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B96" s="5">
         <v>35829</v>
@@ -4885,7 +4885,7 @@
     </row>
     <row r="97" spans="1:42">
       <c r="A97" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B97" s="5">
         <v>35830</v>
@@ -4921,7 +4921,7 @@
     </row>
     <row r="98" spans="1:42">
       <c r="A98" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B98" s="5">
         <v>35831</v>
@@ -4957,7 +4957,7 @@
     </row>
     <row r="99" spans="1:42">
       <c r="A99" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B99" s="5">
         <v>35832</v>
@@ -4990,7 +4990,7 @@
     </row>
     <row r="100" spans="1:42">
       <c r="A100" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B100" s="5">
         <v>35833</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="101" spans="1:42">
       <c r="A101" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B101" s="5">
         <v>35835</v>
@@ -5062,7 +5062,7 @@
     </row>
     <row r="102" spans="1:42">
       <c r="A102" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B102" s="5">
         <v>35836</v>
@@ -5098,7 +5098,7 @@
     </row>
     <row r="103" spans="1:42">
       <c r="A103" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B103" s="5">
         <v>35838</v>
@@ -5131,7 +5131,7 @@
     </row>
     <row r="104" spans="1:42">
       <c r="A104" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B104" s="5">
         <v>35839</v>
@@ -5164,7 +5164,7 @@
     </row>
     <row r="105" spans="1:42">
       <c r="A105" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B105" s="5">
         <v>35840</v>
@@ -5200,7 +5200,7 @@
     </row>
     <row r="106" spans="1:42">
       <c r="A106" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B106" s="5">
         <v>35841</v>
@@ -5233,7 +5233,7 @@
     </row>
     <row r="107" spans="1:42">
       <c r="A107" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B107" s="5">
         <v>35842</v>
@@ -5272,7 +5272,7 @@
     </row>
     <row r="108" spans="1:42">
       <c r="A108" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B108" s="5">
         <v>35844</v>
@@ -5317,7 +5317,7 @@
     </row>
     <row r="109" spans="1:42">
       <c r="A109" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B109" s="5">
         <v>35846</v>
@@ -5350,7 +5350,7 @@
     </row>
     <row r="110" spans="1:42">
       <c r="A110" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B110" s="5">
         <v>35848</v>
@@ -5386,7 +5386,7 @@
     </row>
     <row r="111" spans="1:42">
       <c r="A111" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B111" s="5">
         <v>35849</v>
@@ -5422,7 +5422,7 @@
     </row>
     <row r="112" spans="1:42">
       <c r="A112" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B112" s="5">
         <v>35851</v>
@@ -5455,7 +5455,7 @@
     </row>
     <row r="113" spans="1:48">
       <c r="A113" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B113" s="5">
         <v>35852</v>
@@ -5491,7 +5491,7 @@
     </row>
     <row r="114" spans="1:48">
       <c r="A114" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B114" s="5">
         <v>35853</v>
@@ -5524,7 +5524,7 @@
     </row>
     <row r="115" spans="1:48">
       <c r="A115" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B115" s="5">
         <v>35854</v>
@@ -5557,7 +5557,7 @@
     </row>
     <row r="116" spans="1:48">
       <c r="A116" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B116" s="5">
         <v>35855</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="117" spans="1:48" ht="15.75" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B117" s="5">
         <v>35856</v>
@@ -5635,7 +5635,7 @@
     </row>
     <row r="118" spans="1:48">
       <c r="A118" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B118" s="5">
         <v>35857</v>
@@ -5680,7 +5680,7 @@
     </row>
     <row r="119" spans="1:48">
       <c r="A119" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B119" s="5">
         <v>35858</v>
@@ -5719,7 +5719,7 @@
     </row>
     <row r="120" spans="1:48">
       <c r="A120" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B120" s="5">
         <v>35859</v>
@@ -5755,7 +5755,7 @@
     </row>
     <row r="121" spans="1:48">
       <c r="A121" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B121" s="5">
         <v>35860</v>
@@ -5791,13 +5791,13 @@
     </row>
     <row r="122" spans="1:48">
       <c r="A122" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B122" s="5">
         <v>35863</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D122" s="6">
         <v>96.424668665414998</v>
@@ -5863,7 +5863,7 @@
     </row>
     <row r="123" spans="1:48">
       <c r="A123" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B123" s="5">
         <v>35864</v>
@@ -5899,7 +5899,7 @@
     </row>
     <row r="124" spans="1:48">
       <c r="A124" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B124" s="5">
         <v>35865</v>
@@ -5932,7 +5932,7 @@
     </row>
     <row r="125" spans="1:48">
       <c r="A125" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B125" s="5">
         <v>35868</v>
@@ -5965,7 +5965,7 @@
     </row>
     <row r="126" spans="1:48">
       <c r="A126" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B126" s="5">
         <v>35869</v>
@@ -5998,7 +5998,7 @@
     </row>
     <row r="127" spans="1:48">
       <c r="A127" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B127" s="5">
         <v>35870</v>
@@ -6040,7 +6040,7 @@
     </row>
     <row r="128" spans="1:48">
       <c r="A128" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B128" s="5">
         <v>35871</v>
@@ -6076,7 +6076,7 @@
     </row>
     <row r="129" spans="1:50">
       <c r="A129" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B129" s="5">
         <v>35872</v>
@@ -6112,7 +6112,7 @@
     </row>
     <row r="130" spans="1:50">
       <c r="A130" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B130" s="5">
         <v>35873</v>
@@ -6145,7 +6145,7 @@
     </row>
     <row r="131" spans="1:50">
       <c r="A131" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B131" s="5">
         <v>35875</v>
@@ -6187,7 +6187,7 @@
     </row>
     <row r="132" spans="1:50">
       <c r="A132" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B132" s="5">
         <v>35876</v>
@@ -6220,7 +6220,7 @@
     </row>
     <row r="133" spans="1:50">
       <c r="A133" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B133" s="5">
         <v>35877</v>
@@ -6283,7 +6283,7 @@
     </row>
     <row r="134" spans="1:50">
       <c r="A134" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B134" s="5">
         <v>35782</v>
@@ -6316,7 +6316,7 @@
     </row>
     <row r="135" spans="1:50">
       <c r="A135" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B135" s="5">
         <v>35775</v>
@@ -6349,7 +6349,7 @@
     </row>
     <row r="136" spans="1:50">
       <c r="A136" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B136" s="5">
         <v>35790</v>
@@ -6382,7 +6382,7 @@
     </row>
     <row r="137" spans="1:50">
       <c r="A137" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B137" s="5">
         <v>35796</v>
@@ -6415,7 +6415,7 @@
     </row>
     <row r="138" spans="1:50">
       <c r="A138" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B138" s="5">
         <v>35799</v>
@@ -6448,7 +6448,7 @@
     </row>
     <row r="139" spans="1:50">
       <c r="A139" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B139" s="5">
         <v>35803</v>
@@ -6481,7 +6481,7 @@
     </row>
     <row r="140" spans="1:50">
       <c r="A140" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B140" s="5">
         <v>35804</v>
@@ -6514,7 +6514,7 @@
     </row>
     <row r="141" spans="1:50">
       <c r="A141" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B141" s="5">
         <v>35808</v>
@@ -6547,7 +6547,7 @@
     </row>
     <row r="142" spans="1:50">
       <c r="A142" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B142" s="5">
         <v>35812</v>
@@ -6584,7 +6584,7 @@
     </row>
     <row r="143" spans="1:50">
       <c r="A143" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B143" s="5">
         <v>35813</v>
@@ -6617,7 +6617,7 @@
     </row>
     <row r="144" spans="1:50">
       <c r="A144" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B144" s="5">
         <v>35816</v>
@@ -6656,7 +6656,7 @@
     </row>
     <row r="145" spans="1:50">
       <c r="A145" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B145" s="5">
         <v>35817</v>
@@ -6695,7 +6695,7 @@
     </row>
     <row r="146" spans="1:50">
       <c r="A146" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B146" s="5">
         <v>35820</v>
@@ -6731,7 +6731,7 @@
     </row>
     <row r="147" spans="1:50">
       <c r="A147" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B147" s="5">
         <v>35823</v>
@@ -6767,7 +6767,7 @@
     </row>
     <row r="148" spans="1:50">
       <c r="A148" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B148" s="5">
         <v>35824</v>
@@ -6806,7 +6806,7 @@
     </row>
     <row r="149" spans="1:50">
       <c r="A149" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B149" s="5">
         <v>35829</v>
@@ -6839,7 +6839,7 @@
     </row>
     <row r="150" spans="1:50">
       <c r="A150" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B150" s="5">
         <v>35830</v>
@@ -6872,7 +6872,7 @@
     </row>
     <row r="151" spans="1:50">
       <c r="A151" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B151" s="5">
         <v>35831</v>
@@ -6908,7 +6908,7 @@
     </row>
     <row r="152" spans="1:50">
       <c r="A152" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B152" s="5">
         <v>35832</v>
@@ -6941,7 +6941,7 @@
     </row>
     <row r="153" spans="1:50">
       <c r="A153" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B153" s="5">
         <v>35833</v>
@@ -6974,7 +6974,7 @@
     </row>
     <row r="154" spans="1:50">
       <c r="A154" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B154" s="5">
         <v>35834</v>
@@ -7010,7 +7010,7 @@
     </row>
     <row r="155" spans="1:50">
       <c r="A155" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B155" s="5">
         <v>35835</v>
@@ -7043,7 +7043,7 @@
     </row>
     <row r="156" spans="1:50">
       <c r="A156" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B156" s="5">
         <v>35837</v>
@@ -7085,7 +7085,7 @@
     </row>
     <row r="157" spans="1:50">
       <c r="A157" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B157" s="5">
         <v>35838</v>
@@ -7118,7 +7118,7 @@
     </row>
     <row r="158" spans="1:50">
       <c r="A158" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B158" s="5">
         <v>35839</v>
@@ -7151,7 +7151,7 @@
     </row>
     <row r="159" spans="1:50">
       <c r="A159" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B159" s="5">
         <v>35841</v>
@@ -7202,7 +7202,7 @@
     </row>
     <row r="160" spans="1:50">
       <c r="A160" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B160" s="5">
         <v>35842</v>
@@ -7238,7 +7238,7 @@
     </row>
     <row r="161" spans="1:48">
       <c r="A161" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B161" s="5">
         <v>35843</v>
@@ -7274,7 +7274,7 @@
     </row>
     <row r="162" spans="1:48">
       <c r="A162" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B162" s="5">
         <v>35844</v>
@@ -7316,7 +7316,7 @@
     </row>
     <row r="163" spans="1:48">
       <c r="A163" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B163" s="5">
         <v>35846</v>
@@ -7349,7 +7349,7 @@
     </row>
     <row r="164" spans="1:48">
       <c r="A164" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B164" s="5">
         <v>35847</v>
@@ -7382,7 +7382,7 @@
     </row>
     <row r="165" spans="1:48">
       <c r="A165" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B165" s="5">
         <v>35848</v>
@@ -7418,7 +7418,7 @@
     </row>
     <row r="166" spans="1:48">
       <c r="A166" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B166" s="5">
         <v>35849</v>
@@ -7451,7 +7451,7 @@
     </row>
     <row r="167" spans="1:48">
       <c r="A167" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B167" s="5">
         <v>35851</v>
@@ -7487,7 +7487,7 @@
     </row>
     <row r="168" spans="1:48">
       <c r="A168" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B168" s="5">
         <v>35852</v>
@@ -7526,7 +7526,7 @@
     </row>
     <row r="169" spans="1:48">
       <c r="A169" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B169" s="5">
         <v>35853</v>
@@ -7559,7 +7559,7 @@
     </row>
     <row r="170" spans="1:48">
       <c r="A170" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B170" s="5">
         <v>35854</v>
@@ -7598,7 +7598,7 @@
     </row>
     <row r="171" spans="1:48" ht="16.5" customHeight="1">
       <c r="A171" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B171" s="5">
         <v>35855</v>
@@ -7631,7 +7631,7 @@
     </row>
     <row r="172" spans="1:48">
       <c r="A172" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B172" s="5">
         <v>35856</v>
@@ -7664,7 +7664,7 @@
     </row>
     <row r="173" spans="1:48">
       <c r="A173" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B173" s="5">
         <v>35857</v>
@@ -7715,7 +7715,7 @@
     </row>
     <row r="174" spans="1:48">
       <c r="A174" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B174" s="5">
         <v>35858</v>
@@ -7751,7 +7751,7 @@
     </row>
     <row r="175" spans="1:48">
       <c r="A175" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B175" s="5">
         <v>35859</v>
@@ -7787,7 +7787,7 @@
     </row>
     <row r="176" spans="1:48">
       <c r="A176" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B176" s="5">
         <v>35862</v>
@@ -7823,7 +7823,7 @@
     </row>
     <row r="177" spans="1:50">
       <c r="A177" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B177" s="5">
         <v>35864</v>
@@ -7856,7 +7856,7 @@
     </row>
     <row r="178" spans="1:50">
       <c r="A178" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B178" s="5">
         <v>35865</v>
@@ -7889,7 +7889,7 @@
     </row>
     <row r="179" spans="1:50">
       <c r="A179" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B179" s="5">
         <v>35868</v>
@@ -7925,7 +7925,7 @@
     </row>
     <row r="180" spans="1:50">
       <c r="A180" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B180" s="5">
         <v>35869</v>
@@ -7964,7 +7964,7 @@
     </row>
     <row r="181" spans="1:50">
       <c r="A181" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B181" s="5">
         <v>35870</v>
@@ -7997,7 +7997,7 @@
     </row>
     <row r="182" spans="1:50">
       <c r="A182" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B182" s="5">
         <v>35871</v>
@@ -8042,7 +8042,7 @@
     </row>
     <row r="183" spans="1:50">
       <c r="A183" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B183" s="5">
         <v>35872</v>
@@ -8084,7 +8084,7 @@
     </row>
     <row r="184" spans="1:50">
       <c r="A184" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B184" s="5">
         <v>35875</v>
@@ -8120,7 +8120,7 @@
     </row>
     <row r="185" spans="1:50">
       <c r="A185" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B185" s="5">
         <v>35876</v>
@@ -8156,7 +8156,7 @@
     </row>
     <row r="186" spans="1:50">
       <c r="A186" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B186" s="5">
         <v>35877</v>
@@ -8210,7 +8210,7 @@
     </row>
     <row r="187" spans="1:50">
       <c r="A187" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B187" s="5">
         <v>35881</v>
@@ -8243,7 +8243,7 @@
     </row>
     <row r="188" spans="1:50">
       <c r="A188" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B188" s="5">
         <v>35795</v>
@@ -8276,7 +8276,7 @@
     </row>
     <row r="189" spans="1:50">
       <c r="A189" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B189" s="5">
         <v>35799</v>
@@ -8312,7 +8312,7 @@
     </row>
     <row r="190" spans="1:50">
       <c r="A190" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B190" s="5">
         <v>35801</v>
@@ -8345,7 +8345,7 @@
     </row>
     <row r="191" spans="1:50">
       <c r="A191" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B191" s="5">
         <v>35804</v>
@@ -8378,7 +8378,7 @@
     </row>
     <row r="192" spans="1:50">
       <c r="A192" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B192" s="5">
         <v>35808</v>
@@ -8411,7 +8411,7 @@
     </row>
     <row r="193" spans="1:50">
       <c r="A193" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B193" s="5">
         <v>35814</v>
@@ -8444,7 +8444,7 @@
     </row>
     <row r="194" spans="1:50">
       <c r="A194" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B194" s="5">
         <v>35815</v>
@@ -8477,7 +8477,7 @@
     </row>
     <row r="195" spans="1:50">
       <c r="A195" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B195" s="5">
         <v>35816</v>
@@ -8513,7 +8513,7 @@
     </row>
     <row r="196" spans="1:50">
       <c r="A196" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B196" s="5">
         <v>35817</v>
@@ -8549,7 +8549,7 @@
     </row>
     <row r="197" spans="1:50">
       <c r="A197" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B197" s="5">
         <v>35820</v>
@@ -8582,7 +8582,7 @@
     </row>
     <row r="198" spans="1:50">
       <c r="A198" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B198" s="5">
         <v>35824</v>
@@ -8615,7 +8615,7 @@
     </row>
     <row r="199" spans="1:50">
       <c r="A199" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B199" s="5">
         <v>35828</v>
@@ -8654,7 +8654,7 @@
     </row>
     <row r="200" spans="1:50">
       <c r="A200" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B200" s="5">
         <v>35834</v>
@@ -8687,7 +8687,7 @@
     </row>
     <row r="201" spans="1:50">
       <c r="A201" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B201" s="5">
         <v>35836</v>
@@ -8720,7 +8720,7 @@
     </row>
     <row r="202" spans="1:50">
       <c r="A202" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B202" s="5">
         <v>35837</v>
@@ -8753,7 +8753,7 @@
     </row>
     <row r="203" spans="1:50">
       <c r="A203" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B203" s="5">
         <v>35838</v>
@@ -8786,7 +8786,7 @@
     </row>
     <row r="204" spans="1:50">
       <c r="A204" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B204" s="5">
         <v>35839</v>
@@ -8819,7 +8819,7 @@
     </row>
     <row r="205" spans="1:50">
       <c r="A205" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B205" s="5">
         <v>35840</v>
@@ -8852,7 +8852,7 @@
     </row>
     <row r="206" spans="1:50">
       <c r="A206" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B206" s="5">
         <v>35841</v>
@@ -8888,7 +8888,7 @@
     </row>
     <row r="207" spans="1:50">
       <c r="A207" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B207" s="5">
         <v>35842</v>
@@ -8921,7 +8921,7 @@
     </row>
     <row r="208" spans="1:50">
       <c r="A208" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B208" s="5">
         <v>35843</v>
@@ -8963,7 +8963,7 @@
     </row>
     <row r="209" spans="1:48">
       <c r="A209" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B209" s="5">
         <v>35844</v>
@@ -9005,7 +9005,7 @@
     </row>
     <row r="210" spans="1:48">
       <c r="A210" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B210" s="5">
         <v>35845</v>
@@ -9041,7 +9041,7 @@
     </row>
     <row r="211" spans="1:48">
       <c r="A211" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B211" s="5">
         <v>35848</v>
@@ -9074,7 +9074,7 @@
     </row>
     <row r="212" spans="1:48">
       <c r="A212" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B212" s="5">
         <v>35850</v>
@@ -9107,7 +9107,7 @@
     </row>
     <row r="213" spans="1:48">
       <c r="A213" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B213" s="5">
         <v>35851</v>
@@ -9140,7 +9140,7 @@
     </row>
     <row r="214" spans="1:48">
       <c r="A214" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B214" s="5">
         <v>35852</v>
@@ -9179,7 +9179,7 @@
     </row>
     <row r="215" spans="1:48">
       <c r="A215" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B215" s="5">
         <v>35854</v>
@@ -9212,7 +9212,7 @@
     </row>
     <row r="216" spans="1:48">
       <c r="A216" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B216" s="5">
         <v>35855</v>
@@ -9251,7 +9251,7 @@
     </row>
     <row r="217" spans="1:48">
       <c r="A217" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B217" s="5">
         <v>35856</v>
@@ -9284,7 +9284,7 @@
     </row>
     <row r="218" spans="1:48">
       <c r="A218" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B218" s="5">
         <v>35857</v>
@@ -9335,7 +9335,7 @@
     </row>
     <row r="219" spans="1:48">
       <c r="A219" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B219" s="5">
         <v>35858</v>
@@ -9377,7 +9377,7 @@
     </row>
     <row r="220" spans="1:48">
       <c r="A220" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B220" s="5">
         <v>35859</v>
@@ -9413,7 +9413,7 @@
     </row>
     <row r="221" spans="1:48">
       <c r="A221" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B221" s="5">
         <v>35860</v>
@@ -9446,7 +9446,7 @@
     </row>
     <row r="222" spans="1:48">
       <c r="A222" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B222" s="5">
         <v>35861</v>
@@ -9479,7 +9479,7 @@
     </row>
     <row r="223" spans="1:48">
       <c r="A223" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B223" s="5">
         <v>35862</v>
@@ -9512,7 +9512,7 @@
     </row>
     <row r="224" spans="1:48">
       <c r="A224" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B224" s="5">
         <v>35863</v>
@@ -9548,7 +9548,7 @@
     </row>
     <row r="225" spans="1:50">
       <c r="A225" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B225" s="5">
         <v>35864</v>
@@ -9581,7 +9581,7 @@
     </row>
     <row r="226" spans="1:50">
       <c r="A226" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B226" s="5">
         <v>35865</v>
@@ -9614,7 +9614,7 @@
     </row>
     <row r="227" spans="1:50">
       <c r="A227" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B227" s="5">
         <v>35866</v>
@@ -9647,7 +9647,7 @@
     </row>
     <row r="228" spans="1:50">
       <c r="A228" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B228" s="5">
         <v>35868</v>
@@ -9680,7 +9680,7 @@
     </row>
     <row r="229" spans="1:50">
       <c r="A229" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B229" s="5">
         <v>35869</v>
@@ -9713,7 +9713,7 @@
     </row>
     <row r="230" spans="1:50">
       <c r="A230" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B230" s="5">
         <v>35870</v>
@@ -9755,7 +9755,7 @@
     </row>
     <row r="231" spans="1:50">
       <c r="A231" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B231" s="5">
         <v>35871</v>
@@ -9791,13 +9791,13 @@
     </row>
     <row r="232" spans="1:50">
       <c r="A232" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B232" s="5">
         <v>35872</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D232" s="6">
         <v>104.649220489977</v>
@@ -9866,7 +9866,7 @@
     </row>
     <row r="233" spans="1:50">
       <c r="A233" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B233" s="5">
         <v>35873</v>
@@ -9899,7 +9899,7 @@
     </row>
     <row r="234" spans="1:50">
       <c r="A234" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B234" s="5">
         <v>35876</v>
@@ -9935,7 +9935,7 @@
     </row>
     <row r="235" spans="1:50">
       <c r="A235" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B235" s="5">
         <v>35878</v>
@@ -9968,7 +9968,7 @@
     </row>
     <row r="236" spans="1:50">
       <c r="A236" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B236" s="5">
         <v>35879</v>
@@ -10004,7 +10004,7 @@
     </row>
     <row r="237" spans="1:50">
       <c r="A237" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B237" s="5">
         <v>35882</v>
@@ -10040,7 +10040,7 @@
     </row>
     <row r="238" spans="1:50">
       <c r="A238" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B238" s="5">
         <v>35884</v>
@@ -10082,7 +10082,7 @@
     </row>
     <row r="239" spans="1:50">
       <c r="A239" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B239" s="5">
         <v>35885</v>
@@ -10124,7 +10124,7 @@
     </row>
     <row r="240" spans="1:50">
       <c r="A240" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B240" s="5">
         <v>35889</v>
@@ -10157,7 +10157,7 @@
     </row>
     <row r="241" spans="1:49">
       <c r="A241" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B241" s="5">
         <v>35893</v>
@@ -10196,7 +10196,7 @@
     </row>
     <row r="242" spans="1:49">
       <c r="A242" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B242" s="5">
         <v>35897</v>
@@ -10229,7 +10229,7 @@
     </row>
     <row r="243" spans="1:49">
       <c r="A243" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B243" s="5">
         <v>35898</v>
@@ -10262,7 +10262,7 @@
     </row>
     <row r="244" spans="1:49">
       <c r="A244" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B244" s="5">
         <v>35899</v>
@@ -10325,7 +10325,7 @@
     </row>
     <row r="245" spans="1:49">
       <c r="A245" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B245" s="5">
         <v>35795</v>
@@ -10358,7 +10358,7 @@
     </row>
     <row r="246" spans="1:49">
       <c r="A246" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B246" s="5">
         <v>35802</v>
@@ -10391,7 +10391,7 @@
     </row>
     <row r="247" spans="1:49">
       <c r="A247" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B247" s="5">
         <v>35804</v>
@@ -10424,7 +10424,7 @@
     </row>
     <row r="248" spans="1:49">
       <c r="A248" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B248" s="5">
         <v>35808</v>
@@ -10457,7 +10457,7 @@
     </row>
     <row r="249" spans="1:49">
       <c r="A249" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B249" s="5">
         <v>35814</v>
@@ -10490,7 +10490,7 @@
     </row>
     <row r="250" spans="1:49">
       <c r="A250" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B250" s="5">
         <v>35816</v>
@@ -10526,7 +10526,7 @@
     </row>
     <row r="251" spans="1:49">
       <c r="A251" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B251" s="5">
         <v>35817</v>
@@ -10562,7 +10562,7 @@
     </row>
     <row r="252" spans="1:49">
       <c r="A252" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B252" s="5">
         <v>35818</v>
@@ -10595,7 +10595,7 @@
     </row>
     <row r="253" spans="1:49">
       <c r="A253" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B253" s="5">
         <v>35820</v>
@@ -10628,7 +10628,7 @@
     </row>
     <row r="254" spans="1:49">
       <c r="A254" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B254" s="5">
         <v>35825</v>
@@ -10661,7 +10661,7 @@
     </row>
     <row r="255" spans="1:49">
       <c r="A255" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B255" s="5">
         <v>35829</v>
@@ -10694,7 +10694,7 @@
     </row>
     <row r="256" spans="1:49">
       <c r="A256" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B256" s="5">
         <v>35834</v>
@@ -10727,7 +10727,7 @@
     </row>
     <row r="257" spans="1:42">
       <c r="A257" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B257" s="5">
         <v>35835</v>
@@ -10763,7 +10763,7 @@
     </row>
     <row r="258" spans="1:42">
       <c r="A258" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B258" s="5">
         <v>35836</v>
@@ -10796,7 +10796,7 @@
     </row>
     <row r="259" spans="1:42">
       <c r="A259" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B259" s="5">
         <v>35838</v>
@@ -10829,7 +10829,7 @@
     </row>
     <row r="260" spans="1:42">
       <c r="A260" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B260" s="5">
         <v>35839</v>
@@ -10865,7 +10865,7 @@
     </row>
     <row r="261" spans="1:42">
       <c r="A261" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B261" s="5">
         <v>35840</v>
@@ -10898,7 +10898,7 @@
     </row>
     <row r="262" spans="1:42">
       <c r="A262" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B262" s="5">
         <v>35841</v>
@@ -10934,7 +10934,7 @@
     </row>
     <row r="263" spans="1:42">
       <c r="A263" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B263" s="5">
         <v>35842</v>
@@ -10973,7 +10973,7 @@
     </row>
     <row r="264" spans="1:42">
       <c r="A264" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B264" s="5">
         <v>35844</v>
@@ -11018,7 +11018,7 @@
     </row>
     <row r="265" spans="1:42">
       <c r="A265" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B265" s="5">
         <v>35845</v>
@@ -11051,7 +11051,7 @@
     </row>
     <row r="266" spans="1:42">
       <c r="A266" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B266" s="5">
         <v>35847</v>
@@ -11084,7 +11084,7 @@
     </row>
     <row r="267" spans="1:42">
       <c r="A267" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B267" s="5">
         <v>35849</v>
@@ -11120,7 +11120,7 @@
     </row>
     <row r="268" spans="1:42">
       <c r="A268" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B268" s="5">
         <v>35850</v>
@@ -11153,7 +11153,7 @@
     </row>
     <row r="269" spans="1:42">
       <c r="A269" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B269" s="5">
         <v>35851</v>
@@ -11186,7 +11186,7 @@
     </row>
     <row r="270" spans="1:42">
       <c r="A270" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B270" s="5">
         <v>35852</v>
@@ -11219,7 +11219,7 @@
     </row>
     <row r="271" spans="1:42">
       <c r="A271" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B271" s="5">
         <v>35853</v>
@@ -11252,7 +11252,7 @@
     </row>
     <row r="272" spans="1:42">
       <c r="A272" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B272" s="5">
         <v>35854</v>
@@ -11291,7 +11291,7 @@
     </row>
     <row r="273" spans="1:48">
       <c r="A273" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B273" s="5">
         <v>35855</v>
@@ -11327,7 +11327,7 @@
     </row>
     <row r="274" spans="1:48">
       <c r="A274" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B274" s="5">
         <v>35856</v>
@@ -11363,7 +11363,7 @@
     </row>
     <row r="275" spans="1:48">
       <c r="A275" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B275" s="5">
         <v>35857</v>
@@ -11423,7 +11423,7 @@
     </row>
     <row r="276" spans="1:48">
       <c r="A276" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B276" s="5">
         <v>35859</v>
@@ -11459,7 +11459,7 @@
     </row>
     <row r="277" spans="1:48">
       <c r="A277" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B277" s="5">
         <v>35860</v>
@@ -11492,7 +11492,7 @@
     </row>
     <row r="278" spans="1:48">
       <c r="A278" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B278" s="5">
         <v>35862</v>
@@ -11525,7 +11525,7 @@
     </row>
     <row r="279" spans="1:48">
       <c r="A279" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B279" s="5">
         <v>35863</v>
@@ -11558,7 +11558,7 @@
     </row>
     <row r="280" spans="1:48">
       <c r="A280" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B280" s="5">
         <v>35864</v>
@@ -11591,7 +11591,7 @@
     </row>
     <row r="281" spans="1:48">
       <c r="A281" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B281" s="5">
         <v>35865</v>
@@ -11627,7 +11627,7 @@
     </row>
     <row r="282" spans="1:48">
       <c r="A282" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B282" s="5">
         <v>35868</v>
@@ -11660,7 +11660,7 @@
     </row>
     <row r="283" spans="1:48">
       <c r="A283" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B283" s="5">
         <v>35870</v>
@@ -11702,7 +11702,7 @@
     </row>
     <row r="284" spans="1:48">
       <c r="A284" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B284" s="5">
         <v>35871</v>
@@ -11738,7 +11738,7 @@
     </row>
     <row r="285" spans="1:48">
       <c r="A285" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B285" s="5">
         <v>35872</v>
@@ -11771,7 +11771,7 @@
     </row>
     <row r="286" spans="1:48">
       <c r="A286" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B286" s="5">
         <v>35873</v>
@@ -11804,7 +11804,7 @@
     </row>
     <row r="287" spans="1:48">
       <c r="A287" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B287" s="5">
         <v>35876</v>
@@ -11840,7 +11840,7 @@
     </row>
     <row r="288" spans="1:48">
       <c r="A288" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B288" s="5">
         <v>35878</v>
@@ -11873,7 +11873,7 @@
     </row>
     <row r="289" spans="1:50">
       <c r="A289" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B289" s="5">
         <v>35879</v>
@@ -11906,7 +11906,7 @@
     </row>
     <row r="290" spans="1:50">
       <c r="A290" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B290" s="5">
         <v>35880</v>
@@ -11939,7 +11939,7 @@
     </row>
     <row r="291" spans="1:50">
       <c r="A291" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B291" s="5">
         <v>35882</v>
@@ -11972,7 +11972,7 @@
     </row>
     <row r="292" spans="1:50">
       <c r="A292" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B292" s="5">
         <v>35883</v>
@@ -12011,7 +12011,7 @@
     </row>
     <row r="293" spans="1:50">
       <c r="A293" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B293" s="5">
         <v>35884</v>
@@ -12047,7 +12047,7 @@
     </row>
     <row r="294" spans="1:50">
       <c r="A294" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B294" s="5">
         <v>35885</v>
@@ -12095,7 +12095,7 @@
     </row>
     <row r="295" spans="1:50">
       <c r="A295" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B295" s="5">
         <v>35886</v>
@@ -12131,7 +12131,7 @@
     </row>
     <row r="296" spans="1:50">
       <c r="A296" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B296" s="5">
         <v>35795</v>
@@ -12164,7 +12164,7 @@
     </row>
     <row r="297" spans="1:50">
       <c r="A297" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B297" s="5">
         <v>35775</v>
@@ -12197,7 +12197,7 @@
     </row>
     <row r="298" spans="1:50">
       <c r="A298" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B298" s="5">
         <v>35799</v>
@@ -12233,7 +12233,7 @@
     </row>
     <row r="299" spans="1:50">
       <c r="A299" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B299" s="5">
         <v>35802</v>
@@ -12266,7 +12266,7 @@
     </row>
     <row r="300" spans="1:50">
       <c r="A300" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B300" s="5">
         <v>35803</v>
@@ -12299,7 +12299,7 @@
     </row>
     <row r="301" spans="1:50">
       <c r="A301" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B301" s="5">
         <v>35804</v>
@@ -12332,7 +12332,7 @@
     </row>
     <row r="302" spans="1:50">
       <c r="A302" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B302" s="5">
         <v>35808</v>
@@ -12365,7 +12365,7 @@
     </row>
     <row r="303" spans="1:50">
       <c r="A303" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B303" s="5">
         <v>35814</v>
@@ -12398,7 +12398,7 @@
     </row>
     <row r="304" spans="1:50">
       <c r="A304" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B304" s="5">
         <v>35816</v>
@@ -12437,7 +12437,7 @@
     </row>
     <row r="305" spans="1:50">
       <c r="A305" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B305" s="5">
         <v>35817</v>
@@ -12473,7 +12473,7 @@
     </row>
     <row r="306" spans="1:50">
       <c r="A306" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B306" s="5">
         <v>35818</v>
@@ -12506,7 +12506,7 @@
     </row>
     <row r="307" spans="1:50">
       <c r="A307" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B307" s="5">
         <v>35820</v>
@@ -12539,7 +12539,7 @@
     </row>
     <row r="308" spans="1:50">
       <c r="A308" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B308" s="5">
         <v>35824</v>
@@ -12572,7 +12572,7 @@
     </row>
     <row r="309" spans="1:50">
       <c r="A309" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B309" s="5">
         <v>35830</v>
@@ -12605,7 +12605,7 @@
     </row>
     <row r="310" spans="1:50">
       <c r="A310" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B310" s="5">
         <v>35831</v>
@@ -12638,7 +12638,7 @@
     </row>
     <row r="311" spans="1:50">
       <c r="A311" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B311" s="5">
         <v>35834</v>
@@ -12671,7 +12671,7 @@
     </row>
     <row r="312" spans="1:50">
       <c r="A312" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B312" s="5">
         <v>35835</v>
@@ -12704,7 +12704,7 @@
     </row>
     <row r="313" spans="1:50">
       <c r="A313" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B313" s="5">
         <v>35838</v>
@@ -12740,7 +12740,7 @@
     </row>
     <row r="314" spans="1:50">
       <c r="A314" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B314" s="5">
         <v>35839</v>
@@ -12773,7 +12773,7 @@
     </row>
     <row r="315" spans="1:50">
       <c r="A315" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B315" s="5">
         <v>35842</v>
@@ -12824,7 +12824,7 @@
     </row>
     <row r="316" spans="1:50">
       <c r="A316" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B316" s="5">
         <v>35843</v>
@@ -12860,7 +12860,7 @@
     </row>
     <row r="317" spans="1:50">
       <c r="A317" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B317" s="5">
         <v>35844</v>
@@ -12908,7 +12908,7 @@
     </row>
     <row r="318" spans="1:50">
       <c r="A318" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B318" s="5">
         <v>35845</v>
@@ -12941,7 +12941,7 @@
     </row>
     <row r="319" spans="1:50">
       <c r="A319" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B319" s="5">
         <v>35848</v>
@@ -12977,7 +12977,7 @@
     </row>
     <row r="320" spans="1:50">
       <c r="A320" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B320" s="5">
         <v>35849</v>
@@ -13013,7 +13013,7 @@
     </row>
     <row r="321" spans="1:50">
       <c r="A321" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B321" s="5">
         <v>35852</v>
@@ -13052,7 +13052,7 @@
     </row>
     <row r="322" spans="1:50">
       <c r="A322" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B322" s="5">
         <v>35853</v>
@@ -13085,7 +13085,7 @@
     </row>
     <row r="323" spans="1:50">
       <c r="A323" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B323" s="5">
         <v>35854</v>
@@ -13118,7 +13118,7 @@
     </row>
     <row r="324" spans="1:50">
       <c r="A324" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B324" s="5">
         <v>35855</v>
@@ -13157,7 +13157,7 @@
     </row>
     <row r="325" spans="1:50">
       <c r="A325" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B325" s="5">
         <v>35856</v>
@@ -13193,7 +13193,7 @@
     </row>
     <row r="326" spans="1:50">
       <c r="A326" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B326" s="5">
         <v>35857</v>
@@ -13226,7 +13226,7 @@
     </row>
     <row r="327" spans="1:50">
       <c r="A327" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B327" s="5">
         <v>35859</v>
@@ -13262,7 +13262,7 @@
     </row>
     <row r="328" spans="1:50">
       <c r="A328" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B328" s="5">
         <v>35860</v>
@@ -13295,7 +13295,7 @@
     </row>
     <row r="329" spans="1:50">
       <c r="A329" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B329" s="5">
         <v>35862</v>
@@ -13328,7 +13328,7 @@
     </row>
     <row r="330" spans="1:50">
       <c r="A330" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B330" s="5">
         <v>35863</v>
@@ -13367,7 +13367,7 @@
     </row>
     <row r="331" spans="1:50">
       <c r="A331" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B331" s="5">
         <v>35865</v>
@@ -13400,7 +13400,7 @@
     </row>
     <row r="332" spans="1:50">
       <c r="A332" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B332" s="5">
         <v>35868</v>
@@ -13433,7 +13433,7 @@
     </row>
     <row r="333" spans="1:50">
       <c r="A333" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B333" s="5">
         <v>35869</v>
@@ -13469,7 +13469,7 @@
     </row>
     <row r="334" spans="1:50">
       <c r="A334" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B334" s="5">
         <v>35870</v>
@@ -13514,7 +13514,7 @@
     </row>
     <row r="335" spans="1:50">
       <c r="A335" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B335" s="5">
         <v>35871</v>
@@ -13559,7 +13559,7 @@
     </row>
     <row r="336" spans="1:50">
       <c r="A336" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B336" s="5">
         <v>35872</v>
@@ -13598,7 +13598,7 @@
     </row>
     <row r="337" spans="1:49">
       <c r="A337" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B337" s="5">
         <v>35873</v>
@@ -13631,7 +13631,7 @@
     </row>
     <row r="338" spans="1:49">
       <c r="A338" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B338" s="5">
         <v>35876</v>
@@ -13667,7 +13667,7 @@
     </row>
     <row r="339" spans="1:49">
       <c r="A339" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B339" s="5">
         <v>35877</v>
@@ -13706,7 +13706,7 @@
     </row>
     <row r="340" spans="1:49">
       <c r="A340" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B340" s="5">
         <v>35883</v>
@@ -13742,7 +13742,7 @@
     </row>
     <row r="341" spans="1:49">
       <c r="A341" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B341" s="5">
         <v>35884</v>
@@ -13781,7 +13781,7 @@
     </row>
     <row r="342" spans="1:49">
       <c r="A342" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B342" s="5">
         <v>35885</v>
@@ -13832,7 +13832,7 @@
     </row>
     <row r="343" spans="1:49">
       <c r="A343" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B343" s="5">
         <v>35886</v>
@@ -13865,7 +13865,7 @@
     </row>
     <row r="344" spans="1:49">
       <c r="A344" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B344" s="5">
         <v>35768</v>
@@ -13898,7 +13898,7 @@
     </row>
     <row r="345" spans="1:49">
       <c r="A345" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B345" s="5">
         <v>35774</v>
@@ -13931,7 +13931,7 @@
     </row>
     <row r="346" spans="1:49">
       <c r="A346" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B346" s="5">
         <v>35782</v>
@@ -13964,7 +13964,7 @@
     </row>
     <row r="347" spans="1:49">
       <c r="A347" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B347" s="5">
         <v>35790</v>
@@ -13997,7 +13997,7 @@
     </row>
     <row r="348" spans="1:49">
       <c r="A348" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B348" s="5">
         <v>35794</v>
@@ -14030,7 +14030,7 @@
     </row>
     <row r="349" spans="1:49">
       <c r="A349" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B349" s="5">
         <v>35796</v>
@@ -14063,7 +14063,7 @@
     </row>
     <row r="350" spans="1:49">
       <c r="A350" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B350" s="5">
         <v>35801</v>
@@ -14096,7 +14096,7 @@
     </row>
     <row r="351" spans="1:49">
       <c r="A351" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B351" s="5">
         <v>35803</v>
@@ -14129,7 +14129,7 @@
     </row>
     <row r="352" spans="1:49">
       <c r="A352" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B352" s="5">
         <v>35807</v>
@@ -14162,7 +14162,7 @@
     </row>
     <row r="353" spans="1:50">
       <c r="A353" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B353" s="5">
         <v>35813</v>
@@ -14195,7 +14195,7 @@
     </row>
     <row r="354" spans="1:50">
       <c r="A354" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B354" s="5">
         <v>35815</v>
@@ -14231,7 +14231,7 @@
     </row>
     <row r="355" spans="1:50">
       <c r="A355" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B355" s="5">
         <v>35816</v>
@@ -14267,7 +14267,7 @@
     </row>
     <row r="356" spans="1:50">
       <c r="A356" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B356" s="5">
         <v>35817</v>
@@ -14306,7 +14306,7 @@
     </row>
     <row r="357" spans="1:50">
       <c r="A357" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B357" s="5">
         <v>35820</v>
@@ -14342,7 +14342,7 @@
     </row>
     <row r="358" spans="1:50">
       <c r="A358" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B358" s="5">
         <v>35821</v>
@@ -14378,7 +14378,7 @@
     </row>
     <row r="359" spans="1:50">
       <c r="A359" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B359" s="5">
         <v>35822</v>
@@ -14411,7 +14411,7 @@
     </row>
     <row r="360" spans="1:50">
       <c r="A360" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B360" s="5">
         <v>35823</v>
@@ -14444,7 +14444,7 @@
     </row>
     <row r="361" spans="1:50">
       <c r="A361" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B361" s="5">
         <v>35824</v>
@@ -14477,7 +14477,7 @@
     </row>
     <row r="362" spans="1:50">
       <c r="A362" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B362" s="5">
         <v>35827</v>
@@ -14513,7 +14513,7 @@
     </row>
     <row r="363" spans="1:50">
       <c r="A363" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B363" s="5">
         <v>35830</v>
@@ -14546,7 +14546,7 @@
     </row>
     <row r="364" spans="1:50">
       <c r="A364" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B364" s="5">
         <v>35831</v>
@@ -14582,7 +14582,7 @@
     </row>
     <row r="365" spans="1:50">
       <c r="A365" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B365" s="5">
         <v>35832</v>
@@ -14615,7 +14615,7 @@
     </row>
     <row r="366" spans="1:50">
       <c r="A366" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B366" s="5">
         <v>35834</v>
@@ -14651,7 +14651,7 @@
     </row>
     <row r="367" spans="1:50">
       <c r="A367" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B367" s="5">
         <v>35835</v>
@@ -14684,7 +14684,7 @@
     </row>
     <row r="368" spans="1:50">
       <c r="A368" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B368" s="5">
         <v>35836</v>
@@ -14717,7 +14717,7 @@
     </row>
     <row r="369" spans="1:48">
       <c r="A369" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B369" s="5">
         <v>35837</v>
@@ -14750,7 +14750,7 @@
     </row>
     <row r="370" spans="1:48">
       <c r="A370" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B370" s="5">
         <v>35838</v>
@@ -14783,7 +14783,7 @@
     </row>
     <row r="371" spans="1:48">
       <c r="A371" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B371" s="5">
         <v>35840</v>
@@ -14816,7 +14816,7 @@
     </row>
     <row r="372" spans="1:48">
       <c r="A372" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B372" s="5">
         <v>35841</v>
@@ -14858,7 +14858,7 @@
     </row>
     <row r="373" spans="1:48">
       <c r="A373" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B373" s="5">
         <v>35843</v>
@@ -14900,7 +14900,7 @@
     </row>
     <row r="374" spans="1:48">
       <c r="A374" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B374" s="5">
         <v>35844</v>
@@ -14948,7 +14948,7 @@
     </row>
     <row r="375" spans="1:48">
       <c r="A375" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B375" s="5">
         <v>35845</v>
@@ -14981,7 +14981,7 @@
     </row>
     <row r="376" spans="1:48">
       <c r="A376" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B376" s="5">
         <v>35846</v>
@@ -15011,7 +15011,7 @@
     </row>
     <row r="377" spans="1:48">
       <c r="A377" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B377" s="5">
         <v>35848</v>
@@ -15044,7 +15044,7 @@
     </row>
     <row r="378" spans="1:48">
       <c r="A378" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B378" s="5">
         <v>35850</v>
@@ -15077,7 +15077,7 @@
     </row>
     <row r="379" spans="1:48">
       <c r="A379" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B379" s="5">
         <v>35851</v>
@@ -15116,7 +15116,7 @@
     </row>
     <row r="380" spans="1:48">
       <c r="A380" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B380" s="5">
         <v>35852</v>
@@ -15149,7 +15149,7 @@
     </row>
     <row r="381" spans="1:48">
       <c r="A381" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B381" s="5">
         <v>35854</v>
@@ -15191,7 +15191,7 @@
     </row>
     <row r="382" spans="1:48">
       <c r="A382" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B382" s="5">
         <v>35856</v>
@@ -15227,7 +15227,7 @@
     </row>
     <row r="383" spans="1:48">
       <c r="A383" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B383" s="5">
         <v>35857</v>
@@ -15278,7 +15278,7 @@
     </row>
     <row r="384" spans="1:48">
       <c r="A384" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B384" s="5">
         <v>35858</v>
@@ -15323,7 +15323,7 @@
     </row>
     <row r="385" spans="1:50">
       <c r="A385" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B385" s="5">
         <v>35859</v>
@@ -15356,7 +15356,7 @@
     </row>
     <row r="386" spans="1:50">
       <c r="A386" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B386" s="5">
         <v>35860</v>
@@ -15395,7 +15395,7 @@
     </row>
     <row r="387" spans="1:50">
       <c r="A387" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B387" s="5">
         <v>35861</v>
@@ -15428,7 +15428,7 @@
     </row>
     <row r="388" spans="1:50">
       <c r="A388" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B388" s="5">
         <v>35862</v>
@@ -15461,7 +15461,7 @@
     </row>
     <row r="389" spans="1:50">
       <c r="A389" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B389" s="5">
         <v>35863</v>
@@ -15494,7 +15494,7 @@
     </row>
     <row r="390" spans="1:50">
       <c r="A390" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B390" s="5">
         <v>35864</v>
@@ -15530,7 +15530,7 @@
     </row>
     <row r="391" spans="1:50">
       <c r="A391" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B391" s="5">
         <v>35865</v>
@@ -15563,7 +15563,7 @@
     </row>
     <row r="392" spans="1:50">
       <c r="A392" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B392" s="5">
         <v>35866</v>
@@ -15596,7 +15596,7 @@
     </row>
     <row r="393" spans="1:50">
       <c r="A393" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B393" s="5">
         <v>35868</v>
@@ -15629,7 +15629,7 @@
     </row>
     <row r="394" spans="1:50">
       <c r="A394" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B394" s="5">
         <v>35869</v>
@@ -15665,7 +15665,7 @@
     </row>
     <row r="395" spans="1:50">
       <c r="A395" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B395" s="5">
         <v>35871</v>
@@ -15713,7 +15713,7 @@
     </row>
     <row r="396" spans="1:50">
       <c r="A396" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B396" s="5">
         <v>35873</v>
@@ -15749,7 +15749,7 @@
     </row>
     <row r="397" spans="1:50">
       <c r="A397" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B397" s="5">
         <v>35874</v>
@@ -15785,7 +15785,7 @@
     </row>
     <row r="398" spans="1:50">
       <c r="A398" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B398" s="5">
         <v>35876</v>
@@ -15821,13 +15821,13 @@
     </row>
     <row r="399" spans="1:50">
       <c r="A399" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B399" s="5">
         <v>35877</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D399" s="6">
         <v>109.526726057906</v>
@@ -15920,7 +15920,7 @@
     </row>
     <row r="400" spans="1:50">
       <c r="A400" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B400" s="5">
         <v>35878</v>
@@ -15956,7 +15956,7 @@
     </row>
     <row r="401" spans="1:36">
       <c r="A401" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B401" s="5">
         <v>35768</v>
@@ -15989,7 +15989,7 @@
     </row>
     <row r="402" spans="1:36">
       <c r="A402" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B402" s="5">
         <v>35773</v>
@@ -16022,7 +16022,7 @@
     </row>
     <row r="403" spans="1:36">
       <c r="A403" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B403" s="5">
         <v>35781</v>
@@ -16055,7 +16055,7 @@
     </row>
     <row r="404" spans="1:36">
       <c r="A404" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B404" s="5">
         <v>35790</v>
@@ -16088,7 +16088,7 @@
     </row>
     <row r="405" spans="1:36">
       <c r="A405" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B405" s="5">
         <v>35794</v>
@@ -16121,7 +16121,7 @@
     </row>
     <row r="406" spans="1:36">
       <c r="A406" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B406" s="5">
         <v>35796</v>
@@ -16154,7 +16154,7 @@
     </row>
     <row r="407" spans="1:36">
       <c r="A407" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B407" s="5">
         <v>35800</v>
@@ -16187,7 +16187,7 @@
     </row>
     <row r="408" spans="1:36">
       <c r="A408" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B408" s="5">
         <v>35804</v>
@@ -16220,7 +16220,7 @@
     </row>
     <row r="409" spans="1:36">
       <c r="A409" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B409" s="5">
         <v>35808</v>
@@ -16253,7 +16253,7 @@
     </row>
     <row r="410" spans="1:36">
       <c r="A410" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B410" s="5">
         <v>35813</v>
@@ -16286,7 +16286,7 @@
     </row>
     <row r="411" spans="1:36">
       <c r="A411" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B411" s="5">
         <v>35814</v>
@@ -16319,7 +16319,7 @@
     </row>
     <row r="412" spans="1:36">
       <c r="A412" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B412" s="5">
         <v>35816</v>
@@ -16358,7 +16358,7 @@
     </row>
     <row r="413" spans="1:36">
       <c r="A413" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B413" s="5">
         <v>35817</v>
@@ -16397,7 +16397,7 @@
     </row>
     <row r="414" spans="1:36">
       <c r="A414" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B414" s="5">
         <v>35819</v>
@@ -16430,7 +16430,7 @@
     </row>
     <row r="415" spans="1:36">
       <c r="A415" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B415" s="5">
         <v>35821</v>
@@ -16472,7 +16472,7 @@
     </row>
     <row r="416" spans="1:36">
       <c r="A416" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B416" s="5">
         <v>35822</v>
@@ -16505,7 +16505,7 @@
     </row>
     <row r="417" spans="1:42">
       <c r="A417" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B417" s="5">
         <v>35824</v>
@@ -16538,7 +16538,7 @@
     </row>
     <row r="418" spans="1:42">
       <c r="A418" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B418" s="5">
         <v>35828</v>
@@ -16574,7 +16574,7 @@
     </row>
     <row r="419" spans="1:42">
       <c r="A419" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B419" s="5">
         <v>35829</v>
@@ -16607,7 +16607,7 @@
     </row>
     <row r="420" spans="1:42">
       <c r="A420" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B420" s="5">
         <v>35830</v>
@@ -16640,7 +16640,7 @@
     </row>
     <row r="421" spans="1:42">
       <c r="A421" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B421" s="5">
         <v>35831</v>
@@ -16673,7 +16673,7 @@
     </row>
     <row r="422" spans="1:42">
       <c r="A422" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B422" s="5">
         <v>35832</v>
@@ -16709,7 +16709,7 @@
     </row>
     <row r="423" spans="1:42">
       <c r="A423" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B423" s="5">
         <v>35833</v>
@@ -16742,7 +16742,7 @@
     </row>
     <row r="424" spans="1:42">
       <c r="A424" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B424" s="5">
         <v>35835</v>
@@ -16781,7 +16781,7 @@
     </row>
     <row r="425" spans="1:42">
       <c r="A425" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B425" s="5">
         <v>35836</v>
@@ -16817,7 +16817,7 @@
     </row>
     <row r="426" spans="1:42">
       <c r="A426" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B426" s="5">
         <v>35839</v>
@@ -16853,7 +16853,7 @@
     </row>
     <row r="427" spans="1:42">
       <c r="A427" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B427" s="5">
         <v>35840</v>
@@ -16886,7 +16886,7 @@
     </row>
     <row r="428" spans="1:42">
       <c r="A428" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B428" s="5">
         <v>35841</v>
@@ -16919,7 +16919,7 @@
     </row>
     <row r="429" spans="1:42">
       <c r="A429" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B429" s="5">
         <v>35842</v>
@@ -16958,7 +16958,7 @@
     </row>
     <row r="430" spans="1:42">
       <c r="A430" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B430" s="5">
         <v>35844</v>
@@ -17000,7 +17000,7 @@
     </row>
     <row r="431" spans="1:42">
       <c r="A431" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B431" s="5">
         <v>35846</v>
@@ -17033,7 +17033,7 @@
     </row>
     <row r="432" spans="1:42">
       <c r="A432" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B432" s="5">
         <v>35848</v>
@@ -17066,7 +17066,7 @@
     </row>
     <row r="433" spans="1:49">
       <c r="A433" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B433" s="5">
         <v>35849</v>
@@ -17105,7 +17105,7 @@
     </row>
     <row r="434" spans="1:49">
       <c r="A434" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B434" s="5">
         <v>35852</v>
@@ -17141,7 +17141,7 @@
     </row>
     <row r="435" spans="1:49">
       <c r="A435" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B435" s="5">
         <v>35853</v>
@@ -17174,7 +17174,7 @@
     </row>
     <row r="436" spans="1:49">
       <c r="A436" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B436" s="5">
         <v>35854</v>
@@ -17213,7 +17213,7 @@
     </row>
     <row r="437" spans="1:49">
       <c r="A437" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B437" s="5">
         <v>35855</v>
@@ -17246,7 +17246,7 @@
     </row>
     <row r="438" spans="1:49">
       <c r="A438" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B438" s="5">
         <v>35856</v>
@@ -17282,7 +17282,7 @@
     </row>
     <row r="439" spans="1:49">
       <c r="A439" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B439" s="5">
         <v>35857</v>
@@ -17336,7 +17336,7 @@
     </row>
     <row r="440" spans="1:49">
       <c r="A440" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B440" s="5">
         <v>35858</v>
@@ -17375,7 +17375,7 @@
     </row>
     <row r="441" spans="1:49">
       <c r="A441" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B441" s="5">
         <v>35859</v>
@@ -17408,7 +17408,7 @@
     </row>
     <row r="442" spans="1:49">
       <c r="A442" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B442" s="5">
         <v>35860</v>
@@ -17444,7 +17444,7 @@
     </row>
     <row r="443" spans="1:49">
       <c r="A443" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B443" s="5">
         <v>35863</v>
@@ -17477,7 +17477,7 @@
     </row>
     <row r="444" spans="1:49">
       <c r="A444" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B444" s="5">
         <v>35864</v>
@@ -17513,7 +17513,7 @@
     </row>
     <row r="445" spans="1:49">
       <c r="A445" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B445" s="5">
         <v>35865</v>
@@ -17549,7 +17549,7 @@
     </row>
     <row r="446" spans="1:49">
       <c r="A446" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B446" s="5">
         <v>35867</v>
@@ -17585,7 +17585,7 @@
     </row>
     <row r="447" spans="1:49">
       <c r="A447" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B447" s="5">
         <v>35869</v>
@@ -17633,7 +17633,7 @@
     </row>
     <row r="448" spans="1:49">
       <c r="A448" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B448" s="5">
         <v>35768</v>
@@ -17666,7 +17666,7 @@
     </row>
     <row r="449" spans="1:50">
       <c r="A449" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B449" s="5">
         <v>35774</v>
@@ -17699,7 +17699,7 @@
     </row>
     <row r="450" spans="1:50">
       <c r="A450" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B450" s="5">
         <v>35776</v>
@@ -17732,7 +17732,7 @@
     </row>
     <row r="451" spans="1:50">
       <c r="A451" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B451" s="5">
         <v>35781</v>
@@ -17765,7 +17765,7 @@
     </row>
     <row r="452" spans="1:50">
       <c r="A452" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B452" s="5">
         <v>35790</v>
@@ -17798,7 +17798,7 @@
     </row>
     <row r="453" spans="1:50">
       <c r="A453" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B453" s="5">
         <v>35795</v>
@@ -17831,7 +17831,7 @@
     </row>
     <row r="454" spans="1:50">
       <c r="A454" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B454" s="5">
         <v>35797</v>
@@ -17864,7 +17864,7 @@
     </row>
     <row r="455" spans="1:50">
       <c r="A455" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B455" s="5">
         <v>35801</v>
@@ -17897,7 +17897,7 @@
     </row>
     <row r="456" spans="1:50">
       <c r="A456" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B456" s="5">
         <v>35803</v>
@@ -17930,7 +17930,7 @@
     </row>
     <row r="457" spans="1:50">
       <c r="A457" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B457" s="5">
         <v>35808</v>
@@ -17963,7 +17963,7 @@
     </row>
     <row r="458" spans="1:50">
       <c r="A458" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B458" s="5">
         <v>35813</v>
@@ -17996,7 +17996,7 @@
     </row>
     <row r="459" spans="1:50">
       <c r="A459" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B459" s="5">
         <v>35814</v>
@@ -18032,7 +18032,7 @@
     </row>
     <row r="460" spans="1:50">
       <c r="A460" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B460" s="5">
         <v>35816</v>
@@ -18089,7 +18089,7 @@
     </row>
     <row r="461" spans="1:50">
       <c r="A461" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B461" s="5">
         <v>35817</v>
@@ -18134,7 +18134,7 @@
     </row>
     <row r="462" spans="1:50">
       <c r="A462" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B462" s="5">
         <v>35818</v>
@@ -18167,7 +18167,7 @@
     </row>
     <row r="463" spans="1:50">
       <c r="A463" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B463" s="5">
         <v>35820</v>
@@ -18200,7 +18200,7 @@
     </row>
     <row r="464" spans="1:50">
       <c r="A464" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B464" s="5">
         <v>35821</v>
@@ -18236,7 +18236,7 @@
     </row>
     <row r="465" spans="1:42">
       <c r="A465" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B465" s="5">
         <v>35824</v>
@@ -18272,7 +18272,7 @@
     </row>
     <row r="466" spans="1:42">
       <c r="A466" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B466" s="5">
         <v>35825</v>
@@ -18305,7 +18305,7 @@
     </row>
     <row r="467" spans="1:42">
       <c r="A467" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B467" s="5">
         <v>35826</v>
@@ -18341,7 +18341,7 @@
     </row>
     <row r="468" spans="1:42">
       <c r="A468" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B468" s="5">
         <v>35828</v>
@@ -18383,7 +18383,7 @@
     </row>
     <row r="469" spans="1:42">
       <c r="A469" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B469" s="5">
         <v>35829</v>
@@ -18416,7 +18416,7 @@
     </row>
     <row r="470" spans="1:42">
       <c r="A470" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B470" s="5">
         <v>35831</v>
@@ -18449,7 +18449,7 @@
     </row>
     <row r="471" spans="1:42">
       <c r="A471" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B471" s="5">
         <v>35832</v>
@@ -18485,7 +18485,7 @@
     </row>
     <row r="472" spans="1:42">
       <c r="A472" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B472" s="5">
         <v>35834</v>
@@ -18521,7 +18521,7 @@
     </row>
     <row r="473" spans="1:42">
       <c r="A473" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B473" s="5">
         <v>35835</v>
@@ -18557,7 +18557,7 @@
     </row>
     <row r="474" spans="1:42">
       <c r="A474" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B474" s="5">
         <v>35836</v>
@@ -18590,7 +18590,7 @@
     </row>
     <row r="475" spans="1:42">
       <c r="A475" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B475" s="5">
         <v>35838</v>
@@ -18626,7 +18626,7 @@
     </row>
     <row r="476" spans="1:42">
       <c r="A476" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B476" s="5">
         <v>35839</v>
@@ -18659,7 +18659,7 @@
     </row>
     <row r="477" spans="1:42">
       <c r="A477" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B477" s="5">
         <v>35841</v>
@@ -18701,7 +18701,7 @@
     </row>
     <row r="478" spans="1:42">
       <c r="A478" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B478" s="5">
         <v>35842</v>
@@ -18737,7 +18737,7 @@
     </row>
     <row r="479" spans="1:42">
       <c r="A479" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B479" s="5">
         <v>35844</v>
@@ -18785,7 +18785,7 @@
     </row>
     <row r="480" spans="1:42">
       <c r="A480" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B480" s="5">
         <v>35845</v>
@@ -18818,7 +18818,7 @@
     </row>
     <row r="481" spans="1:49">
       <c r="A481" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B481" s="5">
         <v>35848</v>
@@ -18857,7 +18857,7 @@
     </row>
     <row r="482" spans="1:49">
       <c r="A482" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B482" s="5">
         <v>35849</v>
@@ -18890,7 +18890,7 @@
     </row>
     <row r="483" spans="1:49">
       <c r="A483" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B483" s="5">
         <v>35851</v>
@@ -18923,7 +18923,7 @@
     </row>
     <row r="484" spans="1:49">
       <c r="A484" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B484" s="5">
         <v>35852</v>
@@ -18962,7 +18962,7 @@
     </row>
     <row r="485" spans="1:49">
       <c r="A485" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B485" s="5">
         <v>35853</v>
@@ -18995,7 +18995,7 @@
     </row>
     <row r="486" spans="1:49">
       <c r="A486" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B486" s="5">
         <v>35854</v>
@@ -19028,7 +19028,7 @@
     </row>
     <row r="487" spans="1:49">
       <c r="A487" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B487" s="5">
         <v>35855</v>
@@ -19070,7 +19070,7 @@
     </row>
     <row r="488" spans="1:49">
       <c r="A488" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B488" s="5">
         <v>35856</v>
@@ -19106,7 +19106,7 @@
     </row>
     <row r="489" spans="1:49">
       <c r="A489" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B489" s="5">
         <v>35857</v>
@@ -19142,7 +19142,7 @@
     </row>
     <row r="490" spans="1:49">
       <c r="A490" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B490" s="5">
         <v>35858</v>
@@ -19175,7 +19175,7 @@
     </row>
     <row r="491" spans="1:49">
       <c r="A491" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B491" s="5">
         <v>35859</v>
@@ -19214,7 +19214,7 @@
     </row>
     <row r="492" spans="1:49">
       <c r="A492" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B492" s="5">
         <v>35860</v>
@@ -19250,7 +19250,7 @@
     </row>
     <row r="493" spans="1:49">
       <c r="A493" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B493" s="5">
         <v>35862</v>
@@ -19283,7 +19283,7 @@
     </row>
     <row r="494" spans="1:49">
       <c r="A494" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B494" s="5">
         <v>35864</v>
@@ -19325,7 +19325,7 @@
     </row>
     <row r="495" spans="1:49">
       <c r="A495" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B495" s="5">
         <v>35865</v>
@@ -19367,7 +19367,7 @@
     </row>
     <row r="496" spans="1:49">
       <c r="A496" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B496" s="5">
         <v>35867</v>
@@ -19403,7 +19403,7 @@
     </row>
     <row r="497" spans="1:36">
       <c r="A497" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B497" s="5">
         <v>35868</v>
@@ -19436,7 +19436,7 @@
     </row>
     <row r="498" spans="1:36">
       <c r="A498" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B498" s="5">
         <v>35870</v>
@@ -19469,7 +19469,7 @@
     </row>
     <row r="499" spans="1:36">
       <c r="A499" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B499" s="5">
         <v>35874</v>

--- a/Prototypes/Mungbean/Exp3observed.xlsx
+++ b/Prototypes/Mungbean/Exp3observed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3B0468-3B5F-4702-BA5D-0BB700814FF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9CC480-A1A3-4B12-B537-AAD0347F27A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C69385E-AA3F-4CF3-AF00-E1E4599E61EE}"/>
   </bookViews>
@@ -601,17 +601,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21968B1A-9F2D-47BD-B4B3-097E93366914}">
-  <dimension ref="A1:AY499"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AY531"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="C506" sqref="C506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="3" width="19.140625" customWidth="1"/>
     <col min="4" max="5" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51">
@@ -769,7 +772,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" hidden="1">
       <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
@@ -814,7 +817,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" hidden="1">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -850,7 +853,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" hidden="1">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
@@ -892,7 +895,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" hidden="1">
       <c r="A5" s="2" t="s">
         <v>53</v>
       </c>
@@ -949,7 +952,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" hidden="1">
       <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
@@ -994,7 +997,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:51" hidden="1">
       <c r="A7" s="2" t="s">
         <v>54</v>
       </c>
@@ -1048,7 +1051,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:51" hidden="1">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -1087,7 +1090,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:51" hidden="1">
       <c r="A9" s="2" t="s">
         <v>52</v>
       </c>
@@ -1123,7 +1126,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:51" hidden="1">
       <c r="A10" s="2" t="s">
         <v>51</v>
       </c>
@@ -1174,7 +1177,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:51" hidden="1">
       <c r="A11" s="2" t="s">
         <v>55</v>
       </c>
@@ -1219,7 +1222,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:51" hidden="1">
       <c r="A12" s="2" t="s">
         <v>52</v>
       </c>
@@ -1258,7 +1261,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:51" hidden="1">
       <c r="A13" s="2" t="s">
         <v>55</v>
       </c>
@@ -1297,7 +1300,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:51" hidden="1">
       <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
@@ -1333,7 +1336,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:51" hidden="1">
       <c r="A15" s="2" t="s">
         <v>48</v>
       </c>
@@ -1369,7 +1372,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="16" spans="1:51">
+    <row r="16" spans="1:51" hidden="1">
       <c r="A16" s="2" t="s">
         <v>49</v>
       </c>
@@ -1405,7 +1408,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="17" spans="1:47">
+    <row r="17" spans="1:47" hidden="1">
       <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
@@ -1441,7 +1444,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="18" spans="1:47">
+    <row r="18" spans="1:47" hidden="1">
       <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
@@ -1477,7 +1480,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="19" spans="1:47">
+    <row r="19" spans="1:47" hidden="1">
       <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
@@ -1513,7 +1516,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="20" spans="1:47">
+    <row r="20" spans="1:47" hidden="1">
       <c r="A20" s="2" t="s">
         <v>52</v>
       </c>
@@ -1549,7 +1552,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="21" spans="1:47">
+    <row r="21" spans="1:47" hidden="1">
       <c r="A21" s="2" t="s">
         <v>50</v>
       </c>
@@ -1624,7 +1627,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="22" spans="1:47">
+    <row r="22" spans="1:47" hidden="1">
       <c r="A22" s="2" t="s">
         <v>55</v>
       </c>
@@ -1660,7 +1663,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="23" spans="1:47">
+    <row r="23" spans="1:47" hidden="1">
       <c r="A23" s="2" t="s">
         <v>54</v>
       </c>
@@ -1696,7 +1699,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="24" spans="1:47">
+    <row r="24" spans="1:47" hidden="1">
       <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
@@ -1732,7 +1735,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="25" spans="1:47">
+    <row r="25" spans="1:47" hidden="1">
       <c r="A25" s="2" t="s">
         <v>53</v>
       </c>
@@ -1768,7 +1771,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="26" spans="1:47">
+    <row r="26" spans="1:47" hidden="1">
       <c r="A26" s="2" t="s">
         <v>51</v>
       </c>
@@ -1804,7 +1807,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="27" spans="1:47">
+    <row r="27" spans="1:47" hidden="1">
       <c r="A27" s="2" t="s">
         <v>49</v>
       </c>
@@ -1840,7 +1843,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="28" spans="1:47">
+    <row r="28" spans="1:47" hidden="1">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -1885,7 +1888,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="29" spans="1:47">
+    <row r="29" spans="1:47" hidden="1">
       <c r="A29" s="2" t="s">
         <v>53</v>
       </c>
@@ -1921,7 +1924,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="30" spans="1:47">
+    <row r="30" spans="1:47" hidden="1">
       <c r="A30" s="2" t="s">
         <v>55</v>
       </c>
@@ -1960,7 +1963,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="31" spans="1:47">
+    <row r="31" spans="1:47" hidden="1">
       <c r="A31" s="2" t="s">
         <v>52</v>
       </c>
@@ -1996,7 +1999,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="32" spans="1:47">
+    <row r="32" spans="1:47" hidden="1">
       <c r="A32" s="2" t="s">
         <v>50</v>
       </c>
@@ -2032,7 +2035,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:37" hidden="1">
       <c r="A33" s="2" t="s">
         <v>50</v>
       </c>
@@ -2068,7 +2071,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:37" hidden="1">
       <c r="A34" s="2" t="s">
         <v>53</v>
       </c>
@@ -2104,7 +2107,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:37" hidden="1">
       <c r="A35" s="2" t="s">
         <v>53</v>
       </c>
@@ -2140,7 +2143,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:37" hidden="1">
       <c r="A36" s="2" t="s">
         <v>55</v>
       </c>
@@ -2176,7 +2179,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:37" hidden="1">
       <c r="A37" s="2" t="s">
         <v>47</v>
       </c>
@@ -2212,7 +2215,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:37" hidden="1">
       <c r="A38" s="2" t="s">
         <v>54</v>
       </c>
@@ -2248,7 +2251,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:37" hidden="1">
       <c r="A39" s="2" t="s">
         <v>51</v>
       </c>
@@ -2284,7 +2287,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:37" hidden="1">
       <c r="A40" s="2" t="s">
         <v>49</v>
       </c>
@@ -2320,7 +2323,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:37" hidden="1">
       <c r="A41" s="2" t="s">
         <v>48</v>
       </c>
@@ -2356,7 +2359,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:37" hidden="1">
       <c r="A42" s="2" t="s">
         <v>47</v>
       </c>
@@ -2392,7 +2395,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:37" hidden="1">
       <c r="A43" s="2" t="s">
         <v>55</v>
       </c>
@@ -2428,7 +2431,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:37" hidden="1">
       <c r="A44" s="2" t="s">
         <v>51</v>
       </c>
@@ -2464,7 +2467,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:37" hidden="1">
       <c r="A45" s="2" t="s">
         <v>55</v>
       </c>
@@ -2506,7 +2509,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:37" hidden="1">
       <c r="A46" s="2" t="s">
         <v>52</v>
       </c>
@@ -2545,7 +2548,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:37" hidden="1">
       <c r="A47" s="2" t="s">
         <v>55</v>
       </c>
@@ -2581,7 +2584,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:37" hidden="1">
       <c r="A48" s="2" t="s">
         <v>51</v>
       </c>
@@ -2620,7 +2623,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="49" spans="1:51" ht="15.75" customHeight="1">
+    <row r="49" spans="1:51" ht="15.75" hidden="1" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>55</v>
       </c>
@@ -2659,7 +2662,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="50" spans="1:51">
+    <row r="50" spans="1:51" hidden="1">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
@@ -2698,7 +2701,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="51" spans="1:51">
+    <row r="51" spans="1:51" hidden="1">
       <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
@@ -2734,7 +2737,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="52" spans="1:51">
+    <row r="52" spans="1:51" hidden="1">
       <c r="A52" s="2" t="s">
         <v>53</v>
       </c>
@@ -2794,7 +2797,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="53" spans="1:51">
+    <row r="53" spans="1:51" hidden="1">
       <c r="A53" s="2" t="s">
         <v>54</v>
       </c>
@@ -2830,7 +2833,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="54" spans="1:51">
+    <row r="54" spans="1:51" hidden="1">
       <c r="A54" s="2" t="s">
         <v>48</v>
       </c>
@@ -2866,7 +2869,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="55" spans="1:51">
+    <row r="55" spans="1:51" hidden="1">
       <c r="A55" s="2" t="s">
         <v>50</v>
       </c>
@@ -2902,7 +2905,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="56" spans="1:51">
+    <row r="56" spans="1:51" hidden="1">
       <c r="A56" s="2" t="s">
         <v>47</v>
       </c>
@@ -2938,7 +2941,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="57" spans="1:51">
+    <row r="57" spans="1:51" hidden="1">
       <c r="A57" s="2" t="s">
         <v>55</v>
       </c>
@@ -2977,7 +2980,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="58" spans="1:51">
+    <row r="58" spans="1:51" hidden="1">
       <c r="A58" s="2" t="s">
         <v>49</v>
       </c>
@@ -3013,7 +3016,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="59" spans="1:51">
+    <row r="59" spans="1:51" hidden="1">
       <c r="A59" s="2" t="s">
         <v>48</v>
       </c>
@@ -3052,7 +3055,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="60" spans="1:51">
+    <row r="60" spans="1:51" hidden="1">
       <c r="A60" s="2" t="s">
         <v>53</v>
       </c>
@@ -3088,7 +3091,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="61" spans="1:51">
+    <row r="61" spans="1:51" hidden="1">
       <c r="A61" s="2" t="s">
         <v>49</v>
       </c>
@@ -3127,7 +3130,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="62" spans="1:51">
+    <row r="62" spans="1:51" hidden="1">
       <c r="A62" s="2" t="s">
         <v>53</v>
       </c>
@@ -3181,7 +3184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:51">
+    <row r="63" spans="1:51" hidden="1">
       <c r="A63" s="2" t="s">
         <v>51</v>
       </c>
@@ -3220,7 +3223,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="64" spans="1:51">
+    <row r="64" spans="1:51" hidden="1">
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
@@ -3265,7 +3268,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="65" spans="1:47">
+    <row r="65" spans="1:47" hidden="1">
       <c r="A65" s="2" t="s">
         <v>53</v>
       </c>
@@ -3304,7 +3307,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="66" spans="1:47">
+    <row r="66" spans="1:47" hidden="1">
       <c r="A66" s="2" t="s">
         <v>53</v>
       </c>
@@ -3415,7 +3418,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="67" spans="1:47">
+    <row r="67" spans="1:47" hidden="1">
       <c r="A67" s="2" t="s">
         <v>52</v>
       </c>
@@ -3454,7 +3457,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="68" spans="1:47">
+    <row r="68" spans="1:47" hidden="1">
       <c r="A68" s="2" t="s">
         <v>49</v>
       </c>
@@ -3496,7 +3499,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="69" spans="1:47">
+    <row r="69" spans="1:47" hidden="1">
       <c r="A69" s="2" t="s">
         <v>49</v>
       </c>
@@ -3532,7 +3535,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="70" spans="1:47">
+    <row r="70" spans="1:47" hidden="1">
       <c r="A70" s="2" t="s">
         <v>50</v>
       </c>
@@ -3568,7 +3571,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="71" spans="1:47">
+    <row r="71" spans="1:47" hidden="1">
       <c r="A71" s="2" t="s">
         <v>55</v>
       </c>
@@ -3604,7 +3607,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="72" spans="1:47">
+    <row r="72" spans="1:47" hidden="1">
       <c r="A72" s="2" t="s">
         <v>55</v>
       </c>
@@ -3640,7 +3643,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="73" spans="1:47">
+    <row r="73" spans="1:47" hidden="1">
       <c r="A73" s="2" t="s">
         <v>53</v>
       </c>
@@ -3676,7 +3679,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="74" spans="1:47">
+    <row r="74" spans="1:47" hidden="1">
       <c r="A74" s="2" t="s">
         <v>47</v>
       </c>
@@ -3712,7 +3715,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="75" spans="1:47">
+    <row r="75" spans="1:47" hidden="1">
       <c r="A75" s="2" t="s">
         <v>52</v>
       </c>
@@ -3748,7 +3751,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="76" spans="1:47">
+    <row r="76" spans="1:47" hidden="1">
       <c r="A76" s="2" t="s">
         <v>50</v>
       </c>
@@ -3787,7 +3790,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="77" spans="1:47">
+    <row r="77" spans="1:47" hidden="1">
       <c r="A77" s="2" t="s">
         <v>52</v>
       </c>
@@ -3823,7 +3826,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="78" spans="1:47">
+    <row r="78" spans="1:47" hidden="1">
       <c r="A78" s="2" t="s">
         <v>49</v>
       </c>
@@ -3859,7 +3862,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="79" spans="1:47">
+    <row r="79" spans="1:47" hidden="1">
       <c r="A79" s="2" t="s">
         <v>53</v>
       </c>
@@ -3895,7 +3898,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="80" spans="1:47">
+    <row r="80" spans="1:47" hidden="1">
       <c r="A80" s="2" t="s">
         <v>49</v>
       </c>
@@ -3931,7 +3934,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="81" spans="1:37">
+    <row r="81" spans="1:37" hidden="1">
       <c r="A81" s="2" t="s">
         <v>50</v>
       </c>
@@ -3976,7 +3979,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="82" spans="1:37">
+    <row r="82" spans="1:37" hidden="1">
       <c r="A82" s="2" t="s">
         <v>48</v>
       </c>
@@ -4015,7 +4018,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="83" spans="1:37">
+    <row r="83" spans="1:37" hidden="1">
       <c r="A83" t="s">
         <v>53</v>
       </c>
@@ -4057,7 +4060,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="84" spans="1:37">
+    <row r="84" spans="1:37" hidden="1">
       <c r="A84" s="2" t="s">
         <v>55</v>
       </c>
@@ -4102,7 +4105,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="85" spans="1:37">
+    <row r="85" spans="1:37" hidden="1">
       <c r="A85" s="2" t="s">
         <v>52</v>
       </c>
@@ -4144,7 +4147,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="86" spans="1:37">
+    <row r="86" spans="1:37" hidden="1">
       <c r="A86" s="2" t="s">
         <v>53</v>
       </c>
@@ -4186,7 +4189,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="87" spans="1:37">
+    <row r="87" spans="1:37" hidden="1">
       <c r="A87" s="2" t="s">
         <v>52</v>
       </c>
@@ -4222,7 +4225,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="88" spans="1:37">
+    <row r="88" spans="1:37" hidden="1">
       <c r="A88" s="2" t="s">
         <v>47</v>
       </c>
@@ -4258,7 +4261,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="89" spans="1:37">
+    <row r="89" spans="1:37" hidden="1">
       <c r="A89" s="2" t="s">
         <v>53</v>
       </c>
@@ -4297,7 +4300,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="90" spans="1:37">
+    <row r="90" spans="1:37" hidden="1">
       <c r="A90" s="2" t="s">
         <v>49</v>
       </c>
@@ -4333,7 +4336,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="91" spans="1:37">
+    <row r="91" spans="1:37" hidden="1">
       <c r="A91" s="2" t="s">
         <v>50</v>
       </c>
@@ -4369,7 +4372,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="92" spans="1:37">
+    <row r="92" spans="1:37" hidden="1">
       <c r="A92" s="2" t="s">
         <v>47</v>
       </c>
@@ -4405,7 +4408,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="93" spans="1:37">
+    <row r="93" spans="1:37" hidden="1">
       <c r="A93" s="2" t="s">
         <v>52</v>
       </c>
@@ -4444,7 +4447,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="94" spans="1:37">
+    <row r="94" spans="1:37" hidden="1">
       <c r="A94" s="2" t="s">
         <v>52</v>
       </c>
@@ -4486,7 +4489,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="95" spans="1:37">
+    <row r="95" spans="1:37" hidden="1">
       <c r="A95" s="2" t="s">
         <v>49</v>
       </c>
@@ -4525,7 +4528,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="96" spans="1:37">
+    <row r="96" spans="1:37" hidden="1">
       <c r="A96" s="2" t="s">
         <v>50</v>
       </c>
@@ -4561,7 +4564,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="97" spans="1:37">
+    <row r="97" spans="1:37" hidden="1">
       <c r="A97" s="2" t="s">
         <v>50</v>
       </c>
@@ -4600,7 +4603,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="98" spans="1:37">
+    <row r="98" spans="1:37" hidden="1">
       <c r="A98" s="2" t="s">
         <v>51</v>
       </c>
@@ -4639,7 +4642,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="99" spans="1:37">
+    <row r="99" spans="1:37" hidden="1">
       <c r="A99" s="2" t="s">
         <v>49</v>
       </c>
@@ -4678,7 +4681,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="100" spans="1:37">
+    <row r="100" spans="1:37" hidden="1">
       <c r="A100" s="2" t="s">
         <v>50</v>
       </c>
@@ -4717,7 +4720,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="101" spans="1:37">
+    <row r="101" spans="1:37" hidden="1">
       <c r="A101" s="2" t="s">
         <v>54</v>
       </c>
@@ -4753,7 +4756,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="102" spans="1:37">
+    <row r="102" spans="1:37" hidden="1">
       <c r="A102" s="2" t="s">
         <v>50</v>
       </c>
@@ -4789,7 +4792,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="103" spans="1:37">
+    <row r="103" spans="1:37" hidden="1">
       <c r="A103" s="2" t="s">
         <v>51</v>
       </c>
@@ -4825,7 +4828,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="104" spans="1:37">
+    <row r="104" spans="1:37" hidden="1">
       <c r="A104" s="2" t="s">
         <v>51</v>
       </c>
@@ -4861,7 +4864,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="105" spans="1:37">
+    <row r="105" spans="1:37" hidden="1">
       <c r="A105" s="2" t="s">
         <v>47</v>
       </c>
@@ -4897,7 +4900,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="106" spans="1:37">
+    <row r="106" spans="1:37" hidden="1">
       <c r="A106" s="2" t="s">
         <v>48</v>
       </c>
@@ -4939,7 +4942,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="107" spans="1:37">
+    <row r="107" spans="1:37" hidden="1">
       <c r="A107" s="2" t="s">
         <v>55</v>
       </c>
@@ -4975,7 +4978,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="108" spans="1:37">
+    <row r="108" spans="1:37" hidden="1">
       <c r="A108" s="2" t="s">
         <v>52</v>
       </c>
@@ -5011,7 +5014,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="109" spans="1:37">
+    <row r="109" spans="1:37" hidden="1">
       <c r="A109" s="2" t="s">
         <v>47</v>
       </c>
@@ -5047,7 +5050,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="110" spans="1:37">
+    <row r="110" spans="1:37" hidden="1">
       <c r="A110" s="2" t="s">
         <v>49</v>
       </c>
@@ -5083,7 +5086,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="111" spans="1:37">
+    <row r="111" spans="1:37" hidden="1">
       <c r="A111" s="2" t="s">
         <v>54</v>
       </c>
@@ -5119,7 +5122,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="112" spans="1:37">
+    <row r="112" spans="1:37" hidden="1">
       <c r="A112" s="2" t="s">
         <v>48</v>
       </c>
@@ -5155,7 +5158,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="113" spans="1:51">
+    <row r="113" spans="1:51" hidden="1">
       <c r="A113" s="2" t="s">
         <v>48</v>
       </c>
@@ -5194,7 +5197,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="114" spans="1:51">
+    <row r="114" spans="1:51" hidden="1">
       <c r="A114" s="2" t="s">
         <v>53</v>
       </c>
@@ -5230,7 +5233,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="115" spans="1:51">
+    <row r="115" spans="1:51" hidden="1">
       <c r="A115" s="2" t="s">
         <v>50</v>
       </c>
@@ -5269,7 +5272,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="116" spans="1:51">
+    <row r="116" spans="1:51" hidden="1">
       <c r="A116" s="2" t="s">
         <v>48</v>
       </c>
@@ -5305,7 +5308,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="117" spans="1:51" ht="15.75" customHeight="1">
+    <row r="117" spans="1:51" ht="15.75" hidden="1" customHeight="1">
       <c r="A117" s="2" t="s">
         <v>54</v>
       </c>
@@ -5341,7 +5344,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="118" spans="1:51">
+    <row r="118" spans="1:51" hidden="1">
       <c r="A118" s="2" t="s">
         <v>51</v>
       </c>
@@ -5377,7 +5380,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="119" spans="1:51">
+    <row r="119" spans="1:51" hidden="1">
       <c r="A119" s="2" t="s">
         <v>49</v>
       </c>
@@ -5416,7 +5419,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="120" spans="1:51">
+    <row r="120" spans="1:51" hidden="1">
       <c r="A120" s="2" t="s">
         <v>47</v>
       </c>
@@ -5455,7 +5458,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="121" spans="1:51">
+    <row r="121" spans="1:51" hidden="1">
       <c r="A121" s="2" t="s">
         <v>47</v>
       </c>
@@ -5491,7 +5494,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="122" spans="1:51">
+    <row r="122" spans="1:51" hidden="1">
       <c r="A122" s="2" t="s">
         <v>47</v>
       </c>
@@ -5536,7 +5539,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="123" spans="1:51">
+    <row r="123" spans="1:51" hidden="1">
       <c r="A123" s="2" t="s">
         <v>54</v>
       </c>
@@ -5590,7 +5593,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="124" spans="1:51">
+    <row r="124" spans="1:51" hidden="1">
       <c r="A124" s="2" t="s">
         <v>55</v>
       </c>
@@ -5629,7 +5632,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="125" spans="1:51">
+    <row r="125" spans="1:51" hidden="1">
       <c r="A125" s="2" t="s">
         <v>53</v>
       </c>
@@ -5665,7 +5668,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="126" spans="1:51">
+    <row r="126" spans="1:51" hidden="1">
       <c r="A126" s="2" t="s">
         <v>54</v>
       </c>
@@ -5701,7 +5704,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="127" spans="1:51">
+    <row r="127" spans="1:51" hidden="1">
       <c r="A127" s="2" t="s">
         <v>47</v>
       </c>
@@ -5737,7 +5740,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="128" spans="1:51">
+    <row r="128" spans="1:51" hidden="1">
       <c r="A128" s="2" t="s">
         <v>54</v>
       </c>
@@ -5776,7 +5779,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="129" spans="1:37">
+    <row r="129" spans="1:37" hidden="1">
       <c r="A129" s="2" t="s">
         <v>52</v>
       </c>
@@ -5812,7 +5815,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="130" spans="1:37">
+    <row r="130" spans="1:37" hidden="1">
       <c r="A130" s="2" t="s">
         <v>50</v>
       </c>
@@ -5851,7 +5854,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="131" spans="1:37">
+    <row r="131" spans="1:37" hidden="1">
       <c r="A131" s="2" t="s">
         <v>47</v>
       </c>
@@ -5887,7 +5890,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="132" spans="1:37">
+    <row r="132" spans="1:37" hidden="1">
       <c r="A132" s="2" t="s">
         <v>51</v>
       </c>
@@ -5926,7 +5929,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="133" spans="1:37">
+    <row r="133" spans="1:37" hidden="1">
       <c r="A133" s="2" t="s">
         <v>50</v>
       </c>
@@ -5962,7 +5965,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="134" spans="1:37">
+    <row r="134" spans="1:37" hidden="1">
       <c r="A134" s="2" t="s">
         <v>54</v>
       </c>
@@ -6022,7 +6025,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="135" spans="1:37">
+    <row r="135" spans="1:37" hidden="1">
       <c r="A135" s="2" t="s">
         <v>54</v>
       </c>
@@ -6064,7 +6067,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="136" spans="1:37">
+    <row r="136" spans="1:37" hidden="1">
       <c r="A136" s="2" t="s">
         <v>49</v>
       </c>
@@ -6103,7 +6106,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="137" spans="1:37">
+    <row r="137" spans="1:37" hidden="1">
       <c r="A137" s="2" t="s">
         <v>52</v>
       </c>
@@ -6139,7 +6142,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="138" spans="1:37">
+    <row r="138" spans="1:37" hidden="1">
       <c r="A138" s="2" t="s">
         <v>55</v>
       </c>
@@ -6175,7 +6178,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="139" spans="1:37">
+    <row r="139" spans="1:37" hidden="1">
       <c r="A139" s="2" t="s">
         <v>53</v>
       </c>
@@ -6217,7 +6220,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="140" spans="1:37">
+    <row r="140" spans="1:37" hidden="1">
       <c r="A140" s="2" t="s">
         <v>54</v>
       </c>
@@ -6253,7 +6256,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="141" spans="1:37">
+    <row r="141" spans="1:37" hidden="1">
       <c r="A141" s="2" t="s">
         <v>47</v>
       </c>
@@ -6295,7 +6298,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="142" spans="1:37">
+    <row r="142" spans="1:37" hidden="1">
       <c r="A142" s="2" t="s">
         <v>49</v>
       </c>
@@ -6331,7 +6334,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="143" spans="1:37">
+    <row r="143" spans="1:37" hidden="1">
       <c r="A143" s="2" t="s">
         <v>49</v>
       </c>
@@ -6367,7 +6370,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="144" spans="1:37">
+    <row r="144" spans="1:37" hidden="1">
       <c r="A144" s="2" t="s">
         <v>51</v>
       </c>
@@ -6403,7 +6406,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="145" spans="1:51">
+    <row r="145" spans="1:51" hidden="1">
       <c r="A145" s="2" t="s">
         <v>54</v>
       </c>
@@ -6445,7 +6448,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="146" spans="1:51">
+    <row r="146" spans="1:51" hidden="1">
       <c r="A146" s="2" t="s">
         <v>54</v>
       </c>
@@ -6481,7 +6484,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="147" spans="1:51">
+    <row r="147" spans="1:51" hidden="1">
       <c r="A147" s="2" t="s">
         <v>53</v>
       </c>
@@ -6517,7 +6520,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="148" spans="1:51">
+    <row r="148" spans="1:51" hidden="1">
       <c r="A148" s="2" t="s">
         <v>51</v>
       </c>
@@ -6559,7 +6562,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="149" spans="1:51">
+    <row r="149" spans="1:51" hidden="1">
       <c r="A149" s="2" t="s">
         <v>53</v>
       </c>
@@ -6595,7 +6598,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="150" spans="1:51">
+    <row r="150" spans="1:51" hidden="1">
       <c r="A150" s="2" t="s">
         <v>52</v>
       </c>
@@ -6631,7 +6634,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="151" spans="1:51">
+    <row r="151" spans="1:51" hidden="1">
       <c r="A151" s="2" t="s">
         <v>48</v>
       </c>
@@ -6670,7 +6673,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="152" spans="1:51">
+    <row r="152" spans="1:51" hidden="1">
       <c r="A152" t="s">
         <v>54</v>
       </c>
@@ -6718,7 +6721,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="153" spans="1:51">
+    <row r="153" spans="1:51" hidden="1">
       <c r="A153" t="s">
         <v>53</v>
       </c>
@@ -6760,7 +6763,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="154" spans="1:51">
+    <row r="154" spans="1:51" hidden="1">
       <c r="A154" s="2" t="s">
         <v>47</v>
       </c>
@@ -6796,7 +6799,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="155" spans="1:51">
+    <row r="155" spans="1:51" hidden="1">
       <c r="A155" s="2" t="s">
         <v>52</v>
       </c>
@@ -6832,7 +6835,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="156" spans="1:51">
+    <row r="156" spans="1:51" hidden="1">
       <c r="A156" s="2" t="s">
         <v>54</v>
       </c>
@@ -6874,7 +6877,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="157" spans="1:51">
+    <row r="157" spans="1:51" hidden="1">
       <c r="A157" s="2" t="s">
         <v>49</v>
       </c>
@@ -6910,7 +6913,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="158" spans="1:51">
+    <row r="158" spans="1:51" hidden="1">
       <c r="A158" s="2" t="s">
         <v>55</v>
       </c>
@@ -6970,7 +6973,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="159" spans="1:51">
+    <row r="159" spans="1:51" hidden="1">
       <c r="A159" s="2" t="s">
         <v>52</v>
       </c>
@@ -7006,7 +7009,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="160" spans="1:51">
+    <row r="160" spans="1:51" hidden="1">
       <c r="A160" s="2" t="s">
         <v>49</v>
       </c>
@@ -7042,7 +7045,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="161" spans="1:51">
+    <row r="161" spans="1:51" hidden="1">
       <c r="A161" s="2" t="s">
         <v>55</v>
       </c>
@@ -7078,7 +7081,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="162" spans="1:51">
+    <row r="162" spans="1:51" hidden="1">
       <c r="A162" s="2" t="s">
         <v>50</v>
       </c>
@@ -7114,7 +7117,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="163" spans="1:51">
+    <row r="163" spans="1:51" hidden="1">
       <c r="A163" s="2" t="s">
         <v>48</v>
       </c>
@@ -7150,7 +7153,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="164" spans="1:51">
+    <row r="164" spans="1:51" hidden="1">
       <c r="A164" s="2" t="s">
         <v>54</v>
       </c>
@@ -7186,7 +7189,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="165" spans="1:51">
+    <row r="165" spans="1:51" hidden="1">
       <c r="A165" s="2" t="s">
         <v>54</v>
       </c>
@@ -7228,7 +7231,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="166" spans="1:51">
+    <row r="166" spans="1:51" hidden="1">
       <c r="A166" s="2" t="s">
         <v>55</v>
       </c>
@@ -7267,7 +7270,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="167" spans="1:51">
+    <row r="167" spans="1:51" hidden="1">
       <c r="A167" s="2" t="s">
         <v>50</v>
       </c>
@@ -7309,7 +7312,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="168" spans="1:51">
+    <row r="168" spans="1:51" hidden="1">
       <c r="A168" s="2" t="s">
         <v>51</v>
       </c>
@@ -7345,7 +7348,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="169" spans="1:51">
+    <row r="169" spans="1:51" hidden="1">
       <c r="A169" s="2" t="s">
         <v>51</v>
       </c>
@@ -7384,7 +7387,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="170" spans="1:51">
+    <row r="170" spans="1:51" hidden="1">
       <c r="A170" s="2" t="s">
         <v>48</v>
       </c>
@@ -7426,7 +7429,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="171" spans="1:51" ht="16.5" customHeight="1">
+    <row r="171" spans="1:51" ht="16.5" hidden="1" customHeight="1">
       <c r="A171" s="2" t="s">
         <v>53</v>
       </c>
@@ -7465,7 +7468,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="172" spans="1:51">
+    <row r="172" spans="1:51" hidden="1">
       <c r="A172" s="2" t="s">
         <v>51</v>
       </c>
@@ -7501,7 +7504,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="173" spans="1:51">
+    <row r="173" spans="1:51" hidden="1">
       <c r="A173" s="2" t="s">
         <v>48</v>
       </c>
@@ -7585,7 +7588,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="175" spans="1:51">
+    <row r="175" spans="1:51" hidden="1">
       <c r="A175" s="2" t="s">
         <v>47</v>
       </c>
@@ -7621,7 +7624,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="176" spans="1:51">
+    <row r="176" spans="1:51" hidden="1">
       <c r="A176" s="2" t="s">
         <v>50</v>
       </c>
@@ -7657,7 +7660,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="177" spans="1:51">
+    <row r="177" spans="1:51" hidden="1">
       <c r="A177" s="2" t="s">
         <v>50</v>
       </c>
@@ -7693,7 +7696,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="178" spans="1:51">
+    <row r="178" spans="1:51" hidden="1">
       <c r="A178" s="2" t="s">
         <v>48</v>
       </c>
@@ -7729,7 +7732,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="179" spans="1:51">
+    <row r="179" spans="1:51" hidden="1">
       <c r="A179" s="2" t="s">
         <v>52</v>
       </c>
@@ -7771,7 +7774,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="180" spans="1:51">
+    <row r="180" spans="1:51" hidden="1">
       <c r="A180" s="2" t="s">
         <v>49</v>
       </c>
@@ -7813,7 +7816,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="181" spans="1:51">
+    <row r="181" spans="1:51" hidden="1">
       <c r="A181" s="2" t="s">
         <v>52</v>
       </c>
@@ -7858,7 +7861,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="182" spans="1:51">
+    <row r="182" spans="1:51" hidden="1">
       <c r="A182" s="2" t="s">
         <v>47</v>
       </c>
@@ -7894,7 +7897,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="183" spans="1:51">
+    <row r="183" spans="1:51" hidden="1">
       <c r="A183" s="2" t="s">
         <v>49</v>
       </c>
@@ -7930,7 +7933,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="184" spans="1:51">
+    <row r="184" spans="1:51" hidden="1">
       <c r="A184" s="2" t="s">
         <v>55</v>
       </c>
@@ -7969,7 +7972,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="185" spans="1:51">
+    <row r="185" spans="1:51" hidden="1">
       <c r="A185" s="2" t="s">
         <v>47</v>
       </c>
@@ -8005,7 +8008,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="186" spans="1:51">
+    <row r="186" spans="1:51" hidden="1">
       <c r="A186" s="2" t="s">
         <v>52</v>
       </c>
@@ -8041,7 +8044,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="187" spans="1:51">
+    <row r="187" spans="1:51" hidden="1">
       <c r="A187" t="s">
         <v>52</v>
       </c>
@@ -8156,7 +8159,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="188" spans="1:51">
+    <row r="188" spans="1:51" hidden="1">
       <c r="A188" s="2" t="s">
         <v>50</v>
       </c>
@@ -8214,7 +8217,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="189" spans="1:51">
+    <row r="189" spans="1:51" hidden="1">
       <c r="A189" t="s">
         <v>50</v>
       </c>
@@ -8268,7 +8271,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="190" spans="1:51">
+    <row r="190" spans="1:51" hidden="1">
       <c r="A190" s="2" t="s">
         <v>50</v>
       </c>
@@ -8341,7 +8344,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="191" spans="1:51">
+    <row r="191" spans="1:51" hidden="1">
       <c r="A191" s="2" t="s">
         <v>52</v>
       </c>
@@ -8399,7 +8402,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="192" spans="1:51">
+    <row r="192" spans="1:51" hidden="1">
       <c r="A192" s="2" t="s">
         <v>55</v>
       </c>
@@ -8508,7 +8511,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="193" spans="1:51">
+    <row r="193" spans="1:51" hidden="1">
       <c r="A193" s="2" t="s">
         <v>55</v>
       </c>
@@ -8569,7 +8572,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="194" spans="1:51">
+    <row r="194" spans="1:51" hidden="1">
       <c r="A194" t="s">
         <v>52</v>
       </c>
@@ -8626,7 +8629,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="195" spans="1:51">
+    <row r="195" spans="1:51" hidden="1">
       <c r="A195" s="2" t="s">
         <v>51</v>
       </c>
@@ -8729,7 +8732,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="196" spans="1:51">
+    <row r="196" spans="1:51" hidden="1">
       <c r="A196" s="2" t="s">
         <v>53</v>
       </c>
@@ -8790,7 +8793,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="197" spans="1:51">
+    <row r="197" spans="1:51" hidden="1">
       <c r="A197" s="2" t="s">
         <v>54</v>
       </c>
@@ -8905,7 +8908,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="198" spans="1:51">
+    <row r="198" spans="1:51" hidden="1">
       <c r="A198" s="2" t="s">
         <v>54</v>
       </c>
@@ -8960,7 +8963,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="199" spans="1:51">
+    <row r="199" spans="1:51" hidden="1">
       <c r="A199" s="2" t="s">
         <v>52</v>
       </c>
@@ -9030,7 +9033,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="200" spans="1:51">
+    <row r="200" spans="1:51" hidden="1">
       <c r="A200" t="s">
         <v>51</v>
       </c>
@@ -9087,7 +9090,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="201" spans="1:51">
+    <row r="201" spans="1:51" hidden="1">
       <c r="A201" s="2" t="s">
         <v>51</v>
       </c>
@@ -9145,7 +9148,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="202" spans="1:51">
+    <row r="202" spans="1:51" hidden="1">
       <c r="A202" s="2" t="s">
         <v>51</v>
       </c>
@@ -9209,7 +9212,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="203" spans="1:51">
+    <row r="203" spans="1:51" hidden="1">
       <c r="A203" s="2" t="s">
         <v>47</v>
       </c>
@@ -9257,7 +9260,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="204" spans="1:51">
+    <row r="204" spans="1:51" hidden="1">
       <c r="A204" s="2" t="s">
         <v>47</v>
       </c>
@@ -9295,7 +9298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:51">
+    <row r="205" spans="1:51" hidden="1">
       <c r="A205" s="2" t="s">
         <v>47</v>
       </c>
@@ -9329,7 +9332,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="206" spans="1:51">
+    <row r="206" spans="1:51" hidden="1">
       <c r="A206" s="2" t="s">
         <v>47</v>
       </c>
@@ -9366,7 +9369,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="207" spans="1:51">
+    <row r="207" spans="1:51" hidden="1">
       <c r="A207" s="2" t="s">
         <v>47</v>
       </c>
@@ -9400,7 +9403,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="208" spans="1:51">
+    <row r="208" spans="1:51" hidden="1">
       <c r="A208" s="2" t="s">
         <v>47</v>
       </c>
@@ -9440,7 +9443,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="209" spans="1:51">
+    <row r="209" spans="1:51" hidden="1">
       <c r="A209" s="2" t="s">
         <v>47</v>
       </c>
@@ -9471,7 +9474,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="210" spans="1:51">
+    <row r="210" spans="1:51" hidden="1">
       <c r="A210" s="2" t="s">
         <v>47</v>
       </c>
@@ -9508,7 +9511,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="211" spans="1:51">
+    <row r="211" spans="1:51" hidden="1">
       <c r="A211" s="2" t="s">
         <v>47</v>
       </c>
@@ -9542,7 +9545,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="212" spans="1:51">
+    <row r="212" spans="1:51" hidden="1">
       <c r="A212" s="2" t="s">
         <v>47</v>
       </c>
@@ -9576,7 +9579,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="213" spans="1:51">
+    <row r="213" spans="1:51" hidden="1">
       <c r="A213" s="2" t="s">
         <v>47</v>
       </c>
@@ -9613,7 +9616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="214" spans="1:51">
+    <row r="214" spans="1:51" hidden="1">
       <c r="A214" s="2" t="s">
         <v>47</v>
       </c>
@@ -9653,7 +9656,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="215" spans="1:51">
+    <row r="215" spans="1:51" hidden="1">
       <c r="A215" s="2" t="s">
         <v>47</v>
       </c>
@@ -9699,7 +9702,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:51">
+    <row r="216" spans="1:51" hidden="1">
       <c r="A216" s="2" t="s">
         <v>47</v>
       </c>
@@ -9736,7 +9739,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="217" spans="1:51">
+    <row r="217" spans="1:51" hidden="1">
       <c r="A217" s="2" t="s">
         <v>47</v>
       </c>
@@ -9773,7 +9776,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="218" spans="1:51">
+    <row r="218" spans="1:51" hidden="1">
       <c r="A218" s="2" t="s">
         <v>47</v>
       </c>
@@ -9807,7 +9810,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="219" spans="1:51">
+    <row r="219" spans="1:51" hidden="1">
       <c r="A219" s="2" t="s">
         <v>47</v>
       </c>
@@ -9841,7 +9844,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="220" spans="1:51">
+    <row r="220" spans="1:51" hidden="1">
       <c r="A220" s="2" t="s">
         <v>47</v>
       </c>
@@ -9878,7 +9881,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="221" spans="1:51">
+    <row r="221" spans="1:51" hidden="1">
       <c r="A221" s="2" t="s">
         <v>47</v>
       </c>
@@ -9915,7 +9918,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="222" spans="1:51">
+    <row r="222" spans="1:51" hidden="1">
       <c r="A222" s="2" t="s">
         <v>47</v>
       </c>
@@ -9976,7 +9979,7 @@
         <v>5.16</v>
       </c>
     </row>
-    <row r="223" spans="1:51">
+    <row r="223" spans="1:51" hidden="1">
       <c r="A223" s="2" t="s">
         <v>47</v>
       </c>
@@ -10013,7 +10016,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="224" spans="1:51">
+    <row r="224" spans="1:51" hidden="1">
       <c r="A224" s="2" t="s">
         <v>47</v>
       </c>
@@ -10047,7 +10050,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="225" spans="1:50">
+    <row r="225" spans="1:50" hidden="1">
       <c r="A225" s="2" t="s">
         <v>47</v>
       </c>
@@ -10081,7 +10084,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="226" spans="1:50">
+    <row r="226" spans="1:50" hidden="1">
       <c r="A226" s="2" t="s">
         <v>47</v>
       </c>
@@ -10115,7 +10118,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="227" spans="1:50">
+    <row r="227" spans="1:50" hidden="1">
       <c r="A227" s="2" t="s">
         <v>47</v>
       </c>
@@ -10152,7 +10155,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="228" spans="1:50">
+    <row r="228" spans="1:50" hidden="1">
       <c r="A228" s="2" t="s">
         <v>47</v>
       </c>
@@ -10186,7 +10189,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="229" spans="1:50">
+    <row r="229" spans="1:50" hidden="1">
       <c r="A229" s="2" t="s">
         <v>47</v>
       </c>
@@ -10220,7 +10223,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="230" spans="1:50">
+    <row r="230" spans="1:50" hidden="1">
       <c r="A230" s="2" t="s">
         <v>47</v>
       </c>
@@ -10251,7 +10254,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="231" spans="1:50">
+    <row r="231" spans="1:50" hidden="1">
       <c r="A231" s="2" t="s">
         <v>47</v>
       </c>
@@ -10285,7 +10288,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="232" spans="1:50">
+    <row r="232" spans="1:50" hidden="1">
       <c r="A232" s="2" t="s">
         <v>47</v>
       </c>
@@ -10325,7 +10328,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="233" spans="1:50">
+    <row r="233" spans="1:50" hidden="1">
       <c r="A233" s="2" t="s">
         <v>47</v>
       </c>
@@ -10404,7 +10407,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="234" spans="1:50">
+    <row r="234" spans="1:50" hidden="1">
       <c r="A234" s="2" t="s">
         <v>47</v>
       </c>
@@ -10438,7 +10441,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="235" spans="1:50">
+    <row r="235" spans="1:50" hidden="1">
       <c r="A235" s="2" t="s">
         <v>47</v>
       </c>
@@ -10472,7 +10475,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="236" spans="1:50">
+    <row r="236" spans="1:50" hidden="1">
       <c r="A236" s="2" t="s">
         <v>47</v>
       </c>
@@ -10506,7 +10509,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="237" spans="1:50">
+    <row r="237" spans="1:50" hidden="1">
       <c r="A237" s="2" t="s">
         <v>47</v>
       </c>
@@ -10540,7 +10543,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="238" spans="1:50">
+    <row r="238" spans="1:50" hidden="1">
       <c r="A238" s="2" t="s">
         <v>47</v>
       </c>
@@ -10577,7 +10580,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="239" spans="1:50">
+    <row r="239" spans="1:50" hidden="1">
       <c r="A239" s="2" t="s">
         <v>47</v>
       </c>
@@ -10614,7 +10617,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="240" spans="1:50">
+    <row r="240" spans="1:50" hidden="1">
       <c r="A240" s="2" t="s">
         <v>47</v>
       </c>
@@ -10672,7 +10675,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="241" spans="1:43">
+    <row r="241" spans="1:43" hidden="1">
       <c r="A241" s="2" t="s">
         <v>47</v>
       </c>
@@ -10706,7 +10709,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="242" spans="1:43">
+    <row r="242" spans="1:43" hidden="1">
       <c r="A242" s="2" t="s">
         <v>47</v>
       </c>
@@ -10743,7 +10746,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="243" spans="1:43">
+    <row r="243" spans="1:43" hidden="1">
       <c r="A243" s="2" t="s">
         <v>50</v>
       </c>
@@ -10777,7 +10780,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="244" spans="1:43">
+    <row r="244" spans="1:43" hidden="1">
       <c r="A244" s="2" t="s">
         <v>50</v>
       </c>
@@ -10814,7 +10817,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="245" spans="1:43">
+    <row r="245" spans="1:43" hidden="1">
       <c r="A245" s="2" t="s">
         <v>50</v>
       </c>
@@ -10851,7 +10854,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="246" spans="1:43">
+    <row r="246" spans="1:43" hidden="1">
       <c r="A246" s="2" t="s">
         <v>50</v>
       </c>
@@ -10888,7 +10891,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="247" spans="1:43">
+    <row r="247" spans="1:43" hidden="1">
       <c r="A247" s="2" t="s">
         <v>50</v>
       </c>
@@ -10922,7 +10925,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="248" spans="1:43">
+    <row r="248" spans="1:43" hidden="1">
       <c r="A248" s="2" t="s">
         <v>50</v>
       </c>
@@ -10959,7 +10962,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="249" spans="1:43">
+    <row r="249" spans="1:43" hidden="1">
       <c r="A249" s="2" t="s">
         <v>50</v>
       </c>
@@ -10996,7 +10999,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="250" spans="1:43">
+    <row r="250" spans="1:43" hidden="1">
       <c r="A250" s="2" t="s">
         <v>50</v>
       </c>
@@ -11030,7 +11033,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="251" spans="1:43">
+    <row r="251" spans="1:43" hidden="1">
       <c r="A251" s="2" t="s">
         <v>50</v>
       </c>
@@ -11067,7 +11070,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="252" spans="1:43">
+    <row r="252" spans="1:43" hidden="1">
       <c r="A252" s="2" t="s">
         <v>50</v>
       </c>
@@ -11107,7 +11110,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="253" spans="1:43">
+    <row r="253" spans="1:43" hidden="1">
       <c r="A253" s="2" t="s">
         <v>50</v>
       </c>
@@ -11153,7 +11156,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:43">
+    <row r="254" spans="1:43" hidden="1">
       <c r="A254" s="2" t="s">
         <v>50</v>
       </c>
@@ -11187,7 +11190,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="255" spans="1:43">
+    <row r="255" spans="1:43" hidden="1">
       <c r="A255" s="2" t="s">
         <v>50</v>
       </c>
@@ -11224,7 +11227,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="256" spans="1:43">
+    <row r="256" spans="1:43" hidden="1">
       <c r="A256" s="2" t="s">
         <v>50</v>
       </c>
@@ -11258,7 +11261,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="257" spans="1:50">
+    <row r="257" spans="1:50" hidden="1">
       <c r="A257" s="2" t="s">
         <v>50</v>
       </c>
@@ -11292,7 +11295,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="258" spans="1:50">
+    <row r="258" spans="1:50" hidden="1">
       <c r="A258" s="2" t="s">
         <v>50</v>
       </c>
@@ -11326,7 +11329,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="259" spans="1:50">
+    <row r="259" spans="1:50" hidden="1">
       <c r="A259" s="2" t="s">
         <v>50</v>
       </c>
@@ -11363,7 +11366,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="260" spans="1:50">
+    <row r="260" spans="1:50" hidden="1">
       <c r="A260" s="2" t="s">
         <v>50</v>
       </c>
@@ -11409,7 +11412,7 @@
         <v>4.2699999999999996</v>
       </c>
     </row>
-    <row r="261" spans="1:50">
+    <row r="261" spans="1:50" hidden="1">
       <c r="A261" s="2" t="s">
         <v>50</v>
       </c>
@@ -11449,7 +11452,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="262" spans="1:50">
+    <row r="262" spans="1:50" hidden="1">
       <c r="A262" s="2" t="s">
         <v>50</v>
       </c>
@@ -11486,7 +11489,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="263" spans="1:50">
+    <row r="263" spans="1:50" hidden="1">
       <c r="A263" s="2" t="s">
         <v>50</v>
       </c>
@@ -11523,7 +11526,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="264" spans="1:50">
+    <row r="264" spans="1:50" hidden="1">
       <c r="A264" s="2" t="s">
         <v>50</v>
       </c>
@@ -11557,7 +11560,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="265" spans="1:50">
+    <row r="265" spans="1:50" hidden="1">
       <c r="A265" s="2" t="s">
         <v>50</v>
       </c>
@@ -11591,7 +11594,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="266" spans="1:50">
+    <row r="266" spans="1:50" hidden="1">
       <c r="A266" s="2" t="s">
         <v>50</v>
       </c>
@@ -11625,7 +11628,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="267" spans="1:50">
+    <row r="267" spans="1:50" hidden="1">
       <c r="A267" s="2" t="s">
         <v>50</v>
       </c>
@@ -11662,7 +11665,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="268" spans="1:50">
+    <row r="268" spans="1:50" hidden="1">
       <c r="A268" s="2" t="s">
         <v>50</v>
       </c>
@@ -11699,7 +11702,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="269" spans="1:50">
+    <row r="269" spans="1:50" hidden="1">
       <c r="A269" s="2" t="s">
         <v>50</v>
       </c>
@@ -11733,7 +11736,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="270" spans="1:50">
+    <row r="270" spans="1:50" hidden="1">
       <c r="A270" s="2" t="s">
         <v>50</v>
       </c>
@@ -11776,7 +11779,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="271" spans="1:50">
+    <row r="271" spans="1:50" hidden="1">
       <c r="A271" t="s">
         <v>50</v>
       </c>
@@ -11810,7 +11813,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="272" spans="1:50">
+    <row r="272" spans="1:50" hidden="1">
       <c r="A272" s="2" t="s">
         <v>50</v>
       </c>
@@ -11874,7 +11877,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="273" spans="1:51">
+    <row r="273" spans="1:51" hidden="1">
       <c r="A273" s="2" t="s">
         <v>53</v>
       </c>
@@ -11913,7 +11916,7 @@
         <v>53</v>
       </c>
       <c r="B274" s="5">
-        <v>35775</v>
+        <v>35789</v>
       </c>
       <c r="C274" s="5"/>
       <c r="D274" s="6">
@@ -11947,7 +11950,7 @@
         <v>53</v>
       </c>
       <c r="B275" s="5">
-        <v>35803</v>
+        <v>35817</v>
       </c>
       <c r="C275" s="5"/>
       <c r="D275" s="6">
@@ -11976,7 +11979,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="276" spans="1:51">
+    <row r="276" spans="1:51" hidden="1">
       <c r="A276" s="2" t="s">
         <v>53</v>
       </c>
@@ -12019,7 +12022,7 @@
         <v>53</v>
       </c>
       <c r="B277" s="5">
-        <v>35817</v>
+        <v>35831</v>
       </c>
       <c r="C277" s="5"/>
       <c r="D277" s="6">
@@ -12054,7 +12057,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="278" spans="1:51">
+    <row r="278" spans="1:51" hidden="1">
       <c r="A278" s="2" t="s">
         <v>53</v>
       </c>
@@ -12091,7 +12094,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="279" spans="1:51">
+    <row r="279" spans="1:51" hidden="1">
       <c r="A279" s="2" t="s">
         <v>53</v>
       </c>
@@ -12130,7 +12133,7 @@
         <v>53</v>
       </c>
       <c r="B280" s="5">
-        <v>35831</v>
+        <v>35814</v>
       </c>
       <c r="C280" s="5"/>
       <c r="D280" s="6">
@@ -12162,7 +12165,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="281" spans="1:51">
+    <row r="281" spans="1:51" hidden="1">
       <c r="A281" s="2" t="s">
         <v>53</v>
       </c>
@@ -12196,7 +12199,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="282" spans="1:51">
+    <row r="282" spans="1:51" hidden="1">
       <c r="A282" s="2" t="s">
         <v>53</v>
       </c>
@@ -12235,7 +12238,7 @@
         <v>53</v>
       </c>
       <c r="B283" s="5">
-        <v>35837</v>
+        <v>35851</v>
       </c>
       <c r="C283" s="5"/>
       <c r="D283" s="6">
@@ -12273,7 +12276,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="284" spans="1:51">
+    <row r="284" spans="1:51" hidden="1">
       <c r="A284" s="2" t="s">
         <v>53</v>
       </c>
@@ -12307,7 +12310,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="285" spans="1:51">
+    <row r="285" spans="1:51" hidden="1">
       <c r="A285" t="s">
         <v>53</v>
       </c>
@@ -12344,7 +12347,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="286" spans="1:51">
+    <row r="286" spans="1:51" hidden="1">
       <c r="A286" s="2" t="s">
         <v>53</v>
       </c>
@@ -12381,7 +12384,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="287" spans="1:51">
+    <row r="287" spans="1:51" hidden="1">
       <c r="A287" s="2" t="s">
         <v>53</v>
       </c>
@@ -12424,7 +12427,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:51">
+    <row r="288" spans="1:51" hidden="1">
       <c r="A288" s="2" t="s">
         <v>53</v>
       </c>
@@ -12458,7 +12461,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="289" spans="1:51">
+    <row r="289" spans="1:51" hidden="1">
       <c r="A289" s="2" t="s">
         <v>53</v>
       </c>
@@ -12492,7 +12495,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="290" spans="1:51">
+    <row r="290" spans="1:51" hidden="1">
       <c r="A290" s="2" t="s">
         <v>53</v>
       </c>
@@ -12529,7 +12532,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="291" spans="1:51">
+    <row r="291" spans="1:51" hidden="1">
       <c r="A291" s="2" t="s">
         <v>53</v>
       </c>
@@ -12566,7 +12569,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="292" spans="1:51">
+    <row r="292" spans="1:51" hidden="1">
       <c r="A292" s="2" t="s">
         <v>53</v>
       </c>
@@ -12600,7 +12603,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="293" spans="1:51">
+    <row r="293" spans="1:51" hidden="1">
       <c r="A293" s="2" t="s">
         <v>53</v>
       </c>
@@ -12634,7 +12637,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="294" spans="1:51">
+    <row r="294" spans="1:51" hidden="1">
       <c r="A294" t="s">
         <v>53</v>
       </c>
@@ -12668,7 +12671,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="295" spans="1:51">
+    <row r="295" spans="1:51" hidden="1">
       <c r="A295" s="2" t="s">
         <v>53</v>
       </c>
@@ -12720,7 +12723,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="296" spans="1:51">
+    <row r="296" spans="1:51" hidden="1">
       <c r="A296" s="2" t="s">
         <v>53</v>
       </c>
@@ -12757,7 +12760,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="297" spans="1:51">
+    <row r="297" spans="1:51" hidden="1">
       <c r="A297" s="2" t="s">
         <v>53</v>
       </c>
@@ -12794,7 +12797,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="298" spans="1:51">
+    <row r="298" spans="1:51" hidden="1">
       <c r="A298" t="s">
         <v>53</v>
       </c>
@@ -12828,7 +12831,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="299" spans="1:51">
+    <row r="299" spans="1:51" hidden="1">
       <c r="A299" s="2" t="s">
         <v>53</v>
       </c>
@@ -12862,7 +12865,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="300" spans="1:51">
+    <row r="300" spans="1:51" hidden="1">
       <c r="A300" s="2" t="s">
         <v>53</v>
       </c>
@@ -12899,7 +12902,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="301" spans="1:51">
+    <row r="301" spans="1:51" hidden="1">
       <c r="A301" s="2" t="s">
         <v>53</v>
       </c>
@@ -12939,7 +12942,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="302" spans="1:51">
+    <row r="302" spans="1:51" hidden="1">
       <c r="A302" s="2" t="s">
         <v>53</v>
       </c>
@@ -12985,7 +12988,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="303" spans="1:51">
+    <row r="303" spans="1:51" hidden="1">
       <c r="A303" s="2" t="s">
         <v>53</v>
       </c>
@@ -13028,7 +13031,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="304" spans="1:51">
+    <row r="304" spans="1:51" hidden="1">
       <c r="A304" s="2" t="s">
         <v>53</v>
       </c>
@@ -13065,7 +13068,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="305" spans="1:51">
+    <row r="305" spans="1:51" hidden="1">
       <c r="A305" s="2" t="s">
         <v>53</v>
       </c>
@@ -13102,7 +13105,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="306" spans="1:51">
+    <row r="306" spans="1:51" hidden="1">
       <c r="A306" t="s">
         <v>53</v>
       </c>
@@ -13136,7 +13139,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="307" spans="1:51">
+    <row r="307" spans="1:51" hidden="1">
       <c r="A307" s="2" t="s">
         <v>48</v>
       </c>
@@ -13169,7 +13172,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="308" spans="1:51">
+    <row r="308" spans="1:51" hidden="1">
       <c r="A308" s="2" t="s">
         <v>48</v>
       </c>
@@ -13205,7 +13208,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="309" spans="1:51">
+    <row r="309" spans="1:51" hidden="1">
       <c r="A309" s="2" t="s">
         <v>48</v>
       </c>
@@ -13239,7 +13242,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="310" spans="1:51">
+    <row r="310" spans="1:51" hidden="1">
       <c r="A310" s="2" t="s">
         <v>48</v>
       </c>
@@ -13276,7 +13279,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="311" spans="1:51">
+    <row r="311" spans="1:51" hidden="1">
       <c r="A311" s="2" t="s">
         <v>48</v>
       </c>
@@ -13310,7 +13313,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="312" spans="1:51">
+    <row r="312" spans="1:51" hidden="1">
       <c r="A312" s="2" t="s">
         <v>48</v>
       </c>
@@ -13344,7 +13347,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="313" spans="1:51">
+    <row r="313" spans="1:51" hidden="1">
       <c r="A313" s="2" t="s">
         <v>48</v>
       </c>
@@ -13378,7 +13381,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="314" spans="1:51">
+    <row r="314" spans="1:51" hidden="1">
       <c r="A314" s="2" t="s">
         <v>48</v>
       </c>
@@ -13412,7 +13415,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="315" spans="1:51">
+    <row r="315" spans="1:51" hidden="1">
       <c r="A315" s="2" t="s">
         <v>48</v>
       </c>
@@ -13446,7 +13449,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="316" spans="1:51">
+    <row r="316" spans="1:51" hidden="1">
       <c r="A316" s="2" t="s">
         <v>48</v>
       </c>
@@ -13489,7 +13492,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="317" spans="1:51">
+    <row r="317" spans="1:51" hidden="1">
       <c r="A317" s="2" t="s">
         <v>48</v>
       </c>
@@ -13532,7 +13535,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:51">
+    <row r="318" spans="1:51" hidden="1">
       <c r="A318" s="2" t="s">
         <v>48</v>
       </c>
@@ -13569,7 +13572,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="319" spans="1:51">
+    <row r="319" spans="1:51" hidden="1">
       <c r="A319" s="2" t="s">
         <v>48</v>
       </c>
@@ -13603,7 +13606,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="320" spans="1:51">
+    <row r="320" spans="1:51" hidden="1">
       <c r="A320" s="2" t="s">
         <v>48</v>
       </c>
@@ -13637,7 +13640,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="321" spans="1:51">
+    <row r="321" spans="1:51" hidden="1">
       <c r="A321" s="2" t="s">
         <v>48</v>
       </c>
@@ -13671,7 +13674,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="322" spans="1:51">
+    <row r="322" spans="1:51" hidden="1">
       <c r="A322" s="2" t="s">
         <v>48</v>
       </c>
@@ -13711,7 +13714,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="323" spans="1:51">
+    <row r="323" spans="1:51" hidden="1">
       <c r="A323" s="2" t="s">
         <v>48</v>
       </c>
@@ -13745,7 +13748,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="324" spans="1:51">
+    <row r="324" spans="1:51" hidden="1">
       <c r="A324" s="2" t="s">
         <v>48</v>
       </c>
@@ -13797,7 +13800,7 @@
         <v>7.83</v>
       </c>
     </row>
-    <row r="325" spans="1:51">
+    <row r="325" spans="1:51" hidden="1">
       <c r="A325" s="2" t="s">
         <v>48</v>
       </c>
@@ -13840,7 +13843,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="326" spans="1:51">
+    <row r="326" spans="1:51" hidden="1">
       <c r="A326" s="2" t="s">
         <v>48</v>
       </c>
@@ -13874,7 +13877,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="327" spans="1:51">
+    <row r="327" spans="1:51" hidden="1">
       <c r="A327" s="2" t="s">
         <v>48</v>
       </c>
@@ -13908,7 +13911,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="328" spans="1:51">
+    <row r="328" spans="1:51" hidden="1">
       <c r="A328" s="2" t="s">
         <v>48</v>
       </c>
@@ -13942,7 +13945,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="329" spans="1:51">
+    <row r="329" spans="1:51" hidden="1">
       <c r="A329" s="2" t="s">
         <v>48</v>
       </c>
@@ -13976,7 +13979,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="330" spans="1:51">
+    <row r="330" spans="1:51" hidden="1">
       <c r="A330" s="2" t="s">
         <v>48</v>
       </c>
@@ -14010,7 +14013,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="331" spans="1:51">
+    <row r="331" spans="1:51" hidden="1">
       <c r="A331" s="2" t="s">
         <v>48</v>
       </c>
@@ -14044,7 +14047,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="332" spans="1:51">
+    <row r="332" spans="1:51" hidden="1">
       <c r="A332" s="2" t="s">
         <v>48</v>
       </c>
@@ -14078,7 +14081,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="333" spans="1:51">
+    <row r="333" spans="1:51" hidden="1">
       <c r="A333" s="2" t="s">
         <v>48</v>
       </c>
@@ -14112,7 +14115,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="334" spans="1:51">
+    <row r="334" spans="1:51" hidden="1">
       <c r="A334" s="2" t="s">
         <v>48</v>
       </c>
@@ -14155,7 +14158,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="335" spans="1:51">
+    <row r="335" spans="1:51" hidden="1">
       <c r="A335" s="2" t="s">
         <v>48</v>
       </c>
@@ -14192,7 +14195,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="336" spans="1:51">
+    <row r="336" spans="1:51" hidden="1">
       <c r="A336" s="2" t="s">
         <v>48</v>
       </c>
@@ -14268,7 +14271,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="337" spans="1:50">
+    <row r="337" spans="1:50" hidden="1">
       <c r="A337" s="2" t="s">
         <v>48</v>
       </c>
@@ -14302,7 +14305,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="338" spans="1:50">
+    <row r="338" spans="1:50" hidden="1">
       <c r="A338" s="2" t="s">
         <v>48</v>
       </c>
@@ -14336,7 +14339,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="339" spans="1:50">
+    <row r="339" spans="1:50" hidden="1">
       <c r="A339" s="2" t="s">
         <v>48</v>
       </c>
@@ -14373,7 +14376,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="340" spans="1:50">
+    <row r="340" spans="1:50" hidden="1">
       <c r="A340" s="2" t="s">
         <v>48</v>
       </c>
@@ -14410,7 +14413,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="341" spans="1:50">
+    <row r="341" spans="1:50" hidden="1">
       <c r="A341" s="2" t="s">
         <v>48</v>
       </c>
@@ -14453,7 +14456,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="342" spans="1:50">
+    <row r="342" spans="1:50" hidden="1">
       <c r="A342" s="2" t="s">
         <v>48</v>
       </c>
@@ -14487,7 +14490,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="343" spans="1:50">
+    <row r="343" spans="1:50" hidden="1">
       <c r="A343" s="2" t="s">
         <v>48</v>
       </c>
@@ -14527,7 +14530,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="344" spans="1:50">
+    <row r="344" spans="1:50" hidden="1">
       <c r="A344" s="2" t="s">
         <v>48</v>
       </c>
@@ -14561,7 +14564,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="345" spans="1:50">
+    <row r="345" spans="1:50" hidden="1">
       <c r="A345" s="2" t="s">
         <v>48</v>
       </c>
@@ -14595,7 +14598,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="346" spans="1:50">
+    <row r="346" spans="1:50" hidden="1">
       <c r="A346" s="2" t="s">
         <v>48</v>
       </c>
@@ -14659,7 +14662,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="347" spans="1:50">
+    <row r="347" spans="1:50" hidden="1">
       <c r="A347" s="2" t="s">
         <v>51</v>
       </c>
@@ -14693,7 +14696,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="348" spans="1:50">
+    <row r="348" spans="1:50" hidden="1">
       <c r="A348" s="2" t="s">
         <v>51</v>
       </c>
@@ -14730,7 +14733,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="349" spans="1:50">
+    <row r="349" spans="1:50" hidden="1">
       <c r="A349" s="2" t="s">
         <v>51</v>
       </c>
@@ -14767,7 +14770,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="350" spans="1:50">
+    <row r="350" spans="1:50" hidden="1">
       <c r="A350" s="2" t="s">
         <v>51</v>
       </c>
@@ -14804,7 +14807,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="351" spans="1:50">
+    <row r="351" spans="1:50" hidden="1">
       <c r="A351" s="2" t="s">
         <v>51</v>
       </c>
@@ -14838,7 +14841,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="352" spans="1:50">
+    <row r="352" spans="1:50" hidden="1">
       <c r="A352" s="2" t="s">
         <v>51</v>
       </c>
@@ -14872,7 +14875,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="353" spans="1:49">
+    <row r="353" spans="1:49" hidden="1">
       <c r="A353" s="2" t="s">
         <v>51</v>
       </c>
@@ -14906,7 +14909,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="354" spans="1:49">
+    <row r="354" spans="1:49" hidden="1">
       <c r="A354" s="2" t="s">
         <v>51</v>
       </c>
@@ -14943,7 +14946,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="355" spans="1:49">
+    <row r="355" spans="1:49" hidden="1">
       <c r="A355" s="2" t="s">
         <v>51</v>
       </c>
@@ -14989,7 +14992,7 @@
         <v>3.7200000000000004E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:49">
+    <row r="356" spans="1:49" hidden="1">
       <c r="A356" s="2" t="s">
         <v>51</v>
       </c>
@@ -15023,7 +15026,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="357" spans="1:49">
+    <row r="357" spans="1:49" hidden="1">
       <c r="A357" s="2" t="s">
         <v>51</v>
       </c>
@@ -15057,7 +15060,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="358" spans="1:49">
+    <row r="358" spans="1:49" hidden="1">
       <c r="A358" s="2" t="s">
         <v>51</v>
       </c>
@@ -15091,7 +15094,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="359" spans="1:49">
+    <row r="359" spans="1:49" hidden="1">
       <c r="A359" s="2" t="s">
         <v>51</v>
       </c>
@@ -15125,7 +15128,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="360" spans="1:49">
+    <row r="360" spans="1:49" hidden="1">
       <c r="A360" s="2" t="s">
         <v>51</v>
       </c>
@@ -15159,7 +15162,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="361" spans="1:49">
+    <row r="361" spans="1:49" hidden="1">
       <c r="A361" s="2" t="s">
         <v>51</v>
       </c>
@@ -15199,7 +15202,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="362" spans="1:49">
+    <row r="362" spans="1:49" hidden="1">
       <c r="A362" t="s">
         <v>51</v>
       </c>
@@ -15236,7 +15239,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="363" spans="1:49">
+    <row r="363" spans="1:49" hidden="1">
       <c r="A363" s="2" t="s">
         <v>51</v>
       </c>
@@ -15297,7 +15300,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="364" spans="1:49">
+    <row r="364" spans="1:49" hidden="1">
       <c r="A364" s="2" t="s">
         <v>51</v>
       </c>
@@ -15331,7 +15334,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="365" spans="1:49">
+    <row r="365" spans="1:49" hidden="1">
       <c r="A365" s="2" t="s">
         <v>51</v>
       </c>
@@ -15365,7 +15368,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="366" spans="1:49">
+    <row r="366" spans="1:49" hidden="1">
       <c r="A366" s="2" t="s">
         <v>51</v>
       </c>
@@ -15399,7 +15402,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="367" spans="1:49">
+    <row r="367" spans="1:49" hidden="1">
       <c r="A367" s="2" t="s">
         <v>51</v>
       </c>
@@ -15436,7 +15439,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="368" spans="1:49">
+    <row r="368" spans="1:49" hidden="1">
       <c r="A368" s="2" t="s">
         <v>51</v>
       </c>
@@ -15470,7 +15473,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="369" spans="1:51">
+    <row r="369" spans="1:51" hidden="1">
       <c r="A369" s="2" t="s">
         <v>51</v>
       </c>
@@ -15513,7 +15516,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="370" spans="1:51">
+    <row r="370" spans="1:51" hidden="1">
       <c r="A370" s="2" t="s">
         <v>51</v>
       </c>
@@ -15550,7 +15553,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="371" spans="1:51">
+    <row r="371" spans="1:51" hidden="1">
       <c r="A371" s="2" t="s">
         <v>51</v>
       </c>
@@ -15584,7 +15587,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="372" spans="1:51">
+    <row r="372" spans="1:51" hidden="1">
       <c r="A372" s="2" t="s">
         <v>51</v>
       </c>
@@ -15618,7 +15621,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="373" spans="1:51">
+    <row r="373" spans="1:51" hidden="1">
       <c r="A373" s="2" t="s">
         <v>51</v>
       </c>
@@ -15652,7 +15655,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="374" spans="1:51">
+    <row r="374" spans="1:51" hidden="1">
       <c r="A374" s="2" t="s">
         <v>51</v>
       </c>
@@ -15686,7 +15689,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="375" spans="1:51">
+    <row r="375" spans="1:51" hidden="1">
       <c r="A375" s="2" t="s">
         <v>51</v>
       </c>
@@ -15720,7 +15723,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="376" spans="1:51">
+    <row r="376" spans="1:51" hidden="1">
       <c r="A376" s="2" t="s">
         <v>51</v>
       </c>
@@ -15754,7 +15757,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="377" spans="1:51">
+    <row r="377" spans="1:51" hidden="1">
       <c r="A377" s="2" t="s">
         <v>51</v>
       </c>
@@ -15794,7 +15797,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="378" spans="1:51">
+    <row r="378" spans="1:51" hidden="1">
       <c r="A378" s="2" t="s">
         <v>51</v>
       </c>
@@ -15831,7 +15834,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="379" spans="1:51">
+    <row r="379" spans="1:51" hidden="1">
       <c r="A379" s="2" t="s">
         <v>51</v>
       </c>
@@ -15868,7 +15871,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="380" spans="1:51">
+    <row r="380" spans="1:51" hidden="1">
       <c r="A380" s="2" t="s">
         <v>54</v>
       </c>
@@ -15907,7 +15910,7 @@
         <v>54</v>
       </c>
       <c r="B381" s="5">
-        <v>35775</v>
+        <v>35802</v>
       </c>
       <c r="C381" s="5"/>
       <c r="D381" s="6">
@@ -15936,7 +15939,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="382" spans="1:51">
+    <row r="382" spans="1:51" hidden="1">
       <c r="A382" s="2" t="s">
         <v>54</v>
       </c>
@@ -15978,7 +15981,7 @@
         <v>54</v>
       </c>
       <c r="B383" s="5">
-        <v>35803</v>
+        <v>35830</v>
       </c>
       <c r="C383" s="5"/>
       <c r="D383" s="6">
@@ -16007,7 +16010,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="384" spans="1:51">
+    <row r="384" spans="1:51" hidden="1">
       <c r="A384" s="2" t="s">
         <v>54</v>
       </c>
@@ -16052,7 +16055,7 @@
         <v>54</v>
       </c>
       <c r="B385" s="5">
-        <v>35817</v>
+        <v>35844</v>
       </c>
       <c r="C385" s="5"/>
       <c r="D385" s="6">
@@ -16089,7 +16092,7 @@
         <v>54</v>
       </c>
       <c r="B386" s="5">
-        <v>35830</v>
+        <v>35857</v>
       </c>
       <c r="C386" s="5"/>
       <c r="D386" s="6">
@@ -16118,7 +16121,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="387" spans="1:43">
+    <row r="387" spans="1:43" hidden="1">
       <c r="A387" s="2" t="s">
         <v>54</v>
       </c>
@@ -16152,7 +16155,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="388" spans="1:43">
+    <row r="388" spans="1:43" hidden="1">
       <c r="A388" s="2" t="s">
         <v>54</v>
       </c>
@@ -16189,7 +16192,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="389" spans="1:43">
+    <row r="389" spans="1:43" hidden="1">
       <c r="A389" t="s">
         <v>54</v>
       </c>
@@ -16231,7 +16234,7 @@
         <v>54</v>
       </c>
       <c r="B390" s="5">
-        <v>35844</v>
+        <v>35864</v>
       </c>
       <c r="C390" s="5"/>
       <c r="D390" s="6">
@@ -16275,7 +16278,7 @@
         <v>3.39E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:43">
+    <row r="391" spans="1:43" hidden="1">
       <c r="A391" s="2" t="s">
         <v>54</v>
       </c>
@@ -16309,7 +16312,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="392" spans="1:43">
+    <row r="392" spans="1:43" hidden="1">
       <c r="A392" s="2" t="s">
         <v>54</v>
       </c>
@@ -16346,7 +16349,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="393" spans="1:43">
+    <row r="393" spans="1:43" hidden="1">
       <c r="A393" s="2" t="s">
         <v>54</v>
       </c>
@@ -16380,7 +16383,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="394" spans="1:43">
+    <row r="394" spans="1:43" hidden="1">
       <c r="A394" s="2" t="s">
         <v>54</v>
       </c>
@@ -16414,7 +16417,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="395" spans="1:43">
+    <row r="395" spans="1:43" hidden="1">
       <c r="A395" s="2" t="s">
         <v>54</v>
       </c>
@@ -16451,7 +16454,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="396" spans="1:43">
+    <row r="396" spans="1:43" hidden="1">
       <c r="A396" s="2" t="s">
         <v>54</v>
       </c>
@@ -16485,7 +16488,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="397" spans="1:43">
+    <row r="397" spans="1:43" hidden="1">
       <c r="A397" s="2" t="s">
         <v>54</v>
       </c>
@@ -16522,7 +16525,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="398" spans="1:43">
+    <row r="398" spans="1:43" hidden="1">
       <c r="A398" s="2" t="s">
         <v>54</v>
       </c>
@@ -16556,7 +16559,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="399" spans="1:43">
+    <row r="399" spans="1:43" hidden="1">
       <c r="A399" s="2" t="s">
         <v>54</v>
       </c>
@@ -16590,7 +16593,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="400" spans="1:43">
+    <row r="400" spans="1:43" hidden="1">
       <c r="A400" s="2" t="s">
         <v>54</v>
       </c>
@@ -16624,7 +16627,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="401" spans="1:49">
+    <row r="401" spans="1:49" hidden="1">
       <c r="A401" s="2" t="s">
         <v>54</v>
       </c>
@@ -16661,7 +16664,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="402" spans="1:49">
+    <row r="402" spans="1:49" hidden="1">
       <c r="A402" s="2" t="s">
         <v>54</v>
       </c>
@@ -16707,7 +16710,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="403" spans="1:49">
+    <row r="403" spans="1:49" hidden="1">
       <c r="A403" s="2" t="s">
         <v>54</v>
       </c>
@@ -16747,7 +16750,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="404" spans="1:49">
+    <row r="404" spans="1:49" hidden="1">
       <c r="A404" s="2" t="s">
         <v>54</v>
       </c>
@@ -16781,7 +16784,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="405" spans="1:49">
+    <row r="405" spans="1:49" hidden="1">
       <c r="A405" t="s">
         <v>54</v>
       </c>
@@ -16818,7 +16821,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="406" spans="1:49">
+    <row r="406" spans="1:49" hidden="1">
       <c r="A406" t="s">
         <v>54</v>
       </c>
@@ -16855,7 +16858,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="407" spans="1:49">
+    <row r="407" spans="1:49" hidden="1">
       <c r="A407" s="2" t="s">
         <v>54</v>
       </c>
@@ -16895,7 +16898,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="408" spans="1:49">
+    <row r="408" spans="1:49" hidden="1">
       <c r="A408" s="2" t="s">
         <v>54</v>
       </c>
@@ -16929,7 +16932,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="409" spans="1:49">
+    <row r="409" spans="1:49" hidden="1">
       <c r="A409" s="2" t="s">
         <v>49</v>
       </c>
@@ -16962,7 +16965,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="410" spans="1:49">
+    <row r="410" spans="1:49" hidden="1">
       <c r="A410" s="2" t="s">
         <v>49</v>
       </c>
@@ -16999,7 +17002,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="411" spans="1:49">
+    <row r="411" spans="1:49" hidden="1">
       <c r="A411" s="2" t="s">
         <v>49</v>
       </c>
@@ -17036,7 +17039,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="412" spans="1:49">
+    <row r="412" spans="1:49" hidden="1">
       <c r="A412" s="2" t="s">
         <v>49</v>
       </c>
@@ -17073,7 +17076,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="413" spans="1:49">
+    <row r="413" spans="1:49" hidden="1">
       <c r="A413" s="2" t="s">
         <v>49</v>
       </c>
@@ -17107,7 +17110,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="414" spans="1:49">
+    <row r="414" spans="1:49" hidden="1">
       <c r="A414" s="2" t="s">
         <v>49</v>
       </c>
@@ -17141,7 +17144,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="415" spans="1:49">
+    <row r="415" spans="1:49" hidden="1">
       <c r="A415" s="2" t="s">
         <v>49</v>
       </c>
@@ -17175,7 +17178,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="416" spans="1:49">
+    <row r="416" spans="1:49" hidden="1">
       <c r="A416" s="2" t="s">
         <v>49</v>
       </c>
@@ -17209,7 +17212,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="417" spans="1:51">
+    <row r="417" spans="1:51" hidden="1">
       <c r="A417" s="2" t="s">
         <v>49</v>
       </c>
@@ -17243,7 +17246,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="418" spans="1:51">
+    <row r="418" spans="1:51" hidden="1">
       <c r="A418" s="2" t="s">
         <v>49</v>
       </c>
@@ -17277,7 +17280,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="419" spans="1:51">
+    <row r="419" spans="1:51" hidden="1">
       <c r="A419" s="2" t="s">
         <v>49</v>
       </c>
@@ -17311,7 +17314,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="420" spans="1:51">
+    <row r="420" spans="1:51" hidden="1">
       <c r="A420" s="2" t="s">
         <v>49</v>
       </c>
@@ -17345,7 +17348,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="421" spans="1:51">
+    <row r="421" spans="1:51" hidden="1">
       <c r="A421" s="2" t="s">
         <v>49</v>
       </c>
@@ -17388,7 +17391,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="422" spans="1:51">
+    <row r="422" spans="1:51" hidden="1">
       <c r="A422" s="2" t="s">
         <v>49</v>
       </c>
@@ -17437,7 +17440,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="423" spans="1:51">
+    <row r="423" spans="1:51" hidden="1">
       <c r="A423" s="2" t="s">
         <v>49</v>
       </c>
@@ -17471,7 +17474,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="424" spans="1:51">
+    <row r="424" spans="1:51" hidden="1">
       <c r="A424" s="2" t="s">
         <v>49</v>
       </c>
@@ -17502,7 +17505,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="425" spans="1:51">
+    <row r="425" spans="1:51" hidden="1">
       <c r="A425" s="2" t="s">
         <v>49</v>
       </c>
@@ -17536,7 +17539,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="426" spans="1:51">
+    <row r="426" spans="1:51" hidden="1">
       <c r="A426" s="2" t="s">
         <v>49</v>
       </c>
@@ -17570,7 +17573,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="427" spans="1:51">
+    <row r="427" spans="1:51" hidden="1">
       <c r="A427" s="2" t="s">
         <v>49</v>
       </c>
@@ -17613,7 +17616,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="428" spans="1:51">
+    <row r="428" spans="1:51" hidden="1">
       <c r="A428" s="2" t="s">
         <v>49</v>
       </c>
@@ -17665,7 +17668,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="429" spans="1:51">
+    <row r="429" spans="1:51" hidden="1">
       <c r="A429" s="2" t="s">
         <v>49</v>
       </c>
@@ -17711,7 +17714,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="430" spans="1:51">
+    <row r="430" spans="1:51" hidden="1">
       <c r="A430" s="2" t="s">
         <v>49</v>
       </c>
@@ -17751,7 +17754,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="431" spans="1:51">
+    <row r="431" spans="1:51" hidden="1">
       <c r="A431" s="2" t="s">
         <v>49</v>
       </c>
@@ -17785,7 +17788,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="432" spans="1:51">
+    <row r="432" spans="1:51" hidden="1">
       <c r="A432" s="2" t="s">
         <v>49</v>
       </c>
@@ -17819,7 +17822,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="433" spans="1:51">
+    <row r="433" spans="1:51" hidden="1">
       <c r="A433" s="2" t="s">
         <v>49</v>
       </c>
@@ -17856,7 +17859,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="434" spans="1:51">
+    <row r="434" spans="1:51" hidden="1">
       <c r="A434" s="2" t="s">
         <v>49</v>
       </c>
@@ -17890,7 +17893,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="435" spans="1:51">
+    <row r="435" spans="1:51" hidden="1">
       <c r="A435" s="2" t="s">
         <v>49</v>
       </c>
@@ -17924,7 +17927,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="436" spans="1:51">
+    <row r="436" spans="1:51" hidden="1">
       <c r="A436" s="2" t="s">
         <v>49</v>
       </c>
@@ -17958,7 +17961,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="437" spans="1:51">
+    <row r="437" spans="1:51" hidden="1">
       <c r="A437" s="2" t="s">
         <v>49</v>
       </c>
@@ -18007,7 +18010,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="438" spans="1:51">
+    <row r="438" spans="1:51" hidden="1">
       <c r="A438" s="2" t="s">
         <v>49</v>
       </c>
@@ -18044,7 +18047,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="439" spans="1:51">
+    <row r="439" spans="1:51" hidden="1">
       <c r="A439" s="2" t="s">
         <v>49</v>
       </c>
@@ -18081,7 +18084,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="440" spans="1:51">
+    <row r="440" spans="1:51" hidden="1">
       <c r="A440" s="2" t="s">
         <v>49</v>
       </c>
@@ -18118,7 +18121,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="441" spans="1:51">
+    <row r="441" spans="1:51" hidden="1">
       <c r="A441" s="2" t="s">
         <v>49</v>
       </c>
@@ -18218,7 +18221,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="442" spans="1:51">
+    <row r="442" spans="1:51" hidden="1">
       <c r="A442" s="2" t="s">
         <v>49</v>
       </c>
@@ -18255,7 +18258,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="443" spans="1:51">
+    <row r="443" spans="1:51" hidden="1">
       <c r="A443" s="2" t="s">
         <v>52</v>
       </c>
@@ -18289,7 +18292,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="444" spans="1:51">
+    <row r="444" spans="1:51" hidden="1">
       <c r="A444" s="2" t="s">
         <v>52</v>
       </c>
@@ -18323,7 +18326,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="445" spans="1:51">
+    <row r="445" spans="1:51" hidden="1">
       <c r="A445" t="s">
         <v>52</v>
       </c>
@@ -18363,7 +18366,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="446" spans="1:51">
+    <row r="446" spans="1:51" hidden="1">
       <c r="A446" s="2" t="s">
         <v>52</v>
       </c>
@@ -18397,7 +18400,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="447" spans="1:51">
+    <row r="447" spans="1:51" hidden="1">
       <c r="A447" s="2" t="s">
         <v>52</v>
       </c>
@@ -18431,7 +18434,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="448" spans="1:51">
+    <row r="448" spans="1:51" hidden="1">
       <c r="A448" s="2" t="s">
         <v>52</v>
       </c>
@@ -18468,7 +18471,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="449" spans="1:49">
+    <row r="449" spans="1:49" hidden="1">
       <c r="A449" s="2" t="s">
         <v>52</v>
       </c>
@@ -18502,7 +18505,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="450" spans="1:49">
+    <row r="450" spans="1:49" hidden="1">
       <c r="A450" s="2" t="s">
         <v>52</v>
       </c>
@@ -18536,7 +18539,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="451" spans="1:49">
+    <row r="451" spans="1:49" hidden="1">
       <c r="A451" s="2" t="s">
         <v>52</v>
       </c>
@@ -18570,7 +18573,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="452" spans="1:49">
+    <row r="452" spans="1:49" hidden="1">
       <c r="A452" s="2" t="s">
         <v>52</v>
       </c>
@@ -18607,7 +18610,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="453" spans="1:49">
+    <row r="453" spans="1:49" hidden="1">
       <c r="A453" s="2" t="s">
         <v>52</v>
       </c>
@@ -18644,7 +18647,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="454" spans="1:49">
+    <row r="454" spans="1:49" hidden="1">
       <c r="A454" s="2" t="s">
         <v>52</v>
       </c>
@@ -18678,7 +18681,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="455" spans="1:49">
+    <row r="455" spans="1:49" hidden="1">
       <c r="A455" s="2" t="s">
         <v>52</v>
       </c>
@@ -18718,7 +18721,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="456" spans="1:49">
+    <row r="456" spans="1:49" hidden="1">
       <c r="A456" s="2" t="s">
         <v>52</v>
       </c>
@@ -18761,7 +18764,7 @@
         <v>2.2400000000000003E-2</v>
       </c>
     </row>
-    <row r="457" spans="1:49">
+    <row r="457" spans="1:49" hidden="1">
       <c r="A457" s="2" t="s">
         <v>52</v>
       </c>
@@ -18795,7 +18798,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="458" spans="1:49">
+    <row r="458" spans="1:49" hidden="1">
       <c r="A458" s="2" t="s">
         <v>52</v>
       </c>
@@ -18829,7 +18832,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="459" spans="1:49">
+    <row r="459" spans="1:49" hidden="1">
       <c r="A459" s="2" t="s">
         <v>52</v>
       </c>
@@ -18863,7 +18866,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="460" spans="1:49">
+    <row r="460" spans="1:49" hidden="1">
       <c r="A460" s="2" t="s">
         <v>52</v>
       </c>
@@ -18903,7 +18906,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="461" spans="1:49">
+    <row r="461" spans="1:49" hidden="1">
       <c r="A461" s="2" t="s">
         <v>52</v>
       </c>
@@ -18937,7 +18940,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="462" spans="1:49">
+    <row r="462" spans="1:49" hidden="1">
       <c r="A462" s="2" t="s">
         <v>52</v>
       </c>
@@ -18992,7 +18995,7 @@
         <v>4.92</v>
       </c>
     </row>
-    <row r="463" spans="1:49">
+    <row r="463" spans="1:49" hidden="1">
       <c r="A463" s="2" t="s">
         <v>52</v>
       </c>
@@ -19032,7 +19035,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="464" spans="1:49">
+    <row r="464" spans="1:49" hidden="1">
       <c r="A464" s="2" t="s">
         <v>52</v>
       </c>
@@ -19066,7 +19069,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="465" spans="1:50">
+    <row r="465" spans="1:50" hidden="1">
       <c r="A465" s="2" t="s">
         <v>52</v>
       </c>
@@ -19103,7 +19106,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="466" spans="1:50">
+    <row r="466" spans="1:50" hidden="1">
       <c r="A466" s="2" t="s">
         <v>52</v>
       </c>
@@ -19140,7 +19143,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="467" spans="1:50">
+    <row r="467" spans="1:50" hidden="1">
       <c r="A467" s="2" t="s">
         <v>52</v>
       </c>
@@ -19177,7 +19180,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="468" spans="1:50">
+    <row r="468" spans="1:50" hidden="1">
       <c r="A468" s="2" t="s">
         <v>52</v>
       </c>
@@ -19226,7 +19229,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="469" spans="1:50">
+    <row r="469" spans="1:50" hidden="1">
       <c r="A469" s="2" t="s">
         <v>55</v>
       </c>
@@ -19328,7 +19331,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="472" spans="1:50">
+    <row r="472" spans="1:50" hidden="1">
       <c r="A472" s="2" t="s">
         <v>55</v>
       </c>
@@ -19362,7 +19365,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="473" spans="1:50">
+    <row r="473" spans="1:50" hidden="1">
       <c r="A473" t="s">
         <v>55</v>
       </c>
@@ -19420,7 +19423,7 @@
         <v>7.05</v>
       </c>
     </row>
-    <row r="474" spans="1:50">
+    <row r="474" spans="1:50" hidden="1">
       <c r="A474" s="2" t="s">
         <v>55</v>
       </c>
@@ -19454,7 +19457,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="475" spans="1:50">
+    <row r="475" spans="1:50" hidden="1">
       <c r="A475" s="2" t="s">
         <v>55</v>
       </c>
@@ -19488,7 +19491,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="476" spans="1:50">
+    <row r="476" spans="1:50" hidden="1">
       <c r="A476" s="2" t="s">
         <v>55</v>
       </c>
@@ -19559,7 +19562,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="478" spans="1:50">
+    <row r="478" spans="1:50" hidden="1">
       <c r="A478" s="2" t="s">
         <v>55</v>
       </c>
@@ -19593,7 +19596,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="479" spans="1:50">
+    <row r="479" spans="1:50" hidden="1">
       <c r="A479" s="2" t="s">
         <v>55</v>
       </c>
@@ -19627,7 +19630,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="480" spans="1:50">
+    <row r="480" spans="1:50" hidden="1">
       <c r="A480" s="2" t="s">
         <v>55</v>
       </c>
@@ -19664,7 +19667,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="481" spans="1:50">
+    <row r="481" spans="1:50" hidden="1">
       <c r="A481" s="2" t="s">
         <v>55</v>
       </c>
@@ -19698,7 +19701,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="482" spans="1:50">
+    <row r="482" spans="1:50" hidden="1">
       <c r="A482" s="2" t="s">
         <v>55</v>
       </c>
@@ -19735,7 +19738,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="483" spans="1:50">
+    <row r="483" spans="1:50" hidden="1">
       <c r="A483" t="s">
         <v>55</v>
       </c>
@@ -19778,7 +19781,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="484" spans="1:50">
+    <row r="484" spans="1:50" hidden="1">
       <c r="A484" s="2" t="s">
         <v>55</v>
       </c>
@@ -19827,7 +19830,7 @@
         <v>2.3799999999999998E-2</v>
       </c>
     </row>
-    <row r="485" spans="1:50">
+    <row r="485" spans="1:50" hidden="1">
       <c r="A485" s="2" t="s">
         <v>55</v>
       </c>
@@ -19861,7 +19864,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="486" spans="1:50">
+    <row r="486" spans="1:50" hidden="1">
       <c r="A486" s="2" t="s">
         <v>55</v>
       </c>
@@ -19895,7 +19898,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="487" spans="1:50">
+    <row r="487" spans="1:50" hidden="1">
       <c r="A487" s="2" t="s">
         <v>55</v>
       </c>
@@ -19929,7 +19932,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="488" spans="1:50">
+    <row r="488" spans="1:50" hidden="1">
       <c r="A488" s="2" t="s">
         <v>55</v>
       </c>
@@ -19969,7 +19972,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="489" spans="1:50">
+    <row r="489" spans="1:50" hidden="1">
       <c r="A489" t="s">
         <v>55</v>
       </c>
@@ -20003,7 +20006,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="490" spans="1:50">
+    <row r="490" spans="1:50" hidden="1">
       <c r="A490" s="2" t="s">
         <v>55</v>
       </c>
@@ -20040,7 +20043,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="491" spans="1:50">
+    <row r="491" spans="1:50" hidden="1">
       <c r="A491" s="2" t="s">
         <v>55</v>
       </c>
@@ -20077,7 +20080,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="492" spans="1:50">
+    <row r="492" spans="1:50" hidden="1">
       <c r="A492" s="2" t="s">
         <v>55</v>
       </c>
@@ -20111,7 +20114,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="493" spans="1:50">
+    <row r="493" spans="1:50" hidden="1">
       <c r="A493" s="2" t="s">
         <v>55</v>
       </c>
@@ -20151,7 +20154,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="494" spans="1:50">
+    <row r="494" spans="1:50" hidden="1">
       <c r="A494" s="2" t="s">
         <v>55</v>
       </c>
@@ -20185,7 +20188,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="495" spans="1:50">
+    <row r="495" spans="1:50" hidden="1">
       <c r="A495" s="2" t="s">
         <v>55</v>
       </c>
@@ -20228,7 +20231,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="496" spans="1:50">
+    <row r="496" spans="1:50" hidden="1">
       <c r="A496" s="2" t="s">
         <v>55</v>
       </c>
@@ -20265,7 +20268,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="497" spans="1:37">
+    <row r="497" spans="1:37" hidden="1">
       <c r="A497" t="s">
         <v>55</v>
       </c>
@@ -20299,7 +20302,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="498" spans="1:37">
+    <row r="498" spans="1:37" hidden="1">
       <c r="A498" t="s">
         <v>55</v>
       </c>
@@ -20333,7 +20336,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="499" spans="1:37">
+    <row r="499" spans="1:37" hidden="1">
       <c r="A499" t="s">
         <v>55</v>
       </c>
@@ -20367,7 +20370,102 @@
         <v>1810</v>
       </c>
     </row>
+    <row r="505" spans="1:37">
+      <c r="H505" s="5"/>
+    </row>
+    <row r="506" spans="1:37">
+      <c r="H506" s="5"/>
+    </row>
+    <row r="507" spans="1:37">
+      <c r="H507" s="5"/>
+    </row>
+    <row r="508" spans="1:37">
+      <c r="H508" s="5"/>
+    </row>
+    <row r="509" spans="1:37">
+      <c r="H509" s="5"/>
+    </row>
+    <row r="510" spans="1:37">
+      <c r="H510" s="5"/>
+    </row>
+    <row r="511" spans="1:37">
+      <c r="H511" s="5"/>
+    </row>
+    <row r="512" spans="1:37">
+      <c r="H512" s="5"/>
+    </row>
+    <row r="513" spans="8:8">
+      <c r="H513" s="5"/>
+    </row>
+    <row r="514" spans="8:8">
+      <c r="H514" s="5"/>
+    </row>
+    <row r="515" spans="8:8">
+      <c r="H515" s="5"/>
+    </row>
+    <row r="516" spans="8:8">
+      <c r="H516" s="5"/>
+    </row>
+    <row r="517" spans="8:8">
+      <c r="H517" s="5"/>
+    </row>
+    <row r="518" spans="8:8">
+      <c r="H518" s="5"/>
+    </row>
+    <row r="519" spans="8:8">
+      <c r="H519" s="5"/>
+    </row>
+    <row r="520" spans="8:8">
+      <c r="H520" s="5"/>
+    </row>
+    <row r="521" spans="8:8">
+      <c r="H521" s="5"/>
+    </row>
+    <row r="522" spans="8:8">
+      <c r="H522" s="5"/>
+    </row>
+    <row r="523" spans="8:8">
+      <c r="H523" s="5"/>
+    </row>
+    <row r="524" spans="8:8">
+      <c r="H524" s="5"/>
+    </row>
+    <row r="525" spans="8:8">
+      <c r="H525" s="5"/>
+    </row>
+    <row r="526" spans="8:8">
+      <c r="H526" s="5"/>
+    </row>
+    <row r="527" spans="8:8">
+      <c r="H527" s="5"/>
+    </row>
+    <row r="528" spans="8:8">
+      <c r="H528" s="5"/>
+    </row>
+    <row r="529" spans="8:8">
+      <c r="H529" s="5"/>
+    </row>
+    <row r="530" spans="8:8">
+      <c r="H530" s="5"/>
+    </row>
+    <row r="531" spans="8:8">
+      <c r="H531" s="5"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:AY499" xr:uid="{82957E3C-ACA6-4A6F-B162-5B06AF55FA73}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="exp3SowDec17ROCultivarEmerald"/>
+        <filter val="exp3SowDec30ROCultivarEmerald"/>
+        <filter val="exp3SowDec3ROCultivarEmerald"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="25">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AY499">
     <sortCondition ref="S2:S499"/>
   </sortState>

--- a/Prototypes/Mungbean/Exp3observed.xlsx
+++ b/Prototypes/Mungbean/Exp3observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9CC480-A1A3-4B12-B537-AAD0347F27A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D320BC-CE04-46A5-87FF-5F650007DEA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C69385E-AA3F-4CF3-AF00-E1E4599E61EE}"/>
   </bookViews>
@@ -606,7 +606,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C506" sqref="C506"/>
+      <selection pane="bottomLeft" activeCell="B390" sqref="B390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -614,7 +614,7 @@
     <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="3" width="19.140625" customWidth="1"/>
     <col min="4" max="5" width="9.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51">
@@ -895,34 +895,28 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="5" spans="1:51" hidden="1">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:51">
+      <c r="A5" t="s">
         <v>53</v>
       </c>
       <c r="B5" s="5">
-        <v>35877</v>
+        <v>35816</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6">
-        <v>109.644263924509</v>
+        <v>48.541169010282097</v>
       </c>
       <c r="E5">
-        <v>1913.03431224823</v>
+        <v>844.70688438415527</v>
+      </c>
+      <c r="Q5">
+        <v>520.38038984621903</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>2.6772934287572898</v>
       </c>
       <c r="S5" s="6">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>298</v>
-      </c>
-      <c r="X5">
-        <v>0.5</v>
-      </c>
-      <c r="Y5">
-        <v>0.32</v>
+        <v>6.5097282791009299</v>
       </c>
       <c r="AF5">
         <v>41</v>
@@ -941,15 +935,6 @@
       </c>
       <c r="AK5">
         <v>1762</v>
-      </c>
-      <c r="AV5">
-        <v>0.63</v>
-      </c>
-      <c r="AW5">
-        <v>0.21</v>
-      </c>
-      <c r="AX5">
-        <v>2.59</v>
       </c>
     </row>
     <row r="6" spans="1:51" hidden="1">
@@ -997,31 +982,23 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="7" spans="1:51" hidden="1">
+    <row r="7" spans="1:51">
       <c r="A7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="5">
-        <v>35885</v>
+        <v>35844</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6">
-        <v>117.682945154019</v>
-      </c>
-      <c r="E7">
-        <v>2050.6658182144165</v>
-      </c>
+        <v>76.852222463001397</v>
+      </c>
+      <c r="E7" s="6"/>
       <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7" s="6">
-        <v>0</v>
+        <v>1.7011661078023801</v>
       </c>
       <c r="T7">
-        <v>306</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
+        <v>320.98560848448199</v>
       </c>
       <c r="AF7">
         <v>41</v>
@@ -1030,25 +1007,22 @@
         <v>45</v>
       </c>
       <c r="AH7">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="AI7">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="AJ7">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="AK7">
-        <v>1651</v>
-      </c>
-      <c r="AV7">
-        <v>0.54</v>
-      </c>
-      <c r="AW7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AX7">
-        <v>2.78</v>
+        <v>1762</v>
+      </c>
+      <c r="AP7">
+        <v>8.199999999999999E-3</v>
+      </c>
+      <c r="AQ7">
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="8" spans="1:51" hidden="1">
@@ -6721,28 +6695,23 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="153" spans="1:51" hidden="1">
-      <c r="A153" t="s">
+    <row r="153" spans="1:51">
+      <c r="A153" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B153" s="5">
-        <v>35816</v>
+        <v>35858</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="6">
-        <v>48.541169010282097</v>
-      </c>
-      <c r="E153">
-        <v>844.70688438415527</v>
-      </c>
-      <c r="Q153">
-        <v>520.38038984621903</v>
-      </c>
+        <v>91.193633952254601</v>
+      </c>
+      <c r="E153" s="6"/>
       <c r="R153">
-        <v>2.6772934287572898</v>
-      </c>
-      <c r="S153" s="6">
-        <v>6.5097282791009299</v>
+        <v>1.4764526299984699</v>
+      </c>
+      <c r="AC153">
+        <v>5.4807733232930502</v>
       </c>
       <c r="AF153">
         <v>41</v>
@@ -7540,7 +7509,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="174" spans="1:51">
+    <row r="174" spans="1:51" hidden="1">
       <c r="A174" s="2" t="s">
         <v>55</v>
       </c>
@@ -8402,113 +8371,47 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="192" spans="1:51" hidden="1">
+    <row r="192" spans="1:51">
       <c r="A192" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B192" s="5">
-        <v>35866</v>
-      </c>
-      <c r="C192" s="5" t="s">
-        <v>45</v>
-      </c>
+        <v>35872</v>
+      </c>
+      <c r="C192" s="5"/>
       <c r="D192" s="6">
-        <v>98.832891246684298</v>
+        <v>104.507135582198</v>
       </c>
       <c r="E192" s="6"/>
-      <c r="F192">
-        <v>123</v>
-      </c>
-      <c r="G192">
-        <f>F192*10</f>
-        <v>1230</v>
-      </c>
-      <c r="H192">
-        <v>0.32355522509913598</v>
-      </c>
-      <c r="J192">
-        <v>0.39381852111033294</v>
-      </c>
-      <c r="K192">
-        <v>0.35788138558432403</v>
-      </c>
-      <c r="L192">
-        <v>0.321987986937252</v>
-      </c>
-      <c r="M192">
-        <v>0.33179233729880997</v>
-      </c>
-      <c r="N192">
-        <v>0.31222737345462998</v>
-      </c>
-      <c r="O192">
-        <v>0.29173664567296398</v>
-      </c>
-      <c r="P192">
-        <v>0.31133805691625799</v>
-      </c>
       <c r="R192">
         <v>0</v>
       </c>
-      <c r="U192">
-        <v>117</v>
-      </c>
-      <c r="V192">
-        <v>12</v>
-      </c>
       <c r="W192">
-        <v>173</v>
-      </c>
-      <c r="AD192">
-        <v>7</v>
-      </c>
-      <c r="AE192">
-        <v>35.6</v>
+        <v>169.23076923076499</v>
+      </c>
+      <c r="X192">
+        <v>0.51519639723657196</v>
+      </c>
+      <c r="Y192">
+        <v>0.35796080644963302</v>
       </c>
       <c r="AF192">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AG192">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AH192">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AI192">
-        <v>787</v>
+        <v>764</v>
       </c>
       <c r="AJ192">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="AK192">
-        <v>1810</v>
-      </c>
-      <c r="AL192">
-        <v>94</v>
-      </c>
-      <c r="AM192">
-        <v>177</v>
-      </c>
-      <c r="AN192">
-        <v>83</v>
-      </c>
-      <c r="AO192">
-        <v>479</v>
-      </c>
-      <c r="AR192">
-        <v>9.6</v>
-      </c>
-      <c r="AS192">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="AT192">
-        <v>0.72</v>
-      </c>
-      <c r="AU192">
-        <v>0.53</v>
-      </c>
-      <c r="AY192">
-        <v>3.1</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="193" spans="1:51" hidden="1">
@@ -8793,77 +8696,34 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="197" spans="1:51" hidden="1">
+    <row r="197" spans="1:51">
       <c r="A197" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B197" s="5">
-        <v>35858</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>45</v>
-      </c>
+        <v>35877</v>
+      </c>
+      <c r="C197" s="5"/>
       <c r="D197" s="6">
-        <v>90.557029177718803</v>
-      </c>
-      <c r="E197" s="6"/>
-      <c r="F197">
-        <v>169</v>
-      </c>
-      <c r="G197">
-        <f>F197*10</f>
-        <v>1690</v>
-      </c>
-      <c r="H197">
-        <v>0.344806101875195</v>
-      </c>
-      <c r="J197">
-        <v>0.39941431692186496</v>
-      </c>
-      <c r="K197">
-        <v>0.36803146531847297</v>
-      </c>
-      <c r="L197">
-        <v>0.32230274429547995</v>
-      </c>
-      <c r="M197">
-        <v>0.328343021788083</v>
-      </c>
-      <c r="N197">
-        <v>0.30730050590900304</v>
-      </c>
-      <c r="O197">
-        <v>0.30456731821104099</v>
-      </c>
-      <c r="P197">
-        <v>0.32016870365446004</v>
+        <v>109.644263924509</v>
+      </c>
+      <c r="E197">
+        <v>1913.03431224823</v>
       </c>
       <c r="R197">
-        <v>2.8742805665381801</v>
-      </c>
-      <c r="U197">
-        <v>56</v>
-      </c>
-      <c r="V197">
-        <v>3</v>
-      </c>
-      <c r="W197">
-        <v>126</v>
+        <v>0</v>
+      </c>
+      <c r="S197" s="6">
+        <v>0</v>
+      </c>
+      <c r="T197">
+        <v>298</v>
       </c>
       <c r="X197">
-        <v>0.30292432965705401</v>
+        <v>0.5</v>
       </c>
       <c r="Y197">
-        <v>0.29910768188711301</v>
-      </c>
-      <c r="AB197">
-        <v>8.1288504883545105</v>
-      </c>
-      <c r="AD197">
-        <v>8.1</v>
-      </c>
-      <c r="AE197">
-        <v>24.1</v>
+        <v>0.32</v>
       </c>
       <c r="AF197">
         <v>41</v>
@@ -8872,40 +8732,25 @@
         <v>45</v>
       </c>
       <c r="AH197">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="AI197">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="AJ197">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="AK197">
-        <v>1651</v>
-      </c>
-      <c r="AL197">
-        <v>107</v>
-      </c>
-      <c r="AM197">
-        <v>244</v>
-      </c>
-      <c r="AN197">
-        <v>137</v>
-      </c>
-      <c r="AO197">
-        <v>437</v>
-      </c>
-      <c r="AR197">
-        <v>10.9</v>
-      </c>
-      <c r="AS197">
-        <v>6.4</v>
-      </c>
-      <c r="AT197">
-        <v>0.78</v>
-      </c>
-      <c r="AU197">
-        <v>0.59</v>
+        <v>1762</v>
+      </c>
+      <c r="AV197">
+        <v>0.63</v>
+      </c>
+      <c r="AW197">
+        <v>0.21</v>
+      </c>
+      <c r="AX197">
+        <v>2.59</v>
       </c>
     </row>
     <row r="198" spans="1:51" hidden="1">
@@ -11911,7 +11756,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="274" spans="1:51">
+    <row r="274" spans="1:51" hidden="1">
       <c r="A274" s="2" t="s">
         <v>53</v>
       </c>
@@ -11945,7 +11790,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="275" spans="1:51">
+    <row r="275" spans="1:51" hidden="1">
       <c r="A275" s="2" t="s">
         <v>53</v>
       </c>
@@ -12017,7 +11862,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="277" spans="1:51">
+    <row r="277" spans="1:51" hidden="1">
       <c r="A277" s="2" t="s">
         <v>53</v>
       </c>
@@ -12128,7 +11973,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="280" spans="1:51">
+    <row r="280" spans="1:51" hidden="1">
       <c r="A280" s="2" t="s">
         <v>53</v>
       </c>
@@ -12233,7 +12078,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="283" spans="1:51">
+    <row r="283" spans="1:51" hidden="1">
       <c r="A283" s="2" t="s">
         <v>53</v>
       </c>
@@ -12384,23 +12229,26 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="287" spans="1:51" hidden="1">
+    <row r="287" spans="1:51">
       <c r="A287" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B287" s="5">
-        <v>35844</v>
+        <v>35816</v>
       </c>
       <c r="C287" s="5"/>
       <c r="D287" s="6">
-        <v>76.852222463001397</v>
+        <v>48.8549248556387</v>
       </c>
       <c r="E287" s="6"/>
+      <c r="Q287">
+        <v>517.25503532317805</v>
+      </c>
       <c r="R287">
-        <v>1.7011661078023801</v>
+        <v>0.299934938191245</v>
       </c>
       <c r="T287">
-        <v>320.98560848448199</v>
+        <v>14.3813177988122</v>
       </c>
       <c r="AF287">
         <v>41</v>
@@ -12409,22 +12257,16 @@
         <v>45</v>
       </c>
       <c r="AH287">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AI287">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="AJ287">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="AK287">
-        <v>1762</v>
-      </c>
-      <c r="AP287">
-        <v>8.199999999999999E-3</v>
-      </c>
-      <c r="AQ287">
-        <v>2.3E-2</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="288" spans="1:51" hidden="1">
@@ -12723,23 +12565,29 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="296" spans="1:51" hidden="1">
+    <row r="296" spans="1:51">
       <c r="A296" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B296" s="5">
-        <v>35858</v>
+        <v>35844</v>
       </c>
       <c r="C296" s="5"/>
       <c r="D296" s="6">
-        <v>91.193633952254601</v>
+        <v>76.689083371717999</v>
       </c>
       <c r="E296" s="6"/>
       <c r="R296">
-        <v>1.4764526299984699</v>
-      </c>
-      <c r="AC296">
-        <v>5.4807733232930502</v>
+        <v>1.9267804414193199</v>
+      </c>
+      <c r="X296">
+        <v>6.5844536392138497E-2</v>
+      </c>
+      <c r="Y296">
+        <v>6.39362125071683E-2</v>
+      </c>
+      <c r="Z296">
+        <v>63.522800552740101</v>
       </c>
       <c r="AF296">
         <v>41</v>
@@ -12748,16 +12596,22 @@
         <v>45</v>
       </c>
       <c r="AH296">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AI296">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="AJ296">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="AK296">
-        <v>1762</v>
+        <v>1651</v>
+      </c>
+      <c r="AP296">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="AQ296">
+        <v>3.39E-2</v>
       </c>
     </row>
     <row r="297" spans="1:51" hidden="1">
@@ -12988,29 +12842,77 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="303" spans="1:51" hidden="1">
+    <row r="303" spans="1:51">
       <c r="A303" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B303" s="5">
-        <v>35872</v>
-      </c>
-      <c r="C303" s="5"/>
+        <v>35858</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="D303" s="6">
-        <v>104.507135582198</v>
+        <v>90.557029177718803</v>
       </c>
       <c r="E303" s="6"/>
+      <c r="F303">
+        <v>169</v>
+      </c>
+      <c r="G303">
+        <f>F303*10</f>
+        <v>1690</v>
+      </c>
+      <c r="H303">
+        <v>0.344806101875195</v>
+      </c>
+      <c r="J303">
+        <v>0.39941431692186496</v>
+      </c>
+      <c r="K303">
+        <v>0.36803146531847297</v>
+      </c>
+      <c r="L303">
+        <v>0.32230274429547995</v>
+      </c>
+      <c r="M303">
+        <v>0.328343021788083</v>
+      </c>
+      <c r="N303">
+        <v>0.30730050590900304</v>
+      </c>
+      <c r="O303">
+        <v>0.30456731821104099</v>
+      </c>
+      <c r="P303">
+        <v>0.32016870365446004</v>
+      </c>
       <c r="R303">
-        <v>0</v>
+        <v>2.8742805665381801</v>
+      </c>
+      <c r="U303">
+        <v>56</v>
+      </c>
+      <c r="V303">
+        <v>3</v>
       </c>
       <c r="W303">
-        <v>169.23076923076499</v>
+        <v>126</v>
       </c>
       <c r="X303">
-        <v>0.51519639723657196</v>
+        <v>0.30292432965705401</v>
       </c>
       <c r="Y303">
-        <v>0.35796080644963302</v>
+        <v>0.29910768188711301</v>
+      </c>
+      <c r="AB303">
+        <v>8.1288504883545105</v>
+      </c>
+      <c r="AD303">
+        <v>8.1</v>
+      </c>
+      <c r="AE303">
+        <v>24.1</v>
       </c>
       <c r="AF303">
         <v>41</v>
@@ -13019,16 +12921,40 @@
         <v>45</v>
       </c>
       <c r="AH303">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AI303">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="AJ303">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="AK303">
-        <v>1762</v>
+        <v>1651</v>
+      </c>
+      <c r="AL303">
+        <v>107</v>
+      </c>
+      <c r="AM303">
+        <v>244</v>
+      </c>
+      <c r="AN303">
+        <v>137</v>
+      </c>
+      <c r="AO303">
+        <v>437</v>
+      </c>
+      <c r="AR303">
+        <v>10.9</v>
+      </c>
+      <c r="AS303">
+        <v>6.4</v>
+      </c>
+      <c r="AT303">
+        <v>0.78</v>
+      </c>
+      <c r="AU303">
+        <v>0.59</v>
       </c>
     </row>
     <row r="304" spans="1:51" hidden="1">
@@ -15905,7 +15831,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="381" spans="1:51">
+    <row r="381" spans="1:51" hidden="1">
       <c r="A381" s="2" t="s">
         <v>54</v>
       </c>
@@ -15976,7 +15902,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="383" spans="1:51">
+    <row r="383" spans="1:51" hidden="1">
       <c r="A383" s="2" t="s">
         <v>54</v>
       </c>
@@ -16010,26 +15936,26 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="384" spans="1:51" hidden="1">
+    <row r="384" spans="1:51">
       <c r="A384" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B384" s="5">
-        <v>35816</v>
+        <v>35872</v>
       </c>
       <c r="C384" s="5"/>
       <c r="D384" s="6">
-        <v>48.8549248556387</v>
+        <v>104.56233421750601</v>
       </c>
       <c r="E384" s="6"/>
-      <c r="Q384">
-        <v>517.25503532317805</v>
-      </c>
       <c r="R384">
-        <v>0.299934938191245</v>
-      </c>
-      <c r="T384">
-        <v>14.3813177988122</v>
+        <v>3.2918772834192298</v>
+      </c>
+      <c r="X384">
+        <v>0.40827087597366601</v>
+      </c>
+      <c r="Y384">
+        <v>0.310828560069494</v>
       </c>
       <c r="AF384">
         <v>41</v>
@@ -16050,7 +15976,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="385" spans="1:43">
+    <row r="385" spans="1:50" hidden="1">
       <c r="A385" s="2" t="s">
         <v>54</v>
       </c>
@@ -16087,7 +16013,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="386" spans="1:43">
+    <row r="386" spans="1:50" hidden="1">
       <c r="A386" s="2" t="s">
         <v>54</v>
       </c>
@@ -16121,7 +16047,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="387" spans="1:43" hidden="1">
+    <row r="387" spans="1:50" hidden="1">
       <c r="A387" s="2" t="s">
         <v>54</v>
       </c>
@@ -16155,7 +16081,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="388" spans="1:43" hidden="1">
+    <row r="388" spans="1:50" hidden="1">
       <c r="A388" s="2" t="s">
         <v>54</v>
       </c>
@@ -16192,7 +16118,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="389" spans="1:43" hidden="1">
+    <row r="389" spans="1:50" hidden="1">
       <c r="A389" t="s">
         <v>54</v>
       </c>
@@ -16229,29 +16155,31 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="390" spans="1:43">
+    <row r="390" spans="1:50">
       <c r="A390" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B390" s="5">
-        <v>35864</v>
+        <v>35911</v>
       </c>
       <c r="C390" s="5"/>
       <c r="D390" s="6">
-        <v>76.689083371717999</v>
-      </c>
-      <c r="E390" s="6"/>
+        <v>117.682945154019</v>
+      </c>
+      <c r="E390">
+        <v>2050.6658182144165</v>
+      </c>
       <c r="R390">
-        <v>1.9267804414193199</v>
-      </c>
-      <c r="X390">
-        <v>6.5844536392138497E-2</v>
-      </c>
-      <c r="Y390">
-        <v>6.39362125071683E-2</v>
-      </c>
-      <c r="Z390">
-        <v>63.522800552740101</v>
+        <v>0</v>
+      </c>
+      <c r="S390" s="6">
+        <v>0</v>
+      </c>
+      <c r="T390">
+        <v>306</v>
+      </c>
+      <c r="AB390">
+        <v>0</v>
       </c>
       <c r="AF390">
         <v>41</v>
@@ -16271,14 +16199,17 @@
       <c r="AK390">
         <v>1651</v>
       </c>
-      <c r="AP390">
-        <v>1.1599999999999999E-2</v>
-      </c>
-      <c r="AQ390">
-        <v>3.39E-2</v>
-      </c>
-    </row>
-    <row r="391" spans="1:43" hidden="1">
+      <c r="AV390">
+        <v>0.54</v>
+      </c>
+      <c r="AW390">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AX390">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="391" spans="1:50" hidden="1">
       <c r="A391" s="2" t="s">
         <v>54</v>
       </c>
@@ -16312,7 +16243,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="392" spans="1:43" hidden="1">
+    <row r="392" spans="1:50" hidden="1">
       <c r="A392" s="2" t="s">
         <v>54</v>
       </c>
@@ -16349,7 +16280,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="393" spans="1:43" hidden="1">
+    <row r="393" spans="1:50" hidden="1">
       <c r="A393" s="2" t="s">
         <v>54</v>
       </c>
@@ -16383,7 +16314,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="394" spans="1:43" hidden="1">
+    <row r="394" spans="1:50" hidden="1">
       <c r="A394" s="2" t="s">
         <v>54</v>
       </c>
@@ -16417,7 +16348,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="395" spans="1:43" hidden="1">
+    <row r="395" spans="1:50" hidden="1">
       <c r="A395" s="2" t="s">
         <v>54</v>
       </c>
@@ -16454,7 +16385,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="396" spans="1:43" hidden="1">
+    <row r="396" spans="1:50" hidden="1">
       <c r="A396" s="2" t="s">
         <v>54</v>
       </c>
@@ -16488,7 +16419,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="397" spans="1:43" hidden="1">
+    <row r="397" spans="1:50" hidden="1">
       <c r="A397" s="2" t="s">
         <v>54</v>
       </c>
@@ -16525,7 +16456,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="398" spans="1:43" hidden="1">
+    <row r="398" spans="1:50" hidden="1">
       <c r="A398" s="2" t="s">
         <v>54</v>
       </c>
@@ -16559,7 +16490,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="399" spans="1:43" hidden="1">
+    <row r="399" spans="1:50" hidden="1">
       <c r="A399" s="2" t="s">
         <v>54</v>
       </c>
@@ -16593,7 +16524,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="400" spans="1:43" hidden="1">
+    <row r="400" spans="1:50" hidden="1">
       <c r="A400" s="2" t="s">
         <v>54</v>
       </c>
@@ -16710,44 +16641,62 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="403" spans="1:49" hidden="1">
-      <c r="A403" s="2" t="s">
-        <v>54</v>
+    <row r="403" spans="1:49">
+      <c r="A403" t="s">
+        <v>55</v>
       </c>
       <c r="B403" s="5">
-        <v>35872</v>
+        <v>35816</v>
       </c>
       <c r="C403" s="5"/>
       <c r="D403" s="6">
-        <v>104.56233421750601</v>
+        <v>48.6407417658667</v>
       </c>
       <c r="E403" s="6"/>
+      <c r="Q403">
+        <v>1033.6383885847799</v>
+      </c>
       <c r="R403">
-        <v>3.2918772834192298</v>
+        <v>3.88403983784593</v>
+      </c>
+      <c r="T403">
+        <v>323.18831342654801</v>
+      </c>
+      <c r="U403">
+        <v>142</v>
+      </c>
+      <c r="V403">
+        <v>185</v>
       </c>
       <c r="X403">
-        <v>0.40827087597366601</v>
+        <v>1.5951271639239099E-2</v>
       </c>
       <c r="Y403">
-        <v>0.310828560069494</v>
+        <v>1.39747809360974E-2</v>
       </c>
       <c r="AF403">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AG403">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AH403">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AI403">
-        <v>768</v>
+        <v>787</v>
       </c>
       <c r="AJ403">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="AK403">
-        <v>1651</v>
+        <v>1810</v>
+      </c>
+      <c r="AV403">
+        <v>1.65</v>
+      </c>
+      <c r="AW403">
+        <v>7.05</v>
       </c>
     </row>
     <row r="404" spans="1:49" hidden="1">
@@ -19263,7 +19212,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="470" spans="1:50">
+    <row r="470" spans="1:50" hidden="1">
       <c r="A470" s="2" t="s">
         <v>55</v>
       </c>
@@ -19297,7 +19246,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="471" spans="1:50">
+    <row r="471" spans="1:50" hidden="1">
       <c r="A471" s="2" t="s">
         <v>55</v>
       </c>
@@ -19365,38 +19314,29 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="473" spans="1:50" hidden="1">
-      <c r="A473" t="s">
+    <row r="473" spans="1:50">
+      <c r="A473" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B473" s="5">
-        <v>35816</v>
+        <v>35844</v>
       </c>
       <c r="C473" s="5"/>
       <c r="D473" s="6">
-        <v>48.6407417658667</v>
+        <v>76.612066438067998</v>
       </c>
       <c r="E473" s="6"/>
-      <c r="Q473">
-        <v>1033.6383885847799</v>
-      </c>
       <c r="R473">
-        <v>3.88403983784593</v>
+        <v>1.02112006406083</v>
       </c>
       <c r="T473">
-        <v>323.18831342654801</v>
-      </c>
-      <c r="U473">
-        <v>142</v>
-      </c>
-      <c r="V473">
-        <v>185</v>
+        <v>277.70653545614402</v>
       </c>
       <c r="X473">
-        <v>1.5951271639239099E-2</v>
+        <v>0.22649198546697999</v>
       </c>
       <c r="Y473">
-        <v>1.39747809360974E-2</v>
+        <v>0.16600042744176099</v>
       </c>
       <c r="AF473">
         <v>44</v>
@@ -19416,11 +19356,11 @@
       <c r="AK473">
         <v>1810</v>
       </c>
-      <c r="AV473">
-        <v>1.65</v>
-      </c>
-      <c r="AW473">
-        <v>7.05</v>
+      <c r="AP473">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AQ473">
+        <v>2.3799999999999998E-2</v>
       </c>
     </row>
     <row r="474" spans="1:50" hidden="1">
@@ -19525,7 +19465,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="477" spans="1:50">
+    <row r="477" spans="1:50" hidden="1">
       <c r="A477" s="2" t="s">
         <v>55</v>
       </c>
@@ -19667,7 +19607,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="481" spans="1:50" hidden="1">
+    <row r="481" spans="1:51" hidden="1">
       <c r="A481" s="2" t="s">
         <v>55</v>
       </c>
@@ -19701,7 +19641,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="482" spans="1:50" hidden="1">
+    <row r="482" spans="1:51" hidden="1">
       <c r="A482" s="2" t="s">
         <v>55</v>
       </c>
@@ -19738,7 +19678,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="483" spans="1:50" hidden="1">
+    <row r="483" spans="1:51" hidden="1">
       <c r="A483" t="s">
         <v>55</v>
       </c>
@@ -19781,29 +19721,20 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="484" spans="1:50" hidden="1">
+    <row r="484" spans="1:51">
       <c r="A484" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B484" s="5">
-        <v>35844</v>
+        <v>35858</v>
       </c>
       <c r="C484" s="5"/>
       <c r="D484" s="6">
-        <v>76.612066438067998</v>
+        <v>90.875331564986695</v>
       </c>
       <c r="E484" s="6"/>
       <c r="R484">
-        <v>1.02112006406083</v>
-      </c>
-      <c r="T484">
-        <v>277.70653545614402</v>
-      </c>
-      <c r="X484">
-        <v>0.22649198546697999</v>
-      </c>
-      <c r="Y484">
-        <v>0.16600042744176099</v>
+        <v>1.02442320204191</v>
       </c>
       <c r="AF484">
         <v>44</v>
@@ -19823,14 +19754,8 @@
       <c r="AK484">
         <v>1810</v>
       </c>
-      <c r="AP484">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AQ484">
-        <v>2.3799999999999998E-2</v>
-      </c>
-    </row>
-    <row r="485" spans="1:50" hidden="1">
+    </row>
+    <row r="485" spans="1:51" hidden="1">
       <c r="A485" s="2" t="s">
         <v>55</v>
       </c>
@@ -19864,7 +19789,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="486" spans="1:50" hidden="1">
+    <row r="486" spans="1:51" hidden="1">
       <c r="A486" s="2" t="s">
         <v>55</v>
       </c>
@@ -19898,7 +19823,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="487" spans="1:50" hidden="1">
+    <row r="487" spans="1:51" hidden="1">
       <c r="A487" s="2" t="s">
         <v>55</v>
       </c>
@@ -19932,7 +19857,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="488" spans="1:50" hidden="1">
+    <row r="488" spans="1:51" hidden="1">
       <c r="A488" s="2" t="s">
         <v>55</v>
       </c>
@@ -19972,7 +19897,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="489" spans="1:50" hidden="1">
+    <row r="489" spans="1:51" hidden="1">
       <c r="A489" t="s">
         <v>55</v>
       </c>
@@ -20006,7 +19931,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="490" spans="1:50" hidden="1">
+    <row r="490" spans="1:51" hidden="1">
       <c r="A490" s="2" t="s">
         <v>55</v>
       </c>
@@ -20043,7 +19968,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="491" spans="1:50" hidden="1">
+    <row r="491" spans="1:51" hidden="1">
       <c r="A491" s="2" t="s">
         <v>55</v>
       </c>
@@ -20080,20 +20005,68 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="492" spans="1:50" hidden="1">
+    <row r="492" spans="1:51">
       <c r="A492" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B492" s="5">
-        <v>35858</v>
-      </c>
-      <c r="C492" s="5"/>
+        <v>35866</v>
+      </c>
+      <c r="C492" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="D492" s="6">
-        <v>90.875331564986695</v>
+        <v>98.832891246684298</v>
       </c>
       <c r="E492" s="6"/>
+      <c r="F492">
+        <v>123</v>
+      </c>
+      <c r="G492">
+        <f>F492*10</f>
+        <v>1230</v>
+      </c>
+      <c r="H492">
+        <v>0.32355522509913598</v>
+      </c>
+      <c r="J492">
+        <v>0.39381852111033294</v>
+      </c>
+      <c r="K492">
+        <v>0.35788138558432403</v>
+      </c>
+      <c r="L492">
+        <v>0.321987986937252</v>
+      </c>
+      <c r="M492">
+        <v>0.33179233729880997</v>
+      </c>
+      <c r="N492">
+        <v>0.31222737345462998</v>
+      </c>
+      <c r="O492">
+        <v>0.29173664567296398</v>
+      </c>
+      <c r="P492">
+        <v>0.31133805691625799</v>
+      </c>
       <c r="R492">
-        <v>1.02442320204191</v>
+        <v>0</v>
+      </c>
+      <c r="U492">
+        <v>117</v>
+      </c>
+      <c r="V492">
+        <v>12</v>
+      </c>
+      <c r="W492">
+        <v>173</v>
+      </c>
+      <c r="AD492">
+        <v>7</v>
+      </c>
+      <c r="AE492">
+        <v>35.6</v>
       </c>
       <c r="AF492">
         <v>44</v>
@@ -20113,8 +20086,35 @@
       <c r="AK492">
         <v>1810</v>
       </c>
-    </row>
-    <row r="493" spans="1:50" hidden="1">
+      <c r="AL492">
+        <v>94</v>
+      </c>
+      <c r="AM492">
+        <v>177</v>
+      </c>
+      <c r="AN492">
+        <v>83</v>
+      </c>
+      <c r="AO492">
+        <v>479</v>
+      </c>
+      <c r="AR492">
+        <v>9.6</v>
+      </c>
+      <c r="AS492">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AT492">
+        <v>0.72</v>
+      </c>
+      <c r="AU492">
+        <v>0.53</v>
+      </c>
+      <c r="AY492">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:51" hidden="1">
       <c r="A493" s="2" t="s">
         <v>55</v>
       </c>
@@ -20154,7 +20154,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="494" spans="1:50" hidden="1">
+    <row r="494" spans="1:51" hidden="1">
       <c r="A494" s="2" t="s">
         <v>55</v>
       </c>
@@ -20188,7 +20188,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="495" spans="1:50" hidden="1">
+    <row r="495" spans="1:51" hidden="1">
       <c r="A495" s="2" t="s">
         <v>55</v>
       </c>
@@ -20231,7 +20231,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="496" spans="1:50" hidden="1">
+    <row r="496" spans="1:51" hidden="1">
       <c r="A496" s="2" t="s">
         <v>55</v>
       </c>
@@ -20370,6 +20370,9 @@
         <v>1810</v>
       </c>
     </row>
+    <row r="503" spans="1:37">
+      <c r="H503" s="5"/>
+    </row>
     <row r="505" spans="1:37">
       <c r="H505" s="5"/>
     </row>
@@ -20452,7 +20455,7 @@
       <c r="H531" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AY499" xr:uid="{82957E3C-ACA6-4A6F-B162-5B06AF55FA73}">
+  <autoFilter ref="A1:AY499" xr:uid="{02D4A4B4-9E0C-40E1-812B-A8B29B5ABB76}">
     <filterColumn colId="0">
       <filters>
         <filter val="exp3SowDec17ROCultivarEmerald"/>
@@ -20460,11 +20463,15 @@
         <filter val="exp3SowDec3ROCultivarEmerald"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="25">
+    <filterColumn colId="17">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:AY492">
+      <sortCondition ref="A2:A499"/>
+      <sortCondition ref="D2:D499"/>
+    </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AY499">
     <sortCondition ref="S2:S499"/>

--- a/Prototypes/Mungbean/Exp3observed.xlsx
+++ b/Prototypes/Mungbean/Exp3observed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D320BC-CE04-46A5-87FF-5F650007DEA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFCB21B-B3BC-4DF8-B9DC-8DF7A08C9754}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C69385E-AA3F-4CF3-AF00-E1E4599E61EE}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C69385E-AA3F-4CF3-AF00-E1E4599E61EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -606,7 +606,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B390" sqref="B390"/>
+      <selection pane="bottomLeft" activeCell="E500" sqref="E500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -895,7 +895,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" hidden="1">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -982,7 +982,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:51" hidden="1">
       <c r="A7" s="2" t="s">
         <v>53</v>
       </c>
@@ -1526,12 +1526,12 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="21" spans="1:47" hidden="1">
+    <row r="21" spans="1:47">
       <c r="A21" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B21" s="5">
-        <v>35863</v>
+        <v>35877</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>45</v>
@@ -3281,12 +3281,12 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="66" spans="1:47" hidden="1">
+    <row r="66" spans="1:47">
       <c r="A66" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B66" s="5">
-        <v>35863</v>
+        <v>35877</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>45</v>
@@ -6695,7 +6695,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="153" spans="1:51">
+    <row r="153" spans="1:51" hidden="1">
       <c r="A153" s="2" t="s">
         <v>53</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="187" spans="1:51" hidden="1">
+    <row r="187" spans="1:51">
       <c r="A187" t="s">
         <v>52</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="192" spans="1:51">
+    <row r="192" spans="1:51" hidden="1">
       <c r="A192" s="2" t="s">
         <v>53</v>
       </c>
@@ -8532,12 +8532,12 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="195" spans="1:51" hidden="1">
+    <row r="195" spans="1:51">
       <c r="A195" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B195" s="5">
-        <v>35858</v>
+        <v>35885</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>45</v>
@@ -8696,7 +8696,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="197" spans="1:51">
+    <row r="197" spans="1:51" hidden="1">
       <c r="A197" s="2" t="s">
         <v>53</v>
       </c>
@@ -10173,12 +10173,12 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="233" spans="1:50" hidden="1">
+    <row r="233" spans="1:50">
       <c r="A233" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B233" s="5">
-        <v>35871</v>
+        <v>35885</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>45</v>
@@ -12229,7 +12229,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="287" spans="1:51">
+    <row r="287" spans="1:51" hidden="1">
       <c r="A287" s="2" t="s">
         <v>54</v>
       </c>
@@ -12565,7 +12565,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="296" spans="1:51">
+    <row r="296" spans="1:51" hidden="1">
       <c r="A296" s="2" t="s">
         <v>54</v>
       </c>
@@ -12847,7 +12847,7 @@
         <v>54</v>
       </c>
       <c r="B303" s="5">
-        <v>35858</v>
+        <v>35885</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>45</v>
@@ -14121,12 +14121,12 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="336" spans="1:51" hidden="1">
+    <row r="336" spans="1:51">
       <c r="A336" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B336" s="5">
-        <v>35872</v>
+        <v>35899</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>45</v>
@@ -15936,7 +15936,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="384" spans="1:51">
+    <row r="384" spans="1:51" hidden="1">
       <c r="A384" s="2" t="s">
         <v>54</v>
       </c>
@@ -16155,7 +16155,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="390" spans="1:50">
+    <row r="390" spans="1:50" hidden="1">
       <c r="A390" s="2" t="s">
         <v>54</v>
       </c>
@@ -16641,7 +16641,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="403" spans="1:49">
+    <row r="403" spans="1:49" hidden="1">
       <c r="A403" t="s">
         <v>55</v>
       </c>
@@ -18070,7 +18070,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="441" spans="1:51" hidden="1">
+    <row r="441" spans="1:51">
       <c r="A441" s="2" t="s">
         <v>49</v>
       </c>
@@ -19314,7 +19314,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="473" spans="1:50">
+    <row r="473" spans="1:50" hidden="1">
       <c r="A473" s="2" t="s">
         <v>55</v>
       </c>
@@ -19721,7 +19721,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="484" spans="1:51">
+    <row r="484" spans="1:51" hidden="1">
       <c r="A484" s="2" t="s">
         <v>55</v>
       </c>
@@ -20455,23 +20455,12 @@
       <c r="H531" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AY499" xr:uid="{02D4A4B4-9E0C-40E1-812B-A8B29B5ABB76}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="exp3SowDec17ROCultivarEmerald"/>
-        <filter val="exp3SowDec30ROCultivarEmerald"/>
-        <filter val="exp3SowDec3ROCultivarEmerald"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="17">
+  <autoFilter ref="A1:AY499" xr:uid="{1600DBA9-BC42-4CBE-895C-5637B5C9DC9F}">
+    <filterColumn colId="2">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:AY492">
-      <sortCondition ref="A2:A499"/>
-      <sortCondition ref="D2:D499"/>
-    </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AY499">
     <sortCondition ref="S2:S499"/>

--- a/Prototypes/Mungbean/Exp3observed.xlsx
+++ b/Prototypes/Mungbean/Exp3observed.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFCB21B-B3BC-4DF8-B9DC-8DF7A08C9754}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15C1EFD-2388-4D79-BD59-D30B39B01836}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C69385E-AA3F-4CF3-AF00-E1E4599E61EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C69385E-AA3F-4CF3-AF00-E1E4599E61EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$1:$AY$499</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$1:$AY$531</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>Soybean.Leaf.LAI</t>
-  </si>
-  <si>
-    <t>Soybean.AboveGroundLive.Wt</t>
   </si>
   <si>
     <t>Soybean.Stem.Live.Wt</t>
@@ -219,6 +216,9 @@
   </si>
   <si>
     <t>Soybean.Phenology.AccumulatedTT</t>
+  </si>
+  <si>
+    <t>Soybean.AboveGround.Wt</t>
   </si>
 </sst>
 </file>
@@ -606,7 +606,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E500" sqref="E500"/>
+      <selection pane="bottomLeft" activeCell="T232" sqref="T232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -625,19 +625,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>2</v>
@@ -673,108 +673,108 @@
         <v>12</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AN1" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="AO1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:51" hidden="1">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="5">
         <v>35870</v>
@@ -819,20 +819,32 @@
     </row>
     <row r="3" spans="1:51" hidden="1">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="5">
-        <v>35876</v>
+        <v>35782</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="6">
-        <v>109.090665236051</v>
-      </c>
-      <c r="E3">
-        <v>1912.6931676864624</v>
-      </c>
-      <c r="S3" s="6">
-        <v>0</v>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="AE3" s="2">
+        <v>4.5</v>
       </c>
       <c r="AF3">
         <v>42</v>
@@ -855,26 +867,20 @@
     </row>
     <row r="4" spans="1:51" hidden="1">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="5">
-        <v>35885</v>
+        <v>35790</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="6">
-        <v>117.75348712446301</v>
+        <v>23.0780579399141</v>
       </c>
       <c r="E4">
-        <v>2050.6658182144165</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
+        <v>423.85247993469238</v>
       </c>
       <c r="S4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
+        <v>0.63277896995708105</v>
       </c>
       <c r="AF4">
         <v>42</v>
@@ -897,7 +903,7 @@
     </row>
     <row r="5" spans="1:51" hidden="1">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="5">
         <v>35816</v>
@@ -939,52 +945,43 @@
     </row>
     <row r="6" spans="1:51" hidden="1">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" s="5">
-        <v>35885</v>
+        <v>35795</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6">
-        <v>117.53519871680599</v>
+        <v>28.381169527896901</v>
       </c>
       <c r="E6">
-        <v>2050.6658182144165</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>606.01336302895299</v>
-      </c>
-      <c r="W6">
-        <v>121.065763678488</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
+        <v>503.3524808883667</v>
+      </c>
+      <c r="S6" s="6">
+        <v>1.63224248927038</v>
       </c>
       <c r="AF6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG6">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH6">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI6">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="AJ6">
-        <v>841</v>
+        <v>900</v>
       </c>
       <c r="AK6">
-        <v>1873</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="7" spans="1:51" hidden="1">
       <c r="A7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="5">
         <v>35844</v>
@@ -1027,7 +1024,7 @@
     </row>
     <row r="8" spans="1:51" hidden="1">
       <c r="A8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="5">
         <v>35869</v>
@@ -1066,7 +1063,7 @@
     </row>
     <row r="9" spans="1:51" hidden="1">
       <c r="A9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5">
         <v>35863</v>
@@ -1102,7 +1099,7 @@
     </row>
     <row r="10" spans="1:51" hidden="1">
       <c r="A10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5">
         <v>35885</v>
@@ -1153,7 +1150,7 @@
     </row>
     <row r="11" spans="1:51" hidden="1">
       <c r="A11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="5">
         <v>35864</v>
@@ -1198,7 +1195,7 @@
     </row>
     <row r="12" spans="1:51" hidden="1">
       <c r="A12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="5">
         <v>35860</v>
@@ -1237,7 +1234,7 @@
     </row>
     <row r="13" spans="1:51" hidden="1">
       <c r="A13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="5">
         <v>35860</v>
@@ -1276,7 +1273,7 @@
     </row>
     <row r="14" spans="1:51" hidden="1">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="5">
         <v>35790</v>
@@ -1312,20 +1309,17 @@
     </row>
     <row r="15" spans="1:51" hidden="1">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="5">
-        <v>35804</v>
+        <v>35795</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="6">
-        <v>37.172746781115798</v>
-      </c>
-      <c r="E15">
-        <v>648.85248184204102</v>
-      </c>
-      <c r="S15" s="6">
-        <v>0.60783261802575095</v>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>2.7</v>
       </c>
       <c r="AF15">
         <v>41</v>
@@ -1348,7 +1342,7 @@
     </row>
     <row r="16" spans="1:51" hidden="1">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="5">
         <v>35774</v>
@@ -1382,9 +1376,9 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="17" spans="1:47" hidden="1">
+    <row r="17" spans="1:51" hidden="1">
       <c r="A17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="5">
         <v>35804</v>
@@ -1418,81 +1412,81 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="18" spans="1:47" hidden="1">
+    <row r="18" spans="1:51" hidden="1">
       <c r="A18" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" s="5">
-        <v>35801</v>
+        <v>35797</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="6">
-        <v>33.9900751072961</v>
+        <v>30.191791845493501</v>
       </c>
       <c r="E18">
-        <v>584.04362487792969</v>
+        <v>532.70248031616211</v>
       </c>
       <c r="S18" s="6">
-        <v>0.61346566523605195</v>
+        <v>1.6821351931330399</v>
       </c>
       <c r="AF18">
+        <v>42</v>
+      </c>
+      <c r="AG18">
+        <v>48</v>
+      </c>
+      <c r="AH18">
+        <v>104</v>
+      </c>
+      <c r="AI18">
+        <v>785</v>
+      </c>
+      <c r="AJ18">
+        <v>900</v>
+      </c>
+      <c r="AK18">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="19" spans="1:51" hidden="1">
+      <c r="A19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="5">
+        <v>35799</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19">
+        <v>32</v>
+      </c>
+      <c r="AD19">
+        <v>0.4</v>
+      </c>
+      <c r="AF19">
         <v>41</v>
       </c>
-      <c r="AG18">
+      <c r="AG19">
         <v>45</v>
       </c>
-      <c r="AH18">
+      <c r="AH19">
         <v>105</v>
       </c>
-      <c r="AI18">
+      <c r="AI19">
         <v>768</v>
       </c>
-      <c r="AJ18">
+      <c r="AJ19">
         <v>841</v>
       </c>
-      <c r="AK18">
+      <c r="AK19">
         <v>1873</v>
       </c>
-    </row>
-    <row r="19" spans="1:47" hidden="1">
-      <c r="A19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="5">
-        <v>35790</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6">
-        <v>23.0780579399141</v>
-      </c>
-      <c r="E19">
-        <v>423.85247993469238</v>
-      </c>
-      <c r="S19" s="6">
-        <v>0.63277896995708105</v>
-      </c>
-      <c r="AF19">
-        <v>42</v>
-      </c>
-      <c r="AG19">
-        <v>48</v>
-      </c>
-      <c r="AH19">
-        <v>104</v>
-      </c>
-      <c r="AI19">
-        <v>785</v>
-      </c>
-      <c r="AJ19">
-        <v>900</v>
-      </c>
-      <c r="AK19">
-        <v>1908</v>
-      </c>
-    </row>
-    <row r="20" spans="1:47" hidden="1">
+      <c r="AY19">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:51" hidden="1">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="5">
         <v>35773</v>
@@ -1526,15 +1520,15 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="21" spans="1:47">
+    <row r="21" spans="1:51" hidden="1">
       <c r="A21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" s="5">
         <v>35877</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="6">
         <v>96.424668665414998</v>
@@ -1601,9 +1595,9 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="22" spans="1:47" hidden="1">
+    <row r="22" spans="1:51" hidden="1">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="5">
         <v>35774</v>
@@ -1637,9 +1631,9 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="23" spans="1:47" hidden="1">
+    <row r="23" spans="1:51" hidden="1">
       <c r="A23" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="5">
         <v>35802</v>
@@ -1673,9 +1667,9 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="24" spans="1:47" hidden="1">
+    <row r="24" spans="1:51" hidden="1">
       <c r="A24" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="5">
         <v>35804</v>
@@ -1709,9 +1703,9 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="25" spans="1:47" hidden="1">
+    <row r="25" spans="1:51" hidden="1">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="5">
         <v>35790</v>
@@ -1745,9 +1739,9 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="26" spans="1:47" hidden="1">
+    <row r="26" spans="1:51" hidden="1">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="5">
         <v>35802</v>
@@ -1781,9 +1775,9 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="27" spans="1:47" hidden="1">
+    <row r="27" spans="1:51" hidden="1">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="5">
         <v>35863</v>
@@ -1817,9 +1811,9 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="28" spans="1:47" hidden="1">
+    <row r="28" spans="1:51" hidden="1">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="5">
         <v>35855</v>
@@ -1862,9 +1856,9 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="29" spans="1:47" hidden="1">
+    <row r="29" spans="1:51" hidden="1">
       <c r="A29" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" s="5">
         <v>35870</v>
@@ -1898,9 +1892,9 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="30" spans="1:47" hidden="1">
+    <row r="30" spans="1:51" hidden="1">
       <c r="A30" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="5">
         <v>35842</v>
@@ -1937,9 +1931,9 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="31" spans="1:47" hidden="1">
+    <row r="31" spans="1:51" hidden="1">
       <c r="A31" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" s="5">
         <v>35781</v>
@@ -1973,9 +1967,9 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="32" spans="1:47" hidden="1">
+    <row r="32" spans="1:51" hidden="1">
       <c r="A32" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" s="5">
         <v>35795</v>
@@ -2011,7 +2005,7 @@
     </row>
     <row r="33" spans="1:37" hidden="1">
       <c r="A33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" s="5">
         <v>35797</v>
@@ -2047,7 +2041,7 @@
     </row>
     <row r="34" spans="1:37" hidden="1">
       <c r="A34" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" s="5">
         <v>35796</v>
@@ -2083,7 +2077,7 @@
     </row>
     <row r="35" spans="1:37" hidden="1">
       <c r="A35" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" s="5">
         <v>35799</v>
@@ -2119,7 +2113,7 @@
     </row>
     <row r="36" spans="1:37" hidden="1">
       <c r="A36" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" s="5">
         <v>35781</v>
@@ -2155,20 +2149,20 @@
     </row>
     <row r="37" spans="1:37" hidden="1">
       <c r="A37" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" s="5">
-        <v>35795</v>
+        <v>35800</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="6">
-        <v>28.381169527896901</v>
+        <v>33.221566523605098</v>
       </c>
       <c r="E37">
-        <v>503.3524808883667</v>
+        <v>583.40247917175293</v>
       </c>
       <c r="S37" s="6">
-        <v>1.63224248927038</v>
+        <v>2.6856223175965601</v>
       </c>
       <c r="AF37">
         <v>42</v>
@@ -2191,7 +2185,7 @@
     </row>
     <row r="38" spans="1:37" hidden="1">
       <c r="A38" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="5">
         <v>35808</v>
@@ -2227,7 +2221,7 @@
     </row>
     <row r="39" spans="1:37" hidden="1">
       <c r="A39" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" s="5">
         <v>35808</v>
@@ -2263,7 +2257,7 @@
     </row>
     <row r="40" spans="1:37" hidden="1">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="5">
         <v>35782</v>
@@ -2299,20 +2293,20 @@
     </row>
     <row r="41" spans="1:37" hidden="1">
       <c r="A41" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41" s="5">
-        <v>35808</v>
+        <v>35801</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="6">
-        <v>40.649141630901198</v>
+        <v>33.9900751072961</v>
       </c>
       <c r="E41">
-        <v>695.54363059997559</v>
+        <v>584.04362487792969</v>
       </c>
       <c r="S41" s="6">
-        <v>1.66362660944206</v>
+        <v>0.61346566523605195</v>
       </c>
       <c r="AF41">
         <v>41</v>
@@ -2335,20 +2329,20 @@
     </row>
     <row r="42" spans="1:37" hidden="1">
       <c r="A42" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="5">
-        <v>35797</v>
+        <v>35803</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="6">
-        <v>30.191791845493501</v>
+        <v>36.259388412017103</v>
       </c>
       <c r="E42">
-        <v>532.70248031616211</v>
+        <v>632.65248107910156</v>
       </c>
       <c r="S42" s="6">
-        <v>1.6821351931330399</v>
+        <v>3.63599785407725</v>
       </c>
       <c r="AF42">
         <v>42</v>
@@ -2371,7 +2365,7 @@
     </row>
     <row r="43" spans="1:37" hidden="1">
       <c r="A43" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" s="5">
         <v>35853</v>
@@ -2407,7 +2401,7 @@
     </row>
     <row r="44" spans="1:37" hidden="1">
       <c r="A44" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" s="5">
         <v>35863</v>
@@ -2443,7 +2437,7 @@
     </row>
     <row r="45" spans="1:37" hidden="1">
       <c r="A45" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45" s="5">
         <v>35848</v>
@@ -2485,7 +2479,7 @@
     </row>
     <row r="46" spans="1:37" hidden="1">
       <c r="A46" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="5">
         <v>35856</v>
@@ -2524,7 +2518,7 @@
     </row>
     <row r="47" spans="1:37" hidden="1">
       <c r="A47" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47" s="5">
         <v>35839</v>
@@ -2560,7 +2554,7 @@
     </row>
     <row r="48" spans="1:37" hidden="1">
       <c r="A48" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" s="5">
         <v>35876</v>
@@ -2599,7 +2593,7 @@
     </row>
     <row r="49" spans="1:51" ht="15.75" hidden="1" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49" s="5">
         <v>35835</v>
@@ -2638,23 +2632,20 @@
     </row>
     <row r="50" spans="1:51" hidden="1">
       <c r="A50" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" s="5">
-        <v>35876</v>
+        <v>35804</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="6">
-        <v>108.720493562231</v>
+        <v>37.172746781115798</v>
       </c>
       <c r="E50">
-        <v>1896.8343133926392</v>
+        <v>648.85248184204102</v>
       </c>
       <c r="S50" s="6">
-        <v>2.39270386266094</v>
-      </c>
-      <c r="AC50">
-        <v>12.0116015132408</v>
+        <v>0.60783261802575095</v>
       </c>
       <c r="AF50">
         <v>41</v>
@@ -2677,7 +2668,7 @@
     </row>
     <row r="51" spans="1:51" hidden="1">
       <c r="A51" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" s="5">
         <v>35814</v>
@@ -2713,7 +2704,7 @@
     </row>
     <row r="52" spans="1:51" hidden="1">
       <c r="A52" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" s="5">
         <v>35800</v>
@@ -2773,7 +2764,7 @@
     </row>
     <row r="53" spans="1:51" hidden="1">
       <c r="A53" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" s="5">
         <v>35814</v>
@@ -2809,43 +2800,43 @@
     </row>
     <row r="54" spans="1:51" hidden="1">
       <c r="A54" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B54" s="5">
-        <v>35814</v>
+        <v>35807</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="6">
-        <v>46.861587982832603</v>
+        <v>40.190450643776799</v>
       </c>
       <c r="E54">
-        <v>806.99363327026367</v>
+        <v>696.35248374938965</v>
       </c>
       <c r="S54" s="6">
-        <v>2.66148068669527</v>
+        <v>4.6909871244635104</v>
       </c>
       <c r="AF54">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG54">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH54">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI54">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="AJ54">
-        <v>841</v>
+        <v>900</v>
       </c>
       <c r="AK54">
-        <v>1873</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="55" spans="1:51" hidden="1">
       <c r="A55" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" s="5">
         <v>35801</v>
@@ -2884,40 +2875,40 @@
         <v>47</v>
       </c>
       <c r="B56" s="5">
-        <v>35800</v>
+        <v>35808</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="6">
-        <v>33.221566523605098</v>
+        <v>40.649141630901198</v>
       </c>
       <c r="E56">
-        <v>583.40247917175293</v>
+        <v>695.54363059997559</v>
       </c>
       <c r="S56" s="6">
-        <v>2.6856223175965601</v>
+        <v>1.66362660944206</v>
       </c>
       <c r="AF56">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG56">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AH56">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI56">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="AJ56">
-        <v>900</v>
+        <v>841</v>
       </c>
       <c r="AK56">
-        <v>1908</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="57" spans="1:51" hidden="1">
       <c r="A57" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="5">
         <v>35832</v>
@@ -2956,7 +2947,7 @@
     </row>
     <row r="58" spans="1:51" hidden="1">
       <c r="A58" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B58" s="5">
         <v>35859</v>
@@ -2992,46 +2983,45 @@
     </row>
     <row r="59" spans="1:51" hidden="1">
       <c r="A59" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B59" s="5">
-        <v>35863</v>
+        <v>35812</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="6">
-        <v>96.3398605150214</v>
-      </c>
-      <c r="E59">
-        <v>1694.3550472259521</v>
-      </c>
-      <c r="S59" s="6">
-        <v>3.10488197424892</v>
-      </c>
-      <c r="AC59">
-        <v>11.4618152738904</v>
+        <v>45</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="AD59">
+        <v>3.9</v>
       </c>
       <c r="AF59">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG59">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH59">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI59">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="AJ59">
-        <v>841</v>
+        <v>900</v>
       </c>
       <c r="AK59">
-        <v>1873</v>
+        <v>1908</v>
+      </c>
+      <c r="AY59">
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:51" hidden="1">
       <c r="A60" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B60" s="5">
         <v>35849</v>
@@ -3067,7 +3057,7 @@
     </row>
     <row r="61" spans="1:51" hidden="1">
       <c r="A61" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B61" s="5">
         <v>35856</v>
@@ -3106,7 +3096,7 @@
     </row>
     <row r="62" spans="1:51" hidden="1">
       <c r="A62" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B62" s="5">
         <v>35841</v>
@@ -3160,7 +3150,7 @@
     </row>
     <row r="63" spans="1:51" hidden="1">
       <c r="A63" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B63" s="5">
         <v>35859</v>
@@ -3199,7 +3189,7 @@
     </row>
     <row r="64" spans="1:51" hidden="1">
       <c r="A64" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B64" s="5">
         <v>35841</v>
@@ -3244,7 +3234,7 @@
     </row>
     <row r="65" spans="1:47" hidden="1">
       <c r="A65" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B65" s="5">
         <v>35859</v>
@@ -3281,15 +3271,15 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="66" spans="1:47">
+    <row r="66" spans="1:47" hidden="1">
       <c r="A66" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B66" s="5">
         <v>35877</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D66" s="6">
         <v>95.5483163357178</v>
@@ -3394,7 +3384,7 @@
     </row>
     <row r="67" spans="1:47" hidden="1">
       <c r="A67" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B67" s="5">
         <v>35852</v>
@@ -3433,7 +3423,7 @@
     </row>
     <row r="68" spans="1:47" hidden="1">
       <c r="A68" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B68" s="5">
         <v>35851</v>
@@ -3475,7 +3465,7 @@
     </row>
     <row r="69" spans="1:47" hidden="1">
       <c r="A69" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B69" s="5">
         <v>35848</v>
@@ -3511,7 +3501,7 @@
     </row>
     <row r="70" spans="1:47" hidden="1">
       <c r="A70" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B70" s="5">
         <v>35803</v>
@@ -3547,7 +3537,7 @@
     </row>
     <row r="71" spans="1:47" hidden="1">
       <c r="A71" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B71" s="5">
         <v>35790</v>
@@ -3583,7 +3573,7 @@
     </row>
     <row r="72" spans="1:47" hidden="1">
       <c r="A72" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B72" s="5">
         <v>35795</v>
@@ -3619,7 +3609,7 @@
     </row>
     <row r="73" spans="1:47" hidden="1">
       <c r="A73" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B73" s="5">
         <v>35804</v>
@@ -3655,20 +3645,20 @@
     </row>
     <row r="74" spans="1:47" hidden="1">
       <c r="A74" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B74" s="5">
-        <v>35803</v>
+        <v>35813</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="6">
-        <v>36.259388412017103</v>
+        <v>46.427038626609402</v>
       </c>
       <c r="E74">
-        <v>632.65248107910156</v>
+        <v>803.85248565673828</v>
       </c>
       <c r="S74" s="6">
-        <v>3.63599785407725</v>
+        <v>5.5295064377682399</v>
       </c>
       <c r="AF74">
         <v>42</v>
@@ -3691,7 +3681,7 @@
     </row>
     <row r="75" spans="1:47" hidden="1">
       <c r="A75" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B75" s="5">
         <v>35790</v>
@@ -3727,7 +3717,7 @@
     </row>
     <row r="76" spans="1:47" hidden="1">
       <c r="A76" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B76" s="5">
         <v>35860</v>
@@ -3766,7 +3756,7 @@
     </row>
     <row r="77" spans="1:47" hidden="1">
       <c r="A77" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B77" s="5">
         <v>35794</v>
@@ -3802,7 +3792,7 @@
     </row>
     <row r="78" spans="1:47" hidden="1">
       <c r="A78" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B78" s="5">
         <v>35794</v>
@@ -3838,7 +3828,7 @@
     </row>
     <row r="79" spans="1:47" hidden="1">
       <c r="A79" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B79" s="5">
         <v>35839</v>
@@ -3874,7 +3864,7 @@
     </row>
     <row r="80" spans="1:47" hidden="1">
       <c r="A80" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B80" s="5">
         <v>35790</v>
@@ -3910,7 +3900,7 @@
     </row>
     <row r="81" spans="1:37" hidden="1">
       <c r="A81" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B81" s="5">
         <v>35855</v>
@@ -3955,23 +3945,20 @@
     </row>
     <row r="82" spans="1:37" hidden="1">
       <c r="A82" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B82" s="5">
-        <v>35859</v>
+        <v>35814</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="6">
-        <v>92.151287553648004</v>
+        <v>46.861587982832603</v>
       </c>
       <c r="E82">
-        <v>1626.7209987640381</v>
+        <v>806.99363327026367</v>
       </c>
       <c r="S82" s="6">
-        <v>3.7494635193132999</v>
-      </c>
-      <c r="AA82">
-        <v>0</v>
+        <v>2.66148068669527</v>
       </c>
       <c r="AF82">
         <v>41</v>
@@ -3994,7 +3981,7 @@
     </row>
     <row r="83" spans="1:37" hidden="1">
       <c r="A83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B83" s="5">
         <v>35854</v>
@@ -4036,7 +4023,7 @@
     </row>
     <row r="84" spans="1:37" hidden="1">
       <c r="A84" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B84" s="5">
         <v>35828</v>
@@ -4081,7 +4068,7 @@
     </row>
     <row r="85" spans="1:37" hidden="1">
       <c r="A85" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B85" s="5">
         <v>35849</v>
@@ -4123,7 +4110,7 @@
     </row>
     <row r="86" spans="1:37" hidden="1">
       <c r="A86" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B86" s="5">
         <v>35852</v>
@@ -4165,7 +4152,7 @@
     </row>
     <row r="87" spans="1:37" hidden="1">
       <c r="A87" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B87" s="5">
         <v>35841</v>
@@ -4201,20 +4188,18 @@
     </row>
     <row r="88" spans="1:37" hidden="1">
       <c r="A88" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B88" s="5">
-        <v>35863</v>
+        <v>35815</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="6">
-        <v>95.724248927038502</v>
-      </c>
-      <c r="E88">
-        <v>1678.4961929321289</v>
-      </c>
-      <c r="S88" s="6">
-        <v>4.1679184549356201</v>
+        <v>48.303191489361701</v>
+      </c>
+      <c r="E88" s="6"/>
+      <c r="Z88">
+        <v>66.101063829787194</v>
       </c>
       <c r="AF88">
         <v>42</v>
@@ -4237,7 +4222,7 @@
     </row>
     <row r="89" spans="1:37" hidden="1">
       <c r="A89" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B89" s="5">
         <v>35834</v>
@@ -4276,7 +4261,7 @@
     </row>
     <row r="90" spans="1:37" hidden="1">
       <c r="A90" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B90" s="5">
         <v>35838</v>
@@ -4312,7 +4297,7 @@
     </row>
     <row r="91" spans="1:37" hidden="1">
       <c r="A91" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B91" s="5">
         <v>35839</v>
@@ -4351,40 +4336,38 @@
         <v>47</v>
       </c>
       <c r="B92" s="5">
-        <v>35859</v>
+        <v>35815</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="6">
-        <v>91.608100858368999</v>
-      </c>
-      <c r="E92">
-        <v>1610.8621444702148</v>
-      </c>
-      <c r="S92" s="6">
-        <v>4.3344957081544999</v>
+        <v>47.957446808510603</v>
+      </c>
+      <c r="E92" s="6"/>
+      <c r="Z92">
+        <v>7.5372340425531901</v>
       </c>
       <c r="AF92">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG92">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AH92">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI92">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="AJ92">
-        <v>900</v>
+        <v>841</v>
       </c>
       <c r="AK92">
-        <v>1908</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="93" spans="1:37" hidden="1">
       <c r="A93" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B93" s="5">
         <v>35832</v>
@@ -4423,7 +4406,7 @@
     </row>
     <row r="94" spans="1:37" hidden="1">
       <c r="A94" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B94" s="5">
         <v>35835</v>
@@ -4465,7 +4448,7 @@
     </row>
     <row r="95" spans="1:37" hidden="1">
       <c r="A95" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B95" s="5">
         <v>35834</v>
@@ -4504,7 +4487,7 @@
     </row>
     <row r="96" spans="1:37" hidden="1">
       <c r="A96" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B96" s="5">
         <v>35841</v>
@@ -4540,7 +4523,7 @@
     </row>
     <row r="97" spans="1:37" hidden="1">
       <c r="A97" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B97" s="5">
         <v>35848</v>
@@ -4579,7 +4562,7 @@
     </row>
     <row r="98" spans="1:37" hidden="1">
       <c r="A98" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B98" s="5">
         <v>35855</v>
@@ -4618,7 +4601,7 @@
     </row>
     <row r="99" spans="1:37" hidden="1">
       <c r="A99" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B99" s="5">
         <v>35831</v>
@@ -4657,7 +4640,7 @@
     </row>
     <row r="100" spans="1:37" hidden="1">
       <c r="A100" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B100" s="5">
         <v>35852</v>
@@ -4696,7 +4679,7 @@
     </row>
     <row r="101" spans="1:37" hidden="1">
       <c r="A101" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B101" s="5">
         <v>35820</v>
@@ -4732,7 +4715,7 @@
     </row>
     <row r="102" spans="1:37" hidden="1">
       <c r="A102" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B102" s="5">
         <v>35807</v>
@@ -4768,7 +4751,7 @@
     </row>
     <row r="103" spans="1:37" hidden="1">
       <c r="A103" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B103" s="5">
         <v>35818</v>
@@ -4804,7 +4787,7 @@
     </row>
     <row r="104" spans="1:37" hidden="1">
       <c r="A104" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B104" s="5">
         <v>35820</v>
@@ -4838,22 +4821,23 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="105" spans="1:37" hidden="1">
+    <row r="105" spans="1:37">
       <c r="A105" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B105" s="5">
-        <v>35855</v>
+        <v>35816</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="6">
-        <v>87.557402143013306</v>
-      </c>
-      <c r="E105">
-        <v>1546.4621486663818</v>
-      </c>
-      <c r="S105" s="6">
-        <v>4.6587982832617998</v>
+        <v>48.870691296895799</v>
+      </c>
+      <c r="E105" s="6"/>
+      <c r="R105">
+        <v>2.2764235383736402</v>
+      </c>
+      <c r="T105">
+        <v>102.048997772828</v>
       </c>
       <c r="AF105">
         <v>42</v>
@@ -4874,28 +4858,23 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="106" spans="1:37" hidden="1">
+    <row r="106" spans="1:37">
       <c r="A106" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B106" s="5">
-        <v>35852</v>
+        <v>35816</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="6">
-        <v>85.194474248926994</v>
-      </c>
-      <c r="E106">
-        <v>1511.2710056304932</v>
-      </c>
-      <c r="S106" s="6">
-        <v>4.6644313304720999</v>
-      </c>
-      <c r="W106">
-        <v>0.81981821422232304</v>
-      </c>
-      <c r="AB106">
-        <v>13.911543075077599</v>
+        <v>49.004951437821298</v>
+      </c>
+      <c r="E106" s="6"/>
+      <c r="R106">
+        <v>0.31846314987621299</v>
+      </c>
+      <c r="T106">
+        <v>3.0289532293986601</v>
       </c>
       <c r="AF106">
         <v>41</v>
@@ -4918,7 +4897,7 @@
     </row>
     <row r="107" spans="1:37" hidden="1">
       <c r="A107" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B107" s="5">
         <v>35797</v>
@@ -4954,7 +4933,7 @@
     </row>
     <row r="108" spans="1:37" hidden="1">
       <c r="A108" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B108" s="5">
         <v>35796</v>
@@ -4993,40 +4972,43 @@
         <v>47</v>
       </c>
       <c r="B109" s="5">
-        <v>35807</v>
+        <v>35817</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="6">
-        <v>40.190450643776799</v>
+        <v>49.862234856767898</v>
       </c>
       <c r="E109">
-        <v>696.35248374938965</v>
+        <v>863.81537437438965</v>
       </c>
       <c r="S109" s="6">
-        <v>4.6909871244635104</v>
+        <v>4.7263948497854003</v>
+      </c>
+      <c r="AD109">
+        <v>0.45302135724178</v>
       </c>
       <c r="AF109">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG109">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AH109">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI109">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="AJ109">
-        <v>900</v>
+        <v>841</v>
       </c>
       <c r="AK109">
-        <v>1908</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="110" spans="1:37" hidden="1">
       <c r="A110" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B110" s="5">
         <v>35796</v>
@@ -5062,7 +5044,7 @@
     </row>
     <row r="111" spans="1:37" hidden="1">
       <c r="A111" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B111" s="5">
         <v>35818</v>
@@ -5098,82 +5080,77 @@
     </row>
     <row r="112" spans="1:37" hidden="1">
       <c r="A112" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B112" s="5">
-        <v>35820</v>
+        <v>35817</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="6">
-        <v>53.367757510729597</v>
-      </c>
-      <c r="E112">
-        <v>937.71350860595703</v>
-      </c>
-      <c r="S112" s="6">
-        <v>4.7207618025751001</v>
+        <v>49.724469713535903</v>
+      </c>
+      <c r="E112" s="6"/>
+      <c r="AD112">
+        <v>4.0917705372111604</v>
       </c>
       <c r="AF112">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG112">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH112">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI112">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="AJ112">
-        <v>841</v>
+        <v>900</v>
       </c>
       <c r="AK112">
-        <v>1873</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="113" spans="1:51" hidden="1">
       <c r="A113" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B113" s="5">
-        <v>35817</v>
+        <v>35818</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="6">
-        <v>49.862234856767898</v>
+        <v>50.812768240343303</v>
       </c>
       <c r="E113">
-        <v>863.81537437438965</v>
+        <v>882.6427059173584</v>
       </c>
       <c r="S113" s="6">
-        <v>4.7263948497854003</v>
-      </c>
-      <c r="AD113">
-        <v>0.45302135724178</v>
+        <v>6.5836909871244602</v>
       </c>
       <c r="AF113">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG113">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH113">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI113">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="AJ113">
-        <v>841</v>
+        <v>900</v>
       </c>
       <c r="AK113">
-        <v>1873</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="114" spans="1:51" hidden="1">
       <c r="A114" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B114" s="5">
         <v>35808</v>
@@ -5209,7 +5186,7 @@
     </row>
     <row r="115" spans="1:51" hidden="1">
       <c r="A115" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B115" s="5">
         <v>35835</v>
@@ -5248,20 +5225,20 @@
     </row>
     <row r="116" spans="1:51" hidden="1">
       <c r="A116" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B116" s="5">
-        <v>35854</v>
+        <v>35820</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="6">
-        <v>87.427575107296093</v>
+        <v>53.367757510729597</v>
       </c>
       <c r="E116">
-        <v>1545.5210037231445</v>
+        <v>937.71350860595703</v>
       </c>
       <c r="S116" s="6">
-        <v>4.92596566523605</v>
+        <v>4.7207618025751001</v>
       </c>
       <c r="AF116">
         <v>41</v>
@@ -5284,7 +5261,7 @@
     </row>
     <row r="117" spans="1:51" ht="15.75" hidden="1" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B117" s="5">
         <v>35824</v>
@@ -5320,7 +5297,7 @@
     </row>
     <row r="118" spans="1:51" hidden="1">
       <c r="A118" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B118" s="5">
         <v>35853</v>
@@ -5356,7 +5333,7 @@
     </row>
     <row r="119" spans="1:51" hidden="1">
       <c r="A119" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B119" s="5">
         <v>35827</v>
@@ -5395,23 +5372,20 @@
     </row>
     <row r="120" spans="1:51" hidden="1">
       <c r="A120" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B120" s="5">
-        <v>35852</v>
+        <v>35820</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="6">
-        <v>84.659334763948493</v>
+        <v>52.973444206008502</v>
       </c>
       <c r="E120">
-        <v>1495.4121513366699</v>
+        <v>921.85465431213379</v>
       </c>
       <c r="S120" s="6">
-        <v>5.1963519313304696</v>
-      </c>
-      <c r="W120">
-        <v>53.698093031545298</v>
+        <v>7.3232296137338997</v>
       </c>
       <c r="AF120">
         <v>42</v>
@@ -5437,62 +5411,53 @@
         <v>47</v>
       </c>
       <c r="B121" s="5">
-        <v>35848</v>
+        <v>35824</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="6">
-        <v>80.567328326180203</v>
+        <v>56.6912553648068</v>
       </c>
       <c r="E121">
-        <v>1430.554497718811</v>
+        <v>990.78879833221436</v>
       </c>
       <c r="S121" s="6">
-        <v>5.20359442060085</v>
+        <v>6.7856759656652299</v>
       </c>
       <c r="AF121">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG121">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AH121">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI121">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="AJ121">
-        <v>900</v>
+        <v>841</v>
       </c>
       <c r="AK121">
-        <v>1908</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="122" spans="1:51" hidden="1">
       <c r="A122" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B122" s="5">
-        <v>35842</v>
+        <v>35824</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="6">
-        <v>75</v>
+        <v>56.514216738197398</v>
       </c>
       <c r="E122">
-        <v>1324.1990575790405</v>
+        <v>990.78879833221436</v>
       </c>
       <c r="S122" s="6">
-        <v>5.2156652360514997</v>
-      </c>
-      <c r="AA122">
-        <v>0.207833733013643</v>
-      </c>
-      <c r="AC122">
-        <v>0</v>
-      </c>
-      <c r="AD122">
-        <v>16.261024856039</v>
+        <v>7.9541309012875496</v>
       </c>
       <c r="AF122">
         <v>42</v>
@@ -5515,7 +5480,7 @@
     </row>
     <row r="123" spans="1:51" hidden="1">
       <c r="A123" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B123" s="5">
         <v>35842</v>
@@ -5569,7 +5534,7 @@
     </row>
     <row r="124" spans="1:51" hidden="1">
       <c r="A124" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B124" s="5">
         <v>35824</v>
@@ -5608,7 +5573,7 @@
     </row>
     <row r="125" spans="1:51" hidden="1">
       <c r="A125" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B125" s="5">
         <v>35832</v>
@@ -5644,7 +5609,7 @@
     </row>
     <row r="126" spans="1:51" hidden="1">
       <c r="A126" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B126" s="5">
         <v>35839</v>
@@ -5683,40 +5648,46 @@
         <v>47</v>
       </c>
       <c r="B127" s="5">
-        <v>35834</v>
+        <v>35828</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="6">
-        <v>67.365879828326101</v>
+        <v>60.734978540772502</v>
       </c>
       <c r="E127">
-        <v>1196.207911491394</v>
+        <v>1062.9098997116089</v>
       </c>
       <c r="S127" s="6">
-        <v>5.3331545064377597</v>
+        <v>7.0971030042918404</v>
+      </c>
+      <c r="AD127">
+        <v>10.5</v>
       </c>
       <c r="AF127">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG127">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AH127">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI127">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="AJ127">
-        <v>900</v>
+        <v>841</v>
       </c>
       <c r="AK127">
-        <v>1908</v>
+        <v>1873</v>
+      </c>
+      <c r="AY127">
+        <v>7.2</v>
       </c>
     </row>
     <row r="128" spans="1:51" hidden="1">
       <c r="A128" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B128" s="5">
         <v>35849</v>
@@ -5755,7 +5726,7 @@
     </row>
     <row r="129" spans="1:37" hidden="1">
       <c r="A129" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B129" s="5">
         <v>35829</v>
@@ -5791,7 +5762,7 @@
     </row>
     <row r="130" spans="1:37" hidden="1">
       <c r="A130" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B130" s="5">
         <v>35831</v>
@@ -5830,20 +5801,20 @@
     </row>
     <row r="131" spans="1:37" hidden="1">
       <c r="A131" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B131" s="5">
-        <v>35813</v>
+        <v>35828</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="6">
-        <v>46.427038626609402</v>
+        <v>61.435085836909799</v>
       </c>
       <c r="E131">
-        <v>803.85248565673828</v>
+        <v>1078.7687540054321</v>
       </c>
       <c r="S131" s="6">
-        <v>5.5295064377682399</v>
+        <v>8.4763948497854003</v>
       </c>
       <c r="AF131">
         <v>42</v>
@@ -5866,7 +5837,7 @@
     </row>
     <row r="132" spans="1:37" hidden="1">
       <c r="A132" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B132" s="5">
         <v>35849</v>
@@ -5905,7 +5876,7 @@
     </row>
     <row r="133" spans="1:37" hidden="1">
       <c r="A133" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B133" s="5">
         <v>35813</v>
@@ -5941,7 +5912,7 @@
     </row>
     <row r="134" spans="1:37" hidden="1">
       <c r="A134" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B134" s="5">
         <v>35828</v>
@@ -6001,7 +5972,7 @@
     </row>
     <row r="135" spans="1:37" hidden="1">
       <c r="A135" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B135" s="5">
         <v>35877</v>
@@ -6043,7 +6014,7 @@
     </row>
     <row r="136" spans="1:37" hidden="1">
       <c r="A136" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B136" s="5">
         <v>35820</v>
@@ -6082,7 +6053,7 @@
     </row>
     <row r="137" spans="1:37" hidden="1">
       <c r="A137" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B137" s="5">
         <v>35800</v>
@@ -6118,7 +6089,7 @@
     </row>
     <row r="138" spans="1:37" hidden="1">
       <c r="A138" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B138" s="5">
         <v>35801</v>
@@ -6154,7 +6125,7 @@
     </row>
     <row r="139" spans="1:37" hidden="1">
       <c r="A139" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B139" s="5">
         <v>35824</v>
@@ -6196,7 +6167,7 @@
     </row>
     <row r="140" spans="1:37" hidden="1">
       <c r="A140" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B140" s="5">
         <v>35831</v>
@@ -6232,26 +6203,24 @@
     </row>
     <row r="141" spans="1:37" hidden="1">
       <c r="A141" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B141" s="5">
-        <v>35837</v>
+        <v>35830</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="6">
-        <v>69.890087929656204</v>
-      </c>
-      <c r="E141">
-        <v>1232.0990571975708</v>
-      </c>
-      <c r="S141" s="6">
-        <v>5.7532188841201704</v>
-      </c>
-      <c r="W141">
-        <v>27.232222420246199</v>
+        <v>62.584503825511</v>
+      </c>
+      <c r="E141" s="6"/>
+      <c r="X141">
+        <v>0</v>
+      </c>
+      <c r="Y141">
+        <v>0</v>
       </c>
       <c r="AA141">
-        <v>5.7617905675459902</v>
+        <v>8.6203037569944208</v>
       </c>
       <c r="AF141">
         <v>42</v>
@@ -6274,7 +6243,7 @@
     </row>
     <row r="142" spans="1:37" hidden="1">
       <c r="A142" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B142" s="5">
         <v>35801</v>
@@ -6310,7 +6279,7 @@
     </row>
     <row r="143" spans="1:37" hidden="1">
       <c r="A143" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B143" s="5">
         <v>35824</v>
@@ -6346,7 +6315,7 @@
     </row>
     <row r="144" spans="1:37" hidden="1">
       <c r="A144" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B144" s="5">
         <v>35825</v>
@@ -6382,7 +6351,7 @@
     </row>
     <row r="145" spans="1:51" hidden="1">
       <c r="A145" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B145" s="5">
         <v>35852</v>
@@ -6424,7 +6393,7 @@
     </row>
     <row r="146" spans="1:51" hidden="1">
       <c r="A146" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B146" s="5">
         <v>35834</v>
@@ -6460,7 +6429,7 @@
     </row>
     <row r="147" spans="1:51" hidden="1">
       <c r="A147" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B147" s="5">
         <v>35829</v>
@@ -6496,7 +6465,7 @@
     </row>
     <row r="148" spans="1:51" hidden="1">
       <c r="A148" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B148" s="5">
         <v>35842</v>
@@ -6538,7 +6507,7 @@
     </row>
     <row r="149" spans="1:51" hidden="1">
       <c r="A149" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B149" s="5">
         <v>35813</v>
@@ -6574,7 +6543,7 @@
     </row>
     <row r="150" spans="1:51" hidden="1">
       <c r="A150" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B150" s="5">
         <v>35824</v>
@@ -6610,46 +6579,38 @@
     </row>
     <row r="151" spans="1:51" hidden="1">
       <c r="A151" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B151" s="5">
-        <v>35841</v>
+        <v>35831</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="6">
-        <v>73.763110140559206</v>
-      </c>
-      <c r="E151">
-        <v>1307.39905834198</v>
-      </c>
-      <c r="S151" s="6">
-        <v>6.4356223175965601</v>
-      </c>
-      <c r="AC151">
-        <v>0</v>
-      </c>
+        <v>63.853272532188797</v>
+      </c>
+      <c r="E151" s="6"/>
       <c r="AF151">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG151">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH151">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI151">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="AJ151">
-        <v>841</v>
+        <v>900</v>
       </c>
       <c r="AK151">
-        <v>1873</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="152" spans="1:51" hidden="1">
       <c r="A152" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B152" s="5">
         <v>35870</v>
@@ -6697,7 +6658,7 @@
     </row>
     <row r="153" spans="1:51" hidden="1">
       <c r="A153" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B153" s="5">
         <v>35858</v>
@@ -6734,20 +6695,21 @@
     </row>
     <row r="154" spans="1:51" hidden="1">
       <c r="A154" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B154" s="5">
-        <v>35818</v>
+        <v>35833</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="6">
-        <v>50.812768240343303</v>
-      </c>
-      <c r="E154">
-        <v>882.6427059173584</v>
-      </c>
-      <c r="S154" s="6">
-        <v>6.5836909871244602</v>
+        <v>65.692017814319897</v>
+      </c>
+      <c r="E154" s="6"/>
+      <c r="AA154">
+        <v>9.0935251798561296</v>
+      </c>
+      <c r="AB154">
+        <v>8.3485211830535704</v>
       </c>
       <c r="AF154">
         <v>42</v>
@@ -6770,7 +6732,7 @@
     </row>
     <row r="155" spans="1:51" hidden="1">
       <c r="A155" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B155" s="5">
         <v>35804</v>
@@ -6806,7 +6768,7 @@
     </row>
     <row r="156" spans="1:51" hidden="1">
       <c r="A156" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B156" s="5">
         <v>35855</v>
@@ -6848,7 +6810,7 @@
     </row>
     <row r="157" spans="1:51" hidden="1">
       <c r="A157" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B157" s="5">
         <v>35807</v>
@@ -6884,7 +6846,7 @@
     </row>
     <row r="158" spans="1:51" hidden="1">
       <c r="A158" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B158" s="5">
         <v>35806</v>
@@ -6944,7 +6906,7 @@
     </row>
     <row r="159" spans="1:51" hidden="1">
       <c r="A159" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B159" s="5">
         <v>35808</v>
@@ -6980,7 +6942,7 @@
     </row>
     <row r="160" spans="1:51" hidden="1">
       <c r="A160" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B160" s="5">
         <v>35803</v>
@@ -7016,7 +6978,7 @@
     </row>
     <row r="161" spans="1:51" hidden="1">
       <c r="A161" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B161" s="5">
         <v>35808</v>
@@ -7052,7 +7014,7 @@
     </row>
     <row r="162" spans="1:51" hidden="1">
       <c r="A162" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B162" s="5">
         <v>35818</v>
@@ -7088,43 +7050,43 @@
     </row>
     <row r="163" spans="1:51" hidden="1">
       <c r="A163" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B163" s="5">
-        <v>35824</v>
+        <v>35834</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="6">
-        <v>56.6912553648068</v>
+        <v>67.365879828326101</v>
       </c>
       <c r="E163">
-        <v>990.78879833221436</v>
+        <v>1196.207911491394</v>
       </c>
       <c r="S163" s="6">
-        <v>6.7856759656652299</v>
+        <v>5.3331545064377597</v>
       </c>
       <c r="AF163">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG163">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH163">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI163">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="AJ163">
-        <v>841</v>
+        <v>900</v>
       </c>
       <c r="AK163">
-        <v>1873</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="164" spans="1:51" hidden="1">
       <c r="A164" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B164" s="5">
         <v>35860</v>
@@ -7160,7 +7122,7 @@
     </row>
     <row r="165" spans="1:51" hidden="1">
       <c r="A165" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B165" s="5">
         <v>35863</v>
@@ -7202,7 +7164,7 @@
     </row>
     <row r="166" spans="1:51" hidden="1">
       <c r="A166" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B166" s="5">
         <v>35821</v>
@@ -7241,7 +7203,7 @@
     </row>
     <row r="167" spans="1:51" hidden="1">
       <c r="A167" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B167" s="5">
         <v>35829</v>
@@ -7283,7 +7245,7 @@
     </row>
     <row r="168" spans="1:51" hidden="1">
       <c r="A168" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B168" s="5">
         <v>35829</v>
@@ -7319,7 +7281,7 @@
     </row>
     <row r="169" spans="1:51" hidden="1">
       <c r="A169" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B169" s="5">
         <v>35839</v>
@@ -7358,23 +7320,20 @@
     </row>
     <row r="170" spans="1:51" hidden="1">
       <c r="A170" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B170" s="5">
-        <v>35828</v>
+        <v>35834</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="6">
-        <v>60.734978540772502</v>
+        <v>66.565182403433397</v>
       </c>
       <c r="E170">
-        <v>1062.9098997116089</v>
+        <v>1180.3490571975708</v>
       </c>
       <c r="S170" s="6">
-        <v>7.0971030042918404</v>
-      </c>
-      <c r="AD170">
-        <v>10.5</v>
+        <v>7.6177575107296098</v>
       </c>
       <c r="AF170">
         <v>41</v>
@@ -7394,13 +7353,10 @@
       <c r="AK170">
         <v>1873</v>
       </c>
-      <c r="AY170">
-        <v>7.2</v>
-      </c>
     </row>
     <row r="171" spans="1:51" ht="16.5" hidden="1" customHeight="1">
       <c r="A171" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B171" s="5">
         <v>35820</v>
@@ -7439,7 +7395,7 @@
     </row>
     <row r="172" spans="1:51" hidden="1">
       <c r="A172" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B172" s="5">
         <v>35834</v>
@@ -7475,43 +7431,41 @@
     </row>
     <row r="173" spans="1:51" hidden="1">
       <c r="A173" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B173" s="5">
-        <v>35838</v>
+        <v>35836</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="6">
-        <v>70.721566523605105</v>
-      </c>
-      <c r="E173">
-        <v>1250.4990587234497</v>
-      </c>
-      <c r="S173" s="6">
-        <v>7.1856223175965601</v>
+        <v>68.564005938106604</v>
+      </c>
+      <c r="E173" s="6"/>
+      <c r="AB173">
+        <v>13.4772182254196</v>
       </c>
       <c r="AF173">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG173">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH173">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI173">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="AJ173">
-        <v>841</v>
+        <v>900</v>
       </c>
       <c r="AK173">
-        <v>1873</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="174" spans="1:51" hidden="1">
       <c r="A174" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B174" s="5">
         <v>35817</v>
@@ -7562,40 +7516,38 @@
         <v>47</v>
       </c>
       <c r="B175" s="5">
-        <v>35820</v>
+        <v>35836</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="6">
-        <v>52.973444206008502</v>
-      </c>
-      <c r="E175">
-        <v>921.85465431213379</v>
-      </c>
-      <c r="S175" s="6">
-        <v>7.3232296137338997</v>
+        <v>69.192630640051703</v>
+      </c>
+      <c r="E175" s="6"/>
+      <c r="AA175">
+        <v>3.8661827576660599</v>
       </c>
       <c r="AF175">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG175">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AH175">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI175">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="AJ175">
-        <v>900</v>
+        <v>841</v>
       </c>
       <c r="AK175">
-        <v>1908</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="176" spans="1:51" hidden="1">
       <c r="A176" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B176" s="5">
         <v>35820</v>
@@ -7631,7 +7583,7 @@
     </row>
     <row r="177" spans="1:51" hidden="1">
       <c r="A177" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B177" s="5">
         <v>35824</v>
@@ -7667,43 +7619,49 @@
     </row>
     <row r="178" spans="1:51" hidden="1">
       <c r="A178" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B178" s="5">
-        <v>35834</v>
+        <v>35837</v>
       </c>
       <c r="C178" s="5"/>
       <c r="D178" s="6">
-        <v>66.565182403433397</v>
+        <v>69.890087929656204</v>
       </c>
       <c r="E178">
-        <v>1180.3490571975708</v>
+        <v>1232.0990571975708</v>
       </c>
       <c r="S178" s="6">
-        <v>7.6177575107296098</v>
+        <v>5.7532188841201704</v>
+      </c>
+      <c r="W178">
+        <v>27.232222420246199</v>
+      </c>
+      <c r="AA178">
+        <v>5.7617905675459902</v>
       </c>
       <c r="AF178">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG178">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH178">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI178">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="AJ178">
-        <v>841</v>
+        <v>900</v>
       </c>
       <c r="AK178">
-        <v>1873</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="179" spans="1:51" hidden="1">
       <c r="A179" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B179" s="5">
         <v>35817</v>
@@ -7745,7 +7703,7 @@
     </row>
     <row r="180" spans="1:51" hidden="1">
       <c r="A180" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B180" s="5">
         <v>35817</v>
@@ -7787,7 +7745,7 @@
     </row>
     <row r="181" spans="1:51" hidden="1">
       <c r="A181" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B181" s="5">
         <v>35821</v>
@@ -7835,40 +7793,38 @@
         <v>47</v>
       </c>
       <c r="B182" s="5">
-        <v>35824</v>
+        <v>35837</v>
       </c>
       <c r="C182" s="5"/>
       <c r="D182" s="6">
-        <v>56.514216738197398</v>
-      </c>
-      <c r="E182">
-        <v>990.78879833221436</v>
-      </c>
-      <c r="S182" s="6">
-        <v>7.9541309012875496</v>
+        <v>69.687817180820005</v>
+      </c>
+      <c r="E182" s="6"/>
+      <c r="AB182">
+        <v>0</v>
       </c>
       <c r="AF182">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG182">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AH182">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI182">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="AJ182">
-        <v>900</v>
+        <v>841</v>
       </c>
       <c r="AK182">
-        <v>1908</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="183" spans="1:51" hidden="1">
       <c r="A183" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B183" s="5">
         <v>35813</v>
@@ -7904,7 +7860,7 @@
     </row>
     <row r="184" spans="1:51" hidden="1">
       <c r="A184" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B184" s="5">
         <v>35814</v>
@@ -7946,40 +7902,40 @@
         <v>47</v>
       </c>
       <c r="B185" s="5">
-        <v>35828</v>
+        <v>35838</v>
       </c>
       <c r="C185" s="5"/>
       <c r="D185" s="6">
-        <v>61.435085836909799</v>
+        <v>70.721566523605105</v>
       </c>
       <c r="E185">
-        <v>1078.7687540054321</v>
+        <v>1250.4990587234497</v>
       </c>
       <c r="S185" s="6">
-        <v>8.4763948497854003</v>
+        <v>7.1856223175965601</v>
       </c>
       <c r="AF185">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG185">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AH185">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI185">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="AJ185">
-        <v>900</v>
+        <v>841</v>
       </c>
       <c r="AK185">
-        <v>1908</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="186" spans="1:51" hidden="1">
       <c r="A186" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B186" s="5">
         <v>35813</v>
@@ -8013,15 +7969,15 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="187" spans="1:51">
+    <row r="187" spans="1:51" hidden="1">
       <c r="A187" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B187" s="5">
         <v>35870</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D187" s="6">
         <v>102.83020062021301</v>
@@ -8130,7 +8086,7 @@
     </row>
     <row r="188" spans="1:51" hidden="1">
       <c r="A188" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B188" s="5">
         <v>35815</v>
@@ -8188,7 +8144,7 @@
     </row>
     <row r="189" spans="1:51" hidden="1">
       <c r="A189" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B189" s="5">
         <v>35861</v>
@@ -8242,7 +8198,7 @@
     </row>
     <row r="190" spans="1:51" hidden="1">
       <c r="A190" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B190" s="5">
         <v>35843</v>
@@ -8315,7 +8271,7 @@
     </row>
     <row r="191" spans="1:51" hidden="1">
       <c r="A191" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B191" s="5">
         <v>35861</v>
@@ -8373,7 +8329,7 @@
     </row>
     <row r="192" spans="1:51" hidden="1">
       <c r="A192" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B192" s="5">
         <v>35872</v>
@@ -8416,7 +8372,7 @@
     </row>
     <row r="193" spans="1:51" hidden="1">
       <c r="A193" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B193" s="5">
         <v>35846</v>
@@ -8477,7 +8433,7 @@
     </row>
     <row r="194" spans="1:51" hidden="1">
       <c r="A194" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B194" s="5">
         <v>35815</v>
@@ -8532,15 +8488,15 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="195" spans="1:51">
+    <row r="195" spans="1:51" hidden="1">
       <c r="A195" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B195" s="5">
         <v>35885</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D195" s="6">
         <v>90.914127423822606</v>
@@ -8637,7 +8593,7 @@
     </row>
     <row r="196" spans="1:51" hidden="1">
       <c r="A196" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B196" s="5">
         <v>35828</v>
@@ -8698,7 +8654,7 @@
     </row>
     <row r="197" spans="1:51" hidden="1">
       <c r="A197" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B197" s="5">
         <v>35877</v>
@@ -8755,7 +8711,7 @@
     </row>
     <row r="198" spans="1:51" hidden="1">
       <c r="A198" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B198" s="5">
         <v>35788</v>
@@ -8810,7 +8766,7 @@
     </row>
     <row r="199" spans="1:51" hidden="1">
       <c r="A199" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B199" s="5">
         <v>35843</v>
@@ -8880,7 +8836,7 @@
     </row>
     <row r="200" spans="1:51" hidden="1">
       <c r="A200" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B200" s="5">
         <v>35815</v>
@@ -8937,7 +8893,7 @@
     </row>
     <row r="201" spans="1:51" hidden="1">
       <c r="A201" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B201" s="5">
         <v>35861</v>
@@ -8995,7 +8951,7 @@
     </row>
     <row r="202" spans="1:51" hidden="1">
       <c r="A202" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B202" s="5">
         <v>35843</v>
@@ -9059,32 +9015,18 @@
     </row>
     <row r="203" spans="1:51" hidden="1">
       <c r="A203" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B203" s="5">
-        <v>35782</v>
+        <v>35839</v>
       </c>
       <c r="C203" s="5"/>
-      <c r="D203">
-        <v>1</v>
-      </c>
-      <c r="H203" s="2"/>
-      <c r="I203" s="2"/>
-      <c r="J203" s="2"/>
-      <c r="K203" s="2"/>
-      <c r="L203" s="2"/>
-      <c r="M203" s="2"/>
-      <c r="N203" s="2"/>
-      <c r="O203" s="2"/>
-      <c r="P203" s="2"/>
-      <c r="Q203" s="2"/>
-      <c r="S203" s="2"/>
-      <c r="T203" s="2"/>
-      <c r="U203" s="2"/>
-      <c r="V203" s="2"/>
-      <c r="W203" s="2"/>
-      <c r="AE203" s="2">
-        <v>4.5</v>
+      <c r="D203" s="6">
+        <v>72.323855201553002</v>
+      </c>
+      <c r="E203" s="6"/>
+      <c r="AB203">
+        <v>13.956834532374099</v>
       </c>
       <c r="AF203">
         <v>42</v>
@@ -9110,53 +9052,49 @@
         <v>47</v>
       </c>
       <c r="B204" s="5">
-        <v>35812</v>
+        <v>35839</v>
       </c>
       <c r="C204" s="5"/>
       <c r="D204" s="6">
+        <v>72.108387414264996</v>
+      </c>
+      <c r="E204" s="6"/>
+      <c r="AA204">
+        <v>12.586386983668</v>
+      </c>
+      <c r="AF204">
+        <v>41</v>
+      </c>
+      <c r="AG204">
         <v>45</v>
       </c>
-      <c r="E204" s="6"/>
-      <c r="S204" s="6"/>
-      <c r="AD204">
-        <v>3.9</v>
-      </c>
-      <c r="AF204">
-        <v>42</v>
-      </c>
-      <c r="AG204">
-        <v>48</v>
-      </c>
       <c r="AH204">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI204">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="AJ204">
-        <v>900</v>
+        <v>841</v>
       </c>
       <c r="AK204">
-        <v>1908</v>
-      </c>
-      <c r="AY204">
-        <v>3</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="205" spans="1:51" hidden="1">
       <c r="A205" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B205" s="5">
-        <v>35815</v>
+        <v>35840</v>
       </c>
       <c r="C205" s="5"/>
       <c r="D205" s="6">
-        <v>48.303191489361701</v>
+        <v>73</v>
       </c>
       <c r="E205" s="6"/>
-      <c r="Z205">
-        <v>66.101063829787194</v>
+      <c r="AD205">
+        <v>15</v>
       </c>
       <c r="AF205">
         <v>42</v>
@@ -9176,42 +9114,42 @@
       <c r="AK205">
         <v>1908</v>
       </c>
+      <c r="AY205">
+        <v>12</v>
+      </c>
     </row>
     <row r="206" spans="1:51" hidden="1">
       <c r="A206" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B206" s="5">
-        <v>35816</v>
+        <v>35840</v>
       </c>
       <c r="C206" s="5"/>
       <c r="D206" s="6">
-        <v>48.870691296895799</v>
+        <v>73.111063267000901</v>
       </c>
       <c r="E206" s="6"/>
-      <c r="R206">
-        <v>2.2764235383736402</v>
-      </c>
-      <c r="T206">
-        <v>102.048997772828</v>
+      <c r="AB206">
+        <v>3.6627441331158699</v>
       </c>
       <c r="AF206">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG206">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AH206">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI206">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="AJ206">
-        <v>900</v>
+        <v>841</v>
       </c>
       <c r="AK206">
-        <v>1908</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="207" spans="1:51" hidden="1">
@@ -9219,55 +9157,65 @@
         <v>47</v>
       </c>
       <c r="B207" s="5">
-        <v>35817</v>
+        <v>35841</v>
       </c>
       <c r="C207" s="5"/>
       <c r="D207" s="6">
-        <v>49.724469713535903</v>
-      </c>
-      <c r="E207" s="6"/>
-      <c r="AD207">
-        <v>4.0917705372111604</v>
+        <v>73.763110140559206</v>
+      </c>
+      <c r="E207">
+        <v>1307.39905834198</v>
+      </c>
+      <c r="S207" s="6">
+        <v>6.4356223175965601</v>
+      </c>
+      <c r="AC207">
+        <v>0</v>
       </c>
       <c r="AF207">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG207">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AH207">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI207">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="AJ207">
-        <v>900</v>
+        <v>841</v>
       </c>
       <c r="AK207">
-        <v>1908</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="208" spans="1:51" hidden="1">
       <c r="A208" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B208" s="5">
-        <v>35830</v>
+        <v>35842</v>
       </c>
       <c r="C208" s="5"/>
       <c r="D208" s="6">
-        <v>62.584503825511</v>
-      </c>
-      <c r="E208" s="6"/>
-      <c r="X208">
+        <v>75</v>
+      </c>
+      <c r="E208">
+        <v>1324.1990575790405</v>
+      </c>
+      <c r="S208" s="6">
+        <v>5.2156652360514997</v>
+      </c>
+      <c r="AA208">
+        <v>0.207833733013643</v>
+      </c>
+      <c r="AC208">
         <v>0</v>
       </c>
-      <c r="Y208">
-        <v>0</v>
-      </c>
-      <c r="AA208">
-        <v>8.6203037569944208</v>
+      <c r="AD208">
+        <v>16.261024856039</v>
       </c>
       <c r="AF208">
         <v>42</v>
@@ -9288,54 +9236,60 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="209" spans="1:51" hidden="1">
+    <row r="209" spans="1:43" hidden="1">
       <c r="A209" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B209" s="5">
-        <v>35831</v>
+        <v>35842</v>
       </c>
       <c r="C209" s="5"/>
       <c r="D209" s="6">
-        <v>63.853272532188797</v>
+        <v>75.001093374152603</v>
       </c>
       <c r="E209" s="6"/>
+      <c r="AD209">
+        <v>11.7060281361615</v>
+      </c>
       <c r="AF209">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG209">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AH209">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI209">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="AJ209">
-        <v>900</v>
+        <v>841</v>
       </c>
       <c r="AK209">
-        <v>1908</v>
-      </c>
-    </row>
-    <row r="210" spans="1:51" hidden="1">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="210" spans="1:43">
       <c r="A210" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B210" s="5">
-        <v>35833</v>
+        <v>35843</v>
       </c>
       <c r="C210" s="5"/>
       <c r="D210" s="6">
-        <v>65.692017814319897</v>
+        <v>76.162213086673503</v>
       </c>
       <c r="E210" s="6"/>
-      <c r="AA210">
-        <v>9.0935251798561296</v>
+      <c r="R210">
+        <v>6.3527899447724199</v>
+      </c>
+      <c r="T210">
+        <v>715.055679287305</v>
       </c>
       <c r="AB210">
-        <v>8.3485211830535704</v>
+        <v>12.6362909672262</v>
       </c>
       <c r="AF210">
         <v>42</v>
@@ -9356,54 +9310,69 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="211" spans="1:51" hidden="1">
+    <row r="211" spans="1:43">
       <c r="A211" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B211" s="5">
-        <v>35836</v>
+        <v>35843</v>
       </c>
       <c r="C211" s="5"/>
       <c r="D211" s="6">
-        <v>68.564005938106604</v>
+        <v>75.528557807646195</v>
       </c>
       <c r="E211" s="6"/>
+      <c r="R211">
+        <v>6.0611788230813097</v>
+      </c>
+      <c r="T211">
+        <v>410.20044543429799</v>
+      </c>
+      <c r="AA211">
+        <v>9.4750653584719302</v>
+      </c>
       <c r="AB211">
-        <v>13.4772182254196</v>
+        <v>10.4445237289698</v>
       </c>
       <c r="AF211">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG211">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AH211">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI211">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="AJ211">
-        <v>900</v>
+        <v>841</v>
       </c>
       <c r="AK211">
-        <v>1908</v>
-      </c>
-    </row>
-    <row r="212" spans="1:51" hidden="1">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="212" spans="1:43" hidden="1">
       <c r="A212" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B212" s="5">
-        <v>35839</v>
+        <v>35844</v>
       </c>
       <c r="C212" s="5"/>
       <c r="D212" s="6">
-        <v>72.323855201553002</v>
+        <v>76.875</v>
       </c>
       <c r="E212" s="6"/>
-      <c r="AB212">
-        <v>13.956834532374099</v>
+      <c r="X212">
+        <v>0.21335830212234599</v>
+      </c>
+      <c r="Y212">
+        <v>0.19377167429601799</v>
+      </c>
+      <c r="Z212">
+        <v>94.648936170212707</v>
       </c>
       <c r="AF212">
         <v>42</v>
@@ -9423,64 +9392,73 @@
       <c r="AK212">
         <v>1908</v>
       </c>
-    </row>
-    <row r="213" spans="1:51" hidden="1">
+      <c r="AP212">
+        <v>7.8000000000000005E-3</v>
+      </c>
+      <c r="AQ212">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:43" hidden="1">
       <c r="A213" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B213" s="5">
-        <v>35840</v>
+        <v>35844</v>
       </c>
       <c r="C213" s="5"/>
       <c r="D213" s="6">
-        <v>73</v>
+        <v>76.882978723404193</v>
       </c>
       <c r="E213" s="6"/>
-      <c r="AD213">
-        <v>15</v>
+      <c r="Z213">
+        <v>94.154255319148902</v>
+      </c>
+      <c r="AC213">
+        <v>0</v>
       </c>
       <c r="AF213">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG213">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AH213">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI213">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="AJ213">
-        <v>900</v>
+        <v>841</v>
       </c>
       <c r="AK213">
-        <v>1908</v>
-      </c>
-      <c r="AY213">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="214" spans="1:51" hidden="1">
+        <v>1873</v>
+      </c>
+      <c r="AP213">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AQ213">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:43" hidden="1">
       <c r="A214" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B214" s="5">
-        <v>35843</v>
+        <v>35845</v>
       </c>
       <c r="C214" s="5"/>
       <c r="D214" s="6">
-        <v>76.162213086673503</v>
+        <v>77.633892885691395</v>
       </c>
       <c r="E214" s="6"/>
-      <c r="R214">
-        <v>6.3527899447724199</v>
-      </c>
-      <c r="T214">
-        <v>715.055679287305</v>
-      </c>
-      <c r="AB214">
-        <v>12.6362909672262</v>
+      <c r="W214">
+        <v>35.252183211548797</v>
+      </c>
+      <c r="AA214">
+        <v>0</v>
       </c>
       <c r="AF214">
         <v>42</v>
@@ -9501,69 +9479,59 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="215" spans="1:51" hidden="1">
+    <row r="215" spans="1:43" hidden="1">
       <c r="A215" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B215" s="5">
-        <v>35844</v>
+        <v>35845</v>
       </c>
       <c r="C215" s="5"/>
       <c r="D215" s="6">
-        <v>76.875</v>
+        <v>77.502891917719097</v>
       </c>
       <c r="E215" s="6"/>
       <c r="X215">
-        <v>0.21335830212234599</v>
+        <v>0</v>
       </c>
       <c r="Y215">
-        <v>0.19377167429601799</v>
-      </c>
-      <c r="Z215">
-        <v>94.648936170212707</v>
+        <v>0</v>
       </c>
       <c r="AF215">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG215">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AH215">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI215">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="AJ215">
-        <v>900</v>
+        <v>841</v>
       </c>
       <c r="AK215">
-        <v>1908</v>
-      </c>
-      <c r="AP215">
-        <v>7.8000000000000005E-3</v>
-      </c>
-      <c r="AQ215">
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:51" hidden="1">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="216" spans="1:43" hidden="1">
       <c r="A216" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B216" s="5">
-        <v>35845</v>
+        <v>35848</v>
       </c>
       <c r="C216" s="5"/>
       <c r="D216" s="6">
-        <v>77.633892885691395</v>
-      </c>
-      <c r="E216" s="6"/>
-      <c r="W216">
-        <v>35.252183211548797</v>
-      </c>
-      <c r="AA216">
-        <v>0</v>
+        <v>80.567328326180203</v>
+      </c>
+      <c r="E216">
+        <v>1430.554497718811</v>
+      </c>
+      <c r="S216" s="6">
+        <v>5.20359442060085</v>
       </c>
       <c r="AF216">
         <v>42</v>
@@ -9584,57 +9552,57 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="217" spans="1:51" hidden="1">
+    <row r="217" spans="1:43" hidden="1">
       <c r="A217" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B217" s="5">
-        <v>35850</v>
+        <v>35848</v>
       </c>
       <c r="C217" s="5"/>
       <c r="D217" s="6">
-        <v>82.571371474249105</v>
+        <v>80.800295266508797</v>
       </c>
       <c r="E217" s="6"/>
       <c r="AB217">
-        <v>6.3756994404476703</v>
-      </c>
-      <c r="AC217">
-        <v>5.3141486810551903</v>
+        <v>14.601679328268601</v>
       </c>
       <c r="AF217">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG217">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AH217">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI217">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="AJ217">
-        <v>900</v>
+        <v>841</v>
       </c>
       <c r="AK217">
-        <v>1908</v>
-      </c>
-    </row>
-    <row r="218" spans="1:51" hidden="1">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="218" spans="1:43" hidden="1">
       <c r="A218" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B218" s="5">
-        <v>35851</v>
+        <v>35850</v>
       </c>
       <c r="C218" s="5"/>
       <c r="D218" s="6">
-        <v>83.950268356743095</v>
+        <v>82.571371474249105</v>
       </c>
       <c r="E218" s="6"/>
-      <c r="AA218">
-        <v>0.46043165467631297</v>
+      <c r="AB218">
+        <v>6.3756994404476703</v>
+      </c>
+      <c r="AC218">
+        <v>5.3141486810551903</v>
       </c>
       <c r="AF218">
         <v>42</v>
@@ -9655,57 +9623,54 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="219" spans="1:51" hidden="1">
+    <row r="219" spans="1:43" hidden="1">
       <c r="A219" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B219" s="5">
-        <v>35853</v>
+        <v>35850</v>
       </c>
       <c r="C219" s="5"/>
       <c r="D219" s="6">
-        <v>86.335503026150505</v>
+        <v>83.353120290345402</v>
       </c>
       <c r="E219" s="6"/>
-      <c r="AC219">
-        <v>10.350119904076699</v>
+      <c r="AA219">
+        <v>0.14700581305928001</v>
       </c>
       <c r="AF219">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG219">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AH219">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI219">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="AJ219">
-        <v>900</v>
+        <v>841</v>
       </c>
       <c r="AK219">
-        <v>1908</v>
-      </c>
-    </row>
-    <row r="220" spans="1:51" hidden="1">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="220" spans="1:43" hidden="1">
       <c r="A220" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B220" s="5">
-        <v>35854</v>
+        <v>35851</v>
       </c>
       <c r="C220" s="5"/>
       <c r="D220" s="6">
-        <v>87.189105858170507</v>
+        <v>83.950268356743095</v>
       </c>
       <c r="E220" s="6"/>
       <c r="AA220">
-        <v>1.2501998401279399</v>
-      </c>
-      <c r="AB220">
-        <v>1.9952038369305001</v>
+        <v>0.46043165467631297</v>
       </c>
       <c r="AF220">
         <v>42</v>
@@ -9726,121 +9691,101 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="221" spans="1:51" hidden="1">
+    <row r="221" spans="1:43" hidden="1">
       <c r="A221" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B221" s="5">
-        <v>35856</v>
+        <v>35851</v>
       </c>
       <c r="C221" s="5"/>
       <c r="D221" s="6">
-        <v>89.427909463553704</v>
+        <v>83.506904930335594</v>
       </c>
       <c r="E221" s="6"/>
-      <c r="W221">
-        <v>71.876670825164993</v>
-      </c>
-      <c r="AD221">
-        <v>18.631460018951799</v>
+      <c r="AC221">
+        <v>0</v>
       </c>
       <c r="AF221">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG221">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AH221">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI221">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="AJ221">
-        <v>900</v>
+        <v>841</v>
       </c>
       <c r="AK221">
-        <v>1908</v>
-      </c>
-    </row>
-    <row r="222" spans="1:51" hidden="1">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="222" spans="1:43" hidden="1">
       <c r="A222" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B222" s="5">
-        <v>35857</v>
+        <v>35852</v>
       </c>
       <c r="C222" s="5"/>
       <c r="D222" s="6">
-        <v>89.934052757793694</v>
-      </c>
-      <c r="E222" s="6"/>
-      <c r="T222">
-        <v>800.62360801781699</v>
-      </c>
-      <c r="U222">
-        <v>264</v>
-      </c>
-      <c r="V222">
-        <v>212</v>
-      </c>
-      <c r="X222">
-        <v>0.30185878762657598</v>
-      </c>
-      <c r="Y222">
-        <v>0.284602580108197</v>
-      </c>
-      <c r="AA222">
-        <v>4.7897681854516696</v>
+        <v>85.194474248926994</v>
+      </c>
+      <c r="E222">
+        <v>1511.2710056304932</v>
+      </c>
+      <c r="S222" s="6">
+        <v>4.6644313304720999</v>
+      </c>
+      <c r="W222">
+        <v>0.81981821422232304</v>
       </c>
       <c r="AB222">
-        <v>3.2006394884092999</v>
-      </c>
-      <c r="AC222">
-        <v>9.8737010391686795</v>
+        <v>13.911543075077599</v>
       </c>
       <c r="AF222">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG222">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AH222">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI222">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="AJ222">
-        <v>900</v>
+        <v>841</v>
       </c>
       <c r="AK222">
-        <v>1908</v>
-      </c>
-      <c r="AV222">
-        <v>1.97</v>
-      </c>
-      <c r="AW222">
-        <v>5.16</v>
-      </c>
-    </row>
-    <row r="223" spans="1:51" hidden="1">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="223" spans="1:43" hidden="1">
       <c r="A223" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B223" s="5">
-        <v>35858</v>
+        <v>35852</v>
       </c>
       <c r="C223" s="5"/>
       <c r="D223" s="6">
-        <v>90.856382978723303</v>
-      </c>
-      <c r="E223" s="6"/>
-      <c r="R223">
-        <v>4.2681870119977097</v>
-      </c>
-      <c r="Z223">
-        <v>87.803191489361694</v>
+        <v>84.659334763948493</v>
+      </c>
+      <c r="E223">
+        <v>1495.4121513366699</v>
+      </c>
+      <c r="S223" s="6">
+        <v>5.1963519313304696</v>
+      </c>
+      <c r="W223">
+        <v>53.698093031545298</v>
       </c>
       <c r="AF223">
         <v>42</v>
@@ -9861,20 +9806,20 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="224" spans="1:51" hidden="1">
+    <row r="224" spans="1:43" hidden="1">
       <c r="A224" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B224" s="5">
-        <v>35860</v>
+        <v>35853</v>
       </c>
       <c r="C224" s="5"/>
       <c r="D224" s="6">
-        <v>92.808895740550398</v>
+        <v>86.335503026150505</v>
       </c>
       <c r="E224" s="6"/>
-      <c r="AB224">
-        <v>7.3733013589128902</v>
+      <c r="AC224">
+        <v>10.350119904076699</v>
       </c>
       <c r="AF224">
         <v>42</v>
@@ -9895,54 +9840,59 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="225" spans="1:50" hidden="1">
+    <row r="225" spans="1:49" hidden="1">
       <c r="A225" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B225" s="5">
-        <v>35861</v>
+        <v>35854</v>
       </c>
       <c r="C225" s="5"/>
       <c r="D225" s="6">
-        <v>94.1392600205549</v>
-      </c>
-      <c r="E225" s="6"/>
-      <c r="AA225">
-        <v>4.2142286171063503</v>
+        <v>87.427575107296093</v>
+      </c>
+      <c r="E225">
+        <v>1545.5210037231445</v>
+      </c>
+      <c r="S225" s="6">
+        <v>4.92596566523605</v>
       </c>
       <c r="AF225">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG225">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AH225">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI225">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="AJ225">
-        <v>900</v>
+        <v>841</v>
       </c>
       <c r="AK225">
-        <v>1908</v>
-      </c>
-    </row>
-    <row r="226" spans="1:50" hidden="1">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="226" spans="1:49" hidden="1">
       <c r="A226" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B226" s="5">
-        <v>35862</v>
+        <v>35854</v>
       </c>
       <c r="C226" s="5"/>
       <c r="D226" s="6">
-        <v>94.705949526093406</v>
+        <v>87.189105858170507</v>
       </c>
       <c r="E226" s="6"/>
-      <c r="AC226">
-        <v>9.83852917665868</v>
+      <c r="AA226">
+        <v>1.2501998401279399</v>
+      </c>
+      <c r="AB226">
+        <v>1.9952038369305001</v>
       </c>
       <c r="AF226">
         <v>42</v>
@@ -9963,23 +9913,22 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="227" spans="1:50" hidden="1">
+    <row r="227" spans="1:49" hidden="1">
       <c r="A227" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B227" s="5">
-        <v>35864</v>
+        <v>35855</v>
       </c>
       <c r="C227" s="5"/>
       <c r="D227" s="6">
-        <v>97.119732785200398</v>
-      </c>
-      <c r="E227" s="6"/>
-      <c r="AB227">
-        <v>7.4372501998401503</v>
-      </c>
-      <c r="AC227">
-        <v>9.87689848121504</v>
+        <v>87.557402143013306</v>
+      </c>
+      <c r="E227">
+        <v>1546.4621486663818</v>
+      </c>
+      <c r="S227" s="6">
+        <v>4.6587982832617998</v>
       </c>
       <c r="AF227">
         <v>42</v>
@@ -10000,54 +9949,63 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="228" spans="1:50" hidden="1">
+    <row r="228" spans="1:49" hidden="1">
       <c r="A228" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B228" s="5">
-        <v>35865</v>
+        <v>35855</v>
       </c>
       <c r="C228" s="5"/>
       <c r="D228" s="6">
-        <v>97.546534201210406</v>
+        <v>87.911655368466995</v>
       </c>
       <c r="E228" s="6"/>
       <c r="AA228">
-        <v>2.8872901678657499</v>
+        <v>0</v>
+      </c>
+      <c r="AC228">
+        <v>0</v>
+      </c>
+      <c r="AD228">
+        <v>13.560390699030499</v>
       </c>
       <c r="AF228">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG228">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AH228">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI228">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="AJ228">
-        <v>900</v>
+        <v>841</v>
       </c>
       <c r="AK228">
-        <v>1908</v>
-      </c>
-    </row>
-    <row r="229" spans="1:50" hidden="1">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="229" spans="1:49" hidden="1">
       <c r="A229" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B229" s="5">
-        <v>35866</v>
+        <v>35856</v>
       </c>
       <c r="C229" s="5"/>
       <c r="D229" s="6">
-        <v>98.506505079308397</v>
+        <v>89.427909463553704</v>
       </c>
       <c r="E229" s="6"/>
       <c r="W229">
-        <v>80.003564427018503</v>
+        <v>71.876670825164993</v>
+      </c>
+      <c r="AD229">
+        <v>18.631460018951799</v>
       </c>
       <c r="AF229">
         <v>42</v>
@@ -10068,51 +10026,75 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="230" spans="1:50" hidden="1">
+    <row r="230" spans="1:49" hidden="1">
       <c r="A230" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B230" s="5">
-        <v>35868</v>
+        <v>35856</v>
       </c>
       <c r="C230" s="5"/>
       <c r="D230" s="6">
-        <v>101</v>
+        <v>88.778642389198197</v>
       </c>
       <c r="E230" s="6"/>
+      <c r="AB230">
+        <v>11.188398486759001</v>
+      </c>
       <c r="AF230">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG230">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AH230">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI230">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="AJ230">
-        <v>900</v>
+        <v>841</v>
       </c>
       <c r="AK230">
-        <v>1908</v>
-      </c>
-    </row>
-    <row r="231" spans="1:50" hidden="1">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="231" spans="1:49">
       <c r="A231" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B231" s="5">
-        <v>35869</v>
+        <v>35857</v>
       </c>
       <c r="C231" s="5"/>
       <c r="D231" s="6">
-        <v>101.587579269626</v>
+        <v>89.934052757793694</v>
       </c>
       <c r="E231" s="6"/>
-      <c r="AD231">
-        <v>16.310591150958501</v>
+      <c r="T231">
+        <v>800.62360801781699</v>
+      </c>
+      <c r="U231">
+        <v>264</v>
+      </c>
+      <c r="V231">
+        <v>212</v>
+      </c>
+      <c r="X231">
+        <v>0.30185878762657598</v>
+      </c>
+      <c r="Y231">
+        <v>0.284602580108197</v>
+      </c>
+      <c r="AA231">
+        <v>4.7897681854516696</v>
+      </c>
+      <c r="AB231">
+        <v>3.2006394884092999</v>
+      </c>
+      <c r="AC231">
+        <v>9.8737010391686795</v>
       </c>
       <c r="AF231">
         <v>42</v>
@@ -10132,82 +10114,82 @@
       <c r="AK231">
         <v>1908</v>
       </c>
-    </row>
-    <row r="232" spans="1:50" hidden="1">
+      <c r="AV231">
+        <v>1.97</v>
+      </c>
+      <c r="AW231">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="232" spans="1:49">
       <c r="A232" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B232" s="5">
-        <v>35870</v>
+        <v>35857</v>
       </c>
       <c r="C232" s="5"/>
       <c r="D232" s="6">
-        <v>102.75379696243</v>
+        <v>89.799554565701499</v>
       </c>
       <c r="E232" s="6"/>
-      <c r="AA232">
-        <v>0.31974420463633602</v>
-      </c>
-      <c r="AB232">
-        <v>7.4148681055156098</v>
+      <c r="T232">
+        <v>640.57906458797299</v>
+      </c>
+      <c r="U232">
+        <v>176</v>
+      </c>
+      <c r="V232">
+        <v>204</v>
+      </c>
+      <c r="W232">
+        <v>15.4696132596687</v>
       </c>
       <c r="AC232">
-        <v>10.2829736211031</v>
+        <v>0.90564389628752895</v>
       </c>
       <c r="AF232">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG232">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AH232">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI232">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="AJ232">
-        <v>900</v>
+        <v>841</v>
       </c>
       <c r="AK232">
-        <v>1908</v>
-      </c>
-    </row>
-    <row r="233" spans="1:50">
+        <v>1873</v>
+      </c>
+      <c r="AV232">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="AW232">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="233" spans="1:49" hidden="1">
       <c r="A233" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B233" s="5">
-        <v>35885</v>
-      </c>
-      <c r="C233" s="5" t="s">
-        <v>45</v>
-      </c>
+        <v>35858</v>
+      </c>
+      <c r="C233" s="5"/>
       <c r="D233" s="6">
-        <v>104.081291759465</v>
+        <v>90.856382978723303</v>
       </c>
       <c r="E233" s="6"/>
-      <c r="F233">
-        <v>245</v>
-      </c>
-      <c r="G233">
-        <f>F233*10</f>
-        <v>2450</v>
-      </c>
-      <c r="T233">
-        <v>688.106904231626</v>
-      </c>
-      <c r="X233">
-        <v>0.33842419198224299</v>
-      </c>
-      <c r="Y233">
-        <v>0.28637813843806198</v>
+      <c r="R233">
+        <v>4.2681870119977097</v>
       </c>
       <c r="Z233">
-        <v>82.345744680850999</v>
-      </c>
-      <c r="AD233">
-        <v>12.9</v>
+        <v>87.803191489361694</v>
       </c>
       <c r="AF233">
         <v>42</v>
@@ -10227,113 +10209,105 @@
       <c r="AK233">
         <v>1908</v>
       </c>
-      <c r="AL233">
-        <v>323</v>
-      </c>
-      <c r="AM233">
-        <v>361</v>
-      </c>
-      <c r="AN233">
-        <v>38</v>
-      </c>
-      <c r="AO233">
-        <v>762</v>
-      </c>
-      <c r="AR233">
-        <v>15.6</v>
-      </c>
-      <c r="AS233">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="AT233">
-        <v>0.75</v>
-      </c>
-      <c r="AU233">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="234" spans="1:50" hidden="1">
+    </row>
+    <row r="234" spans="1:49" hidden="1">
       <c r="A234" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B234" s="5">
-        <v>35872</v>
+        <v>35858</v>
       </c>
       <c r="C234" s="5"/>
       <c r="D234" s="6">
-        <v>104.748619310607</v>
+        <v>90.899260674948707</v>
       </c>
       <c r="E234" s="6"/>
       <c r="R234">
-        <v>2.3899733384117301</v>
+        <v>3.9349171586364502</v>
+      </c>
+      <c r="X234">
+        <v>0.25983503495447602</v>
+      </c>
+      <c r="Y234">
+        <v>0.24549112306995099</v>
+      </c>
+      <c r="Z234">
+        <v>91.313829787233999</v>
       </c>
       <c r="AF234">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG234">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AH234">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI234">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="AJ234">
-        <v>900</v>
+        <v>841</v>
       </c>
       <c r="AK234">
-        <v>1908</v>
-      </c>
-    </row>
-    <row r="235" spans="1:50" hidden="1">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="235" spans="1:49" hidden="1">
       <c r="A235" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B235" s="5">
-        <v>35873</v>
+        <v>35859</v>
       </c>
       <c r="C235" s="5"/>
       <c r="D235" s="6">
-        <v>106.162894314738</v>
-      </c>
-      <c r="E235" s="6"/>
-      <c r="W235">
-        <v>126.786669042951</v>
+        <v>92.151287553648004</v>
+      </c>
+      <c r="E235">
+        <v>1626.7209987640381</v>
+      </c>
+      <c r="S235" s="6">
+        <v>3.7494635193132999</v>
+      </c>
+      <c r="AA235">
+        <v>0</v>
       </c>
       <c r="AF235">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG235">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AH235">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI235">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="AJ235">
-        <v>900</v>
+        <v>841</v>
       </c>
       <c r="AK235">
-        <v>1908</v>
-      </c>
-    </row>
-    <row r="236" spans="1:50" hidden="1">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="236" spans="1:49" hidden="1">
       <c r="A236" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B236" s="5">
-        <v>35877</v>
+        <v>35859</v>
       </c>
       <c r="C236" s="5"/>
       <c r="D236" s="6">
-        <v>110.337729816147</v>
-      </c>
-      <c r="E236" s="6"/>
-      <c r="AC236">
-        <v>12.7194244604316</v>
+        <v>91.608100858368999</v>
+      </c>
+      <c r="E236">
+        <v>1610.8621444702148</v>
+      </c>
+      <c r="S236" s="6">
+        <v>4.3344957081544999</v>
       </c>
       <c r="AF236">
         <v>42</v>
@@ -10354,20 +10328,20 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="237" spans="1:50" hidden="1">
+    <row r="237" spans="1:49" hidden="1">
       <c r="A237" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B237" s="5">
-        <v>35878</v>
+        <v>35860</v>
       </c>
       <c r="C237" s="5"/>
       <c r="D237" s="6">
-        <v>111.16135662898201</v>
+        <v>92.808895740550398</v>
       </c>
       <c r="E237" s="6"/>
       <c r="AB237">
-        <v>3.72501998401283</v>
+        <v>7.3733013589128902</v>
       </c>
       <c r="AF237">
         <v>42</v>
@@ -10388,60 +10362,54 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="238" spans="1:50" hidden="1">
+    <row r="238" spans="1:49" hidden="1">
       <c r="A238" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B238" s="5">
-        <v>35879</v>
+        <v>35860</v>
       </c>
       <c r="C238" s="5"/>
       <c r="D238" s="6">
-        <v>112.21051730044501</v>
+        <v>92.733983329745001</v>
       </c>
       <c r="E238" s="6"/>
-      <c r="W238">
-        <v>215.75476742113699</v>
-      </c>
-      <c r="AA238">
-        <v>3.1974420463683297E-2</v>
+      <c r="AC238">
+        <v>8.9485067511456293</v>
       </c>
       <c r="AF238">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG238">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AH238">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI238">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="AJ238">
-        <v>900</v>
+        <v>841</v>
       </c>
       <c r="AK238">
-        <v>1908</v>
-      </c>
-    </row>
-    <row r="239" spans="1:50" hidden="1">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="239" spans="1:49" hidden="1">
       <c r="A239" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B239" s="5">
-        <v>35881</v>
+        <v>35861</v>
       </c>
       <c r="C239" s="5"/>
       <c r="D239" s="6">
-        <v>114.45193508114799</v>
+        <v>94.1392600205549</v>
       </c>
       <c r="E239" s="6"/>
-      <c r="X239">
-        <v>0.45</v>
-      </c>
-      <c r="Y239">
-        <v>0.32</v>
+      <c r="AA239">
+        <v>4.2142286171063503</v>
       </c>
       <c r="AF239">
         <v>42</v>
@@ -10462,78 +10430,54 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="240" spans="1:50" hidden="1">
+    <row r="240" spans="1:49" hidden="1">
       <c r="A240" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B240" s="5">
-        <v>35882</v>
+        <v>35861</v>
       </c>
       <c r="C240" s="5"/>
       <c r="D240" s="6">
-        <v>114.537861915367</v>
+        <v>93.705902254482893</v>
       </c>
       <c r="E240" s="6"/>
-      <c r="T240">
-        <v>542</v>
-      </c>
-      <c r="U240">
-        <v>174</v>
-      </c>
-      <c r="V240">
-        <v>7</v>
-      </c>
-      <c r="W240">
-        <v>179</v>
-      </c>
-      <c r="AC240">
-        <v>14.7018385291766</v>
-      </c>
-      <c r="AD240">
-        <v>14.262336905022201</v>
+      <c r="AB240">
+        <v>3.3219081598128999</v>
       </c>
       <c r="AF240">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG240">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AH240">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI240">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="AJ240">
-        <v>900</v>
+        <v>841</v>
       </c>
       <c r="AK240">
-        <v>1908</v>
-      </c>
-      <c r="AV240">
-        <v>1.36</v>
-      </c>
-      <c r="AW240">
-        <v>0.06</v>
-      </c>
-      <c r="AX240">
-        <v>2.68</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="241" spans="1:43" hidden="1">
       <c r="A241" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B241" s="5">
-        <v>35884</v>
+        <v>35862</v>
       </c>
       <c r="C241" s="5"/>
       <c r="D241" s="6">
-        <v>117.117021276595</v>
+        <v>94.705949526093406</v>
       </c>
       <c r="E241" s="6"/>
-      <c r="Z241">
-        <v>39.643617021276597</v>
+      <c r="AC241">
+        <v>9.83852917665868</v>
       </c>
       <c r="AF241">
         <v>42</v>
@@ -10559,41 +10503,38 @@
         <v>47</v>
       </c>
       <c r="B242" s="5">
-        <v>35886</v>
+        <v>35862</v>
       </c>
       <c r="C242" s="5"/>
       <c r="D242" s="6">
-        <v>118.83807239922299</v>
+        <v>95.342170823978194</v>
       </c>
       <c r="E242" s="6"/>
-      <c r="AB242">
-        <v>1.08393285371708</v>
-      </c>
-      <c r="AE242">
-        <v>15.5</v>
+      <c r="AA242">
+        <v>0</v>
       </c>
       <c r="AF242">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG242">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AH242">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI242">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="AJ242">
-        <v>900</v>
+        <v>841</v>
       </c>
       <c r="AK242">
-        <v>1908</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="243" spans="1:43" hidden="1">
       <c r="A243" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B243" s="5">
         <v>35782</v>
@@ -10627,7 +10568,7 @@
     </row>
     <row r="244" spans="1:43" hidden="1">
       <c r="A244" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B244" s="5">
         <v>35816</v>
@@ -10664,7 +10605,7 @@
     </row>
     <row r="245" spans="1:43" hidden="1">
       <c r="A245" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B245" s="5">
         <v>35817</v>
@@ -10701,7 +10642,7 @@
     </row>
     <row r="246" spans="1:43" hidden="1">
       <c r="A246" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B246" s="5">
         <v>35830</v>
@@ -10738,7 +10679,7 @@
     </row>
     <row r="247" spans="1:43" hidden="1">
       <c r="A247" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B247" s="5">
         <v>35832</v>
@@ -10772,7 +10713,7 @@
     </row>
     <row r="248" spans="1:43" hidden="1">
       <c r="A248" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B248" s="5">
         <v>35833</v>
@@ -10809,7 +10750,7 @@
     </row>
     <row r="249" spans="1:43" hidden="1">
       <c r="A249" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B249" s="5">
         <v>35836</v>
@@ -10846,7 +10787,7 @@
     </row>
     <row r="250" spans="1:43" hidden="1">
       <c r="A250" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B250" s="5">
         <v>35838</v>
@@ -10880,7 +10821,7 @@
     </row>
     <row r="251" spans="1:43" hidden="1">
       <c r="A251" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B251" s="5">
         <v>35840</v>
@@ -10917,7 +10858,7 @@
     </row>
     <row r="252" spans="1:43" hidden="1">
       <c r="A252" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B252" s="5">
         <v>35842</v>
@@ -10957,7 +10898,7 @@
     </row>
     <row r="253" spans="1:43" hidden="1">
       <c r="A253" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B253" s="5">
         <v>35844</v>
@@ -11003,7 +10944,7 @@
     </row>
     <row r="254" spans="1:43" hidden="1">
       <c r="A254" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B254" s="5">
         <v>35846</v>
@@ -11037,7 +10978,7 @@
     </row>
     <row r="255" spans="1:43" hidden="1">
       <c r="A255" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B255" s="5">
         <v>35849</v>
@@ -11074,7 +11015,7 @@
     </row>
     <row r="256" spans="1:43" hidden="1">
       <c r="A256" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B256" s="5">
         <v>35851</v>
@@ -11108,7 +11049,7 @@
     </row>
     <row r="257" spans="1:50" hidden="1">
       <c r="A257" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B257" s="5">
         <v>35853</v>
@@ -11142,7 +11083,7 @@
     </row>
     <row r="258" spans="1:50" hidden="1">
       <c r="A258" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B258" s="5">
         <v>35854</v>
@@ -11176,7 +11117,7 @@
     </row>
     <row r="259" spans="1:50" hidden="1">
       <c r="A259" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B259" s="5">
         <v>35856</v>
@@ -11213,7 +11154,7 @@
     </row>
     <row r="260" spans="1:50" hidden="1">
       <c r="A260" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B260" s="5">
         <v>35857</v>
@@ -11259,7 +11200,7 @@
     </row>
     <row r="261" spans="1:50" hidden="1">
       <c r="A261" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B261" s="5">
         <v>35858</v>
@@ -11299,7 +11240,7 @@
     </row>
     <row r="262" spans="1:50" hidden="1">
       <c r="A262" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B262" s="5">
         <v>35859</v>
@@ -11336,7 +11277,7 @@
     </row>
     <row r="263" spans="1:50" hidden="1">
       <c r="A263" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B263" s="5">
         <v>35864</v>
@@ -11373,7 +11314,7 @@
     </row>
     <row r="264" spans="1:50" hidden="1">
       <c r="A264" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B264" s="5">
         <v>35865</v>
@@ -11407,7 +11348,7 @@
     </row>
     <row r="265" spans="1:50" hidden="1">
       <c r="A265" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B265" s="5">
         <v>35868</v>
@@ -11441,7 +11382,7 @@
     </row>
     <row r="266" spans="1:50" hidden="1">
       <c r="A266" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B266" s="5">
         <v>35869</v>
@@ -11475,7 +11416,7 @@
     </row>
     <row r="267" spans="1:50" hidden="1">
       <c r="A267" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B267" s="5">
         <v>35871</v>
@@ -11512,7 +11453,7 @@
     </row>
     <row r="268" spans="1:50" hidden="1">
       <c r="A268" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B268" s="5">
         <v>35872</v>
@@ -11549,7 +11490,7 @@
     </row>
     <row r="269" spans="1:50" hidden="1">
       <c r="A269" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B269" s="5">
         <v>35873</v>
@@ -11583,7 +11524,7 @@
     </row>
     <row r="270" spans="1:50" hidden="1">
       <c r="A270" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B270" s="5">
         <v>35875</v>
@@ -11626,7 +11567,7 @@
     </row>
     <row r="271" spans="1:50" hidden="1">
       <c r="A271" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B271" s="5">
         <v>35876</v>
@@ -11660,7 +11601,7 @@
     </row>
     <row r="272" spans="1:50" hidden="1">
       <c r="A272" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B272" s="5">
         <v>35877</v>
@@ -11724,7 +11665,7 @@
     </row>
     <row r="273" spans="1:51" hidden="1">
       <c r="A273" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B273" s="5">
         <v>35782</v>
@@ -11758,7 +11699,7 @@
     </row>
     <row r="274" spans="1:51" hidden="1">
       <c r="A274" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B274" s="5">
         <v>35789</v>
@@ -11768,9 +11709,6 @@
         <v>8.0681713496085194</v>
       </c>
       <c r="E274" s="6"/>
-      <c r="Z274">
-        <v>113.30262551819401</v>
-      </c>
       <c r="AF274">
         <v>41</v>
       </c>
@@ -11792,7 +11730,7 @@
     </row>
     <row r="275" spans="1:51" hidden="1">
       <c r="A275" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B275" s="5">
         <v>35817</v>
@@ -11826,7 +11764,7 @@
     </row>
     <row r="276" spans="1:51" hidden="1">
       <c r="A276" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B276" s="5">
         <v>35812</v>
@@ -11864,7 +11802,7 @@
     </row>
     <row r="277" spans="1:51" hidden="1">
       <c r="A277" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B277" s="5">
         <v>35831</v>
@@ -11877,9 +11815,6 @@
       <c r="T277">
         <v>144.54486354190701</v>
       </c>
-      <c r="Z277">
-        <v>105.90695532012801</v>
-      </c>
       <c r="AD277">
         <v>4.87992929847006</v>
       </c>
@@ -11904,7 +11839,7 @@
     </row>
     <row r="278" spans="1:51" hidden="1">
       <c r="A278" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B278" s="5">
         <v>35823</v>
@@ -11941,7 +11876,7 @@
     </row>
     <row r="279" spans="1:51" hidden="1">
       <c r="A279" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B279" s="5">
         <v>35830</v>
@@ -11975,7 +11910,7 @@
     </row>
     <row r="280" spans="1:51" hidden="1">
       <c r="A280" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B280" s="5">
         <v>35814</v>
@@ -12012,7 +11947,7 @@
     </row>
     <row r="281" spans="1:51" hidden="1">
       <c r="A281" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B281" s="5">
         <v>35833</v>
@@ -12046,7 +11981,7 @@
     </row>
     <row r="282" spans="1:51" hidden="1">
       <c r="A282" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B282" s="5">
         <v>35835</v>
@@ -12080,7 +12015,7 @@
     </row>
     <row r="283" spans="1:51" hidden="1">
       <c r="A283" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B283" s="5">
         <v>35851</v>
@@ -12123,7 +12058,7 @@
     </row>
     <row r="284" spans="1:51" hidden="1">
       <c r="A284" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B284" s="5">
         <v>35838</v>
@@ -12157,7 +12092,7 @@
     </row>
     <row r="285" spans="1:51" hidden="1">
       <c r="A285" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B285" s="5">
         <v>35842</v>
@@ -12194,7 +12129,7 @@
     </row>
     <row r="286" spans="1:51" hidden="1">
       <c r="A286" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B286" s="5">
         <v>35843</v>
@@ -12231,7 +12166,7 @@
     </row>
     <row r="287" spans="1:51" hidden="1">
       <c r="A287" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B287" s="5">
         <v>35816</v>
@@ -12271,7 +12206,7 @@
     </row>
     <row r="288" spans="1:51" hidden="1">
       <c r="A288" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B288" s="5">
         <v>35846</v>
@@ -12305,7 +12240,7 @@
     </row>
     <row r="289" spans="1:51" hidden="1">
       <c r="A289" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B289" s="5">
         <v>35847</v>
@@ -12339,7 +12274,7 @@
     </row>
     <row r="290" spans="1:51" hidden="1">
       <c r="A290" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B290" s="5">
         <v>35848</v>
@@ -12376,7 +12311,7 @@
     </row>
     <row r="291" spans="1:51" hidden="1">
       <c r="A291" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B291" s="5">
         <v>35851</v>
@@ -12413,7 +12348,7 @@
     </row>
     <row r="292" spans="1:51" hidden="1">
       <c r="A292" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B292" s="5">
         <v>35853</v>
@@ -12447,7 +12382,7 @@
     </row>
     <row r="293" spans="1:51" hidden="1">
       <c r="A293" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B293" s="5">
         <v>35855</v>
@@ -12481,7 +12416,7 @@
     </row>
     <row r="294" spans="1:51" hidden="1">
       <c r="A294" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B294" s="5">
         <v>35856</v>
@@ -12515,7 +12450,7 @@
     </row>
     <row r="295" spans="1:51" hidden="1">
       <c r="A295" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B295" s="5">
         <v>35857</v>
@@ -12567,7 +12502,7 @@
     </row>
     <row r="296" spans="1:51" hidden="1">
       <c r="A296" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B296" s="5">
         <v>35844</v>
@@ -12616,7 +12551,7 @@
     </row>
     <row r="297" spans="1:51" hidden="1">
       <c r="A297" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B297" s="5">
         <v>35862</v>
@@ -12653,7 +12588,7 @@
     </row>
     <row r="298" spans="1:51" hidden="1">
       <c r="A298" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B298" s="5">
         <v>35864</v>
@@ -12687,7 +12622,7 @@
     </row>
     <row r="299" spans="1:51" hidden="1">
       <c r="A299" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B299" s="5">
         <v>35865</v>
@@ -12721,7 +12656,7 @@
     </row>
     <row r="300" spans="1:51" hidden="1">
       <c r="A300" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B300" s="5">
         <v>35868</v>
@@ -12758,7 +12693,7 @@
     </row>
     <row r="301" spans="1:51" hidden="1">
       <c r="A301" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B301" s="5">
         <v>35869</v>
@@ -12798,7 +12733,7 @@
     </row>
     <row r="302" spans="1:51" hidden="1">
       <c r="A302" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B302" s="5">
         <v>35871</v>
@@ -12842,15 +12777,15 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="303" spans="1:51">
+    <row r="303" spans="1:51" hidden="1">
       <c r="A303" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B303" s="5">
         <v>35885</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D303" s="6">
         <v>90.557029177718803</v>
@@ -12959,7 +12894,7 @@
     </row>
     <row r="304" spans="1:51" hidden="1">
       <c r="A304" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B304" s="5">
         <v>35875</v>
@@ -12996,7 +12931,7 @@
     </row>
     <row r="305" spans="1:51" hidden="1">
       <c r="A305" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B305" s="5">
         <v>35876</v>
@@ -13033,7 +12968,7 @@
     </row>
     <row r="306" spans="1:51" hidden="1">
       <c r="A306" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B306" s="5">
         <v>35881</v>
@@ -13067,17 +13002,23 @@
     </row>
     <row r="307" spans="1:51" hidden="1">
       <c r="A307" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B307" s="5">
-        <v>35795</v>
+        <v>35863</v>
       </c>
       <c r="C307" s="5"/>
-      <c r="D307">
-        <v>1</v>
-      </c>
-      <c r="AE307">
-        <v>2.7</v>
+      <c r="D307" s="6">
+        <v>96.3398605150214</v>
+      </c>
+      <c r="E307">
+        <v>1694.3550472259521</v>
+      </c>
+      <c r="S307" s="6">
+        <v>3.10488197424892</v>
+      </c>
+      <c r="AC307">
+        <v>11.4618152738904</v>
       </c>
       <c r="AF307">
         <v>41</v>
@@ -13100,91 +13041,91 @@
     </row>
     <row r="308" spans="1:51" hidden="1">
       <c r="A308" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B308" s="5">
+        <v>35863</v>
+      </c>
+      <c r="C308" s="5"/>
+      <c r="D308" s="6">
+        <v>95.724248927038502</v>
+      </c>
+      <c r="E308">
+        <v>1678.4961929321289</v>
+      </c>
+      <c r="S308" s="6">
+        <v>4.1679184549356201</v>
+      </c>
+      <c r="AF308">
+        <v>42</v>
+      </c>
+      <c r="AG308">
         <v>48</v>
       </c>
-      <c r="B308" s="5">
-        <v>35799</v>
-      </c>
-      <c r="C308" s="5"/>
-      <c r="D308">
-        <v>32</v>
-      </c>
-      <c r="AD308">
-        <v>0.4</v>
-      </c>
-      <c r="AF308">
-        <v>41</v>
-      </c>
-      <c r="AG308">
-        <v>45</v>
-      </c>
       <c r="AH308">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI308">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="AJ308">
-        <v>841</v>
+        <v>900</v>
       </c>
       <c r="AK308">
-        <v>1873</v>
-      </c>
-      <c r="AY308">
-        <v>0.2</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="309" spans="1:51" hidden="1">
       <c r="A309" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B309" s="5">
-        <v>35815</v>
+        <v>35864</v>
       </c>
       <c r="C309" s="5"/>
       <c r="D309" s="6">
-        <v>47.957446808510603</v>
+        <v>97.119732785200398</v>
       </c>
       <c r="E309" s="6"/>
-      <c r="Z309">
-        <v>7.5372340425531901</v>
+      <c r="AB309">
+        <v>7.4372501998401503</v>
+      </c>
+      <c r="AC309">
+        <v>9.87689848121504</v>
       </c>
       <c r="AF309">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG309">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH309">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI309">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="AJ309">
-        <v>841</v>
+        <v>900</v>
       </c>
       <c r="AK309">
-        <v>1873</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="310" spans="1:51" hidden="1">
       <c r="A310" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B310" s="5">
-        <v>35816</v>
+        <v>35864</v>
       </c>
       <c r="C310" s="5"/>
       <c r="D310" s="6">
-        <v>49.004951437821298</v>
+        <v>96.7581536268045</v>
       </c>
       <c r="E310" s="6"/>
-      <c r="R310">
-        <v>0.31846314987621299</v>
-      </c>
-      <c r="T310">
-        <v>3.0289532293986601</v>
+      <c r="W310">
+        <v>33.9155230796651</v>
       </c>
       <c r="AF310">
         <v>41</v>
@@ -13207,51 +13148,51 @@
     </row>
     <row r="311" spans="1:51" hidden="1">
       <c r="A311" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B311" s="5">
-        <v>35836</v>
+        <v>35865</v>
       </c>
       <c r="C311" s="5"/>
       <c r="D311" s="6">
-        <v>69.192630640051703</v>
+        <v>97.546534201210406</v>
       </c>
       <c r="E311" s="6"/>
       <c r="AA311">
-        <v>3.8661827576660599</v>
+        <v>2.8872901678657499</v>
       </c>
       <c r="AF311">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG311">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH311">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI311">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="AJ311">
-        <v>841</v>
+        <v>900</v>
       </c>
       <c r="AK311">
-        <v>1873</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="312" spans="1:51" hidden="1">
       <c r="A312" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B312" s="5">
-        <v>35837</v>
+        <v>35865</v>
       </c>
       <c r="C312" s="5"/>
       <c r="D312" s="6">
-        <v>69.687817180820005</v>
+        <v>98.030326331006094</v>
       </c>
       <c r="E312" s="6"/>
-      <c r="AB312">
+      <c r="AA312">
         <v>0</v>
       </c>
       <c r="AF312">
@@ -13275,52 +13216,52 @@
     </row>
     <row r="313" spans="1:51" hidden="1">
       <c r="A313" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B313" s="5">
-        <v>35839</v>
+        <v>35866</v>
       </c>
       <c r="C313" s="5"/>
       <c r="D313" s="6">
-        <v>72.108387414264996</v>
+        <v>98.506505079308397</v>
       </c>
       <c r="E313" s="6"/>
-      <c r="AA313">
-        <v>12.586386983668</v>
+      <c r="W313">
+        <v>80.003564427018503</v>
       </c>
       <c r="AF313">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG313">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH313">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI313">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="AJ313">
-        <v>841</v>
+        <v>900</v>
       </c>
       <c r="AK313">
-        <v>1873</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="314" spans="1:51" hidden="1">
       <c r="A314" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B314" s="5">
-        <v>35840</v>
+        <v>35866</v>
       </c>
       <c r="C314" s="5"/>
       <c r="D314" s="6">
-        <v>73.111063267000901</v>
+        <v>98.873066158152199</v>
       </c>
       <c r="E314" s="6"/>
       <c r="AB314">
-        <v>3.6627441331158699</v>
+        <v>0</v>
       </c>
       <c r="AF314">
         <v>41</v>
@@ -13343,61 +13284,49 @@
     </row>
     <row r="315" spans="1:51" hidden="1">
       <c r="A315" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B315" s="5">
-        <v>35842</v>
+        <v>35868</v>
       </c>
       <c r="C315" s="5"/>
       <c r="D315" s="6">
-        <v>75.001093374152603</v>
+        <v>101</v>
       </c>
       <c r="E315" s="6"/>
-      <c r="AD315">
-        <v>11.7060281361615</v>
-      </c>
       <c r="AF315">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG315">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH315">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI315">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="AJ315">
-        <v>841</v>
+        <v>900</v>
       </c>
       <c r="AK315">
-        <v>1873</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="316" spans="1:51" hidden="1">
       <c r="A316" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B316" s="5">
-        <v>35843</v>
+        <v>35868</v>
       </c>
       <c r="C316" s="5"/>
       <c r="D316" s="6">
-        <v>75.528557807646195</v>
+        <v>101.432042567588</v>
       </c>
       <c r="E316" s="6"/>
-      <c r="R316">
-        <v>6.0611788230813097</v>
-      </c>
-      <c r="T316">
-        <v>410.20044543429799</v>
-      </c>
-      <c r="AA316">
-        <v>9.4750653584719302</v>
-      </c>
-      <c r="AB316">
-        <v>10.4445237289698</v>
+      <c r="AC316">
+        <v>12.224390243902301</v>
       </c>
       <c r="AF316">
         <v>41</v>
@@ -13420,64 +13349,52 @@
     </row>
     <row r="317" spans="1:51" hidden="1">
       <c r="A317" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B317" s="5">
-        <v>35844</v>
+        <v>35869</v>
       </c>
       <c r="C317" s="5"/>
       <c r="D317" s="6">
-        <v>76.882978723404193</v>
+        <v>101.587579269626</v>
       </c>
       <c r="E317" s="6"/>
-      <c r="Z317">
-        <v>94.154255319148902</v>
-      </c>
-      <c r="AC317">
-        <v>0</v>
+      <c r="AD317">
+        <v>16.310591150958501</v>
       </c>
       <c r="AF317">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG317">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH317">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI317">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="AJ317">
-        <v>841</v>
+        <v>900</v>
       </c>
       <c r="AK317">
-        <v>1873</v>
-      </c>
-      <c r="AP317">
-        <v>1.2E-2</v>
-      </c>
-      <c r="AQ317">
-        <v>3.7999999999999999E-2</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="318" spans="1:51" hidden="1">
       <c r="A318" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B318" s="5">
-        <v>35845</v>
+        <v>35869</v>
       </c>
       <c r="C318" s="5"/>
       <c r="D318" s="6">
-        <v>77.502891917719097</v>
+        <v>101.740651650994</v>
       </c>
       <c r="E318" s="6"/>
-      <c r="X318">
-        <v>0</v>
-      </c>
-      <c r="Y318">
-        <v>0</v>
+      <c r="AD318">
+        <v>14.489758728770299</v>
       </c>
       <c r="AF318">
         <v>41</v>
@@ -13500,52 +13417,64 @@
     </row>
     <row r="319" spans="1:51" hidden="1">
       <c r="A319" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B319" s="5">
-        <v>35848</v>
+        <v>35870</v>
       </c>
       <c r="C319" s="5"/>
       <c r="D319" s="6">
-        <v>80.800295266508797</v>
+        <v>102.75379696243</v>
       </c>
       <c r="E319" s="6"/>
+      <c r="AA319">
+        <v>0.31974420463633602</v>
+      </c>
       <c r="AB319">
-        <v>14.601679328268601</v>
+        <v>7.4148681055156098</v>
+      </c>
+      <c r="AC319">
+        <v>10.2829736211031</v>
       </c>
       <c r="AF319">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG319">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH319">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI319">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="AJ319">
-        <v>841</v>
+        <v>900</v>
       </c>
       <c r="AK319">
-        <v>1873</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="320" spans="1:51" hidden="1">
       <c r="A320" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B320" s="5">
-        <v>35850</v>
+        <v>35870</v>
       </c>
       <c r="C320" s="5"/>
       <c r="D320" s="6">
-        <v>83.353120290345402</v>
+        <v>102.908375111493</v>
       </c>
       <c r="E320" s="6"/>
       <c r="AA320">
-        <v>0.14700581305928001</v>
+        <v>7.5662658013716904</v>
+      </c>
+      <c r="AB320">
+        <v>1.1652815796757201</v>
+      </c>
+      <c r="AD320">
+        <v>11.6</v>
       </c>
       <c r="AF320">
         <v>41</v>
@@ -13565,21 +13494,27 @@
       <c r="AK320">
         <v>1873</v>
       </c>
-    </row>
-    <row r="321" spans="1:51" hidden="1">
+      <c r="AY320">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:50" hidden="1">
       <c r="A321" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B321" s="5">
-        <v>35851</v>
+        <v>35871</v>
       </c>
       <c r="C321" s="5"/>
       <c r="D321" s="6">
-        <v>83.506904930335594</v>
+        <v>104.35440868406</v>
       </c>
       <c r="E321" s="6"/>
-      <c r="AC321">
-        <v>0</v>
+      <c r="R321">
+        <v>3.1388783088935401</v>
+      </c>
+      <c r="Z321">
+        <v>87.340425531914903</v>
       </c>
       <c r="AF321">
         <v>41</v>
@@ -13600,106 +13535,88 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="322" spans="1:51" hidden="1">
+    <row r="322" spans="1:50" hidden="1">
       <c r="A322" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B322" s="5">
-        <v>35855</v>
+        <v>35872</v>
       </c>
       <c r="C322" s="5"/>
       <c r="D322" s="6">
-        <v>87.911655368466995</v>
+        <v>104.748619310607</v>
       </c>
       <c r="E322" s="6"/>
-      <c r="AA322">
-        <v>0</v>
-      </c>
-      <c r="AC322">
-        <v>0</v>
-      </c>
-      <c r="AD322">
-        <v>13.560390699030499</v>
+      <c r="R322">
+        <v>2.3899733384117301</v>
       </c>
       <c r="AF322">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG322">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH322">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI322">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="AJ322">
-        <v>841</v>
+        <v>900</v>
       </c>
       <c r="AK322">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="323" spans="1:51" hidden="1">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="323" spans="1:50" hidden="1">
       <c r="A323" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B323" s="5">
-        <v>35856</v>
+        <v>35873</v>
       </c>
       <c r="C323" s="5"/>
       <c r="D323" s="6">
-        <v>88.778642389198197</v>
+        <v>106.162894314738</v>
       </c>
       <c r="E323" s="6"/>
-      <c r="AB323">
-        <v>11.188398486759001</v>
+      <c r="W323">
+        <v>126.786669042951</v>
       </c>
       <c r="AF323">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG323">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH323">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI323">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="AJ323">
-        <v>841</v>
+        <v>900</v>
       </c>
       <c r="AK323">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="324" spans="1:51" hidden="1">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="324" spans="1:50" hidden="1">
       <c r="A324" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B324" s="5">
-        <v>35857</v>
+        <v>35873</v>
       </c>
       <c r="C324" s="5"/>
       <c r="D324" s="6">
-        <v>89.799554565701499</v>
+        <v>105.810016039921</v>
       </c>
       <c r="E324" s="6"/>
-      <c r="T324">
-        <v>640.57906458797299</v>
-      </c>
-      <c r="U324">
-        <v>176</v>
-      </c>
-      <c r="V324">
-        <v>204</v>
-      </c>
       <c r="W324">
-        <v>15.4696132596687</v>
-      </c>
-      <c r="AC324">
-        <v>0.90564389628752895</v>
+        <v>59.686330422384799</v>
       </c>
       <c r="AF324">
         <v>41</v>
@@ -13719,70 +13636,62 @@
       <c r="AK324">
         <v>1873</v>
       </c>
-      <c r="AV324">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="AW324">
-        <v>7.83</v>
-      </c>
-    </row>
-    <row r="325" spans="1:51" hidden="1">
+    </row>
+    <row r="325" spans="1:50" hidden="1">
       <c r="A325" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B325" s="5">
-        <v>35858</v>
+        <v>35876</v>
       </c>
       <c r="C325" s="5"/>
       <c r="D325" s="6">
-        <v>90.899260674948707</v>
-      </c>
-      <c r="E325" s="6"/>
-      <c r="R325">
-        <v>3.9349171586364502</v>
-      </c>
-      <c r="X325">
-        <v>0.25983503495447602</v>
-      </c>
-      <c r="Y325">
-        <v>0.24549112306995099</v>
-      </c>
-      <c r="Z325">
-        <v>91.313829787233999</v>
+        <v>109.090665236051</v>
+      </c>
+      <c r="E325">
+        <v>1912.6931676864624</v>
+      </c>
+      <c r="S325" s="6">
+        <v>0</v>
       </c>
       <c r="AF325">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG325">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH325">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI325">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="AJ325">
-        <v>841</v>
+        <v>900</v>
       </c>
       <c r="AK325">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="326" spans="1:51" hidden="1">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="326" spans="1:50" hidden="1">
       <c r="A326" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B326" s="5">
-        <v>35860</v>
+        <v>35876</v>
       </c>
       <c r="C326" s="5"/>
       <c r="D326" s="6">
-        <v>92.733983329745001</v>
-      </c>
-      <c r="E326" s="6"/>
+        <v>108.720493562231</v>
+      </c>
+      <c r="E326">
+        <v>1896.8343133926392</v>
+      </c>
+      <c r="S326" s="6">
+        <v>2.39270386266094</v>
+      </c>
       <c r="AC326">
-        <v>8.9485067511456293</v>
+        <v>12.0116015132408</v>
       </c>
       <c r="AF326">
         <v>41</v>
@@ -13803,88 +13712,88 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="327" spans="1:51" hidden="1">
+    <row r="327" spans="1:50" hidden="1">
       <c r="A327" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B327" s="5">
-        <v>35861</v>
+        <v>35877</v>
       </c>
       <c r="C327" s="5"/>
       <c r="D327" s="6">
-        <v>93.705902254482893</v>
+        <v>110.337729816147</v>
       </c>
       <c r="E327" s="6"/>
-      <c r="AB327">
-        <v>3.3219081598128999</v>
+      <c r="AC327">
+        <v>12.7194244604316</v>
       </c>
       <c r="AF327">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG327">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH327">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI327">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="AJ327">
-        <v>841</v>
+        <v>900</v>
       </c>
       <c r="AK327">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="328" spans="1:51" hidden="1">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="328" spans="1:50" hidden="1">
       <c r="A328" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B328" s="5">
-        <v>35862</v>
+        <v>35878</v>
       </c>
       <c r="C328" s="5"/>
       <c r="D328" s="6">
-        <v>95.342170823978194</v>
+        <v>111.16135662898201</v>
       </c>
       <c r="E328" s="6"/>
-      <c r="AA328">
-        <v>0</v>
+      <c r="AB328">
+        <v>3.72501998401283</v>
       </c>
       <c r="AF328">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG328">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH328">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI328">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="AJ328">
-        <v>841</v>
+        <v>900</v>
       </c>
       <c r="AK328">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="329" spans="1:51" hidden="1">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="329" spans="1:50" hidden="1">
       <c r="A329" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B329" s="5">
-        <v>35864</v>
+        <v>35878</v>
       </c>
       <c r="C329" s="5"/>
       <c r="D329" s="6">
-        <v>96.7581536268045</v>
+        <v>110.6222126534</v>
       </c>
       <c r="E329" s="6"/>
-      <c r="W329">
-        <v>33.9155230796651</v>
+      <c r="AB329">
+        <v>7.5475655891488804</v>
       </c>
       <c r="AF329">
         <v>41</v>
@@ -13905,53 +13814,59 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="330" spans="1:51" hidden="1">
+    <row r="330" spans="1:50" hidden="1">
       <c r="A330" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B330" s="5">
-        <v>35865</v>
+        <v>35879</v>
       </c>
       <c r="C330" s="5"/>
       <c r="D330" s="6">
-        <v>98.030326331006094</v>
+        <v>112.21051730044501</v>
       </c>
       <c r="E330" s="6"/>
+      <c r="W330">
+        <v>215.75476742113699</v>
+      </c>
       <c r="AA330">
-        <v>0</v>
+        <v>3.1974420463683297E-2</v>
       </c>
       <c r="AF330">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG330">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH330">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI330">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="AJ330">
-        <v>841</v>
+        <v>900</v>
       </c>
       <c r="AK330">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="331" spans="1:51" hidden="1">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="331" spans="1:50" hidden="1">
       <c r="A331" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B331" s="5">
-        <v>35866</v>
+        <v>35879</v>
       </c>
       <c r="C331" s="5"/>
       <c r="D331" s="6">
-        <v>98.873066158152199</v>
+        <v>112.151131705578</v>
       </c>
       <c r="E331" s="6"/>
-      <c r="AB331">
+      <c r="W331">
+        <v>74.5499910889327</v>
+      </c>
+      <c r="AA331">
         <v>0</v>
       </c>
       <c r="AF331">
@@ -13973,94 +13888,115 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="332" spans="1:51" hidden="1">
+    <row r="332" spans="1:50" hidden="1">
       <c r="A332" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B332" s="5">
-        <v>35868</v>
+        <v>35881</v>
       </c>
       <c r="C332" s="5"/>
       <c r="D332" s="6">
-        <v>101.432042567588</v>
+        <v>114.45193508114799</v>
       </c>
       <c r="E332" s="6"/>
-      <c r="AC332">
-        <v>12.224390243902301</v>
+      <c r="X332">
+        <v>0.45</v>
+      </c>
+      <c r="Y332">
+        <v>0.32</v>
       </c>
       <c r="AF332">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG332">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH332">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI332">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="AJ332">
-        <v>841</v>
+        <v>900</v>
       </c>
       <c r="AK332">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="333" spans="1:51" hidden="1">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="333" spans="1:50">
       <c r="A333" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B333" s="5">
-        <v>35869</v>
+        <v>35882</v>
       </c>
       <c r="C333" s="5"/>
       <c r="D333" s="6">
-        <v>101.740651650994</v>
+        <v>114.537861915367</v>
       </c>
       <c r="E333" s="6"/>
+      <c r="U333">
+        <v>174</v>
+      </c>
+      <c r="V333">
+        <v>7</v>
+      </c>
+      <c r="W333">
+        <v>179</v>
+      </c>
+      <c r="AC333">
+        <v>14.7018385291766</v>
+      </c>
       <c r="AD333">
-        <v>14.489758728770299</v>
+        <v>14.262336905022201</v>
       </c>
       <c r="AF333">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG333">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH333">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI333">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="AJ333">
-        <v>841</v>
+        <v>900</v>
       </c>
       <c r="AK333">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="334" spans="1:51" hidden="1">
+        <v>1908</v>
+      </c>
+      <c r="AV333">
+        <v>1.36</v>
+      </c>
+      <c r="AW333">
+        <v>0.06</v>
+      </c>
+      <c r="AX333">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="334" spans="1:50" hidden="1">
       <c r="A334" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B334" s="5">
-        <v>35870</v>
+        <v>35882</v>
       </c>
       <c r="C334" s="5"/>
       <c r="D334" s="6">
-        <v>102.908375111493</v>
+        <v>114.860517331529</v>
       </c>
       <c r="E334" s="6"/>
-      <c r="AA334">
-        <v>7.5662658013716904</v>
-      </c>
-      <c r="AB334">
-        <v>1.1652815796757201</v>
+      <c r="AC334">
+        <v>12.094866668717</v>
       </c>
       <c r="AD334">
-        <v>11.6</v>
+        <v>13.2185290473066</v>
       </c>
       <c r="AF334">
         <v>41</v>
@@ -14080,79 +14016,64 @@
       <c r="AK334">
         <v>1873</v>
       </c>
-      <c r="AY334">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="335" spans="1:51" hidden="1">
+    </row>
+    <row r="335" spans="1:50" hidden="1">
       <c r="A335" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B335" s="5">
-        <v>35871</v>
+        <v>35884</v>
       </c>
       <c r="C335" s="5"/>
       <c r="D335" s="6">
-        <v>104.35440868406</v>
+        <v>117.117021276595</v>
       </c>
       <c r="E335" s="6"/>
-      <c r="R335">
-        <v>3.1388783088935401</v>
-      </c>
       <c r="Z335">
-        <v>87.340425531914903</v>
+        <v>39.643617021276597</v>
       </c>
       <c r="AF335">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG335">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH335">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI335">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="AJ335">
-        <v>841</v>
+        <v>900</v>
       </c>
       <c r="AK335">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="336" spans="1:51">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="336" spans="1:50" hidden="1">
       <c r="A336" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B336" s="5">
-        <v>35899</v>
-      </c>
-      <c r="C336" s="5" t="s">
-        <v>45</v>
-      </c>
+        <v>35884</v>
+      </c>
+      <c r="C336" s="5"/>
       <c r="D336" s="6">
-        <v>104.649220489977</v>
+        <v>116.912234042553</v>
       </c>
       <c r="E336" s="6"/>
-      <c r="F336">
-        <v>224</v>
-      </c>
-      <c r="G336">
-        <f>F336*10</f>
-        <v>2240</v>
-      </c>
-      <c r="T336">
-        <v>589.13140311804</v>
-      </c>
       <c r="X336">
-        <v>0.33756978323189901</v>
+        <v>0.29230498415731199</v>
       </c>
       <c r="Y336">
-        <v>0.286531207564243</v>
-      </c>
-      <c r="AD336">
-        <v>11.4</v>
+        <v>0.237444047678912</v>
+      </c>
+      <c r="Z336">
+        <v>72.340425531914903</v>
+      </c>
+      <c r="AB336">
+        <v>4.2342816719465102</v>
       </c>
       <c r="AF336">
         <v>41</v>
@@ -14172,79 +14093,71 @@
       <c r="AK336">
         <v>1873</v>
       </c>
-      <c r="AL336">
-        <v>243</v>
-      </c>
-      <c r="AM336">
-        <v>316</v>
-      </c>
-      <c r="AN336">
-        <v>73</v>
-      </c>
-      <c r="AO336">
-        <v>657</v>
-      </c>
-      <c r="AR336">
-        <v>14</v>
-      </c>
-      <c r="AS336">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AT336">
-        <v>0.77</v>
-      </c>
-      <c r="AU336">
-        <v>0.63</v>
-      </c>
     </row>
     <row r="337" spans="1:50" hidden="1">
       <c r="A337" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B337" s="5">
-        <v>35873</v>
+        <v>35885</v>
       </c>
       <c r="C337" s="5"/>
       <c r="D337" s="6">
-        <v>105.810016039921</v>
-      </c>
-      <c r="E337" s="6"/>
-      <c r="W337">
-        <v>59.686330422384799</v>
+        <v>117.75348712446301</v>
+      </c>
+      <c r="E337">
+        <v>2050.6658182144165</v>
+      </c>
+      <c r="R337">
+        <v>0</v>
+      </c>
+      <c r="S337" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA337">
+        <v>0</v>
       </c>
       <c r="AF337">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG337">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH337">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI337">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="AJ337">
-        <v>841</v>
+        <v>900</v>
       </c>
       <c r="AK337">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="338" spans="1:50" hidden="1">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="338" spans="1:50">
       <c r="A338" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B338" s="5">
-        <v>35878</v>
+        <v>35885</v>
       </c>
       <c r="C338" s="5"/>
       <c r="D338" s="6">
-        <v>110.6222126534</v>
-      </c>
-      <c r="E338" s="6"/>
-      <c r="AB338">
-        <v>7.5475655891488804</v>
+        <v>117.53519871680599</v>
+      </c>
+      <c r="E338">
+        <v>2050.6658182144165</v>
+      </c>
+      <c r="S338">
+        <v>0</v>
+      </c>
+      <c r="W338">
+        <v>121.065763678488</v>
+      </c>
+      <c r="AA338">
+        <v>0</v>
       </c>
       <c r="AF338">
         <v>41</v>
@@ -14265,103 +14178,136 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="339" spans="1:50" hidden="1">
+    <row r="339" spans="1:50">
       <c r="A339" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B339" s="5">
+        <v>35885</v>
+      </c>
+      <c r="C339" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D339" s="6">
+        <v>104.081291759465</v>
+      </c>
+      <c r="E339" s="6"/>
+      <c r="F339">
+        <v>245</v>
+      </c>
+      <c r="G339">
+        <f>F339*10</f>
+        <v>2450</v>
+      </c>
+      <c r="T339">
+        <v>688.106904231626</v>
+      </c>
+      <c r="X339">
+        <v>0.33842419198224299</v>
+      </c>
+      <c r="Y339">
+        <v>0.28637813843806198</v>
+      </c>
+      <c r="Z339">
+        <v>82.345744680850999</v>
+      </c>
+      <c r="AD339">
+        <v>12.9</v>
+      </c>
+      <c r="AF339">
+        <v>42</v>
+      </c>
+      <c r="AG339">
         <v>48</v>
       </c>
-      <c r="B339" s="5">
-        <v>35879</v>
-      </c>
-      <c r="C339" s="5"/>
-      <c r="D339" s="6">
-        <v>112.151131705578</v>
-      </c>
-      <c r="E339" s="6"/>
-      <c r="W339">
-        <v>74.5499910889327</v>
-      </c>
-      <c r="AA339">
-        <v>0</v>
-      </c>
-      <c r="AF339">
-        <v>41</v>
-      </c>
-      <c r="AG339">
-        <v>45</v>
-      </c>
       <c r="AH339">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI339">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="AJ339">
-        <v>841</v>
+        <v>900</v>
       </c>
       <c r="AK339">
-        <v>1873</v>
+        <v>1908</v>
+      </c>
+      <c r="AL339">
+        <v>323</v>
+      </c>
+      <c r="AM339">
+        <v>361</v>
+      </c>
+      <c r="AN339">
+        <v>38</v>
+      </c>
+      <c r="AO339">
+        <v>762</v>
+      </c>
+      <c r="AR339">
+        <v>15.6</v>
+      </c>
+      <c r="AS339">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AT339">
+        <v>0.75</v>
+      </c>
+      <c r="AU339">
+        <v>0.63</v>
       </c>
     </row>
     <row r="340" spans="1:50" hidden="1">
       <c r="A340" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B340" s="5">
-        <v>35882</v>
+        <v>35886</v>
       </c>
       <c r="C340" s="5"/>
       <c r="D340" s="6">
-        <v>114.860517331529</v>
+        <v>118.83807239922299</v>
       </c>
       <c r="E340" s="6"/>
-      <c r="AC340">
-        <v>12.094866668717</v>
-      </c>
-      <c r="AD340">
-        <v>13.2185290473066</v>
+      <c r="AB340">
+        <v>1.08393285371708</v>
+      </c>
+      <c r="AE340">
+        <v>15.5</v>
       </c>
       <c r="AF340">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG340">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AH340">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI340">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="AJ340">
-        <v>841</v>
+        <v>900</v>
       </c>
       <c r="AK340">
-        <v>1873</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="341" spans="1:50" hidden="1">
       <c r="A341" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B341" s="5">
-        <v>35884</v>
+        <v>35889</v>
       </c>
       <c r="C341" s="5"/>
       <c r="D341" s="6">
-        <v>116.912234042553</v>
+        <v>122.236028665456</v>
       </c>
       <c r="E341" s="6"/>
-      <c r="X341">
-        <v>0.29230498415731199</v>
-      </c>
-      <c r="Y341">
-        <v>0.237444047678912</v>
-      </c>
-      <c r="Z341">
-        <v>72.340425531914903</v>
-      </c>
-      <c r="AB341">
-        <v>4.2342816719465102</v>
+      <c r="AC341">
+        <v>13.143653307907501</v>
       </c>
       <c r="AF341">
         <v>41</v>
@@ -14384,18 +14330,24 @@
     </row>
     <row r="342" spans="1:50" hidden="1">
       <c r="A342" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B342" s="5">
-        <v>35889</v>
+        <v>35893</v>
       </c>
       <c r="C342" s="5"/>
       <c r="D342" s="6">
-        <v>122.236028665456</v>
+        <v>125.635359116022</v>
       </c>
       <c r="E342" s="6"/>
-      <c r="AC342">
-        <v>13.143653307907501</v>
+      <c r="W342">
+        <v>174.95990019604301</v>
+      </c>
+      <c r="AA342">
+        <v>0</v>
+      </c>
+      <c r="AB342">
+        <v>0.72297234952162603</v>
       </c>
       <c r="AF342">
         <v>41</v>
@@ -14418,24 +14370,18 @@
     </row>
     <row r="343" spans="1:50" hidden="1">
       <c r="A343" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B343" s="5">
-        <v>35893</v>
+        <v>35897</v>
       </c>
       <c r="C343" s="5"/>
       <c r="D343" s="6">
-        <v>125.635359116022</v>
+        <v>130.18150010933701</v>
       </c>
       <c r="E343" s="6"/>
-      <c r="W343">
-        <v>174.95990019604301</v>
-      </c>
-      <c r="AA343">
-        <v>0</v>
-      </c>
-      <c r="AB343">
-        <v>0.72297234952162603</v>
+      <c r="AD343">
+        <v>12.1790946862016</v>
       </c>
       <c r="AF343">
         <v>41</v>
@@ -14458,18 +14404,18 @@
     </row>
     <row r="344" spans="1:50" hidden="1">
       <c r="A344" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B344" s="5">
-        <v>35897</v>
+        <v>35898</v>
       </c>
       <c r="C344" s="5"/>
       <c r="D344" s="6">
-        <v>130.18150010933701</v>
+        <v>131.49468085106301</v>
       </c>
       <c r="E344" s="6"/>
-      <c r="AD344">
-        <v>12.1790946862016</v>
+      <c r="Z344">
+        <v>48.228723404255298</v>
       </c>
       <c r="AF344">
         <v>41</v>
@@ -14490,20 +14436,38 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="345" spans="1:50" hidden="1">
+    <row r="345" spans="1:50">
       <c r="A345" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B345" s="5">
-        <v>35898</v>
-      </c>
-      <c r="C345" s="5"/>
+        <v>35899</v>
+      </c>
+      <c r="C345" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="D345" s="6">
-        <v>131.49468085106301</v>
+        <v>104.649220489977</v>
       </c>
       <c r="E345" s="6"/>
-      <c r="Z345">
-        <v>48.228723404255298</v>
+      <c r="F345">
+        <v>224</v>
+      </c>
+      <c r="G345">
+        <f>F345*10</f>
+        <v>2240</v>
+      </c>
+      <c r="T345">
+        <v>589.13140311804</v>
+      </c>
+      <c r="X345">
+        <v>0.33756978323189901</v>
+      </c>
+      <c r="Y345">
+        <v>0.286531207564243</v>
+      </c>
+      <c r="AD345">
+        <v>11.4</v>
       </c>
       <c r="AF345">
         <v>41</v>
@@ -14523,10 +14487,34 @@
       <c r="AK345">
         <v>1873</v>
       </c>
-    </row>
-    <row r="346" spans="1:50" hidden="1">
+      <c r="AL345">
+        <v>243</v>
+      </c>
+      <c r="AM345">
+        <v>316</v>
+      </c>
+      <c r="AN345">
+        <v>73</v>
+      </c>
+      <c r="AO345">
+        <v>657</v>
+      </c>
+      <c r="AR345">
+        <v>14</v>
+      </c>
+      <c r="AS345">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AT345">
+        <v>0.77</v>
+      </c>
+      <c r="AU345">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="346" spans="1:50">
       <c r="A346" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B346" s="5">
         <v>35899</v>
@@ -14539,9 +14527,6 @@
       <c r="R346">
         <v>0</v>
       </c>
-      <c r="T346">
-        <v>473</v>
-      </c>
       <c r="U346">
         <v>151</v>
       </c>
@@ -14590,7 +14575,7 @@
     </row>
     <row r="347" spans="1:50" hidden="1">
       <c r="A347" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B347" s="5">
         <v>35795</v>
@@ -14624,7 +14609,7 @@
     </row>
     <row r="348" spans="1:50" hidden="1">
       <c r="A348" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B348" s="5">
         <v>35816</v>
@@ -14661,7 +14646,7 @@
     </row>
     <row r="349" spans="1:50" hidden="1">
       <c r="A349" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B349" s="5">
         <v>35817</v>
@@ -14698,7 +14683,7 @@
     </row>
     <row r="350" spans="1:50" hidden="1">
       <c r="A350" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B350" s="5">
         <v>35835</v>
@@ -14735,7 +14720,7 @@
     </row>
     <row r="351" spans="1:50" hidden="1">
       <c r="A351" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B351" s="5">
         <v>35836</v>
@@ -14769,7 +14754,7 @@
     </row>
     <row r="352" spans="1:50" hidden="1">
       <c r="A352" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B352" s="5">
         <v>35838</v>
@@ -14803,7 +14788,7 @@
     </row>
     <row r="353" spans="1:49" hidden="1">
       <c r="A353" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B353" s="5">
         <v>35840</v>
@@ -14837,7 +14822,7 @@
     </row>
     <row r="354" spans="1:49" hidden="1">
       <c r="A354" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B354" s="5">
         <v>35841</v>
@@ -14874,7 +14859,7 @@
     </row>
     <row r="355" spans="1:49" hidden="1">
       <c r="A355" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B355" s="5">
         <v>35844</v>
@@ -14920,7 +14905,7 @@
     </row>
     <row r="356" spans="1:49" hidden="1">
       <c r="A356" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B356" s="5">
         <v>35845</v>
@@ -14954,7 +14939,7 @@
     </row>
     <row r="357" spans="1:49" hidden="1">
       <c r="A357" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B357" s="5">
         <v>35847</v>
@@ -14988,7 +14973,7 @@
     </row>
     <row r="358" spans="1:49" hidden="1">
       <c r="A358" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B358" s="5">
         <v>35850</v>
@@ -15022,7 +15007,7 @@
     </row>
     <row r="359" spans="1:49" hidden="1">
       <c r="A359" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B359" s="5">
         <v>35851</v>
@@ -15056,7 +15041,7 @@
     </row>
     <row r="360" spans="1:49" hidden="1">
       <c r="A360" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B360" s="5">
         <v>35852</v>
@@ -15090,7 +15075,7 @@
     </row>
     <row r="361" spans="1:49" hidden="1">
       <c r="A361" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B361" s="5">
         <v>35854</v>
@@ -15130,7 +15115,7 @@
     </row>
     <row r="362" spans="1:49" hidden="1">
       <c r="A362" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B362" s="5">
         <v>35856</v>
@@ -15167,7 +15152,7 @@
     </row>
     <row r="363" spans="1:49" hidden="1">
       <c r="A363" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B363" s="5">
         <v>35857</v>
@@ -15228,7 +15213,7 @@
     </row>
     <row r="364" spans="1:49" hidden="1">
       <c r="A364" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B364" s="5">
         <v>35860</v>
@@ -15262,7 +15247,7 @@
     </row>
     <row r="365" spans="1:49" hidden="1">
       <c r="A365" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B365" s="5">
         <v>35862</v>
@@ -15296,7 +15281,7 @@
     </row>
     <row r="366" spans="1:49" hidden="1">
       <c r="A366" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B366" s="5">
         <v>35864</v>
@@ -15330,7 +15315,7 @@
     </row>
     <row r="367" spans="1:49" hidden="1">
       <c r="A367" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B367" s="5">
         <v>35865</v>
@@ -15367,7 +15352,7 @@
     </row>
     <row r="368" spans="1:49" hidden="1">
       <c r="A368" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B368" s="5">
         <v>35868</v>
@@ -15401,7 +15386,7 @@
     </row>
     <row r="369" spans="1:51" hidden="1">
       <c r="A369" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B369" s="5">
         <v>35870</v>
@@ -15444,7 +15429,7 @@
     </row>
     <row r="370" spans="1:51" hidden="1">
       <c r="A370" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B370" s="5">
         <v>35871</v>
@@ -15481,7 +15466,7 @@
     </row>
     <row r="371" spans="1:51" hidden="1">
       <c r="A371" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B371" s="5">
         <v>35872</v>
@@ -15515,7 +15500,7 @@
     </row>
     <row r="372" spans="1:51" hidden="1">
       <c r="A372" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B372" s="5">
         <v>35873</v>
@@ -15549,7 +15534,7 @@
     </row>
     <row r="373" spans="1:51" hidden="1">
       <c r="A373" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B373" s="5">
         <v>35878</v>
@@ -15583,7 +15568,7 @@
     </row>
     <row r="374" spans="1:51" hidden="1">
       <c r="A374" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B374" s="5">
         <v>35879</v>
@@ -15617,7 +15602,7 @@
     </row>
     <row r="375" spans="1:51" hidden="1">
       <c r="A375" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B375" s="5">
         <v>35880</v>
@@ -15651,7 +15636,7 @@
     </row>
     <row r="376" spans="1:51" hidden="1">
       <c r="A376" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B376" s="5">
         <v>35882</v>
@@ -15685,7 +15670,7 @@
     </row>
     <row r="377" spans="1:51" hidden="1">
       <c r="A377" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B377" s="5">
         <v>35883</v>
@@ -15725,7 +15710,7 @@
     </row>
     <row r="378" spans="1:51" hidden="1">
       <c r="A378" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B378" s="5">
         <v>35884</v>
@@ -15762,7 +15747,7 @@
     </row>
     <row r="379" spans="1:51" hidden="1">
       <c r="A379" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B379" s="5">
         <v>35886</v>
@@ -15799,7 +15784,7 @@
     </row>
     <row r="380" spans="1:51" hidden="1">
       <c r="A380" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B380" s="5">
         <v>35795</v>
@@ -15833,7 +15818,7 @@
     </row>
     <row r="381" spans="1:51" hidden="1">
       <c r="A381" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B381" s="5">
         <v>35802</v>
@@ -15867,7 +15852,7 @@
     </row>
     <row r="382" spans="1:51" hidden="1">
       <c r="A382" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B382" s="5">
         <v>35799</v>
@@ -15904,7 +15889,7 @@
     </row>
     <row r="383" spans="1:51" hidden="1">
       <c r="A383" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B383" s="5">
         <v>35830</v>
@@ -15938,7 +15923,7 @@
     </row>
     <row r="384" spans="1:51" hidden="1">
       <c r="A384" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B384" s="5">
         <v>35872</v>
@@ -15978,7 +15963,7 @@
     </row>
     <row r="385" spans="1:50" hidden="1">
       <c r="A385" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B385" s="5">
         <v>35844</v>
@@ -15988,9 +15973,6 @@
         <v>49.560571165361502</v>
       </c>
       <c r="E385" s="6"/>
-      <c r="Z385">
-        <v>128.13450023030799</v>
-      </c>
       <c r="AD385">
         <v>0.44889376485633598</v>
       </c>
@@ -16015,7 +15997,7 @@
     </row>
     <row r="386" spans="1:50" hidden="1">
       <c r="A386" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B386" s="5">
         <v>35857</v>
@@ -16025,9 +16007,6 @@
         <v>63.456471672040401</v>
       </c>
       <c r="E386" s="6"/>
-      <c r="Z386">
-        <v>121.346844771994</v>
-      </c>
       <c r="AF386">
         <v>41</v>
       </c>
@@ -16049,7 +16028,7 @@
     </row>
     <row r="387" spans="1:50" hidden="1">
       <c r="A387" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B387" s="5">
         <v>35835</v>
@@ -16083,7 +16062,7 @@
     </row>
     <row r="388" spans="1:50" hidden="1">
       <c r="A388" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B388" s="5">
         <v>35838</v>
@@ -16120,7 +16099,7 @@
     </row>
     <row r="389" spans="1:50" hidden="1">
       <c r="A389" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B389" s="5">
         <v>35843</v>
@@ -16157,7 +16136,7 @@
     </row>
     <row r="390" spans="1:50" hidden="1">
       <c r="A390" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B390" s="5">
         <v>35911</v>
@@ -16211,7 +16190,7 @@
     </row>
     <row r="391" spans="1:50" hidden="1">
       <c r="A391" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B391" s="5">
         <v>35845</v>
@@ -16245,7 +16224,7 @@
     </row>
     <row r="392" spans="1:50" hidden="1">
       <c r="A392" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B392" s="5">
         <v>35848</v>
@@ -16282,7 +16261,7 @@
     </row>
     <row r="393" spans="1:50" hidden="1">
       <c r="A393" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B393" s="5">
         <v>35853</v>
@@ -16316,7 +16295,7 @@
     </row>
     <row r="394" spans="1:50" hidden="1">
       <c r="A394" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B394" s="5">
         <v>35854</v>
@@ -16350,7 +16329,7 @@
     </row>
     <row r="395" spans="1:50" hidden="1">
       <c r="A395" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B395" s="5">
         <v>35856</v>
@@ -16387,7 +16366,7 @@
     </row>
     <row r="396" spans="1:50" hidden="1">
       <c r="A396" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B396" s="5">
         <v>35857</v>
@@ -16421,7 +16400,7 @@
     </row>
     <row r="397" spans="1:50" hidden="1">
       <c r="A397" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B397" s="5">
         <v>35859</v>
@@ -16458,7 +16437,7 @@
     </row>
     <row r="398" spans="1:50" hidden="1">
       <c r="A398" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B398" s="5">
         <v>35862</v>
@@ -16492,7 +16471,7 @@
     </row>
     <row r="399" spans="1:50" hidden="1">
       <c r="A399" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B399" s="5">
         <v>35865</v>
@@ -16526,7 +16505,7 @@
     </row>
     <row r="400" spans="1:50" hidden="1">
       <c r="A400" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B400" s="5">
         <v>35868</v>
@@ -16560,7 +16539,7 @@
     </row>
     <row r="401" spans="1:49" hidden="1">
       <c r="A401" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B401" s="5">
         <v>35869</v>
@@ -16597,7 +16576,7 @@
     </row>
     <row r="402" spans="1:49" hidden="1">
       <c r="A402" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B402" s="5">
         <v>35871</v>
@@ -16643,7 +16622,7 @@
     </row>
     <row r="403" spans="1:49" hidden="1">
       <c r="A403" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B403" s="5">
         <v>35816</v>
@@ -16701,7 +16680,7 @@
     </row>
     <row r="404" spans="1:49" hidden="1">
       <c r="A404" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B404" s="5">
         <v>35873</v>
@@ -16735,7 +16714,7 @@
     </row>
     <row r="405" spans="1:49" hidden="1">
       <c r="A405" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B405" s="5">
         <v>35876</v>
@@ -16772,7 +16751,7 @@
     </row>
     <row r="406" spans="1:49" hidden="1">
       <c r="A406" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B406" s="5">
         <v>35883</v>
@@ -16809,7 +16788,7 @@
     </row>
     <row r="407" spans="1:49" hidden="1">
       <c r="A407" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B407" s="5">
         <v>35884</v>
@@ -16849,7 +16828,7 @@
     </row>
     <row r="408" spans="1:49" hidden="1">
       <c r="A408" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B408" s="5">
         <v>35886</v>
@@ -16883,7 +16862,7 @@
     </row>
     <row r="409" spans="1:49" hidden="1">
       <c r="A409" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B409" s="5">
         <v>35768</v>
@@ -16916,7 +16895,7 @@
     </row>
     <row r="410" spans="1:49" hidden="1">
       <c r="A410" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B410" s="5">
         <v>35815</v>
@@ -16953,7 +16932,7 @@
     </row>
     <row r="411" spans="1:49" hidden="1">
       <c r="A411" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B411" s="5">
         <v>35816</v>
@@ -16990,7 +16969,7 @@
     </row>
     <row r="412" spans="1:49" hidden="1">
       <c r="A412" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B412" s="5">
         <v>35821</v>
@@ -17027,7 +17006,7 @@
     </row>
     <row r="413" spans="1:49" hidden="1">
       <c r="A413" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B413" s="5">
         <v>35822</v>
@@ -17061,7 +17040,7 @@
     </row>
     <row r="414" spans="1:49" hidden="1">
       <c r="A414" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B414" s="5">
         <v>35823</v>
@@ -17095,7 +17074,7 @@
     </row>
     <row r="415" spans="1:49" hidden="1">
       <c r="A415" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B415" s="5">
         <v>35830</v>
@@ -17129,7 +17108,7 @@
     </row>
     <row r="416" spans="1:49" hidden="1">
       <c r="A416" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B416" s="5">
         <v>35832</v>
@@ -17163,7 +17142,7 @@
     </row>
     <row r="417" spans="1:51" hidden="1">
       <c r="A417" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B417" s="5">
         <v>35835</v>
@@ -17197,7 +17176,7 @@
     </row>
     <row r="418" spans="1:51" hidden="1">
       <c r="A418" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B418" s="5">
         <v>35836</v>
@@ -17231,7 +17210,7 @@
     </row>
     <row r="419" spans="1:51" hidden="1">
       <c r="A419" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B419" s="5">
         <v>35837</v>
@@ -17265,7 +17244,7 @@
     </row>
     <row r="420" spans="1:51" hidden="1">
       <c r="A420" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B420" s="5">
         <v>35840</v>
@@ -17299,7 +17278,7 @@
     </row>
     <row r="421" spans="1:51" hidden="1">
       <c r="A421" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B421" s="5">
         <v>35843</v>
@@ -17342,7 +17321,7 @@
     </row>
     <row r="422" spans="1:51" hidden="1">
       <c r="A422" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B422" s="5">
         <v>35844</v>
@@ -17391,7 +17370,7 @@
     </row>
     <row r="423" spans="1:51" hidden="1">
       <c r="A423" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B423" s="5">
         <v>35845</v>
@@ -17425,7 +17404,7 @@
     </row>
     <row r="424" spans="1:51" hidden="1">
       <c r="A424" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B424" s="5">
         <v>35846</v>
@@ -17456,7 +17435,7 @@
     </row>
     <row r="425" spans="1:51" hidden="1">
       <c r="A425" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B425" s="5">
         <v>35850</v>
@@ -17490,7 +17469,7 @@
     </row>
     <row r="426" spans="1:51" hidden="1">
       <c r="A426" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B426" s="5">
         <v>35852</v>
@@ -17524,7 +17503,7 @@
     </row>
     <row r="427" spans="1:51" hidden="1">
       <c r="A427" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B427" s="5">
         <v>35854</v>
@@ -17567,7 +17546,7 @@
     </row>
     <row r="428" spans="1:51" hidden="1">
       <c r="A428" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B428" s="5">
         <v>35857</v>
@@ -17619,7 +17598,7 @@
     </row>
     <row r="429" spans="1:51" hidden="1">
       <c r="A429" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B429" s="5">
         <v>35858</v>
@@ -17665,7 +17644,7 @@
     </row>
     <row r="430" spans="1:51" hidden="1">
       <c r="A430" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B430" s="5">
         <v>35860</v>
@@ -17705,7 +17684,7 @@
     </row>
     <row r="431" spans="1:51" hidden="1">
       <c r="A431" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B431" s="5">
         <v>35861</v>
@@ -17739,7 +17718,7 @@
     </row>
     <row r="432" spans="1:51" hidden="1">
       <c r="A432" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B432" s="5">
         <v>35862</v>
@@ -17773,7 +17752,7 @@
     </row>
     <row r="433" spans="1:51" hidden="1">
       <c r="A433" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B433" s="5">
         <v>35864</v>
@@ -17810,7 +17789,7 @@
     </row>
     <row r="434" spans="1:51" hidden="1">
       <c r="A434" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B434" s="5">
         <v>35865</v>
@@ -17844,7 +17823,7 @@
     </row>
     <row r="435" spans="1:51" hidden="1">
       <c r="A435" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B435" s="5">
         <v>35866</v>
@@ -17878,7 +17857,7 @@
     </row>
     <row r="436" spans="1:51" hidden="1">
       <c r="A436" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B436" s="5">
         <v>35868</v>
@@ -17912,7 +17891,7 @@
     </row>
     <row r="437" spans="1:51" hidden="1">
       <c r="A437" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B437" s="5">
         <v>35871</v>
@@ -17961,7 +17940,7 @@
     </row>
     <row r="438" spans="1:51" hidden="1">
       <c r="A438" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B438" s="5">
         <v>35873</v>
@@ -17998,7 +17977,7 @@
     </row>
     <row r="439" spans="1:51" hidden="1">
       <c r="A439" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B439" s="5">
         <v>35874</v>
@@ -18035,7 +18014,7 @@
     </row>
     <row r="440" spans="1:51" hidden="1">
       <c r="A440" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B440" s="5">
         <v>35876</v>
@@ -18070,15 +18049,15 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="441" spans="1:51">
+    <row r="441" spans="1:51" hidden="1">
       <c r="A441" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B441" s="5">
         <v>35877</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D441" s="6">
         <v>109.526726057906</v>
@@ -18172,7 +18151,7 @@
     </row>
     <row r="442" spans="1:51" hidden="1">
       <c r="A442" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B442" s="5">
         <v>35878</v>
@@ -18209,7 +18188,7 @@
     </row>
     <row r="443" spans="1:51" hidden="1">
       <c r="A443" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B443" s="5">
         <v>35768</v>
@@ -18243,7 +18222,7 @@
     </row>
     <row r="444" spans="1:51" hidden="1">
       <c r="A444" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B444" s="5">
         <v>35814</v>
@@ -18277,7 +18256,7 @@
     </row>
     <row r="445" spans="1:51" hidden="1">
       <c r="A445" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B445" s="5">
         <v>35816</v>
@@ -18317,7 +18296,7 @@
     </row>
     <row r="446" spans="1:51" hidden="1">
       <c r="A446" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B446" s="5">
         <v>35819</v>
@@ -18351,7 +18330,7 @@
     </row>
     <row r="447" spans="1:51" hidden="1">
       <c r="A447" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B447" s="5">
         <v>35822</v>
@@ -18385,7 +18364,7 @@
     </row>
     <row r="448" spans="1:51" hidden="1">
       <c r="A448" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B448" s="5">
         <v>35828</v>
@@ -18422,7 +18401,7 @@
     </row>
     <row r="449" spans="1:49" hidden="1">
       <c r="A449" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B449" s="5">
         <v>35830</v>
@@ -18456,7 +18435,7 @@
     </row>
     <row r="450" spans="1:49" hidden="1">
       <c r="A450" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B450" s="5">
         <v>35831</v>
@@ -18490,7 +18469,7 @@
     </row>
     <row r="451" spans="1:49" hidden="1">
       <c r="A451" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B451" s="5">
         <v>35833</v>
@@ -18524,7 +18503,7 @@
     </row>
     <row r="452" spans="1:49" hidden="1">
       <c r="A452" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B452" s="5">
         <v>35836</v>
@@ -18561,7 +18540,7 @@
     </row>
     <row r="453" spans="1:49" hidden="1">
       <c r="A453" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B453" s="5">
         <v>35839</v>
@@ -18598,7 +18577,7 @@
     </row>
     <row r="454" spans="1:49" hidden="1">
       <c r="A454" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B454" s="5">
         <v>35840</v>
@@ -18632,7 +18611,7 @@
     </row>
     <row r="455" spans="1:49" hidden="1">
       <c r="A455" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B455" s="5">
         <v>35842</v>
@@ -18672,7 +18651,7 @@
     </row>
     <row r="456" spans="1:49" hidden="1">
       <c r="A456" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B456" s="5">
         <v>35844</v>
@@ -18715,7 +18694,7 @@
     </row>
     <row r="457" spans="1:49" hidden="1">
       <c r="A457" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B457" s="5">
         <v>35846</v>
@@ -18749,7 +18728,7 @@
     </row>
     <row r="458" spans="1:49" hidden="1">
       <c r="A458" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B458" s="5">
         <v>35848</v>
@@ -18783,7 +18762,7 @@
     </row>
     <row r="459" spans="1:49" hidden="1">
       <c r="A459" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B459" s="5">
         <v>35853</v>
@@ -18817,7 +18796,7 @@
     </row>
     <row r="460" spans="1:49" hidden="1">
       <c r="A460" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B460" s="5">
         <v>35854</v>
@@ -18857,7 +18836,7 @@
     </row>
     <row r="461" spans="1:49" hidden="1">
       <c r="A461" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B461" s="5">
         <v>35855</v>
@@ -18891,7 +18870,7 @@
     </row>
     <row r="462" spans="1:49" hidden="1">
       <c r="A462" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B462" s="5">
         <v>35857</v>
@@ -18946,7 +18925,7 @@
     </row>
     <row r="463" spans="1:49" hidden="1">
       <c r="A463" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B463" s="5">
         <v>35858</v>
@@ -18986,7 +18965,7 @@
     </row>
     <row r="464" spans="1:49" hidden="1">
       <c r="A464" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B464" s="5">
         <v>35859</v>
@@ -19020,7 +18999,7 @@
     </row>
     <row r="465" spans="1:50" hidden="1">
       <c r="A465" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B465" s="5">
         <v>35864</v>
@@ -19057,7 +19036,7 @@
     </row>
     <row r="466" spans="1:50" hidden="1">
       <c r="A466" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B466" s="5">
         <v>35865</v>
@@ -19094,7 +19073,7 @@
     </row>
     <row r="467" spans="1:50" hidden="1">
       <c r="A467" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B467" s="5">
         <v>35867</v>
@@ -19131,7 +19110,7 @@
     </row>
     <row r="468" spans="1:50" hidden="1">
       <c r="A468" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B468" s="5">
         <v>35869</v>
@@ -19180,7 +19159,7 @@
     </row>
     <row r="469" spans="1:50" hidden="1">
       <c r="A469" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B469" s="5">
         <v>35768</v>
@@ -19214,7 +19193,7 @@
     </row>
     <row r="470" spans="1:50" hidden="1">
       <c r="A470" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B470" s="5">
         <v>35776</v>
@@ -19224,9 +19203,6 @@
         <v>8.9046522339935805</v>
       </c>
       <c r="E470" s="6"/>
-      <c r="Z470">
-        <v>130.10962690004499</v>
-      </c>
       <c r="AF470">
         <v>44</v>
       </c>
@@ -19248,7 +19224,7 @@
     </row>
     <row r="471" spans="1:50" hidden="1">
       <c r="A471" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B471" s="5">
         <v>35803</v>
@@ -19282,7 +19258,7 @@
     </row>
     <row r="472" spans="1:50" hidden="1">
       <c r="A472" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B472" s="5">
         <v>35813</v>
@@ -19316,7 +19292,7 @@
     </row>
     <row r="473" spans="1:50" hidden="1">
       <c r="A473" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B473" s="5">
         <v>35844</v>
@@ -19365,7 +19341,7 @@
     </row>
     <row r="474" spans="1:50" hidden="1">
       <c r="A474" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B474" s="5">
         <v>35818</v>
@@ -19399,7 +19375,7 @@
     </row>
     <row r="475" spans="1:50" hidden="1">
       <c r="A475" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B475" s="5">
         <v>35820</v>
@@ -19433,7 +19409,7 @@
     </row>
     <row r="476" spans="1:50" hidden="1">
       <c r="A476" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B476" s="5">
         <v>35825</v>
@@ -19467,7 +19443,7 @@
     </row>
     <row r="477" spans="1:50" hidden="1">
       <c r="A477" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B477" s="5">
         <v>35826</v>
@@ -19504,7 +19480,7 @@
     </row>
     <row r="478" spans="1:50" hidden="1">
       <c r="A478" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B478" s="5">
         <v>35829</v>
@@ -19538,7 +19514,7 @@
     </row>
     <row r="479" spans="1:50" hidden="1">
       <c r="A479" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B479" s="5">
         <v>35831</v>
@@ -19572,7 +19548,7 @@
     </row>
     <row r="480" spans="1:50" hidden="1">
       <c r="A480" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B480" s="5">
         <v>35834</v>
@@ -19609,7 +19585,7 @@
     </row>
     <row r="481" spans="1:51" hidden="1">
       <c r="A481" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B481" s="5">
         <v>35836</v>
@@ -19643,7 +19619,7 @@
     </row>
     <row r="482" spans="1:51" hidden="1">
       <c r="A482" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B482" s="5">
         <v>35838</v>
@@ -19680,7 +19656,7 @@
     </row>
     <row r="483" spans="1:51" hidden="1">
       <c r="A483" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B483" s="5">
         <v>35841</v>
@@ -19723,7 +19699,7 @@
     </row>
     <row r="484" spans="1:51" hidden="1">
       <c r="A484" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B484" s="5">
         <v>35858</v>
@@ -19757,7 +19733,7 @@
     </row>
     <row r="485" spans="1:51" hidden="1">
       <c r="A485" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B485" s="5">
         <v>35845</v>
@@ -19791,7 +19767,7 @@
     </row>
     <row r="486" spans="1:51" hidden="1">
       <c r="A486" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B486" s="5">
         <v>35849</v>
@@ -19825,7 +19801,7 @@
     </row>
     <row r="487" spans="1:51" hidden="1">
       <c r="A487" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B487" s="5">
         <v>35851</v>
@@ -19859,7 +19835,7 @@
     </row>
     <row r="488" spans="1:51" hidden="1">
       <c r="A488" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B488" s="5">
         <v>35852</v>
@@ -19899,7 +19875,7 @@
     </row>
     <row r="489" spans="1:51" hidden="1">
       <c r="A489" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B489" s="5">
         <v>35854</v>
@@ -19933,7 +19909,7 @@
     </row>
     <row r="490" spans="1:51" hidden="1">
       <c r="A490" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B490" s="5">
         <v>35856</v>
@@ -19970,7 +19946,7 @@
     </row>
     <row r="491" spans="1:51" hidden="1">
       <c r="A491" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B491" s="5">
         <v>35857</v>
@@ -20005,15 +19981,15 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="492" spans="1:51">
+    <row r="492" spans="1:51" hidden="1">
       <c r="A492" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B492" s="5">
         <v>35866</v>
       </c>
       <c r="C492" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D492" s="6">
         <v>98.832891246684298</v>
@@ -20116,7 +20092,7 @@
     </row>
     <row r="493" spans="1:51" hidden="1">
       <c r="A493" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B493" s="5">
         <v>35859</v>
@@ -20156,7 +20132,7 @@
     </row>
     <row r="494" spans="1:51" hidden="1">
       <c r="A494" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B494" s="5">
         <v>35862</v>
@@ -20190,7 +20166,7 @@
     </row>
     <row r="495" spans="1:51" hidden="1">
       <c r="A495" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B495" s="5">
         <v>35865</v>
@@ -20233,7 +20209,7 @@
     </row>
     <row r="496" spans="1:51" hidden="1">
       <c r="A496" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B496" s="5">
         <v>35867</v>
@@ -20270,7 +20246,7 @@
     </row>
     <row r="497" spans="1:37" hidden="1">
       <c r="A497" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B497" s="5">
         <v>35868</v>
@@ -20304,7 +20280,7 @@
     </row>
     <row r="498" spans="1:37" hidden="1">
       <c r="A498" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B498" s="5">
         <v>35870</v>
@@ -20338,7 +20314,7 @@
     </row>
     <row r="499" spans="1:37" hidden="1">
       <c r="A499" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B499" s="5">
         <v>35874</v>
@@ -20370,100 +20346,110 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="503" spans="1:37">
+    <row r="500" spans="1:37" hidden="1"/>
+    <row r="501" spans="1:37" hidden="1"/>
+    <row r="502" spans="1:37" hidden="1"/>
+    <row r="503" spans="1:37" hidden="1">
       <c r="H503" s="5"/>
     </row>
-    <row r="505" spans="1:37">
+    <row r="504" spans="1:37" hidden="1"/>
+    <row r="505" spans="1:37" hidden="1">
       <c r="H505" s="5"/>
     </row>
-    <row r="506" spans="1:37">
+    <row r="506" spans="1:37" hidden="1">
       <c r="H506" s="5"/>
     </row>
-    <row r="507" spans="1:37">
+    <row r="507" spans="1:37" hidden="1">
       <c r="H507" s="5"/>
     </row>
-    <row r="508" spans="1:37">
+    <row r="508" spans="1:37" hidden="1">
       <c r="H508" s="5"/>
     </row>
-    <row r="509" spans="1:37">
+    <row r="509" spans="1:37" hidden="1">
       <c r="H509" s="5"/>
     </row>
-    <row r="510" spans="1:37">
+    <row r="510" spans="1:37" hidden="1">
       <c r="H510" s="5"/>
     </row>
-    <row r="511" spans="1:37">
+    <row r="511" spans="1:37" hidden="1">
       <c r="H511" s="5"/>
     </row>
-    <row r="512" spans="1:37">
+    <row r="512" spans="1:37" hidden="1">
       <c r="H512" s="5"/>
     </row>
-    <row r="513" spans="8:8">
+    <row r="513" spans="8:8" hidden="1">
       <c r="H513" s="5"/>
     </row>
-    <row r="514" spans="8:8">
+    <row r="514" spans="8:8" hidden="1">
       <c r="H514" s="5"/>
     </row>
-    <row r="515" spans="8:8">
+    <row r="515" spans="8:8" hidden="1">
       <c r="H515" s="5"/>
     </row>
-    <row r="516" spans="8:8">
+    <row r="516" spans="8:8" hidden="1">
       <c r="H516" s="5"/>
     </row>
-    <row r="517" spans="8:8">
+    <row r="517" spans="8:8" hidden="1">
       <c r="H517" s="5"/>
     </row>
-    <row r="518" spans="8:8">
+    <row r="518" spans="8:8" hidden="1">
       <c r="H518" s="5"/>
     </row>
-    <row r="519" spans="8:8">
+    <row r="519" spans="8:8" hidden="1">
       <c r="H519" s="5"/>
     </row>
-    <row r="520" spans="8:8">
+    <row r="520" spans="8:8" hidden="1">
       <c r="H520" s="5"/>
     </row>
-    <row r="521" spans="8:8">
+    <row r="521" spans="8:8" hidden="1">
       <c r="H521" s="5"/>
     </row>
-    <row r="522" spans="8:8">
+    <row r="522" spans="8:8" hidden="1">
       <c r="H522" s="5"/>
     </row>
-    <row r="523" spans="8:8">
+    <row r="523" spans="8:8" hidden="1">
       <c r="H523" s="5"/>
     </row>
-    <row r="524" spans="8:8">
+    <row r="524" spans="8:8" hidden="1">
       <c r="H524" s="5"/>
     </row>
-    <row r="525" spans="8:8">
+    <row r="525" spans="8:8" hidden="1">
       <c r="H525" s="5"/>
     </row>
-    <row r="526" spans="8:8">
+    <row r="526" spans="8:8" hidden="1">
       <c r="H526" s="5"/>
     </row>
-    <row r="527" spans="8:8">
+    <row r="527" spans="8:8" hidden="1">
       <c r="H527" s="5"/>
     </row>
-    <row r="528" spans="8:8">
+    <row r="528" spans="8:8" hidden="1">
       <c r="H528" s="5"/>
     </row>
-    <row r="529" spans="8:8">
+    <row r="529" spans="8:8" hidden="1">
       <c r="H529" s="5"/>
     </row>
-    <row r="530" spans="8:8">
+    <row r="530" spans="8:8" hidden="1">
       <c r="H530" s="5"/>
     </row>
-    <row r="531" spans="8:8">
+    <row r="531" spans="8:8" hidden="1">
       <c r="H531" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AY499" xr:uid="{1600DBA9-BC42-4CBE-895C-5637B5C9DC9F}">
-    <filterColumn colId="2">
+  <autoFilter ref="A1:AY531" xr:uid="{F0B0C000-3CD0-4997-AEB8-B2A330AF442A}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="exp3SowDec17IrrCultivarEmerald"/>
+        <filter val="exp3SowDec30IrrCultivarEmerald"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="19">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AY499">
-    <sortCondition ref="S2:S499"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AY346">
+    <sortCondition ref="B2:B499"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Prototypes/Mungbean/Exp3observed.xlsx
+++ b/Prototypes/Mungbean/Exp3observed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15C1EFD-2388-4D79-BD59-D30B39B01836}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2498D0-2B96-4E60-805F-66B3938E9A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C69385E-AA3F-4CF3-AF00-E1E4599E61EE}"/>
+    <workbookView xWindow="32985" yWindow="6660" windowWidth="20775" windowHeight="11835" xr2:uid="{8C69385E-AA3F-4CF3-AF00-E1E4599E61EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -74,22 +74,7 @@
     <t>TotSW160</t>
   </si>
   <si>
-    <t>Soybean.Leaf.LAI</t>
-  </si>
-  <si>
-    <t>Soybean.Stem.Live.Wt</t>
-  </si>
-  <si>
-    <t>Soybean.Leaf.Live.Wt</t>
-  </si>
-  <si>
-    <t>Soybean.Leaf.Dead.Wt</t>
-  </si>
-  <si>
     <t>LiveOnlyHarvestIndex</t>
-  </si>
-  <si>
-    <t>Soybean.Grain.HarvestIndex</t>
   </si>
   <si>
     <t>RadiationIntercepted</t>
@@ -104,70 +89,19 @@
     <t>Number of black pods per plant</t>
   </si>
   <si>
-    <t>Soybean.AboveGroundLive.N</t>
-  </si>
-  <si>
     <t>TotNO3160</t>
-  </si>
-  <si>
-    <t>Soybean.Phenology.MaturityDAS</t>
-  </si>
-  <si>
-    <t>Soybean.Phenology.FloweringGDD</t>
-  </si>
-  <si>
-    <t>Soybean.Phenology.EarlyPodDevelopmentGDD</t>
-  </si>
-  <si>
-    <t>Soybean.Phenology.MaturityGDD</t>
   </si>
   <si>
     <t>Black Pod Weight from First Flush (g/m2</t>
   </si>
   <si>
-    <t>Soybean.Pod.Wt</t>
-  </si>
-  <si>
     <t>Black Pod Weight from Second Flush (g/m2)</t>
-  </si>
-  <si>
-    <t>Soybean.Grain.Wt</t>
-  </si>
-  <si>
-    <t>Soybean.aboveground.wt</t>
-  </si>
-  <si>
-    <t>Soybean.Stem.Nconc</t>
-  </si>
-  <si>
-    <t>Soybean.Leaf.Live.NConc</t>
-  </si>
-  <si>
-    <t>Soybean.AboveGround.N</t>
-  </si>
-  <si>
-    <t>Soybean.Grain.N</t>
   </si>
   <si>
     <t>LiveNHI</t>
   </si>
   <si>
     <t>NHI</t>
-  </si>
-  <si>
-    <t>Soybean.Stem.Live.N</t>
-  </si>
-  <si>
-    <t>Soybean.Leaf.Live.N</t>
-  </si>
-  <si>
-    <t>Soybean.Leaf.Dead.N</t>
-  </si>
-  <si>
-    <t>Soybean.Nodule.NFixed</t>
-  </si>
-  <si>
-    <t>Soybean.Phenology.CurrentStageName</t>
   </si>
   <si>
     <t>HarvestRipe</t>
@@ -203,22 +137,88 @@
     <t>exp3SowDec3ROCultivarEmerald</t>
   </si>
   <si>
-    <t>Soybean.leaf.NodeNumber</t>
-  </si>
-  <si>
     <t>Days after Sowing (usually first sowing)</t>
   </si>
   <si>
-    <t>Soybean.Phenology.StartPodDevDAS</t>
+    <t>Mungbean.Phenology.CurrentStageName</t>
   </si>
   <si>
-    <t>Soybean.Phenology.StartFloweringDAS</t>
+    <t>Mungbean.Phenology.AccumulatedTT</t>
   </si>
   <si>
-    <t>Soybean.Phenology.AccumulatedTT</t>
+    <t>Mungbean.Grain.Wt</t>
   </si>
   <si>
-    <t>Soybean.AboveGround.Wt</t>
+    <t>Mungbean.Leaf.LAI</t>
+  </si>
+  <si>
+    <t>Mungbean.leaf.NodeNumber</t>
+  </si>
+  <si>
+    <t>Mungbean.AboveGround.Wt</t>
+  </si>
+  <si>
+    <t>Mungbean.Stem.Live.Wt</t>
+  </si>
+  <si>
+    <t>Mungbean.Leaf.Live.Wt</t>
+  </si>
+  <si>
+    <t>Mungbean.Leaf.Dead.Wt</t>
+  </si>
+  <si>
+    <t>Mungbean.Grain.HarvestIndex</t>
+  </si>
+  <si>
+    <t>Mungbean.AboveGroundLive.N</t>
+  </si>
+  <si>
+    <t>Mungbean.Phenology.StartFloweringDAS</t>
+  </si>
+  <si>
+    <t>Mungbean.Phenology.StartPodDevDAS</t>
+  </si>
+  <si>
+    <t>Mungbean.Phenology.MaturityDAS</t>
+  </si>
+  <si>
+    <t>Mungbean.Phenology.FloweringGDD</t>
+  </si>
+  <si>
+    <t>Mungbean.Phenology.EarlyPodDevelopmentGDD</t>
+  </si>
+  <si>
+    <t>Mungbean.Phenology.MaturityGDD</t>
+  </si>
+  <si>
+    <t>Mungbean.Pod.Wt</t>
+  </si>
+  <si>
+    <t>Mungbean.aboveground.wt</t>
+  </si>
+  <si>
+    <t>Mungbean.Stem.Nconc</t>
+  </si>
+  <si>
+    <t>Mungbean.Leaf.Live.NConc</t>
+  </si>
+  <si>
+    <t>Mungbean.AboveGround.N</t>
+  </si>
+  <si>
+    <t>Mungbean.Grain.N</t>
+  </si>
+  <si>
+    <t>Mungbean.Stem.Live.N</t>
+  </si>
+  <si>
+    <t>Mungbean.Leaf.Live.N</t>
+  </si>
+  <si>
+    <t>Mungbean.Leaf.Dead.N</t>
+  </si>
+  <si>
+    <t>Mungbean.Nodule.NFixed</t>
   </si>
 </sst>
 </file>
@@ -606,7 +606,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T232" sqref="T232"/>
+      <selection pane="bottomLeft" activeCell="C338" sqref="A1:AY531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -625,19 +625,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>2</v>
@@ -670,111 +670,111 @@
         <v>11</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AS1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY1" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:51" hidden="1">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B2" s="5">
         <v>35870</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="3" spans="1:51" hidden="1">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B3" s="5">
         <v>35782</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="4" spans="1:51" hidden="1">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B4" s="5">
         <v>35790</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="5" spans="1:51" hidden="1">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B5" s="5">
         <v>35816</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="6" spans="1:51" hidden="1">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B6" s="5">
         <v>35795</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="7" spans="1:51" hidden="1">
       <c r="A7" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5">
         <v>35844</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="8" spans="1:51" hidden="1">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B8" s="5">
         <v>35869</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="9" spans="1:51" hidden="1">
       <c r="A9" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B9" s="5">
         <v>35863</v>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="10" spans="1:51" hidden="1">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5">
         <v>35885</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="11" spans="1:51" hidden="1">
       <c r="A11" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B11" s="5">
         <v>35864</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="12" spans="1:51" hidden="1">
       <c r="A12" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B12" s="5">
         <v>35860</v>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="13" spans="1:51" hidden="1">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B13" s="5">
         <v>35860</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="14" spans="1:51" hidden="1">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B14" s="5">
         <v>35790</v>
@@ -1309,7 +1309,7 @@
     </row>
     <row r="15" spans="1:51" hidden="1">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B15" s="5">
         <v>35795</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="16" spans="1:51" hidden="1">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B16" s="5">
         <v>35774</v>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="17" spans="1:51" hidden="1">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B17" s="5">
         <v>35804</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="18" spans="1:51" hidden="1">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B18" s="5">
         <v>35797</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="19" spans="1:51" hidden="1">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B19" s="5">
         <v>35799</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="20" spans="1:51" hidden="1">
       <c r="A20" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B20" s="5">
         <v>35773</v>
@@ -1522,13 +1522,13 @@
     </row>
     <row r="21" spans="1:51" hidden="1">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B21" s="5">
         <v>35877</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D21" s="6">
         <v>96.424668665414998</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="22" spans="1:51" hidden="1">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B22" s="5">
         <v>35774</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="23" spans="1:51" hidden="1">
       <c r="A23" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B23" s="5">
         <v>35802</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="24" spans="1:51" hidden="1">
       <c r="A24" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B24" s="5">
         <v>35804</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="25" spans="1:51" hidden="1">
       <c r="A25" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B25" s="5">
         <v>35790</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="26" spans="1:51" hidden="1">
       <c r="A26" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B26" s="5">
         <v>35802</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="27" spans="1:51" hidden="1">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B27" s="5">
         <v>35863</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="28" spans="1:51" hidden="1">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B28" s="5">
         <v>35855</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="29" spans="1:51" hidden="1">
       <c r="A29" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B29" s="5">
         <v>35870</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="30" spans="1:51" hidden="1">
       <c r="A30" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B30" s="5">
         <v>35842</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="31" spans="1:51" hidden="1">
       <c r="A31" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B31" s="5">
         <v>35781</v>
@@ -1969,7 +1969,7 @@
     </row>
     <row r="32" spans="1:51" hidden="1">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B32" s="5">
         <v>35795</v>
@@ -2005,7 +2005,7 @@
     </row>
     <row r="33" spans="1:37" hidden="1">
       <c r="A33" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B33" s="5">
         <v>35797</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="34" spans="1:37" hidden="1">
       <c r="A34" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B34" s="5">
         <v>35796</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="35" spans="1:37" hidden="1">
       <c r="A35" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B35" s="5">
         <v>35799</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="36" spans="1:37" hidden="1">
       <c r="A36" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B36" s="5">
         <v>35781</v>
@@ -2149,7 +2149,7 @@
     </row>
     <row r="37" spans="1:37" hidden="1">
       <c r="A37" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B37" s="5">
         <v>35800</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="38" spans="1:37" hidden="1">
       <c r="A38" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B38" s="5">
         <v>35808</v>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="39" spans="1:37" hidden="1">
       <c r="A39" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B39" s="5">
         <v>35808</v>
@@ -2257,7 +2257,7 @@
     </row>
     <row r="40" spans="1:37" hidden="1">
       <c r="A40" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B40" s="5">
         <v>35782</v>
@@ -2293,7 +2293,7 @@
     </row>
     <row r="41" spans="1:37" hidden="1">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B41" s="5">
         <v>35801</v>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="42" spans="1:37" hidden="1">
       <c r="A42" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B42" s="5">
         <v>35803</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="43" spans="1:37" hidden="1">
       <c r="A43" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B43" s="5">
         <v>35853</v>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="44" spans="1:37" hidden="1">
       <c r="A44" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B44" s="5">
         <v>35863</v>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="45" spans="1:37" hidden="1">
       <c r="A45" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B45" s="5">
         <v>35848</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="46" spans="1:37" hidden="1">
       <c r="A46" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B46" s="5">
         <v>35856</v>
@@ -2518,7 +2518,7 @@
     </row>
     <row r="47" spans="1:37" hidden="1">
       <c r="A47" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B47" s="5">
         <v>35839</v>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="48" spans="1:37" hidden="1">
       <c r="A48" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B48" s="5">
         <v>35876</v>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="49" spans="1:51" ht="15.75" hidden="1" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B49" s="5">
         <v>35835</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="50" spans="1:51" hidden="1">
       <c r="A50" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B50" s="5">
         <v>35804</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="51" spans="1:51" hidden="1">
       <c r="A51" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B51" s="5">
         <v>35814</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="52" spans="1:51" hidden="1">
       <c r="A52" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B52" s="5">
         <v>35800</v>
@@ -2764,7 +2764,7 @@
     </row>
     <row r="53" spans="1:51" hidden="1">
       <c r="A53" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B53" s="5">
         <v>35814</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="54" spans="1:51" hidden="1">
       <c r="A54" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B54" s="5">
         <v>35807</v>
@@ -2836,7 +2836,7 @@
     </row>
     <row r="55" spans="1:51" hidden="1">
       <c r="A55" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B55" s="5">
         <v>35801</v>
@@ -2872,7 +2872,7 @@
     </row>
     <row r="56" spans="1:51" hidden="1">
       <c r="A56" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B56" s="5">
         <v>35808</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="57" spans="1:51" hidden="1">
       <c r="A57" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B57" s="5">
         <v>35832</v>
@@ -2947,7 +2947,7 @@
     </row>
     <row r="58" spans="1:51" hidden="1">
       <c r="A58" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B58" s="5">
         <v>35859</v>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="59" spans="1:51" hidden="1">
       <c r="A59" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B59" s="5">
         <v>35812</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="60" spans="1:51" hidden="1">
       <c r="A60" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B60" s="5">
         <v>35849</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="61" spans="1:51" hidden="1">
       <c r="A61" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B61" s="5">
         <v>35856</v>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="62" spans="1:51" hidden="1">
       <c r="A62" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B62" s="5">
         <v>35841</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="63" spans="1:51" hidden="1">
       <c r="A63" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B63" s="5">
         <v>35859</v>
@@ -3189,7 +3189,7 @@
     </row>
     <row r="64" spans="1:51" hidden="1">
       <c r="A64" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B64" s="5">
         <v>35841</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="65" spans="1:47" hidden="1">
       <c r="A65" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B65" s="5">
         <v>35859</v>
@@ -3273,13 +3273,13 @@
     </row>
     <row r="66" spans="1:47" hidden="1">
       <c r="A66" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B66" s="5">
         <v>35877</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D66" s="6">
         <v>95.5483163357178</v>
@@ -3384,7 +3384,7 @@
     </row>
     <row r="67" spans="1:47" hidden="1">
       <c r="A67" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B67" s="5">
         <v>35852</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="68" spans="1:47" hidden="1">
       <c r="A68" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B68" s="5">
         <v>35851</v>
@@ -3465,7 +3465,7 @@
     </row>
     <row r="69" spans="1:47" hidden="1">
       <c r="A69" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B69" s="5">
         <v>35848</v>
@@ -3501,7 +3501,7 @@
     </row>
     <row r="70" spans="1:47" hidden="1">
       <c r="A70" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B70" s="5">
         <v>35803</v>
@@ -3537,7 +3537,7 @@
     </row>
     <row r="71" spans="1:47" hidden="1">
       <c r="A71" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B71" s="5">
         <v>35790</v>
@@ -3573,7 +3573,7 @@
     </row>
     <row r="72" spans="1:47" hidden="1">
       <c r="A72" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B72" s="5">
         <v>35795</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="73" spans="1:47" hidden="1">
       <c r="A73" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B73" s="5">
         <v>35804</v>
@@ -3645,7 +3645,7 @@
     </row>
     <row r="74" spans="1:47" hidden="1">
       <c r="A74" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B74" s="5">
         <v>35813</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="75" spans="1:47" hidden="1">
       <c r="A75" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B75" s="5">
         <v>35790</v>
@@ -3717,7 +3717,7 @@
     </row>
     <row r="76" spans="1:47" hidden="1">
       <c r="A76" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B76" s="5">
         <v>35860</v>
@@ -3756,7 +3756,7 @@
     </row>
     <row r="77" spans="1:47" hidden="1">
       <c r="A77" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B77" s="5">
         <v>35794</v>
@@ -3792,7 +3792,7 @@
     </row>
     <row r="78" spans="1:47" hidden="1">
       <c r="A78" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B78" s="5">
         <v>35794</v>
@@ -3828,7 +3828,7 @@
     </row>
     <row r="79" spans="1:47" hidden="1">
       <c r="A79" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B79" s="5">
         <v>35839</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="80" spans="1:47" hidden="1">
       <c r="A80" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B80" s="5">
         <v>35790</v>
@@ -3900,7 +3900,7 @@
     </row>
     <row r="81" spans="1:37" hidden="1">
       <c r="A81" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B81" s="5">
         <v>35855</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="82" spans="1:37" hidden="1">
       <c r="A82" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B82" s="5">
         <v>35814</v>
@@ -3981,7 +3981,7 @@
     </row>
     <row r="83" spans="1:37" hidden="1">
       <c r="A83" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B83" s="5">
         <v>35854</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="84" spans="1:37" hidden="1">
       <c r="A84" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B84" s="5">
         <v>35828</v>
@@ -4068,7 +4068,7 @@
     </row>
     <row r="85" spans="1:37" hidden="1">
       <c r="A85" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B85" s="5">
         <v>35849</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="86" spans="1:37" hidden="1">
       <c r="A86" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B86" s="5">
         <v>35852</v>
@@ -4152,7 +4152,7 @@
     </row>
     <row r="87" spans="1:37" hidden="1">
       <c r="A87" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B87" s="5">
         <v>35841</v>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="88" spans="1:37" hidden="1">
       <c r="A88" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B88" s="5">
         <v>35815</v>
@@ -4222,7 +4222,7 @@
     </row>
     <row r="89" spans="1:37" hidden="1">
       <c r="A89" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B89" s="5">
         <v>35834</v>
@@ -4261,7 +4261,7 @@
     </row>
     <row r="90" spans="1:37" hidden="1">
       <c r="A90" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B90" s="5">
         <v>35838</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="91" spans="1:37" hidden="1">
       <c r="A91" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B91" s="5">
         <v>35839</v>
@@ -4333,7 +4333,7 @@
     </row>
     <row r="92" spans="1:37" hidden="1">
       <c r="A92" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B92" s="5">
         <v>35815</v>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="93" spans="1:37" hidden="1">
       <c r="A93" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B93" s="5">
         <v>35832</v>
@@ -4406,7 +4406,7 @@
     </row>
     <row r="94" spans="1:37" hidden="1">
       <c r="A94" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B94" s="5">
         <v>35835</v>
@@ -4448,7 +4448,7 @@
     </row>
     <row r="95" spans="1:37" hidden="1">
       <c r="A95" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B95" s="5">
         <v>35834</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="96" spans="1:37" hidden="1">
       <c r="A96" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B96" s="5">
         <v>35841</v>
@@ -4523,7 +4523,7 @@
     </row>
     <row r="97" spans="1:37" hidden="1">
       <c r="A97" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B97" s="5">
         <v>35848</v>
@@ -4562,7 +4562,7 @@
     </row>
     <row r="98" spans="1:37" hidden="1">
       <c r="A98" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B98" s="5">
         <v>35855</v>
@@ -4601,7 +4601,7 @@
     </row>
     <row r="99" spans="1:37" hidden="1">
       <c r="A99" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B99" s="5">
         <v>35831</v>
@@ -4640,7 +4640,7 @@
     </row>
     <row r="100" spans="1:37" hidden="1">
       <c r="A100" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B100" s="5">
         <v>35852</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="101" spans="1:37" hidden="1">
       <c r="A101" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B101" s="5">
         <v>35820</v>
@@ -4715,7 +4715,7 @@
     </row>
     <row r="102" spans="1:37" hidden="1">
       <c r="A102" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B102" s="5">
         <v>35807</v>
@@ -4751,7 +4751,7 @@
     </row>
     <row r="103" spans="1:37" hidden="1">
       <c r="A103" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B103" s="5">
         <v>35818</v>
@@ -4787,7 +4787,7 @@
     </row>
     <row r="104" spans="1:37" hidden="1">
       <c r="A104" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B104" s="5">
         <v>35820</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="105" spans="1:37">
       <c r="A105" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B105" s="5">
         <v>35816</v>
@@ -4860,7 +4860,7 @@
     </row>
     <row r="106" spans="1:37">
       <c r="A106" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B106" s="5">
         <v>35816</v>
@@ -4897,7 +4897,7 @@
     </row>
     <row r="107" spans="1:37" hidden="1">
       <c r="A107" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B107" s="5">
         <v>35797</v>
@@ -4933,7 +4933,7 @@
     </row>
     <row r="108" spans="1:37" hidden="1">
       <c r="A108" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B108" s="5">
         <v>35796</v>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="109" spans="1:37" hidden="1">
       <c r="A109" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B109" s="5">
         <v>35817</v>
@@ -5008,7 +5008,7 @@
     </row>
     <row r="110" spans="1:37" hidden="1">
       <c r="A110" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B110" s="5">
         <v>35796</v>
@@ -5044,7 +5044,7 @@
     </row>
     <row r="111" spans="1:37" hidden="1">
       <c r="A111" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B111" s="5">
         <v>35818</v>
@@ -5080,7 +5080,7 @@
     </row>
     <row r="112" spans="1:37" hidden="1">
       <c r="A112" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B112" s="5">
         <v>35817</v>
@@ -5114,7 +5114,7 @@
     </row>
     <row r="113" spans="1:51" hidden="1">
       <c r="A113" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B113" s="5">
         <v>35818</v>
@@ -5150,7 +5150,7 @@
     </row>
     <row r="114" spans="1:51" hidden="1">
       <c r="A114" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B114" s="5">
         <v>35808</v>
@@ -5186,7 +5186,7 @@
     </row>
     <row r="115" spans="1:51" hidden="1">
       <c r="A115" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B115" s="5">
         <v>35835</v>
@@ -5225,7 +5225,7 @@
     </row>
     <row r="116" spans="1:51" hidden="1">
       <c r="A116" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B116" s="5">
         <v>35820</v>
@@ -5261,7 +5261,7 @@
     </row>
     <row r="117" spans="1:51" ht="15.75" hidden="1" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B117" s="5">
         <v>35824</v>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="118" spans="1:51" hidden="1">
       <c r="A118" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B118" s="5">
         <v>35853</v>
@@ -5333,7 +5333,7 @@
     </row>
     <row r="119" spans="1:51" hidden="1">
       <c r="A119" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B119" s="5">
         <v>35827</v>
@@ -5372,7 +5372,7 @@
     </row>
     <row r="120" spans="1:51" hidden="1">
       <c r="A120" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B120" s="5">
         <v>35820</v>
@@ -5408,7 +5408,7 @@
     </row>
     <row r="121" spans="1:51" hidden="1">
       <c r="A121" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B121" s="5">
         <v>35824</v>
@@ -5444,7 +5444,7 @@
     </row>
     <row r="122" spans="1:51" hidden="1">
       <c r="A122" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B122" s="5">
         <v>35824</v>
@@ -5480,7 +5480,7 @@
     </row>
     <row r="123" spans="1:51" hidden="1">
       <c r="A123" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B123" s="5">
         <v>35842</v>
@@ -5534,7 +5534,7 @@
     </row>
     <row r="124" spans="1:51" hidden="1">
       <c r="A124" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B124" s="5">
         <v>35824</v>
@@ -5573,7 +5573,7 @@
     </row>
     <row r="125" spans="1:51" hidden="1">
       <c r="A125" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B125" s="5">
         <v>35832</v>
@@ -5609,7 +5609,7 @@
     </row>
     <row r="126" spans="1:51" hidden="1">
       <c r="A126" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B126" s="5">
         <v>35839</v>
@@ -5645,7 +5645,7 @@
     </row>
     <row r="127" spans="1:51" hidden="1">
       <c r="A127" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B127" s="5">
         <v>35828</v>
@@ -5687,7 +5687,7 @@
     </row>
     <row r="128" spans="1:51" hidden="1">
       <c r="A128" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B128" s="5">
         <v>35849</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="129" spans="1:37" hidden="1">
       <c r="A129" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B129" s="5">
         <v>35829</v>
@@ -5762,7 +5762,7 @@
     </row>
     <row r="130" spans="1:37" hidden="1">
       <c r="A130" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B130" s="5">
         <v>35831</v>
@@ -5801,7 +5801,7 @@
     </row>
     <row r="131" spans="1:37" hidden="1">
       <c r="A131" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B131" s="5">
         <v>35828</v>
@@ -5837,7 +5837,7 @@
     </row>
     <row r="132" spans="1:37" hidden="1">
       <c r="A132" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B132" s="5">
         <v>35849</v>
@@ -5876,7 +5876,7 @@
     </row>
     <row r="133" spans="1:37" hidden="1">
       <c r="A133" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B133" s="5">
         <v>35813</v>
@@ -5912,7 +5912,7 @@
     </row>
     <row r="134" spans="1:37" hidden="1">
       <c r="A134" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B134" s="5">
         <v>35828</v>
@@ -5972,7 +5972,7 @@
     </row>
     <row r="135" spans="1:37" hidden="1">
       <c r="A135" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B135" s="5">
         <v>35877</v>
@@ -6014,7 +6014,7 @@
     </row>
     <row r="136" spans="1:37" hidden="1">
       <c r="A136" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B136" s="5">
         <v>35820</v>
@@ -6053,7 +6053,7 @@
     </row>
     <row r="137" spans="1:37" hidden="1">
       <c r="A137" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B137" s="5">
         <v>35800</v>
@@ -6089,7 +6089,7 @@
     </row>
     <row r="138" spans="1:37" hidden="1">
       <c r="A138" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B138" s="5">
         <v>35801</v>
@@ -6125,7 +6125,7 @@
     </row>
     <row r="139" spans="1:37" hidden="1">
       <c r="A139" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B139" s="5">
         <v>35824</v>
@@ -6167,7 +6167,7 @@
     </row>
     <row r="140" spans="1:37" hidden="1">
       <c r="A140" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B140" s="5">
         <v>35831</v>
@@ -6203,7 +6203,7 @@
     </row>
     <row r="141" spans="1:37" hidden="1">
       <c r="A141" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B141" s="5">
         <v>35830</v>
@@ -6243,7 +6243,7 @@
     </row>
     <row r="142" spans="1:37" hidden="1">
       <c r="A142" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B142" s="5">
         <v>35801</v>
@@ -6279,7 +6279,7 @@
     </row>
     <row r="143" spans="1:37" hidden="1">
       <c r="A143" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B143" s="5">
         <v>35824</v>
@@ -6315,7 +6315,7 @@
     </row>
     <row r="144" spans="1:37" hidden="1">
       <c r="A144" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B144" s="5">
         <v>35825</v>
@@ -6351,7 +6351,7 @@
     </row>
     <row r="145" spans="1:51" hidden="1">
       <c r="A145" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B145" s="5">
         <v>35852</v>
@@ -6393,7 +6393,7 @@
     </row>
     <row r="146" spans="1:51" hidden="1">
       <c r="A146" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B146" s="5">
         <v>35834</v>
@@ -6429,7 +6429,7 @@
     </row>
     <row r="147" spans="1:51" hidden="1">
       <c r="A147" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B147" s="5">
         <v>35829</v>
@@ -6465,7 +6465,7 @@
     </row>
     <row r="148" spans="1:51" hidden="1">
       <c r="A148" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B148" s="5">
         <v>35842</v>
@@ -6507,7 +6507,7 @@
     </row>
     <row r="149" spans="1:51" hidden="1">
       <c r="A149" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B149" s="5">
         <v>35813</v>
@@ -6543,7 +6543,7 @@
     </row>
     <row r="150" spans="1:51" hidden="1">
       <c r="A150" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B150" s="5">
         <v>35824</v>
@@ -6579,7 +6579,7 @@
     </row>
     <row r="151" spans="1:51" hidden="1">
       <c r="A151" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B151" s="5">
         <v>35831</v>
@@ -6610,7 +6610,7 @@
     </row>
     <row r="152" spans="1:51" hidden="1">
       <c r="A152" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B152" s="5">
         <v>35870</v>
@@ -6658,7 +6658,7 @@
     </row>
     <row r="153" spans="1:51" hidden="1">
       <c r="A153" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B153" s="5">
         <v>35858</v>
@@ -6695,7 +6695,7 @@
     </row>
     <row r="154" spans="1:51" hidden="1">
       <c r="A154" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B154" s="5">
         <v>35833</v>
@@ -6732,7 +6732,7 @@
     </row>
     <row r="155" spans="1:51" hidden="1">
       <c r="A155" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B155" s="5">
         <v>35804</v>
@@ -6768,7 +6768,7 @@
     </row>
     <row r="156" spans="1:51" hidden="1">
       <c r="A156" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B156" s="5">
         <v>35855</v>
@@ -6810,7 +6810,7 @@
     </row>
     <row r="157" spans="1:51" hidden="1">
       <c r="A157" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B157" s="5">
         <v>35807</v>
@@ -6846,7 +6846,7 @@
     </row>
     <row r="158" spans="1:51" hidden="1">
       <c r="A158" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B158" s="5">
         <v>35806</v>
@@ -6906,7 +6906,7 @@
     </row>
     <row r="159" spans="1:51" hidden="1">
       <c r="A159" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B159" s="5">
         <v>35808</v>
@@ -6942,7 +6942,7 @@
     </row>
     <row r="160" spans="1:51" hidden="1">
       <c r="A160" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B160" s="5">
         <v>35803</v>
@@ -6978,7 +6978,7 @@
     </row>
     <row r="161" spans="1:51" hidden="1">
       <c r="A161" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B161" s="5">
         <v>35808</v>
@@ -7014,7 +7014,7 @@
     </row>
     <row r="162" spans="1:51" hidden="1">
       <c r="A162" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B162" s="5">
         <v>35818</v>
@@ -7050,7 +7050,7 @@
     </row>
     <row r="163" spans="1:51" hidden="1">
       <c r="A163" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B163" s="5">
         <v>35834</v>
@@ -7086,7 +7086,7 @@
     </row>
     <row r="164" spans="1:51" hidden="1">
       <c r="A164" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B164" s="5">
         <v>35860</v>
@@ -7122,7 +7122,7 @@
     </row>
     <row r="165" spans="1:51" hidden="1">
       <c r="A165" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B165" s="5">
         <v>35863</v>
@@ -7164,7 +7164,7 @@
     </row>
     <row r="166" spans="1:51" hidden="1">
       <c r="A166" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B166" s="5">
         <v>35821</v>
@@ -7203,7 +7203,7 @@
     </row>
     <row r="167" spans="1:51" hidden="1">
       <c r="A167" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B167" s="5">
         <v>35829</v>
@@ -7245,7 +7245,7 @@
     </row>
     <row r="168" spans="1:51" hidden="1">
       <c r="A168" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B168" s="5">
         <v>35829</v>
@@ -7281,7 +7281,7 @@
     </row>
     <row r="169" spans="1:51" hidden="1">
       <c r="A169" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B169" s="5">
         <v>35839</v>
@@ -7320,7 +7320,7 @@
     </row>
     <row r="170" spans="1:51" hidden="1">
       <c r="A170" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B170" s="5">
         <v>35834</v>
@@ -7356,7 +7356,7 @@
     </row>
     <row r="171" spans="1:51" ht="16.5" hidden="1" customHeight="1">
       <c r="A171" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B171" s="5">
         <v>35820</v>
@@ -7395,7 +7395,7 @@
     </row>
     <row r="172" spans="1:51" hidden="1">
       <c r="A172" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B172" s="5">
         <v>35834</v>
@@ -7431,7 +7431,7 @@
     </row>
     <row r="173" spans="1:51" hidden="1">
       <c r="A173" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B173" s="5">
         <v>35836</v>
@@ -7465,7 +7465,7 @@
     </row>
     <row r="174" spans="1:51" hidden="1">
       <c r="A174" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B174" s="5">
         <v>35817</v>
@@ -7513,7 +7513,7 @@
     </row>
     <row r="175" spans="1:51" hidden="1">
       <c r="A175" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B175" s="5">
         <v>35836</v>
@@ -7547,7 +7547,7 @@
     </row>
     <row r="176" spans="1:51" hidden="1">
       <c r="A176" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B176" s="5">
         <v>35820</v>
@@ -7583,7 +7583,7 @@
     </row>
     <row r="177" spans="1:51" hidden="1">
       <c r="A177" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B177" s="5">
         <v>35824</v>
@@ -7619,7 +7619,7 @@
     </row>
     <row r="178" spans="1:51" hidden="1">
       <c r="A178" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B178" s="5">
         <v>35837</v>
@@ -7661,7 +7661,7 @@
     </row>
     <row r="179" spans="1:51" hidden="1">
       <c r="A179" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B179" s="5">
         <v>35817</v>
@@ -7703,7 +7703,7 @@
     </row>
     <row r="180" spans="1:51" hidden="1">
       <c r="A180" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B180" s="5">
         <v>35817</v>
@@ -7745,7 +7745,7 @@
     </row>
     <row r="181" spans="1:51" hidden="1">
       <c r="A181" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B181" s="5">
         <v>35821</v>
@@ -7790,7 +7790,7 @@
     </row>
     <row r="182" spans="1:51" hidden="1">
       <c r="A182" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B182" s="5">
         <v>35837</v>
@@ -7824,7 +7824,7 @@
     </row>
     <row r="183" spans="1:51" hidden="1">
       <c r="A183" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B183" s="5">
         <v>35813</v>
@@ -7860,7 +7860,7 @@
     </row>
     <row r="184" spans="1:51" hidden="1">
       <c r="A184" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B184" s="5">
         <v>35814</v>
@@ -7899,7 +7899,7 @@
     </row>
     <row r="185" spans="1:51" hidden="1">
       <c r="A185" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B185" s="5">
         <v>35838</v>
@@ -7935,7 +7935,7 @@
     </row>
     <row r="186" spans="1:51" hidden="1">
       <c r="A186" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B186" s="5">
         <v>35813</v>
@@ -7971,13 +7971,13 @@
     </row>
     <row r="187" spans="1:51" hidden="1">
       <c r="A187" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B187" s="5">
         <v>35870</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D187" s="6">
         <v>102.83020062021301</v>
@@ -8086,7 +8086,7 @@
     </row>
     <row r="188" spans="1:51" hidden="1">
       <c r="A188" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B188" s="5">
         <v>35815</v>
@@ -8144,7 +8144,7 @@
     </row>
     <row r="189" spans="1:51" hidden="1">
       <c r="A189" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B189" s="5">
         <v>35861</v>
@@ -8198,7 +8198,7 @@
     </row>
     <row r="190" spans="1:51" hidden="1">
       <c r="A190" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B190" s="5">
         <v>35843</v>
@@ -8271,7 +8271,7 @@
     </row>
     <row r="191" spans="1:51" hidden="1">
       <c r="A191" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B191" s="5">
         <v>35861</v>
@@ -8329,7 +8329,7 @@
     </row>
     <row r="192" spans="1:51" hidden="1">
       <c r="A192" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B192" s="5">
         <v>35872</v>
@@ -8372,7 +8372,7 @@
     </row>
     <row r="193" spans="1:51" hidden="1">
       <c r="A193" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B193" s="5">
         <v>35846</v>
@@ -8433,7 +8433,7 @@
     </row>
     <row r="194" spans="1:51" hidden="1">
       <c r="A194" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B194" s="5">
         <v>35815</v>
@@ -8490,13 +8490,13 @@
     </row>
     <row r="195" spans="1:51" hidden="1">
       <c r="A195" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B195" s="5">
         <v>35885</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D195" s="6">
         <v>90.914127423822606</v>
@@ -8593,7 +8593,7 @@
     </row>
     <row r="196" spans="1:51" hidden="1">
       <c r="A196" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B196" s="5">
         <v>35828</v>
@@ -8654,7 +8654,7 @@
     </row>
     <row r="197" spans="1:51" hidden="1">
       <c r="A197" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B197" s="5">
         <v>35877</v>
@@ -8711,7 +8711,7 @@
     </row>
     <row r="198" spans="1:51" hidden="1">
       <c r="A198" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B198" s="5">
         <v>35788</v>
@@ -8766,7 +8766,7 @@
     </row>
     <row r="199" spans="1:51" hidden="1">
       <c r="A199" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B199" s="5">
         <v>35843</v>
@@ -8836,7 +8836,7 @@
     </row>
     <row r="200" spans="1:51" hidden="1">
       <c r="A200" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B200" s="5">
         <v>35815</v>
@@ -8893,7 +8893,7 @@
     </row>
     <row r="201" spans="1:51" hidden="1">
       <c r="A201" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B201" s="5">
         <v>35861</v>
@@ -8951,7 +8951,7 @@
     </row>
     <row r="202" spans="1:51" hidden="1">
       <c r="A202" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B202" s="5">
         <v>35843</v>
@@ -9015,7 +9015,7 @@
     </row>
     <row r="203" spans="1:51" hidden="1">
       <c r="A203" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B203" s="5">
         <v>35839</v>
@@ -9049,7 +9049,7 @@
     </row>
     <row r="204" spans="1:51" hidden="1">
       <c r="A204" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B204" s="5">
         <v>35839</v>
@@ -9083,7 +9083,7 @@
     </row>
     <row r="205" spans="1:51" hidden="1">
       <c r="A205" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B205" s="5">
         <v>35840</v>
@@ -9120,7 +9120,7 @@
     </row>
     <row r="206" spans="1:51" hidden="1">
       <c r="A206" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B206" s="5">
         <v>35840</v>
@@ -9154,7 +9154,7 @@
     </row>
     <row r="207" spans="1:51" hidden="1">
       <c r="A207" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B207" s="5">
         <v>35841</v>
@@ -9193,7 +9193,7 @@
     </row>
     <row r="208" spans="1:51" hidden="1">
       <c r="A208" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B208" s="5">
         <v>35842</v>
@@ -9238,7 +9238,7 @@
     </row>
     <row r="209" spans="1:43" hidden="1">
       <c r="A209" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B209" s="5">
         <v>35842</v>
@@ -9272,7 +9272,7 @@
     </row>
     <row r="210" spans="1:43">
       <c r="A210" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B210" s="5">
         <v>35843</v>
@@ -9312,7 +9312,7 @@
     </row>
     <row r="211" spans="1:43">
       <c r="A211" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B211" s="5">
         <v>35843</v>
@@ -9355,7 +9355,7 @@
     </row>
     <row r="212" spans="1:43" hidden="1">
       <c r="A212" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B212" s="5">
         <v>35844</v>
@@ -9401,7 +9401,7 @@
     </row>
     <row r="213" spans="1:43" hidden="1">
       <c r="A213" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B213" s="5">
         <v>35844</v>
@@ -9444,7 +9444,7 @@
     </row>
     <row r="214" spans="1:43" hidden="1">
       <c r="A214" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B214" s="5">
         <v>35845</v>
@@ -9481,7 +9481,7 @@
     </row>
     <row r="215" spans="1:43" hidden="1">
       <c r="A215" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B215" s="5">
         <v>35845</v>
@@ -9518,7 +9518,7 @@
     </row>
     <row r="216" spans="1:43" hidden="1">
       <c r="A216" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B216" s="5">
         <v>35848</v>
@@ -9554,7 +9554,7 @@
     </row>
     <row r="217" spans="1:43" hidden="1">
       <c r="A217" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B217" s="5">
         <v>35848</v>
@@ -9588,7 +9588,7 @@
     </row>
     <row r="218" spans="1:43" hidden="1">
       <c r="A218" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B218" s="5">
         <v>35850</v>
@@ -9625,7 +9625,7 @@
     </row>
     <row r="219" spans="1:43" hidden="1">
       <c r="A219" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B219" s="5">
         <v>35850</v>
@@ -9659,7 +9659,7 @@
     </row>
     <row r="220" spans="1:43" hidden="1">
       <c r="A220" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B220" s="5">
         <v>35851</v>
@@ -9693,7 +9693,7 @@
     </row>
     <row r="221" spans="1:43" hidden="1">
       <c r="A221" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B221" s="5">
         <v>35851</v>
@@ -9727,7 +9727,7 @@
     </row>
     <row r="222" spans="1:43" hidden="1">
       <c r="A222" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B222" s="5">
         <v>35852</v>
@@ -9769,7 +9769,7 @@
     </row>
     <row r="223" spans="1:43" hidden="1">
       <c r="A223" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B223" s="5">
         <v>35852</v>
@@ -9808,7 +9808,7 @@
     </row>
     <row r="224" spans="1:43" hidden="1">
       <c r="A224" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B224" s="5">
         <v>35853</v>
@@ -9842,7 +9842,7 @@
     </row>
     <row r="225" spans="1:49" hidden="1">
       <c r="A225" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B225" s="5">
         <v>35854</v>
@@ -9878,7 +9878,7 @@
     </row>
     <row r="226" spans="1:49" hidden="1">
       <c r="A226" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B226" s="5">
         <v>35854</v>
@@ -9915,7 +9915,7 @@
     </row>
     <row r="227" spans="1:49" hidden="1">
       <c r="A227" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B227" s="5">
         <v>35855</v>
@@ -9951,7 +9951,7 @@
     </row>
     <row r="228" spans="1:49" hidden="1">
       <c r="A228" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B228" s="5">
         <v>35855</v>
@@ -9991,7 +9991,7 @@
     </row>
     <row r="229" spans="1:49" hidden="1">
       <c r="A229" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B229" s="5">
         <v>35856</v>
@@ -10028,7 +10028,7 @@
     </row>
     <row r="230" spans="1:49" hidden="1">
       <c r="A230" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B230" s="5">
         <v>35856</v>
@@ -10062,7 +10062,7 @@
     </row>
     <row r="231" spans="1:49">
       <c r="A231" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B231" s="5">
         <v>35857</v>
@@ -10123,7 +10123,7 @@
     </row>
     <row r="232" spans="1:49">
       <c r="A232" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B232" s="5">
         <v>35857</v>
@@ -10175,7 +10175,7 @@
     </row>
     <row r="233" spans="1:49" hidden="1">
       <c r="A233" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B233" s="5">
         <v>35858</v>
@@ -10212,7 +10212,7 @@
     </row>
     <row r="234" spans="1:49" hidden="1">
       <c r="A234" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B234" s="5">
         <v>35858</v>
@@ -10255,7 +10255,7 @@
     </row>
     <row r="235" spans="1:49" hidden="1">
       <c r="A235" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B235" s="5">
         <v>35859</v>
@@ -10294,7 +10294,7 @@
     </row>
     <row r="236" spans="1:49" hidden="1">
       <c r="A236" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B236" s="5">
         <v>35859</v>
@@ -10330,7 +10330,7 @@
     </row>
     <row r="237" spans="1:49" hidden="1">
       <c r="A237" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B237" s="5">
         <v>35860</v>
@@ -10364,7 +10364,7 @@
     </row>
     <row r="238" spans="1:49" hidden="1">
       <c r="A238" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B238" s="5">
         <v>35860</v>
@@ -10398,7 +10398,7 @@
     </row>
     <row r="239" spans="1:49" hidden="1">
       <c r="A239" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B239" s="5">
         <v>35861</v>
@@ -10432,7 +10432,7 @@
     </row>
     <row r="240" spans="1:49" hidden="1">
       <c r="A240" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B240" s="5">
         <v>35861</v>
@@ -10466,7 +10466,7 @@
     </row>
     <row r="241" spans="1:43" hidden="1">
       <c r="A241" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B241" s="5">
         <v>35862</v>
@@ -10500,7 +10500,7 @@
     </row>
     <row r="242" spans="1:43" hidden="1">
       <c r="A242" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B242" s="5">
         <v>35862</v>
@@ -10534,7 +10534,7 @@
     </row>
     <row r="243" spans="1:43" hidden="1">
       <c r="A243" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B243" s="5">
         <v>35782</v>
@@ -10568,7 +10568,7 @@
     </row>
     <row r="244" spans="1:43" hidden="1">
       <c r="A244" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B244" s="5">
         <v>35816</v>
@@ -10605,7 +10605,7 @@
     </row>
     <row r="245" spans="1:43" hidden="1">
       <c r="A245" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B245" s="5">
         <v>35817</v>
@@ -10642,7 +10642,7 @@
     </row>
     <row r="246" spans="1:43" hidden="1">
       <c r="A246" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B246" s="5">
         <v>35830</v>
@@ -10679,7 +10679,7 @@
     </row>
     <row r="247" spans="1:43" hidden="1">
       <c r="A247" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B247" s="5">
         <v>35832</v>
@@ -10713,7 +10713,7 @@
     </row>
     <row r="248" spans="1:43" hidden="1">
       <c r="A248" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B248" s="5">
         <v>35833</v>
@@ -10750,7 +10750,7 @@
     </row>
     <row r="249" spans="1:43" hidden="1">
       <c r="A249" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B249" s="5">
         <v>35836</v>
@@ -10787,7 +10787,7 @@
     </row>
     <row r="250" spans="1:43" hidden="1">
       <c r="A250" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B250" s="5">
         <v>35838</v>
@@ -10821,7 +10821,7 @@
     </row>
     <row r="251" spans="1:43" hidden="1">
       <c r="A251" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B251" s="5">
         <v>35840</v>
@@ -10858,7 +10858,7 @@
     </row>
     <row r="252" spans="1:43" hidden="1">
       <c r="A252" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B252" s="5">
         <v>35842</v>
@@ -10898,7 +10898,7 @@
     </row>
     <row r="253" spans="1:43" hidden="1">
       <c r="A253" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B253" s="5">
         <v>35844</v>
@@ -10944,7 +10944,7 @@
     </row>
     <row r="254" spans="1:43" hidden="1">
       <c r="A254" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B254" s="5">
         <v>35846</v>
@@ -10978,7 +10978,7 @@
     </row>
     <row r="255" spans="1:43" hidden="1">
       <c r="A255" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B255" s="5">
         <v>35849</v>
@@ -11015,7 +11015,7 @@
     </row>
     <row r="256" spans="1:43" hidden="1">
       <c r="A256" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B256" s="5">
         <v>35851</v>
@@ -11049,7 +11049,7 @@
     </row>
     <row r="257" spans="1:50" hidden="1">
       <c r="A257" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B257" s="5">
         <v>35853</v>
@@ -11083,7 +11083,7 @@
     </row>
     <row r="258" spans="1:50" hidden="1">
       <c r="A258" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B258" s="5">
         <v>35854</v>
@@ -11117,7 +11117,7 @@
     </row>
     <row r="259" spans="1:50" hidden="1">
       <c r="A259" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B259" s="5">
         <v>35856</v>
@@ -11154,7 +11154,7 @@
     </row>
     <row r="260" spans="1:50" hidden="1">
       <c r="A260" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B260" s="5">
         <v>35857</v>
@@ -11200,7 +11200,7 @@
     </row>
     <row r="261" spans="1:50" hidden="1">
       <c r="A261" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B261" s="5">
         <v>35858</v>
@@ -11240,7 +11240,7 @@
     </row>
     <row r="262" spans="1:50" hidden="1">
       <c r="A262" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B262" s="5">
         <v>35859</v>
@@ -11277,7 +11277,7 @@
     </row>
     <row r="263" spans="1:50" hidden="1">
       <c r="A263" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B263" s="5">
         <v>35864</v>
@@ -11314,7 +11314,7 @@
     </row>
     <row r="264" spans="1:50" hidden="1">
       <c r="A264" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B264" s="5">
         <v>35865</v>
@@ -11348,7 +11348,7 @@
     </row>
     <row r="265" spans="1:50" hidden="1">
       <c r="A265" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B265" s="5">
         <v>35868</v>
@@ -11382,7 +11382,7 @@
     </row>
     <row r="266" spans="1:50" hidden="1">
       <c r="A266" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B266" s="5">
         <v>35869</v>
@@ -11416,7 +11416,7 @@
     </row>
     <row r="267" spans="1:50" hidden="1">
       <c r="A267" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B267" s="5">
         <v>35871</v>
@@ -11453,7 +11453,7 @@
     </row>
     <row r="268" spans="1:50" hidden="1">
       <c r="A268" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B268" s="5">
         <v>35872</v>
@@ -11490,7 +11490,7 @@
     </row>
     <row r="269" spans="1:50" hidden="1">
       <c r="A269" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B269" s="5">
         <v>35873</v>
@@ -11524,7 +11524,7 @@
     </row>
     <row r="270" spans="1:50" hidden="1">
       <c r="A270" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B270" s="5">
         <v>35875</v>
@@ -11567,7 +11567,7 @@
     </row>
     <row r="271" spans="1:50" hidden="1">
       <c r="A271" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B271" s="5">
         <v>35876</v>
@@ -11601,7 +11601,7 @@
     </row>
     <row r="272" spans="1:50" hidden="1">
       <c r="A272" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B272" s="5">
         <v>35877</v>
@@ -11665,7 +11665,7 @@
     </row>
     <row r="273" spans="1:51" hidden="1">
       <c r="A273" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B273" s="5">
         <v>35782</v>
@@ -11699,7 +11699,7 @@
     </row>
     <row r="274" spans="1:51" hidden="1">
       <c r="A274" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B274" s="5">
         <v>35789</v>
@@ -11730,7 +11730,7 @@
     </row>
     <row r="275" spans="1:51" hidden="1">
       <c r="A275" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B275" s="5">
         <v>35817</v>
@@ -11764,7 +11764,7 @@
     </row>
     <row r="276" spans="1:51" hidden="1">
       <c r="A276" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B276" s="5">
         <v>35812</v>
@@ -11802,7 +11802,7 @@
     </row>
     <row r="277" spans="1:51" hidden="1">
       <c r="A277" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B277" s="5">
         <v>35831</v>
@@ -11839,7 +11839,7 @@
     </row>
     <row r="278" spans="1:51" hidden="1">
       <c r="A278" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B278" s="5">
         <v>35823</v>
@@ -11876,7 +11876,7 @@
     </row>
     <row r="279" spans="1:51" hidden="1">
       <c r="A279" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B279" s="5">
         <v>35830</v>
@@ -11910,7 +11910,7 @@
     </row>
     <row r="280" spans="1:51" hidden="1">
       <c r="A280" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B280" s="5">
         <v>35814</v>
@@ -11947,7 +11947,7 @@
     </row>
     <row r="281" spans="1:51" hidden="1">
       <c r="A281" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B281" s="5">
         <v>35833</v>
@@ -11981,7 +11981,7 @@
     </row>
     <row r="282" spans="1:51" hidden="1">
       <c r="A282" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B282" s="5">
         <v>35835</v>
@@ -12015,7 +12015,7 @@
     </row>
     <row r="283" spans="1:51" hidden="1">
       <c r="A283" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B283" s="5">
         <v>35851</v>
@@ -12058,7 +12058,7 @@
     </row>
     <row r="284" spans="1:51" hidden="1">
       <c r="A284" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B284" s="5">
         <v>35838</v>
@@ -12092,7 +12092,7 @@
     </row>
     <row r="285" spans="1:51" hidden="1">
       <c r="A285" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B285" s="5">
         <v>35842</v>
@@ -12129,7 +12129,7 @@
     </row>
     <row r="286" spans="1:51" hidden="1">
       <c r="A286" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B286" s="5">
         <v>35843</v>
@@ -12166,7 +12166,7 @@
     </row>
     <row r="287" spans="1:51" hidden="1">
       <c r="A287" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B287" s="5">
         <v>35816</v>
@@ -12206,7 +12206,7 @@
     </row>
     <row r="288" spans="1:51" hidden="1">
       <c r="A288" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B288" s="5">
         <v>35846</v>
@@ -12240,7 +12240,7 @@
     </row>
     <row r="289" spans="1:51" hidden="1">
       <c r="A289" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B289" s="5">
         <v>35847</v>
@@ -12274,7 +12274,7 @@
     </row>
     <row r="290" spans="1:51" hidden="1">
       <c r="A290" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B290" s="5">
         <v>35848</v>
@@ -12311,7 +12311,7 @@
     </row>
     <row r="291" spans="1:51" hidden="1">
       <c r="A291" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B291" s="5">
         <v>35851</v>
@@ -12348,7 +12348,7 @@
     </row>
     <row r="292" spans="1:51" hidden="1">
       <c r="A292" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B292" s="5">
         <v>35853</v>
@@ -12382,7 +12382,7 @@
     </row>
     <row r="293" spans="1:51" hidden="1">
       <c r="A293" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B293" s="5">
         <v>35855</v>
@@ -12416,7 +12416,7 @@
     </row>
     <row r="294" spans="1:51" hidden="1">
       <c r="A294" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B294" s="5">
         <v>35856</v>
@@ -12450,7 +12450,7 @@
     </row>
     <row r="295" spans="1:51" hidden="1">
       <c r="A295" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B295" s="5">
         <v>35857</v>
@@ -12502,7 +12502,7 @@
     </row>
     <row r="296" spans="1:51" hidden="1">
       <c r="A296" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B296" s="5">
         <v>35844</v>
@@ -12551,7 +12551,7 @@
     </row>
     <row r="297" spans="1:51" hidden="1">
       <c r="A297" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B297" s="5">
         <v>35862</v>
@@ -12588,7 +12588,7 @@
     </row>
     <row r="298" spans="1:51" hidden="1">
       <c r="A298" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B298" s="5">
         <v>35864</v>
@@ -12622,7 +12622,7 @@
     </row>
     <row r="299" spans="1:51" hidden="1">
       <c r="A299" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B299" s="5">
         <v>35865</v>
@@ -12656,7 +12656,7 @@
     </row>
     <row r="300" spans="1:51" hidden="1">
       <c r="A300" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B300" s="5">
         <v>35868</v>
@@ -12693,7 +12693,7 @@
     </row>
     <row r="301" spans="1:51" hidden="1">
       <c r="A301" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B301" s="5">
         <v>35869</v>
@@ -12733,7 +12733,7 @@
     </row>
     <row r="302" spans="1:51" hidden="1">
       <c r="A302" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B302" s="5">
         <v>35871</v>
@@ -12779,13 +12779,13 @@
     </row>
     <row r="303" spans="1:51" hidden="1">
       <c r="A303" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B303" s="5">
         <v>35885</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D303" s="6">
         <v>90.557029177718803</v>
@@ -12894,7 +12894,7 @@
     </row>
     <row r="304" spans="1:51" hidden="1">
       <c r="A304" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B304" s="5">
         <v>35875</v>
@@ -12931,7 +12931,7 @@
     </row>
     <row r="305" spans="1:51" hidden="1">
       <c r="A305" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B305" s="5">
         <v>35876</v>
@@ -12968,7 +12968,7 @@
     </row>
     <row r="306" spans="1:51" hidden="1">
       <c r="A306" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B306" s="5">
         <v>35881</v>
@@ -13002,7 +13002,7 @@
     </row>
     <row r="307" spans="1:51" hidden="1">
       <c r="A307" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B307" s="5">
         <v>35863</v>
@@ -13041,7 +13041,7 @@
     </row>
     <row r="308" spans="1:51" hidden="1">
       <c r="A308" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B308" s="5">
         <v>35863</v>
@@ -13077,7 +13077,7 @@
     </row>
     <row r="309" spans="1:51" hidden="1">
       <c r="A309" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B309" s="5">
         <v>35864</v>
@@ -13114,7 +13114,7 @@
     </row>
     <row r="310" spans="1:51" hidden="1">
       <c r="A310" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B310" s="5">
         <v>35864</v>
@@ -13148,7 +13148,7 @@
     </row>
     <row r="311" spans="1:51" hidden="1">
       <c r="A311" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B311" s="5">
         <v>35865</v>
@@ -13182,7 +13182,7 @@
     </row>
     <row r="312" spans="1:51" hidden="1">
       <c r="A312" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B312" s="5">
         <v>35865</v>
@@ -13216,7 +13216,7 @@
     </row>
     <row r="313" spans="1:51" hidden="1">
       <c r="A313" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B313" s="5">
         <v>35866</v>
@@ -13250,7 +13250,7 @@
     </row>
     <row r="314" spans="1:51" hidden="1">
       <c r="A314" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B314" s="5">
         <v>35866</v>
@@ -13284,7 +13284,7 @@
     </row>
     <row r="315" spans="1:51" hidden="1">
       <c r="A315" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B315" s="5">
         <v>35868</v>
@@ -13315,7 +13315,7 @@
     </row>
     <row r="316" spans="1:51" hidden="1">
       <c r="A316" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B316" s="5">
         <v>35868</v>
@@ -13349,7 +13349,7 @@
     </row>
     <row r="317" spans="1:51" hidden="1">
       <c r="A317" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B317" s="5">
         <v>35869</v>
@@ -13383,7 +13383,7 @@
     </row>
     <row r="318" spans="1:51" hidden="1">
       <c r="A318" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B318" s="5">
         <v>35869</v>
@@ -13417,7 +13417,7 @@
     </row>
     <row r="319" spans="1:51" hidden="1">
       <c r="A319" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B319" s="5">
         <v>35870</v>
@@ -13457,7 +13457,7 @@
     </row>
     <row r="320" spans="1:51" hidden="1">
       <c r="A320" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B320" s="5">
         <v>35870</v>
@@ -13500,7 +13500,7 @@
     </row>
     <row r="321" spans="1:50" hidden="1">
       <c r="A321" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B321" s="5">
         <v>35871</v>
@@ -13537,7 +13537,7 @@
     </row>
     <row r="322" spans="1:50" hidden="1">
       <c r="A322" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B322" s="5">
         <v>35872</v>
@@ -13571,7 +13571,7 @@
     </row>
     <row r="323" spans="1:50" hidden="1">
       <c r="A323" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B323" s="5">
         <v>35873</v>
@@ -13605,7 +13605,7 @@
     </row>
     <row r="324" spans="1:50" hidden="1">
       <c r="A324" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B324" s="5">
         <v>35873</v>
@@ -13639,7 +13639,7 @@
     </row>
     <row r="325" spans="1:50" hidden="1">
       <c r="A325" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B325" s="5">
         <v>35876</v>
@@ -13675,7 +13675,7 @@
     </row>
     <row r="326" spans="1:50" hidden="1">
       <c r="A326" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B326" s="5">
         <v>35876</v>
@@ -13714,7 +13714,7 @@
     </row>
     <row r="327" spans="1:50" hidden="1">
       <c r="A327" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B327" s="5">
         <v>35877</v>
@@ -13748,7 +13748,7 @@
     </row>
     <row r="328" spans="1:50" hidden="1">
       <c r="A328" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B328" s="5">
         <v>35878</v>
@@ -13782,7 +13782,7 @@
     </row>
     <row r="329" spans="1:50" hidden="1">
       <c r="A329" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B329" s="5">
         <v>35878</v>
@@ -13816,7 +13816,7 @@
     </row>
     <row r="330" spans="1:50" hidden="1">
       <c r="A330" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B330" s="5">
         <v>35879</v>
@@ -13853,7 +13853,7 @@
     </row>
     <row r="331" spans="1:50" hidden="1">
       <c r="A331" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B331" s="5">
         <v>35879</v>
@@ -13890,7 +13890,7 @@
     </row>
     <row r="332" spans="1:50" hidden="1">
       <c r="A332" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B332" s="5">
         <v>35881</v>
@@ -13927,7 +13927,7 @@
     </row>
     <row r="333" spans="1:50">
       <c r="A333" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B333" s="5">
         <v>35882</v>
@@ -13982,7 +13982,7 @@
     </row>
     <row r="334" spans="1:50" hidden="1">
       <c r="A334" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B334" s="5">
         <v>35882</v>
@@ -14019,7 +14019,7 @@
     </row>
     <row r="335" spans="1:50" hidden="1">
       <c r="A335" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B335" s="5">
         <v>35884</v>
@@ -14053,7 +14053,7 @@
     </row>
     <row r="336" spans="1:50" hidden="1">
       <c r="A336" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B336" s="5">
         <v>35884</v>
@@ -14096,7 +14096,7 @@
     </row>
     <row r="337" spans="1:50" hidden="1">
       <c r="A337" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B337" s="5">
         <v>35885</v>
@@ -14138,7 +14138,7 @@
     </row>
     <row r="338" spans="1:50">
       <c r="A338" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B338" s="5">
         <v>35885</v>
@@ -14180,13 +14180,13 @@
     </row>
     <row r="339" spans="1:50">
       <c r="A339" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B339" s="5">
         <v>35885</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D339" s="6">
         <v>104.081291759465</v>
@@ -14259,7 +14259,7 @@
     </row>
     <row r="340" spans="1:50" hidden="1">
       <c r="A340" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B340" s="5">
         <v>35886</v>
@@ -14296,7 +14296,7 @@
     </row>
     <row r="341" spans="1:50" hidden="1">
       <c r="A341" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B341" s="5">
         <v>35889</v>
@@ -14330,7 +14330,7 @@
     </row>
     <row r="342" spans="1:50" hidden="1">
       <c r="A342" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B342" s="5">
         <v>35893</v>
@@ -14370,7 +14370,7 @@
     </row>
     <row r="343" spans="1:50" hidden="1">
       <c r="A343" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B343" s="5">
         <v>35897</v>
@@ -14404,7 +14404,7 @@
     </row>
     <row r="344" spans="1:50" hidden="1">
       <c r="A344" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B344" s="5">
         <v>35898</v>
@@ -14438,13 +14438,13 @@
     </row>
     <row r="345" spans="1:50">
       <c r="A345" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B345" s="5">
         <v>35899</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D345" s="6">
         <v>104.649220489977</v>
@@ -14514,7 +14514,7 @@
     </row>
     <row r="346" spans="1:50">
       <c r="A346" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B346" s="5">
         <v>35899</v>
@@ -14575,7 +14575,7 @@
     </row>
     <row r="347" spans="1:50" hidden="1">
       <c r="A347" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B347" s="5">
         <v>35795</v>
@@ -14609,7 +14609,7 @@
     </row>
     <row r="348" spans="1:50" hidden="1">
       <c r="A348" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B348" s="5">
         <v>35816</v>
@@ -14646,7 +14646,7 @@
     </row>
     <row r="349" spans="1:50" hidden="1">
       <c r="A349" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B349" s="5">
         <v>35817</v>
@@ -14683,7 +14683,7 @@
     </row>
     <row r="350" spans="1:50" hidden="1">
       <c r="A350" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B350" s="5">
         <v>35835</v>
@@ -14720,7 +14720,7 @@
     </row>
     <row r="351" spans="1:50" hidden="1">
       <c r="A351" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B351" s="5">
         <v>35836</v>
@@ -14754,7 +14754,7 @@
     </row>
     <row r="352" spans="1:50" hidden="1">
       <c r="A352" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B352" s="5">
         <v>35838</v>
@@ -14788,7 +14788,7 @@
     </row>
     <row r="353" spans="1:49" hidden="1">
       <c r="A353" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B353" s="5">
         <v>35840</v>
@@ -14822,7 +14822,7 @@
     </row>
     <row r="354" spans="1:49" hidden="1">
       <c r="A354" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B354" s="5">
         <v>35841</v>
@@ -14859,7 +14859,7 @@
     </row>
     <row r="355" spans="1:49" hidden="1">
       <c r="A355" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B355" s="5">
         <v>35844</v>
@@ -14905,7 +14905,7 @@
     </row>
     <row r="356" spans="1:49" hidden="1">
       <c r="A356" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B356" s="5">
         <v>35845</v>
@@ -14939,7 +14939,7 @@
     </row>
     <row r="357" spans="1:49" hidden="1">
       <c r="A357" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B357" s="5">
         <v>35847</v>
@@ -14973,7 +14973,7 @@
     </row>
     <row r="358" spans="1:49" hidden="1">
       <c r="A358" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B358" s="5">
         <v>35850</v>
@@ -15007,7 +15007,7 @@
     </row>
     <row r="359" spans="1:49" hidden="1">
       <c r="A359" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B359" s="5">
         <v>35851</v>
@@ -15041,7 +15041,7 @@
     </row>
     <row r="360" spans="1:49" hidden="1">
       <c r="A360" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B360" s="5">
         <v>35852</v>
@@ -15075,7 +15075,7 @@
     </row>
     <row r="361" spans="1:49" hidden="1">
       <c r="A361" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B361" s="5">
         <v>35854</v>
@@ -15115,7 +15115,7 @@
     </row>
     <row r="362" spans="1:49" hidden="1">
       <c r="A362" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B362" s="5">
         <v>35856</v>
@@ -15152,7 +15152,7 @@
     </row>
     <row r="363" spans="1:49" hidden="1">
       <c r="A363" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B363" s="5">
         <v>35857</v>
@@ -15213,7 +15213,7 @@
     </row>
     <row r="364" spans="1:49" hidden="1">
       <c r="A364" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B364" s="5">
         <v>35860</v>
@@ -15247,7 +15247,7 @@
     </row>
     <row r="365" spans="1:49" hidden="1">
       <c r="A365" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B365" s="5">
         <v>35862</v>
@@ -15281,7 +15281,7 @@
     </row>
     <row r="366" spans="1:49" hidden="1">
       <c r="A366" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B366" s="5">
         <v>35864</v>
@@ -15315,7 +15315,7 @@
     </row>
     <row r="367" spans="1:49" hidden="1">
       <c r="A367" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B367" s="5">
         <v>35865</v>
@@ -15352,7 +15352,7 @@
     </row>
     <row r="368" spans="1:49" hidden="1">
       <c r="A368" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B368" s="5">
         <v>35868</v>
@@ -15386,7 +15386,7 @@
     </row>
     <row r="369" spans="1:51" hidden="1">
       <c r="A369" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B369" s="5">
         <v>35870</v>
@@ -15429,7 +15429,7 @@
     </row>
     <row r="370" spans="1:51" hidden="1">
       <c r="A370" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B370" s="5">
         <v>35871</v>
@@ -15466,7 +15466,7 @@
     </row>
     <row r="371" spans="1:51" hidden="1">
       <c r="A371" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B371" s="5">
         <v>35872</v>
@@ -15500,7 +15500,7 @@
     </row>
     <row r="372" spans="1:51" hidden="1">
       <c r="A372" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B372" s="5">
         <v>35873</v>
@@ -15534,7 +15534,7 @@
     </row>
     <row r="373" spans="1:51" hidden="1">
       <c r="A373" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B373" s="5">
         <v>35878</v>
@@ -15568,7 +15568,7 @@
     </row>
     <row r="374" spans="1:51" hidden="1">
       <c r="A374" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B374" s="5">
         <v>35879</v>
@@ -15602,7 +15602,7 @@
     </row>
     <row r="375" spans="1:51" hidden="1">
       <c r="A375" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B375" s="5">
         <v>35880</v>
@@ -15636,7 +15636,7 @@
     </row>
     <row r="376" spans="1:51" hidden="1">
       <c r="A376" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B376" s="5">
         <v>35882</v>
@@ -15670,7 +15670,7 @@
     </row>
     <row r="377" spans="1:51" hidden="1">
       <c r="A377" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B377" s="5">
         <v>35883</v>
@@ -15710,7 +15710,7 @@
     </row>
     <row r="378" spans="1:51" hidden="1">
       <c r="A378" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B378" s="5">
         <v>35884</v>
@@ -15747,7 +15747,7 @@
     </row>
     <row r="379" spans="1:51" hidden="1">
       <c r="A379" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B379" s="5">
         <v>35886</v>
@@ -15784,7 +15784,7 @@
     </row>
     <row r="380" spans="1:51" hidden="1">
       <c r="A380" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B380" s="5">
         <v>35795</v>
@@ -15818,7 +15818,7 @@
     </row>
     <row r="381" spans="1:51" hidden="1">
       <c r="A381" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B381" s="5">
         <v>35802</v>
@@ -15852,7 +15852,7 @@
     </row>
     <row r="382" spans="1:51" hidden="1">
       <c r="A382" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B382" s="5">
         <v>35799</v>
@@ -15889,7 +15889,7 @@
     </row>
     <row r="383" spans="1:51" hidden="1">
       <c r="A383" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B383" s="5">
         <v>35830</v>
@@ -15923,7 +15923,7 @@
     </row>
     <row r="384" spans="1:51" hidden="1">
       <c r="A384" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B384" s="5">
         <v>35872</v>
@@ -15963,7 +15963,7 @@
     </row>
     <row r="385" spans="1:50" hidden="1">
       <c r="A385" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B385" s="5">
         <v>35844</v>
@@ -15997,7 +15997,7 @@
     </row>
     <row r="386" spans="1:50" hidden="1">
       <c r="A386" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B386" s="5">
         <v>35857</v>
@@ -16028,7 +16028,7 @@
     </row>
     <row r="387" spans="1:50" hidden="1">
       <c r="A387" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B387" s="5">
         <v>35835</v>
@@ -16062,7 +16062,7 @@
     </row>
     <row r="388" spans="1:50" hidden="1">
       <c r="A388" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B388" s="5">
         <v>35838</v>
@@ -16099,7 +16099,7 @@
     </row>
     <row r="389" spans="1:50" hidden="1">
       <c r="A389" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B389" s="5">
         <v>35843</v>
@@ -16136,7 +16136,7 @@
     </row>
     <row r="390" spans="1:50" hidden="1">
       <c r="A390" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B390" s="5">
         <v>35911</v>
@@ -16190,7 +16190,7 @@
     </row>
     <row r="391" spans="1:50" hidden="1">
       <c r="A391" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B391" s="5">
         <v>35845</v>
@@ -16224,7 +16224,7 @@
     </row>
     <row r="392" spans="1:50" hidden="1">
       <c r="A392" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B392" s="5">
         <v>35848</v>
@@ -16261,7 +16261,7 @@
     </row>
     <row r="393" spans="1:50" hidden="1">
       <c r="A393" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B393" s="5">
         <v>35853</v>
@@ -16295,7 +16295,7 @@
     </row>
     <row r="394" spans="1:50" hidden="1">
       <c r="A394" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B394" s="5">
         <v>35854</v>
@@ -16329,7 +16329,7 @@
     </row>
     <row r="395" spans="1:50" hidden="1">
       <c r="A395" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B395" s="5">
         <v>35856</v>
@@ -16366,7 +16366,7 @@
     </row>
     <row r="396" spans="1:50" hidden="1">
       <c r="A396" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B396" s="5">
         <v>35857</v>
@@ -16400,7 +16400,7 @@
     </row>
     <row r="397" spans="1:50" hidden="1">
       <c r="A397" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B397" s="5">
         <v>35859</v>
@@ -16437,7 +16437,7 @@
     </row>
     <row r="398" spans="1:50" hidden="1">
       <c r="A398" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B398" s="5">
         <v>35862</v>
@@ -16471,7 +16471,7 @@
     </row>
     <row r="399" spans="1:50" hidden="1">
       <c r="A399" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B399" s="5">
         <v>35865</v>
@@ -16505,7 +16505,7 @@
     </row>
     <row r="400" spans="1:50" hidden="1">
       <c r="A400" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B400" s="5">
         <v>35868</v>
@@ -16539,7 +16539,7 @@
     </row>
     <row r="401" spans="1:49" hidden="1">
       <c r="A401" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B401" s="5">
         <v>35869</v>
@@ -16576,7 +16576,7 @@
     </row>
     <row r="402" spans="1:49" hidden="1">
       <c r="A402" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B402" s="5">
         <v>35871</v>
@@ -16622,7 +16622,7 @@
     </row>
     <row r="403" spans="1:49" hidden="1">
       <c r="A403" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B403" s="5">
         <v>35816</v>
@@ -16680,7 +16680,7 @@
     </row>
     <row r="404" spans="1:49" hidden="1">
       <c r="A404" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B404" s="5">
         <v>35873</v>
@@ -16714,7 +16714,7 @@
     </row>
     <row r="405" spans="1:49" hidden="1">
       <c r="A405" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B405" s="5">
         <v>35876</v>
@@ -16751,7 +16751,7 @@
     </row>
     <row r="406" spans="1:49" hidden="1">
       <c r="A406" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B406" s="5">
         <v>35883</v>
@@ -16788,7 +16788,7 @@
     </row>
     <row r="407" spans="1:49" hidden="1">
       <c r="A407" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B407" s="5">
         <v>35884</v>
@@ -16828,7 +16828,7 @@
     </row>
     <row r="408" spans="1:49" hidden="1">
       <c r="A408" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B408" s="5">
         <v>35886</v>
@@ -16862,7 +16862,7 @@
     </row>
     <row r="409" spans="1:49" hidden="1">
       <c r="A409" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B409" s="5">
         <v>35768</v>
@@ -16895,7 +16895,7 @@
     </row>
     <row r="410" spans="1:49" hidden="1">
       <c r="A410" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B410" s="5">
         <v>35815</v>
@@ -16932,7 +16932,7 @@
     </row>
     <row r="411" spans="1:49" hidden="1">
       <c r="A411" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B411" s="5">
         <v>35816</v>
@@ -16969,7 +16969,7 @@
     </row>
     <row r="412" spans="1:49" hidden="1">
       <c r="A412" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B412" s="5">
         <v>35821</v>
@@ -17006,7 +17006,7 @@
     </row>
     <row r="413" spans="1:49" hidden="1">
       <c r="A413" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B413" s="5">
         <v>35822</v>
@@ -17040,7 +17040,7 @@
     </row>
     <row r="414" spans="1:49" hidden="1">
       <c r="A414" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B414" s="5">
         <v>35823</v>
@@ -17074,7 +17074,7 @@
     </row>
     <row r="415" spans="1:49" hidden="1">
       <c r="A415" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B415" s="5">
         <v>35830</v>
@@ -17108,7 +17108,7 @@
     </row>
     <row r="416" spans="1:49" hidden="1">
       <c r="A416" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B416" s="5">
         <v>35832</v>
@@ -17142,7 +17142,7 @@
     </row>
     <row r="417" spans="1:51" hidden="1">
       <c r="A417" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B417" s="5">
         <v>35835</v>
@@ -17176,7 +17176,7 @@
     </row>
     <row r="418" spans="1:51" hidden="1">
       <c r="A418" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B418" s="5">
         <v>35836</v>
@@ -17210,7 +17210,7 @@
     </row>
     <row r="419" spans="1:51" hidden="1">
       <c r="A419" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B419" s="5">
         <v>35837</v>
@@ -17244,7 +17244,7 @@
     </row>
     <row r="420" spans="1:51" hidden="1">
       <c r="A420" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B420" s="5">
         <v>35840</v>
@@ -17278,7 +17278,7 @@
     </row>
     <row r="421" spans="1:51" hidden="1">
       <c r="A421" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B421" s="5">
         <v>35843</v>
@@ -17321,7 +17321,7 @@
     </row>
     <row r="422" spans="1:51" hidden="1">
       <c r="A422" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B422" s="5">
         <v>35844</v>
@@ -17370,7 +17370,7 @@
     </row>
     <row r="423" spans="1:51" hidden="1">
       <c r="A423" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B423" s="5">
         <v>35845</v>
@@ -17404,7 +17404,7 @@
     </row>
     <row r="424" spans="1:51" hidden="1">
       <c r="A424" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B424" s="5">
         <v>35846</v>
@@ -17435,7 +17435,7 @@
     </row>
     <row r="425" spans="1:51" hidden="1">
       <c r="A425" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B425" s="5">
         <v>35850</v>
@@ -17469,7 +17469,7 @@
     </row>
     <row r="426" spans="1:51" hidden="1">
       <c r="A426" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B426" s="5">
         <v>35852</v>
@@ -17503,7 +17503,7 @@
     </row>
     <row r="427" spans="1:51" hidden="1">
       <c r="A427" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B427" s="5">
         <v>35854</v>
@@ -17546,7 +17546,7 @@
     </row>
     <row r="428" spans="1:51" hidden="1">
       <c r="A428" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B428" s="5">
         <v>35857</v>
@@ -17598,7 +17598,7 @@
     </row>
     <row r="429" spans="1:51" hidden="1">
       <c r="A429" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B429" s="5">
         <v>35858</v>
@@ -17644,7 +17644,7 @@
     </row>
     <row r="430" spans="1:51" hidden="1">
       <c r="A430" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B430" s="5">
         <v>35860</v>
@@ -17684,7 +17684,7 @@
     </row>
     <row r="431" spans="1:51" hidden="1">
       <c r="A431" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B431" s="5">
         <v>35861</v>
@@ -17718,7 +17718,7 @@
     </row>
     <row r="432" spans="1:51" hidden="1">
       <c r="A432" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B432" s="5">
         <v>35862</v>
@@ -17752,7 +17752,7 @@
     </row>
     <row r="433" spans="1:51" hidden="1">
       <c r="A433" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B433" s="5">
         <v>35864</v>
@@ -17789,7 +17789,7 @@
     </row>
     <row r="434" spans="1:51" hidden="1">
       <c r="A434" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B434" s="5">
         <v>35865</v>
@@ -17823,7 +17823,7 @@
     </row>
     <row r="435" spans="1:51" hidden="1">
       <c r="A435" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B435" s="5">
         <v>35866</v>
@@ -17857,7 +17857,7 @@
     </row>
     <row r="436" spans="1:51" hidden="1">
       <c r="A436" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B436" s="5">
         <v>35868</v>
@@ -17891,7 +17891,7 @@
     </row>
     <row r="437" spans="1:51" hidden="1">
       <c r="A437" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B437" s="5">
         <v>35871</v>
@@ -17940,7 +17940,7 @@
     </row>
     <row r="438" spans="1:51" hidden="1">
       <c r="A438" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B438" s="5">
         <v>35873</v>
@@ -17977,7 +17977,7 @@
     </row>
     <row r="439" spans="1:51" hidden="1">
       <c r="A439" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B439" s="5">
         <v>35874</v>
@@ -18014,7 +18014,7 @@
     </row>
     <row r="440" spans="1:51" hidden="1">
       <c r="A440" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B440" s="5">
         <v>35876</v>
@@ -18051,13 +18051,13 @@
     </row>
     <row r="441" spans="1:51" hidden="1">
       <c r="A441" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B441" s="5">
         <v>35877</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D441" s="6">
         <v>109.526726057906</v>
@@ -18151,7 +18151,7 @@
     </row>
     <row r="442" spans="1:51" hidden="1">
       <c r="A442" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B442" s="5">
         <v>35878</v>
@@ -18188,7 +18188,7 @@
     </row>
     <row r="443" spans="1:51" hidden="1">
       <c r="A443" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B443" s="5">
         <v>35768</v>
@@ -18222,7 +18222,7 @@
     </row>
     <row r="444" spans="1:51" hidden="1">
       <c r="A444" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B444" s="5">
         <v>35814</v>
@@ -18256,7 +18256,7 @@
     </row>
     <row r="445" spans="1:51" hidden="1">
       <c r="A445" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B445" s="5">
         <v>35816</v>
@@ -18296,7 +18296,7 @@
     </row>
     <row r="446" spans="1:51" hidden="1">
       <c r="A446" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B446" s="5">
         <v>35819</v>
@@ -18330,7 +18330,7 @@
     </row>
     <row r="447" spans="1:51" hidden="1">
       <c r="A447" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B447" s="5">
         <v>35822</v>
@@ -18364,7 +18364,7 @@
     </row>
     <row r="448" spans="1:51" hidden="1">
       <c r="A448" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B448" s="5">
         <v>35828</v>
@@ -18401,7 +18401,7 @@
     </row>
     <row r="449" spans="1:49" hidden="1">
       <c r="A449" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B449" s="5">
         <v>35830</v>
@@ -18435,7 +18435,7 @@
     </row>
     <row r="450" spans="1:49" hidden="1">
       <c r="A450" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B450" s="5">
         <v>35831</v>
@@ -18469,7 +18469,7 @@
     </row>
     <row r="451" spans="1:49" hidden="1">
       <c r="A451" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B451" s="5">
         <v>35833</v>
@@ -18503,7 +18503,7 @@
     </row>
     <row r="452" spans="1:49" hidden="1">
       <c r="A452" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B452" s="5">
         <v>35836</v>
@@ -18540,7 +18540,7 @@
     </row>
     <row r="453" spans="1:49" hidden="1">
       <c r="A453" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B453" s="5">
         <v>35839</v>
@@ -18577,7 +18577,7 @@
     </row>
     <row r="454" spans="1:49" hidden="1">
       <c r="A454" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B454" s="5">
         <v>35840</v>
@@ -18611,7 +18611,7 @@
     </row>
     <row r="455" spans="1:49" hidden="1">
       <c r="A455" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B455" s="5">
         <v>35842</v>
@@ -18651,7 +18651,7 @@
     </row>
     <row r="456" spans="1:49" hidden="1">
       <c r="A456" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B456" s="5">
         <v>35844</v>
@@ -18694,7 +18694,7 @@
     </row>
     <row r="457" spans="1:49" hidden="1">
       <c r="A457" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B457" s="5">
         <v>35846</v>
@@ -18728,7 +18728,7 @@
     </row>
     <row r="458" spans="1:49" hidden="1">
       <c r="A458" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B458" s="5">
         <v>35848</v>
@@ -18762,7 +18762,7 @@
     </row>
     <row r="459" spans="1:49" hidden="1">
       <c r="A459" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B459" s="5">
         <v>35853</v>
@@ -18796,7 +18796,7 @@
     </row>
     <row r="460" spans="1:49" hidden="1">
       <c r="A460" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B460" s="5">
         <v>35854</v>
@@ -18836,7 +18836,7 @@
     </row>
     <row r="461" spans="1:49" hidden="1">
       <c r="A461" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B461" s="5">
         <v>35855</v>
@@ -18870,7 +18870,7 @@
     </row>
     <row r="462" spans="1:49" hidden="1">
       <c r="A462" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B462" s="5">
         <v>35857</v>
@@ -18925,7 +18925,7 @@
     </row>
     <row r="463" spans="1:49" hidden="1">
       <c r="A463" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B463" s="5">
         <v>35858</v>
@@ -18965,7 +18965,7 @@
     </row>
     <row r="464" spans="1:49" hidden="1">
       <c r="A464" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B464" s="5">
         <v>35859</v>
@@ -18999,7 +18999,7 @@
     </row>
     <row r="465" spans="1:50" hidden="1">
       <c r="A465" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B465" s="5">
         <v>35864</v>
@@ -19036,7 +19036,7 @@
     </row>
     <row r="466" spans="1:50" hidden="1">
       <c r="A466" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B466" s="5">
         <v>35865</v>
@@ -19073,7 +19073,7 @@
     </row>
     <row r="467" spans="1:50" hidden="1">
       <c r="A467" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B467" s="5">
         <v>35867</v>
@@ -19110,7 +19110,7 @@
     </row>
     <row r="468" spans="1:50" hidden="1">
       <c r="A468" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B468" s="5">
         <v>35869</v>
@@ -19159,7 +19159,7 @@
     </row>
     <row r="469" spans="1:50" hidden="1">
       <c r="A469" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B469" s="5">
         <v>35768</v>
@@ -19193,7 +19193,7 @@
     </row>
     <row r="470" spans="1:50" hidden="1">
       <c r="A470" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B470" s="5">
         <v>35776</v>
@@ -19224,7 +19224,7 @@
     </row>
     <row r="471" spans="1:50" hidden="1">
       <c r="A471" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B471" s="5">
         <v>35803</v>
@@ -19258,7 +19258,7 @@
     </row>
     <row r="472" spans="1:50" hidden="1">
       <c r="A472" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B472" s="5">
         <v>35813</v>
@@ -19292,7 +19292,7 @@
     </row>
     <row r="473" spans="1:50" hidden="1">
       <c r="A473" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B473" s="5">
         <v>35844</v>
@@ -19341,7 +19341,7 @@
     </row>
     <row r="474" spans="1:50" hidden="1">
       <c r="A474" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B474" s="5">
         <v>35818</v>
@@ -19375,7 +19375,7 @@
     </row>
     <row r="475" spans="1:50" hidden="1">
       <c r="A475" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B475" s="5">
         <v>35820</v>
@@ -19409,7 +19409,7 @@
     </row>
     <row r="476" spans="1:50" hidden="1">
       <c r="A476" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B476" s="5">
         <v>35825</v>
@@ -19443,7 +19443,7 @@
     </row>
     <row r="477" spans="1:50" hidden="1">
       <c r="A477" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B477" s="5">
         <v>35826</v>
@@ -19480,7 +19480,7 @@
     </row>
     <row r="478" spans="1:50" hidden="1">
       <c r="A478" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B478" s="5">
         <v>35829</v>
@@ -19514,7 +19514,7 @@
     </row>
     <row r="479" spans="1:50" hidden="1">
       <c r="A479" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B479" s="5">
         <v>35831</v>
@@ -19548,7 +19548,7 @@
     </row>
     <row r="480" spans="1:50" hidden="1">
       <c r="A480" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B480" s="5">
         <v>35834</v>
@@ -19585,7 +19585,7 @@
     </row>
     <row r="481" spans="1:51" hidden="1">
       <c r="A481" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B481" s="5">
         <v>35836</v>
@@ -19619,7 +19619,7 @@
     </row>
     <row r="482" spans="1:51" hidden="1">
       <c r="A482" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B482" s="5">
         <v>35838</v>
@@ -19656,7 +19656,7 @@
     </row>
     <row r="483" spans="1:51" hidden="1">
       <c r="A483" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B483" s="5">
         <v>35841</v>
@@ -19699,7 +19699,7 @@
     </row>
     <row r="484" spans="1:51" hidden="1">
       <c r="A484" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B484" s="5">
         <v>35858</v>
@@ -19733,7 +19733,7 @@
     </row>
     <row r="485" spans="1:51" hidden="1">
       <c r="A485" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B485" s="5">
         <v>35845</v>
@@ -19767,7 +19767,7 @@
     </row>
     <row r="486" spans="1:51" hidden="1">
       <c r="A486" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B486" s="5">
         <v>35849</v>
@@ -19801,7 +19801,7 @@
     </row>
     <row r="487" spans="1:51" hidden="1">
       <c r="A487" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B487" s="5">
         <v>35851</v>
@@ -19835,7 +19835,7 @@
     </row>
     <row r="488" spans="1:51" hidden="1">
       <c r="A488" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B488" s="5">
         <v>35852</v>
@@ -19875,7 +19875,7 @@
     </row>
     <row r="489" spans="1:51" hidden="1">
       <c r="A489" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B489" s="5">
         <v>35854</v>
@@ -19909,7 +19909,7 @@
     </row>
     <row r="490" spans="1:51" hidden="1">
       <c r="A490" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B490" s="5">
         <v>35856</v>
@@ -19946,7 +19946,7 @@
     </row>
     <row r="491" spans="1:51" hidden="1">
       <c r="A491" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B491" s="5">
         <v>35857</v>
@@ -19983,13 +19983,13 @@
     </row>
     <row r="492" spans="1:51" hidden="1">
       <c r="A492" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B492" s="5">
         <v>35866</v>
       </c>
       <c r="C492" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D492" s="6">
         <v>98.832891246684298</v>
@@ -20092,7 +20092,7 @@
     </row>
     <row r="493" spans="1:51" hidden="1">
       <c r="A493" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B493" s="5">
         <v>35859</v>
@@ -20132,7 +20132,7 @@
     </row>
     <row r="494" spans="1:51" hidden="1">
       <c r="A494" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B494" s="5">
         <v>35862</v>
@@ -20166,7 +20166,7 @@
     </row>
     <row r="495" spans="1:51" hidden="1">
       <c r="A495" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B495" s="5">
         <v>35865</v>
@@ -20209,7 +20209,7 @@
     </row>
     <row r="496" spans="1:51" hidden="1">
       <c r="A496" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B496" s="5">
         <v>35867</v>
@@ -20246,7 +20246,7 @@
     </row>
     <row r="497" spans="1:37" hidden="1">
       <c r="A497" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B497" s="5">
         <v>35868</v>
@@ -20280,7 +20280,7 @@
     </row>
     <row r="498" spans="1:37" hidden="1">
       <c r="A498" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B498" s="5">
         <v>35870</v>
@@ -20314,7 +20314,7 @@
     </row>
     <row r="499" spans="1:37" hidden="1">
       <c r="A499" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B499" s="5">
         <v>35874</v>

--- a/Prototypes/Mungbean/Exp3observed.xlsx
+++ b/Prototypes/Mungbean/Exp3observed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2498D0-2B96-4E60-805F-66B3938E9A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A4B9B4-C59B-4860-B393-70FCE98D8F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32985" yWindow="6660" windowWidth="20775" windowHeight="11835" xr2:uid="{8C69385E-AA3F-4CF3-AF00-E1E4599E61EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28035" windowHeight="16440" xr2:uid="{8C69385E-AA3F-4CF3-AF00-E1E4599E61EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -606,7 +606,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C338" sqref="A1:AY531"/>
+      <selection pane="bottomLeft" activeCell="A349" sqref="A349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -979,7 +979,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="7" spans="1:51" hidden="1">
+    <row r="7" spans="1:51">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -1003,9 +1003,6 @@
       <c r="AG7">
         <v>45</v>
       </c>
-      <c r="AH7">
-        <v>96</v>
-      </c>
       <c r="AI7">
         <v>764</v>
       </c>
@@ -1097,7 +1094,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="10" spans="1:51" hidden="1">
+    <row r="10" spans="1:51">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -1125,9 +1122,6 @@
       </c>
       <c r="AG10">
         <v>43</v>
-      </c>
-      <c r="AH10">
-        <v>91</v>
       </c>
       <c r="AI10">
         <v>748</v>
@@ -4845,9 +4839,6 @@
       <c r="AG105">
         <v>48</v>
       </c>
-      <c r="AH105">
-        <v>104</v>
-      </c>
       <c r="AI105">
         <v>785</v>
       </c>
@@ -4882,9 +4873,6 @@
       <c r="AG106">
         <v>45</v>
       </c>
-      <c r="AH106">
-        <v>105</v>
-      </c>
       <c r="AI106">
         <v>768</v>
       </c>
@@ -7659,7 +7647,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="179" spans="1:51" hidden="1">
+    <row r="179" spans="1:51">
       <c r="A179" s="2" t="s">
         <v>29</v>
       </c>
@@ -7688,9 +7676,6 @@
       <c r="AG179">
         <v>51</v>
       </c>
-      <c r="AH179">
-        <v>103</v>
-      </c>
       <c r="AI179">
         <v>846</v>
       </c>
@@ -8196,7 +8181,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="190" spans="1:51" hidden="1">
+    <row r="190" spans="1:51">
       <c r="A190" s="2" t="s">
         <v>27</v>
       </c>
@@ -8256,9 +8241,6 @@
       <c r="AG190">
         <v>48</v>
       </c>
-      <c r="AH190">
-        <v>96</v>
-      </c>
       <c r="AI190">
         <v>785</v>
       </c>
@@ -8652,7 +8634,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="197" spans="1:51" hidden="1">
+    <row r="197" spans="1:51">
       <c r="A197" s="2" t="s">
         <v>30</v>
       </c>
@@ -8687,9 +8669,6 @@
       <c r="AG197">
         <v>45</v>
       </c>
-      <c r="AH197">
-        <v>96</v>
-      </c>
       <c r="AI197">
         <v>764</v>
       </c>
@@ -8949,7 +8928,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="202" spans="1:51" hidden="1">
+    <row r="202" spans="1:51">
       <c r="A202" s="2" t="s">
         <v>28</v>
       </c>
@@ -9000,9 +8979,6 @@
       <c r="AG202">
         <v>43</v>
       </c>
-      <c r="AH202">
-        <v>91</v>
-      </c>
       <c r="AI202">
         <v>748</v>
       </c>
@@ -9297,9 +9273,6 @@
       <c r="AG210">
         <v>48</v>
       </c>
-      <c r="AH210">
-        <v>104</v>
-      </c>
       <c r="AI210">
         <v>785</v>
       </c>
@@ -9340,9 +9313,6 @@
       <c r="AG211">
         <v>45</v>
       </c>
-      <c r="AH211">
-        <v>105</v>
-      </c>
       <c r="AI211">
         <v>768</v>
       </c>
@@ -10102,9 +10072,6 @@
       <c r="AG231">
         <v>48</v>
       </c>
-      <c r="AH231">
-        <v>104</v>
-      </c>
       <c r="AI231">
         <v>785</v>
       </c>
@@ -10154,9 +10121,6 @@
       <c r="AG232">
         <v>45</v>
       </c>
-      <c r="AH232">
-        <v>105</v>
-      </c>
       <c r="AI232">
         <v>768</v>
       </c>
@@ -10603,7 +10567,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="245" spans="1:43" hidden="1">
+    <row r="245" spans="1:43">
       <c r="A245" s="2" t="s">
         <v>27</v>
       </c>
@@ -10627,9 +10591,6 @@
       <c r="AG245">
         <v>48</v>
       </c>
-      <c r="AH245">
-        <v>96</v>
-      </c>
       <c r="AI245">
         <v>785</v>
       </c>
@@ -11152,7 +11113,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="260" spans="1:50" hidden="1">
+    <row r="260" spans="1:50">
       <c r="A260" s="2" t="s">
         <v>27</v>
       </c>
@@ -11179,9 +11140,6 @@
       <c r="AG260">
         <v>48</v>
       </c>
-      <c r="AH260">
-        <v>96</v>
-      </c>
       <c r="AI260">
         <v>785</v>
       </c>
@@ -11451,7 +11409,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="268" spans="1:50" hidden="1">
+    <row r="268" spans="1:50">
       <c r="A268" s="2" t="s">
         <v>27</v>
       </c>
@@ -11475,9 +11433,6 @@
       <c r="AG268">
         <v>48</v>
       </c>
-      <c r="AH268">
-        <v>96</v>
-      </c>
       <c r="AI268">
         <v>785</v>
       </c>
@@ -11599,7 +11554,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="272" spans="1:50" hidden="1">
+    <row r="272" spans="1:50">
       <c r="A272" s="2" t="s">
         <v>27</v>
       </c>
@@ -11640,9 +11595,6 @@
       </c>
       <c r="AG272">
         <v>48</v>
-      </c>
-      <c r="AH272">
-        <v>96</v>
       </c>
       <c r="AI272">
         <v>785</v>
@@ -11800,7 +11752,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="277" spans="1:51" hidden="1">
+    <row r="277" spans="1:51">
       <c r="A277" s="2" t="s">
         <v>30</v>
       </c>
@@ -11824,9 +11776,6 @@
       <c r="AG277">
         <v>45</v>
       </c>
-      <c r="AH277">
-        <v>96</v>
-      </c>
       <c r="AI277">
         <v>764</v>
       </c>
@@ -12164,7 +12113,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="287" spans="1:51" hidden="1">
+    <row r="287" spans="1:51">
       <c r="A287" s="2" t="s">
         <v>31</v>
       </c>
@@ -12191,9 +12140,6 @@
       <c r="AG287">
         <v>45</v>
       </c>
-      <c r="AH287">
-        <v>91</v>
-      </c>
       <c r="AI287">
         <v>768</v>
       </c>
@@ -12448,7 +12394,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="295" spans="1:51" hidden="1">
+    <row r="295" spans="1:51">
       <c r="A295" s="2" t="s">
         <v>30</v>
       </c>
@@ -12481,9 +12427,6 @@
       <c r="AG295">
         <v>45</v>
       </c>
-      <c r="AH295">
-        <v>96</v>
-      </c>
       <c r="AI295">
         <v>764</v>
       </c>
@@ -12731,7 +12674,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="302" spans="1:51" hidden="1">
+    <row r="302" spans="1:51">
       <c r="A302" s="2" t="s">
         <v>30</v>
       </c>
@@ -12761,9 +12704,6 @@
       <c r="AG302">
         <v>45</v>
       </c>
-      <c r="AH302">
-        <v>96</v>
-      </c>
       <c r="AI302">
         <v>764</v>
       </c>
@@ -13925,7 +13865,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="333" spans="1:50">
+    <row r="333" spans="1:50" hidden="1">
       <c r="A333" s="2" t="s">
         <v>24</v>
       </c>
@@ -14136,7 +14076,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="338" spans="1:50">
+    <row r="338" spans="1:50" hidden="1">
       <c r="A338" s="2" t="s">
         <v>25</v>
       </c>
@@ -14220,9 +14160,6 @@
       <c r="AG339">
         <v>48</v>
       </c>
-      <c r="AH339">
-        <v>104</v>
-      </c>
       <c r="AI339">
         <v>785</v>
       </c>
@@ -14475,9 +14412,6 @@
       <c r="AG345">
         <v>45</v>
       </c>
-      <c r="AH345">
-        <v>105</v>
-      </c>
       <c r="AI345">
         <v>768</v>
       </c>
@@ -14512,7 +14446,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="346" spans="1:50">
+    <row r="346" spans="1:50" hidden="1">
       <c r="A346" s="2" t="s">
         <v>25</v>
       </c>
@@ -14644,7 +14578,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="349" spans="1:50" hidden="1">
+    <row r="349" spans="1:50">
       <c r="A349" s="2" t="s">
         <v>28</v>
       </c>
@@ -14668,9 +14602,6 @@
       <c r="AG349">
         <v>43</v>
       </c>
-      <c r="AH349">
-        <v>91</v>
-      </c>
       <c r="AI349">
         <v>748</v>
       </c>
@@ -15150,7 +15081,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="363" spans="1:49" hidden="1">
+    <row r="363" spans="1:49">
       <c r="A363" s="2" t="s">
         <v>28</v>
       </c>
@@ -15192,9 +15123,6 @@
       <c r="AG363">
         <v>43</v>
       </c>
-      <c r="AH363">
-        <v>91</v>
-      </c>
       <c r="AI363">
         <v>748</v>
       </c>
@@ -16097,7 +16025,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="389" spans="1:50" hidden="1">
+    <row r="389" spans="1:50">
       <c r="A389" t="s">
         <v>31</v>
       </c>
@@ -16121,9 +16049,6 @@
       <c r="AG389">
         <v>45</v>
       </c>
-      <c r="AH389">
-        <v>91</v>
-      </c>
       <c r="AI389">
         <v>768</v>
       </c>
@@ -16134,7 +16059,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="390" spans="1:50" hidden="1">
+    <row r="390" spans="1:50">
       <c r="A390" s="2" t="s">
         <v>31</v>
       </c>
@@ -16166,9 +16091,6 @@
       <c r="AG390">
         <v>45</v>
       </c>
-      <c r="AH390">
-        <v>91</v>
-      </c>
       <c r="AI390">
         <v>768</v>
       </c>
@@ -16364,7 +16286,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="396" spans="1:50" hidden="1">
+    <row r="396" spans="1:50">
       <c r="A396" s="2" t="s">
         <v>31</v>
       </c>
@@ -16385,9 +16307,6 @@
       <c r="AG396">
         <v>45</v>
       </c>
-      <c r="AH396">
-        <v>91</v>
-      </c>
       <c r="AI396">
         <v>768</v>
       </c>
@@ -16574,7 +16493,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="402" spans="1:49" hidden="1">
+    <row r="402" spans="1:49">
       <c r="A402" s="2" t="s">
         <v>31</v>
       </c>
@@ -16601,9 +16520,6 @@
       <c r="AG402">
         <v>45</v>
       </c>
-      <c r="AH402">
-        <v>91</v>
-      </c>
       <c r="AI402">
         <v>768</v>
       </c>
@@ -16620,7 +16536,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="403" spans="1:49" hidden="1">
+    <row r="403" spans="1:49">
       <c r="A403" t="s">
         <v>32</v>
       </c>
@@ -16659,9 +16575,6 @@
       <c r="AG403">
         <v>47</v>
       </c>
-      <c r="AH403">
-        <v>99</v>
-      </c>
       <c r="AI403">
         <v>787</v>
       </c>
@@ -16930,7 +16843,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="411" spans="1:49" hidden="1">
+    <row r="411" spans="1:49">
       <c r="A411" s="2" t="s">
         <v>26</v>
       </c>
@@ -16954,9 +16867,6 @@
       <c r="AG411">
         <v>54</v>
       </c>
-      <c r="AH411">
-        <v>110</v>
-      </c>
       <c r="AI411">
         <v>846</v>
       </c>
@@ -17276,7 +17186,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="421" spans="1:51" hidden="1">
+    <row r="421" spans="1:51">
       <c r="A421" s="2" t="s">
         <v>26</v>
       </c>
@@ -17306,9 +17216,6 @@
       <c r="AG421">
         <v>54</v>
       </c>
-      <c r="AH421">
-        <v>110</v>
-      </c>
       <c r="AI421">
         <v>846</v>
       </c>
@@ -17544,7 +17451,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="428" spans="1:51" hidden="1">
+    <row r="428" spans="1:51">
       <c r="A428" s="2" t="s">
         <v>26</v>
       </c>
@@ -17577,9 +17484,6 @@
       <c r="AG428">
         <v>54</v>
       </c>
-      <c r="AH428">
-        <v>110</v>
-      </c>
       <c r="AI428">
         <v>846</v>
       </c>
@@ -17889,7 +17793,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="437" spans="1:51" hidden="1">
+    <row r="437" spans="1:51">
       <c r="A437" s="2" t="s">
         <v>26</v>
       </c>
@@ -17925,9 +17829,6 @@
       <c r="AG437">
         <v>54</v>
       </c>
-      <c r="AH437">
-        <v>110</v>
-      </c>
       <c r="AI437">
         <v>846</v>
       </c>
@@ -18049,7 +17950,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="441" spans="1:51" hidden="1">
+    <row r="441" spans="1:51">
       <c r="A441" s="2" t="s">
         <v>26</v>
       </c>
@@ -18100,9 +18001,6 @@
       <c r="AG441">
         <v>54</v>
       </c>
-      <c r="AH441">
-        <v>110</v>
-      </c>
       <c r="AI441">
         <v>846</v>
       </c>
@@ -18649,7 +18547,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="456" spans="1:49" hidden="1">
+    <row r="456" spans="1:49">
       <c r="A456" s="2" t="s">
         <v>29</v>
       </c>
@@ -18673,9 +18571,6 @@
       <c r="AG456">
         <v>51</v>
       </c>
-      <c r="AH456">
-        <v>103</v>
-      </c>
       <c r="AI456">
         <v>846</v>
       </c>
@@ -18868,7 +18763,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="462" spans="1:49" hidden="1">
+    <row r="462" spans="1:49">
       <c r="A462" s="2" t="s">
         <v>29</v>
       </c>
@@ -18904,9 +18799,6 @@
       <c r="AG462">
         <v>51</v>
       </c>
-      <c r="AH462">
-        <v>103</v>
-      </c>
       <c r="AI462">
         <v>846</v>
       </c>
@@ -19108,7 +19000,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="468" spans="1:50" hidden="1">
+    <row r="468" spans="1:50">
       <c r="A468" s="2" t="s">
         <v>29</v>
       </c>
@@ -19135,9 +19027,6 @@
       <c r="AG468">
         <v>51</v>
       </c>
-      <c r="AH468">
-        <v>103</v>
-      </c>
       <c r="AI468">
         <v>846</v>
       </c>
@@ -19290,7 +19179,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="473" spans="1:50" hidden="1">
+    <row r="473" spans="1:50">
       <c r="A473" s="2" t="s">
         <v>32</v>
       </c>
@@ -19320,9 +19209,6 @@
       <c r="AG473">
         <v>47</v>
       </c>
-      <c r="AH473">
-        <v>99</v>
-      </c>
       <c r="AI473">
         <v>787</v>
       </c>
@@ -19944,7 +19830,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="491" spans="1:51" hidden="1">
+    <row r="491" spans="1:51">
       <c r="A491" s="2" t="s">
         <v>32</v>
       </c>
@@ -19968,9 +19854,6 @@
       <c r="AG491">
         <v>47</v>
       </c>
-      <c r="AH491">
-        <v>99</v>
-      </c>
       <c r="AI491">
         <v>787</v>
       </c>
@@ -20164,7 +20047,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="495" spans="1:51" hidden="1">
+    <row r="495" spans="1:51">
       <c r="A495" s="2" t="s">
         <v>32</v>
       </c>
@@ -20184,9 +20067,6 @@
       </c>
       <c r="AG495">
         <v>47</v>
-      </c>
-      <c r="AH495">
-        <v>99</v>
       </c>
       <c r="AI495">
         <v>787</v>
@@ -20436,12 +20316,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AY531" xr:uid="{F0B0C000-3CD0-4997-AEB8-B2A330AF442A}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="exp3SowDec17IrrCultivarEmerald"/>
-        <filter val="exp3SowDec30IrrCultivarEmerald"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="19">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/Prototypes/Mungbean/Exp3observed.xlsx
+++ b/Prototypes/Mungbean/Exp3observed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A4B9B4-C59B-4860-B393-70FCE98D8F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051DFCB2-F63F-410F-8127-8A20DE4263B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28035" windowHeight="16440" xr2:uid="{8C69385E-AA3F-4CF3-AF00-E1E4599E61EE}"/>
+    <workbookView xWindow="28680" yWindow="5505" windowWidth="29040" windowHeight="15840" xr2:uid="{8C69385E-AA3F-4CF3-AF00-E1E4599E61EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -173,9 +173,6 @@
     <t>Mungbean.AboveGroundLive.N</t>
   </si>
   <si>
-    <t>Mungbean.Phenology.StartFloweringDAS</t>
-  </si>
-  <si>
     <t>Mungbean.Phenology.StartPodDevDAS</t>
   </si>
   <si>
@@ -219,6 +216,9 @@
   </si>
   <si>
     <t>Mungbean.Nodule.NFixed</t>
+  </si>
+  <si>
+    <t>Mungbean.Phenology.StartFloweringDASx</t>
   </si>
 </sst>
 </file>
@@ -601,12 +601,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21968B1A-9F2D-47BD-B4B3-097E93366914}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AY531"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A349" sqref="A349"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -712,46 +711,46 @@
         <v>17</v>
       </c>
       <c r="AF1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="AL1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AN1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="AO1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="AT1" s="3" t="s">
         <v>20</v>
@@ -760,19 +759,19 @@
         <v>21</v>
       </c>
       <c r="AV1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AY1" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:51" hidden="1">
+    </row>
+    <row r="2" spans="1:51">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -817,7 +816,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="3" spans="1:51" hidden="1">
+    <row r="3" spans="1:51">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -865,7 +864,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="4" spans="1:51" hidden="1">
+    <row r="4" spans="1:51">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -901,7 +900,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="5" spans="1:51" hidden="1">
+    <row r="5" spans="1:51">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -943,7 +942,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="6" spans="1:51" hidden="1">
+    <row r="6" spans="1:51">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -1019,7 +1018,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:51" hidden="1">
+    <row r="8" spans="1:51">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1058,7 +1057,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="9" spans="1:51" hidden="1">
+    <row r="9" spans="1:51">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -1142,7 +1141,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="11" spans="1:51" hidden="1">
+    <row r="11" spans="1:51">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -1187,7 +1186,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="12" spans="1:51" hidden="1">
+    <row r="12" spans="1:51">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -1226,7 +1225,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="13" spans="1:51" hidden="1">
+    <row r="13" spans="1:51">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1265,7 +1264,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="14" spans="1:51" hidden="1">
+    <row r="14" spans="1:51">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1301,7 +1300,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="15" spans="1:51" hidden="1">
+    <row r="15" spans="1:51">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -1334,7 +1333,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="16" spans="1:51" hidden="1">
+    <row r="16" spans="1:51">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -1370,7 +1369,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="17" spans="1:51" hidden="1">
+    <row r="17" spans="1:51">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -1406,7 +1405,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="18" spans="1:51" hidden="1">
+    <row r="18" spans="1:51">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1442,7 +1441,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="19" spans="1:51" hidden="1">
+    <row r="19" spans="1:51">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -1478,7 +1477,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:51" hidden="1">
+    <row r="20" spans="1:51">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
@@ -1514,7 +1513,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="21" spans="1:51" hidden="1">
+    <row r="21" spans="1:51">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1589,7 +1588,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="22" spans="1:51" hidden="1">
+    <row r="22" spans="1:51">
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
@@ -1625,7 +1624,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="23" spans="1:51" hidden="1">
+    <row r="23" spans="1:51">
       <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
@@ -1661,7 +1660,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="24" spans="1:51" hidden="1">
+    <row r="24" spans="1:51">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -1697,7 +1696,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="25" spans="1:51" hidden="1">
+    <row r="25" spans="1:51">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -1733,7 +1732,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="26" spans="1:51" hidden="1">
+    <row r="26" spans="1:51">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
@@ -1769,7 +1768,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="27" spans="1:51" hidden="1">
+    <row r="27" spans="1:51">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -1805,7 +1804,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="28" spans="1:51" hidden="1">
+    <row r="28" spans="1:51">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1850,7 +1849,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="29" spans="1:51" hidden="1">
+    <row r="29" spans="1:51">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
@@ -1886,7 +1885,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="30" spans="1:51" hidden="1">
+    <row r="30" spans="1:51">
       <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
@@ -1925,7 +1924,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="31" spans="1:51" hidden="1">
+    <row r="31" spans="1:51">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -1961,7 +1960,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="32" spans="1:51" hidden="1">
+    <row r="32" spans="1:51">
       <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
@@ -1997,7 +1996,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="33" spans="1:37" hidden="1">
+    <row r="33" spans="1:37">
       <c r="A33" s="2" t="s">
         <v>27</v>
       </c>
@@ -2033,7 +2032,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="34" spans="1:37" hidden="1">
+    <row r="34" spans="1:37">
       <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
@@ -2069,7 +2068,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="35" spans="1:37" hidden="1">
+    <row r="35" spans="1:37">
       <c r="A35" s="2" t="s">
         <v>30</v>
       </c>
@@ -2105,7 +2104,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="36" spans="1:37" hidden="1">
+    <row r="36" spans="1:37">
       <c r="A36" s="2" t="s">
         <v>32</v>
       </c>
@@ -2141,7 +2140,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="37" spans="1:37" hidden="1">
+    <row r="37" spans="1:37">
       <c r="A37" s="2" t="s">
         <v>24</v>
       </c>
@@ -2177,7 +2176,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="38" spans="1:37" hidden="1">
+    <row r="38" spans="1:37">
       <c r="A38" s="2" t="s">
         <v>31</v>
       </c>
@@ -2213,7 +2212,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="39" spans="1:37" hidden="1">
+    <row r="39" spans="1:37">
       <c r="A39" s="2" t="s">
         <v>28</v>
       </c>
@@ -2249,7 +2248,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="40" spans="1:37" hidden="1">
+    <row r="40" spans="1:37">
       <c r="A40" s="2" t="s">
         <v>26</v>
       </c>
@@ -2285,7 +2284,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="41" spans="1:37" hidden="1">
+    <row r="41" spans="1:37">
       <c r="A41" s="2" t="s">
         <v>25</v>
       </c>
@@ -2321,7 +2320,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="42" spans="1:37" hidden="1">
+    <row r="42" spans="1:37">
       <c r="A42" s="2" t="s">
         <v>24</v>
       </c>
@@ -2357,7 +2356,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="43" spans="1:37" hidden="1">
+    <row r="43" spans="1:37">
       <c r="A43" s="2" t="s">
         <v>32</v>
       </c>
@@ -2393,7 +2392,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="44" spans="1:37" hidden="1">
+    <row r="44" spans="1:37">
       <c r="A44" s="2" t="s">
         <v>28</v>
       </c>
@@ -2429,7 +2428,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="45" spans="1:37" hidden="1">
+    <row r="45" spans="1:37">
       <c r="A45" s="2" t="s">
         <v>32</v>
       </c>
@@ -2471,7 +2470,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="46" spans="1:37" hidden="1">
+    <row r="46" spans="1:37">
       <c r="A46" s="2" t="s">
         <v>29</v>
       </c>
@@ -2510,7 +2509,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="47" spans="1:37" hidden="1">
+    <row r="47" spans="1:37">
       <c r="A47" s="2" t="s">
         <v>32</v>
       </c>
@@ -2546,7 +2545,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="48" spans="1:37" hidden="1">
+    <row r="48" spans="1:37">
       <c r="A48" s="2" t="s">
         <v>28</v>
       </c>
@@ -2585,7 +2584,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="49" spans="1:51" ht="15.75" hidden="1" customHeight="1">
+    <row r="49" spans="1:51" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>32</v>
       </c>
@@ -2624,7 +2623,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="50" spans="1:51" hidden="1">
+    <row r="50" spans="1:51">
       <c r="A50" s="2" t="s">
         <v>25</v>
       </c>
@@ -2660,7 +2659,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="51" spans="1:51" hidden="1">
+    <row r="51" spans="1:51">
       <c r="A51" s="2" t="s">
         <v>28</v>
       </c>
@@ -2696,7 +2695,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="52" spans="1:51" hidden="1">
+    <row r="52" spans="1:51">
       <c r="A52" s="2" t="s">
         <v>30</v>
       </c>
@@ -2756,7 +2755,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="53" spans="1:51" hidden="1">
+    <row r="53" spans="1:51">
       <c r="A53" s="2" t="s">
         <v>31</v>
       </c>
@@ -2792,7 +2791,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="54" spans="1:51" hidden="1">
+    <row r="54" spans="1:51">
       <c r="A54" s="2" t="s">
         <v>24</v>
       </c>
@@ -2828,7 +2827,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="55" spans="1:51" hidden="1">
+    <row r="55" spans="1:51">
       <c r="A55" s="2" t="s">
         <v>27</v>
       </c>
@@ -2864,7 +2863,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="56" spans="1:51" hidden="1">
+    <row r="56" spans="1:51">
       <c r="A56" s="2" t="s">
         <v>25</v>
       </c>
@@ -2900,7 +2899,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="57" spans="1:51" hidden="1">
+    <row r="57" spans="1:51">
       <c r="A57" s="2" t="s">
         <v>32</v>
       </c>
@@ -2939,7 +2938,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="58" spans="1:51" hidden="1">
+    <row r="58" spans="1:51">
       <c r="A58" s="2" t="s">
         <v>26</v>
       </c>
@@ -2975,7 +2974,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="59" spans="1:51" hidden="1">
+    <row r="59" spans="1:51">
       <c r="A59" s="2" t="s">
         <v>24</v>
       </c>
@@ -3013,7 +3012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:51" hidden="1">
+    <row r="60" spans="1:51">
       <c r="A60" s="2" t="s">
         <v>30</v>
       </c>
@@ -3049,7 +3048,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="61" spans="1:51" hidden="1">
+    <row r="61" spans="1:51">
       <c r="A61" s="2" t="s">
         <v>26</v>
       </c>
@@ -3088,7 +3087,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="62" spans="1:51" hidden="1">
+    <row r="62" spans="1:51">
       <c r="A62" s="2" t="s">
         <v>30</v>
       </c>
@@ -3142,7 +3141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:51" hidden="1">
+    <row r="63" spans="1:51">
       <c r="A63" s="2" t="s">
         <v>28</v>
       </c>
@@ -3181,7 +3180,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="64" spans="1:51" hidden="1">
+    <row r="64" spans="1:51">
       <c r="A64" s="2" t="s">
         <v>26</v>
       </c>
@@ -3226,7 +3225,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="65" spans="1:47" hidden="1">
+    <row r="65" spans="1:47">
       <c r="A65" s="2" t="s">
         <v>30</v>
       </c>
@@ -3265,7 +3264,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="66" spans="1:47" hidden="1">
+    <row r="66" spans="1:47">
       <c r="A66" s="2" t="s">
         <v>30</v>
       </c>
@@ -3376,7 +3375,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="67" spans="1:47" hidden="1">
+    <row r="67" spans="1:47">
       <c r="A67" s="2" t="s">
         <v>29</v>
       </c>
@@ -3415,7 +3414,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="68" spans="1:47" hidden="1">
+    <row r="68" spans="1:47">
       <c r="A68" s="2" t="s">
         <v>26</v>
       </c>
@@ -3457,7 +3456,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="69" spans="1:47" hidden="1">
+    <row r="69" spans="1:47">
       <c r="A69" s="2" t="s">
         <v>26</v>
       </c>
@@ -3493,7 +3492,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="70" spans="1:47" hidden="1">
+    <row r="70" spans="1:47">
       <c r="A70" s="2" t="s">
         <v>27</v>
       </c>
@@ -3529,7 +3528,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="71" spans="1:47" hidden="1">
+    <row r="71" spans="1:47">
       <c r="A71" s="2" t="s">
         <v>32</v>
       </c>
@@ -3565,7 +3564,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="72" spans="1:47" hidden="1">
+    <row r="72" spans="1:47">
       <c r="A72" s="2" t="s">
         <v>32</v>
       </c>
@@ -3601,7 +3600,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="73" spans="1:47" hidden="1">
+    <row r="73" spans="1:47">
       <c r="A73" s="2" t="s">
         <v>30</v>
       </c>
@@ -3637,7 +3636,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="74" spans="1:47" hidden="1">
+    <row r="74" spans="1:47">
       <c r="A74" s="2" t="s">
         <v>24</v>
       </c>
@@ -3673,7 +3672,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="75" spans="1:47" hidden="1">
+    <row r="75" spans="1:47">
       <c r="A75" s="2" t="s">
         <v>29</v>
       </c>
@@ -3709,7 +3708,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="76" spans="1:47" hidden="1">
+    <row r="76" spans="1:47">
       <c r="A76" s="2" t="s">
         <v>27</v>
       </c>
@@ -3748,7 +3747,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="77" spans="1:47" hidden="1">
+    <row r="77" spans="1:47">
       <c r="A77" s="2" t="s">
         <v>29</v>
       </c>
@@ -3784,7 +3783,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="78" spans="1:47" hidden="1">
+    <row r="78" spans="1:47">
       <c r="A78" s="2" t="s">
         <v>26</v>
       </c>
@@ -3820,7 +3819,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="79" spans="1:47" hidden="1">
+    <row r="79" spans="1:47">
       <c r="A79" s="2" t="s">
         <v>30</v>
       </c>
@@ -3856,7 +3855,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="80" spans="1:47" hidden="1">
+    <row r="80" spans="1:47">
       <c r="A80" s="2" t="s">
         <v>26</v>
       </c>
@@ -3892,7 +3891,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="81" spans="1:37" hidden="1">
+    <row r="81" spans="1:37">
       <c r="A81" s="2" t="s">
         <v>27</v>
       </c>
@@ -3937,7 +3936,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="82" spans="1:37" hidden="1">
+    <row r="82" spans="1:37">
       <c r="A82" s="2" t="s">
         <v>25</v>
       </c>
@@ -3973,7 +3972,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="83" spans="1:37" hidden="1">
+    <row r="83" spans="1:37">
       <c r="A83" t="s">
         <v>30</v>
       </c>
@@ -4015,7 +4014,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="84" spans="1:37" hidden="1">
+    <row r="84" spans="1:37">
       <c r="A84" s="2" t="s">
         <v>32</v>
       </c>
@@ -4060,7 +4059,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="85" spans="1:37" hidden="1">
+    <row r="85" spans="1:37">
       <c r="A85" s="2" t="s">
         <v>29</v>
       </c>
@@ -4102,7 +4101,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="86" spans="1:37" hidden="1">
+    <row r="86" spans="1:37">
       <c r="A86" s="2" t="s">
         <v>30</v>
       </c>
@@ -4144,7 +4143,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="87" spans="1:37" hidden="1">
+    <row r="87" spans="1:37">
       <c r="A87" s="2" t="s">
         <v>29</v>
       </c>
@@ -4180,7 +4179,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="88" spans="1:37" hidden="1">
+    <row r="88" spans="1:37">
       <c r="A88" s="2" t="s">
         <v>24</v>
       </c>
@@ -4214,7 +4213,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="89" spans="1:37" hidden="1">
+    <row r="89" spans="1:37">
       <c r="A89" s="2" t="s">
         <v>30</v>
       </c>
@@ -4253,7 +4252,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="90" spans="1:37" hidden="1">
+    <row r="90" spans="1:37">
       <c r="A90" s="2" t="s">
         <v>26</v>
       </c>
@@ -4289,7 +4288,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="91" spans="1:37" hidden="1">
+    <row r="91" spans="1:37">
       <c r="A91" s="2" t="s">
         <v>27</v>
       </c>
@@ -4325,7 +4324,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="92" spans="1:37" hidden="1">
+    <row r="92" spans="1:37">
       <c r="A92" s="2" t="s">
         <v>25</v>
       </c>
@@ -4359,7 +4358,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="93" spans="1:37" hidden="1">
+    <row r="93" spans="1:37">
       <c r="A93" s="2" t="s">
         <v>29</v>
       </c>
@@ -4398,7 +4397,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="94" spans="1:37" hidden="1">
+    <row r="94" spans="1:37">
       <c r="A94" s="2" t="s">
         <v>29</v>
       </c>
@@ -4440,7 +4439,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="95" spans="1:37" hidden="1">
+    <row r="95" spans="1:37">
       <c r="A95" s="2" t="s">
         <v>26</v>
       </c>
@@ -4479,7 +4478,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="96" spans="1:37" hidden="1">
+    <row r="96" spans="1:37">
       <c r="A96" s="2" t="s">
         <v>27</v>
       </c>
@@ -4515,7 +4514,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="97" spans="1:37" hidden="1">
+    <row r="97" spans="1:37">
       <c r="A97" s="2" t="s">
         <v>27</v>
       </c>
@@ -4554,7 +4553,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="98" spans="1:37" hidden="1">
+    <row r="98" spans="1:37">
       <c r="A98" s="2" t="s">
         <v>28</v>
       </c>
@@ -4593,7 +4592,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="99" spans="1:37" hidden="1">
+    <row r="99" spans="1:37">
       <c r="A99" s="2" t="s">
         <v>26</v>
       </c>
@@ -4632,7 +4631,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="100" spans="1:37" hidden="1">
+    <row r="100" spans="1:37">
       <c r="A100" s="2" t="s">
         <v>27</v>
       </c>
@@ -4671,7 +4670,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="101" spans="1:37" hidden="1">
+    <row r="101" spans="1:37">
       <c r="A101" s="2" t="s">
         <v>31</v>
       </c>
@@ -4707,7 +4706,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="102" spans="1:37" hidden="1">
+    <row r="102" spans="1:37">
       <c r="A102" s="2" t="s">
         <v>27</v>
       </c>
@@ -4743,7 +4742,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="103" spans="1:37" hidden="1">
+    <row r="103" spans="1:37">
       <c r="A103" s="2" t="s">
         <v>28</v>
       </c>
@@ -4779,7 +4778,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="104" spans="1:37" hidden="1">
+    <row r="104" spans="1:37">
       <c r="A104" s="2" t="s">
         <v>28</v>
       </c>
@@ -4883,7 +4882,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="107" spans="1:37" hidden="1">
+    <row r="107" spans="1:37">
       <c r="A107" s="2" t="s">
         <v>32</v>
       </c>
@@ -4919,7 +4918,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="108" spans="1:37" hidden="1">
+    <row r="108" spans="1:37">
       <c r="A108" s="2" t="s">
         <v>29</v>
       </c>
@@ -4955,7 +4954,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="109" spans="1:37" hidden="1">
+    <row r="109" spans="1:37">
       <c r="A109" s="2" t="s">
         <v>25</v>
       </c>
@@ -4994,7 +4993,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="110" spans="1:37" hidden="1">
+    <row r="110" spans="1:37">
       <c r="A110" s="2" t="s">
         <v>26</v>
       </c>
@@ -5030,7 +5029,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="111" spans="1:37" hidden="1">
+    <row r="111" spans="1:37">
       <c r="A111" s="2" t="s">
         <v>31</v>
       </c>
@@ -5066,7 +5065,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="112" spans="1:37" hidden="1">
+    <row r="112" spans="1:37">
       <c r="A112" s="2" t="s">
         <v>24</v>
       </c>
@@ -5100,7 +5099,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="113" spans="1:51" hidden="1">
+    <row r="113" spans="1:51">
       <c r="A113" s="2" t="s">
         <v>24</v>
       </c>
@@ -5136,7 +5135,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="114" spans="1:51" hidden="1">
+    <row r="114" spans="1:51">
       <c r="A114" s="2" t="s">
         <v>30</v>
       </c>
@@ -5172,7 +5171,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="115" spans="1:51" hidden="1">
+    <row r="115" spans="1:51">
       <c r="A115" s="2" t="s">
         <v>27</v>
       </c>
@@ -5211,7 +5210,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="116" spans="1:51" hidden="1">
+    <row r="116" spans="1:51">
       <c r="A116" s="2" t="s">
         <v>25</v>
       </c>
@@ -5247,7 +5246,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="117" spans="1:51" ht="15.75" hidden="1" customHeight="1">
+    <row r="117" spans="1:51" ht="15.75" customHeight="1">
       <c r="A117" s="2" t="s">
         <v>31</v>
       </c>
@@ -5283,7 +5282,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="118" spans="1:51" hidden="1">
+    <row r="118" spans="1:51">
       <c r="A118" s="2" t="s">
         <v>28</v>
       </c>
@@ -5319,7 +5318,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="119" spans="1:51" hidden="1">
+    <row r="119" spans="1:51">
       <c r="A119" s="2" t="s">
         <v>26</v>
       </c>
@@ -5358,7 +5357,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="120" spans="1:51" hidden="1">
+    <row r="120" spans="1:51">
       <c r="A120" s="2" t="s">
         <v>24</v>
       </c>
@@ -5394,7 +5393,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="121" spans="1:51" hidden="1">
+    <row r="121" spans="1:51">
       <c r="A121" s="2" t="s">
         <v>25</v>
       </c>
@@ -5430,7 +5429,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="122" spans="1:51" hidden="1">
+    <row r="122" spans="1:51">
       <c r="A122" s="2" t="s">
         <v>24</v>
       </c>
@@ -5466,7 +5465,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="123" spans="1:51" hidden="1">
+    <row r="123" spans="1:51">
       <c r="A123" s="2" t="s">
         <v>31</v>
       </c>
@@ -5520,7 +5519,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="124" spans="1:51" hidden="1">
+    <row r="124" spans="1:51">
       <c r="A124" s="2" t="s">
         <v>32</v>
       </c>
@@ -5559,7 +5558,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="125" spans="1:51" hidden="1">
+    <row r="125" spans="1:51">
       <c r="A125" s="2" t="s">
         <v>30</v>
       </c>
@@ -5595,7 +5594,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="126" spans="1:51" hidden="1">
+    <row r="126" spans="1:51">
       <c r="A126" s="2" t="s">
         <v>31</v>
       </c>
@@ -5631,7 +5630,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="127" spans="1:51" hidden="1">
+    <row r="127" spans="1:51">
       <c r="A127" s="2" t="s">
         <v>25</v>
       </c>
@@ -5673,7 +5672,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="128" spans="1:51" hidden="1">
+    <row r="128" spans="1:51">
       <c r="A128" s="2" t="s">
         <v>31</v>
       </c>
@@ -5712,7 +5711,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="129" spans="1:37" hidden="1">
+    <row r="129" spans="1:37">
       <c r="A129" s="2" t="s">
         <v>29</v>
       </c>
@@ -5748,7 +5747,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="130" spans="1:37" hidden="1">
+    <row r="130" spans="1:37">
       <c r="A130" s="2" t="s">
         <v>27</v>
       </c>
@@ -5787,7 +5786,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="131" spans="1:37" hidden="1">
+    <row r="131" spans="1:37">
       <c r="A131" s="2" t="s">
         <v>24</v>
       </c>
@@ -5823,7 +5822,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="132" spans="1:37" hidden="1">
+    <row r="132" spans="1:37">
       <c r="A132" s="2" t="s">
         <v>28</v>
       </c>
@@ -5862,7 +5861,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="133" spans="1:37" hidden="1">
+    <row r="133" spans="1:37">
       <c r="A133" s="2" t="s">
         <v>27</v>
       </c>
@@ -5898,7 +5897,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="134" spans="1:37" hidden="1">
+    <row r="134" spans="1:37">
       <c r="A134" s="2" t="s">
         <v>31</v>
       </c>
@@ -5958,7 +5957,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="135" spans="1:37" hidden="1">
+    <row r="135" spans="1:37">
       <c r="A135" s="2" t="s">
         <v>31</v>
       </c>
@@ -6000,7 +5999,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="136" spans="1:37" hidden="1">
+    <row r="136" spans="1:37">
       <c r="A136" s="2" t="s">
         <v>26</v>
       </c>
@@ -6039,7 +6038,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="137" spans="1:37" hidden="1">
+    <row r="137" spans="1:37">
       <c r="A137" s="2" t="s">
         <v>29</v>
       </c>
@@ -6075,7 +6074,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="138" spans="1:37" hidden="1">
+    <row r="138" spans="1:37">
       <c r="A138" s="2" t="s">
         <v>32</v>
       </c>
@@ -6111,7 +6110,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="139" spans="1:37" hidden="1">
+    <row r="139" spans="1:37">
       <c r="A139" s="2" t="s">
         <v>30</v>
       </c>
@@ -6153,7 +6152,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="140" spans="1:37" hidden="1">
+    <row r="140" spans="1:37">
       <c r="A140" s="2" t="s">
         <v>31</v>
       </c>
@@ -6189,7 +6188,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="141" spans="1:37" hidden="1">
+    <row r="141" spans="1:37">
       <c r="A141" s="2" t="s">
         <v>24</v>
       </c>
@@ -6229,7 +6228,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="142" spans="1:37" hidden="1">
+    <row r="142" spans="1:37">
       <c r="A142" s="2" t="s">
         <v>26</v>
       </c>
@@ -6265,7 +6264,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="143" spans="1:37" hidden="1">
+    <row r="143" spans="1:37">
       <c r="A143" s="2" t="s">
         <v>26</v>
       </c>
@@ -6301,7 +6300,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="144" spans="1:37" hidden="1">
+    <row r="144" spans="1:37">
       <c r="A144" s="2" t="s">
         <v>28</v>
       </c>
@@ -6337,7 +6336,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="145" spans="1:51" hidden="1">
+    <row r="145" spans="1:51">
       <c r="A145" s="2" t="s">
         <v>31</v>
       </c>
@@ -6379,7 +6378,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="146" spans="1:51" hidden="1">
+    <row r="146" spans="1:51">
       <c r="A146" s="2" t="s">
         <v>31</v>
       </c>
@@ -6415,7 +6414,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="147" spans="1:51" hidden="1">
+    <row r="147" spans="1:51">
       <c r="A147" s="2" t="s">
         <v>30</v>
       </c>
@@ -6451,7 +6450,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="148" spans="1:51" hidden="1">
+    <row r="148" spans="1:51">
       <c r="A148" s="2" t="s">
         <v>28</v>
       </c>
@@ -6493,7 +6492,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="149" spans="1:51" hidden="1">
+    <row r="149" spans="1:51">
       <c r="A149" s="2" t="s">
         <v>30</v>
       </c>
@@ -6529,7 +6528,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="150" spans="1:51" hidden="1">
+    <row r="150" spans="1:51">
       <c r="A150" s="2" t="s">
         <v>29</v>
       </c>
@@ -6565,7 +6564,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="151" spans="1:51" hidden="1">
+    <row r="151" spans="1:51">
       <c r="A151" s="2" t="s">
         <v>24</v>
       </c>
@@ -6596,7 +6595,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="152" spans="1:51" hidden="1">
+    <row r="152" spans="1:51">
       <c r="A152" t="s">
         <v>31</v>
       </c>
@@ -6644,7 +6643,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="153" spans="1:51" hidden="1">
+    <row r="153" spans="1:51">
       <c r="A153" s="2" t="s">
         <v>30</v>
       </c>
@@ -6681,7 +6680,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="154" spans="1:51" hidden="1">
+    <row r="154" spans="1:51">
       <c r="A154" s="2" t="s">
         <v>24</v>
       </c>
@@ -6718,7 +6717,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="155" spans="1:51" hidden="1">
+    <row r="155" spans="1:51">
       <c r="A155" s="2" t="s">
         <v>29</v>
       </c>
@@ -6754,7 +6753,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="156" spans="1:51" hidden="1">
+    <row r="156" spans="1:51">
       <c r="A156" s="2" t="s">
         <v>31</v>
       </c>
@@ -6796,7 +6795,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="157" spans="1:51" hidden="1">
+    <row r="157" spans="1:51">
       <c r="A157" s="2" t="s">
         <v>26</v>
       </c>
@@ -6832,7 +6831,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="158" spans="1:51" hidden="1">
+    <row r="158" spans="1:51">
       <c r="A158" s="2" t="s">
         <v>32</v>
       </c>
@@ -6892,7 +6891,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="159" spans="1:51" hidden="1">
+    <row r="159" spans="1:51">
       <c r="A159" s="2" t="s">
         <v>29</v>
       </c>
@@ -6928,7 +6927,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="160" spans="1:51" hidden="1">
+    <row r="160" spans="1:51">
       <c r="A160" s="2" t="s">
         <v>26</v>
       </c>
@@ -6964,7 +6963,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="161" spans="1:51" hidden="1">
+    <row r="161" spans="1:51">
       <c r="A161" s="2" t="s">
         <v>32</v>
       </c>
@@ -7000,7 +6999,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="162" spans="1:51" hidden="1">
+    <row r="162" spans="1:51">
       <c r="A162" s="2" t="s">
         <v>27</v>
       </c>
@@ -7036,7 +7035,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="163" spans="1:51" hidden="1">
+    <row r="163" spans="1:51">
       <c r="A163" s="2" t="s">
         <v>24</v>
       </c>
@@ -7072,7 +7071,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="164" spans="1:51" hidden="1">
+    <row r="164" spans="1:51">
       <c r="A164" s="2" t="s">
         <v>31</v>
       </c>
@@ -7108,7 +7107,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="165" spans="1:51" hidden="1">
+    <row r="165" spans="1:51">
       <c r="A165" s="2" t="s">
         <v>31</v>
       </c>
@@ -7150,7 +7149,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="166" spans="1:51" hidden="1">
+    <row r="166" spans="1:51">
       <c r="A166" s="2" t="s">
         <v>32</v>
       </c>
@@ -7189,7 +7188,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="167" spans="1:51" hidden="1">
+    <row r="167" spans="1:51">
       <c r="A167" s="2" t="s">
         <v>27</v>
       </c>
@@ -7231,7 +7230,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="168" spans="1:51" hidden="1">
+    <row r="168" spans="1:51">
       <c r="A168" s="2" t="s">
         <v>28</v>
       </c>
@@ -7267,7 +7266,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="169" spans="1:51" hidden="1">
+    <row r="169" spans="1:51">
       <c r="A169" s="2" t="s">
         <v>28</v>
       </c>
@@ -7306,7 +7305,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="170" spans="1:51" hidden="1">
+    <row r="170" spans="1:51">
       <c r="A170" s="2" t="s">
         <v>25</v>
       </c>
@@ -7342,7 +7341,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="171" spans="1:51" ht="16.5" hidden="1" customHeight="1">
+    <row r="171" spans="1:51" ht="16.5" customHeight="1">
       <c r="A171" s="2" t="s">
         <v>30</v>
       </c>
@@ -7381,7 +7380,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="172" spans="1:51" hidden="1">
+    <row r="172" spans="1:51">
       <c r="A172" s="2" t="s">
         <v>28</v>
       </c>
@@ -7417,7 +7416,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="173" spans="1:51" hidden="1">
+    <row r="173" spans="1:51">
       <c r="A173" s="2" t="s">
         <v>24</v>
       </c>
@@ -7451,7 +7450,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="174" spans="1:51" hidden="1">
+    <row r="174" spans="1:51">
       <c r="A174" s="2" t="s">
         <v>32</v>
       </c>
@@ -7499,7 +7498,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="175" spans="1:51" hidden="1">
+    <row r="175" spans="1:51">
       <c r="A175" s="2" t="s">
         <v>25</v>
       </c>
@@ -7533,7 +7532,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="176" spans="1:51" hidden="1">
+    <row r="176" spans="1:51">
       <c r="A176" s="2" t="s">
         <v>27</v>
       </c>
@@ -7569,7 +7568,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="177" spans="1:51" hidden="1">
+    <row r="177" spans="1:51">
       <c r="A177" s="2" t="s">
         <v>27</v>
       </c>
@@ -7605,7 +7604,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="178" spans="1:51" hidden="1">
+    <row r="178" spans="1:51">
       <c r="A178" s="2" t="s">
         <v>24</v>
       </c>
@@ -7686,7 +7685,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="180" spans="1:51" hidden="1">
+    <row r="180" spans="1:51">
       <c r="A180" s="2" t="s">
         <v>26</v>
       </c>
@@ -7728,7 +7727,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="181" spans="1:51" hidden="1">
+    <row r="181" spans="1:51">
       <c r="A181" s="2" t="s">
         <v>29</v>
       </c>
@@ -7773,7 +7772,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="182" spans="1:51" hidden="1">
+    <row r="182" spans="1:51">
       <c r="A182" s="2" t="s">
         <v>25</v>
       </c>
@@ -7807,7 +7806,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="183" spans="1:51" hidden="1">
+    <row r="183" spans="1:51">
       <c r="A183" s="2" t="s">
         <v>26</v>
       </c>
@@ -7843,7 +7842,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="184" spans="1:51" hidden="1">
+    <row r="184" spans="1:51">
       <c r="A184" s="2" t="s">
         <v>32</v>
       </c>
@@ -7882,7 +7881,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="185" spans="1:51" hidden="1">
+    <row r="185" spans="1:51">
       <c r="A185" s="2" t="s">
         <v>25</v>
       </c>
@@ -7918,7 +7917,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="186" spans="1:51" hidden="1">
+    <row r="186" spans="1:51">
       <c r="A186" s="2" t="s">
         <v>29</v>
       </c>
@@ -7954,7 +7953,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="187" spans="1:51" hidden="1">
+    <row r="187" spans="1:51">
       <c r="A187" t="s">
         <v>29</v>
       </c>
@@ -8069,7 +8068,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="188" spans="1:51" hidden="1">
+    <row r="188" spans="1:51">
       <c r="A188" s="2" t="s">
         <v>27</v>
       </c>
@@ -8127,7 +8126,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="189" spans="1:51" hidden="1">
+    <row r="189" spans="1:51">
       <c r="A189" t="s">
         <v>27</v>
       </c>
@@ -8251,7 +8250,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="191" spans="1:51" hidden="1">
+    <row r="191" spans="1:51">
       <c r="A191" s="2" t="s">
         <v>29</v>
       </c>
@@ -8309,7 +8308,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="192" spans="1:51" hidden="1">
+    <row r="192" spans="1:51">
       <c r="A192" s="2" t="s">
         <v>30</v>
       </c>
@@ -8352,7 +8351,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="193" spans="1:51" hidden="1">
+    <row r="193" spans="1:51">
       <c r="A193" s="2" t="s">
         <v>32</v>
       </c>
@@ -8413,7 +8412,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="194" spans="1:51" hidden="1">
+    <row r="194" spans="1:51">
       <c r="A194" t="s">
         <v>29</v>
       </c>
@@ -8470,7 +8469,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="195" spans="1:51" hidden="1">
+    <row r="195" spans="1:51">
       <c r="A195" s="2" t="s">
         <v>28</v>
       </c>
@@ -8573,7 +8572,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="196" spans="1:51" hidden="1">
+    <row r="196" spans="1:51">
       <c r="A196" s="2" t="s">
         <v>30</v>
       </c>
@@ -8688,7 +8687,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="198" spans="1:51" hidden="1">
+    <row r="198" spans="1:51">
       <c r="A198" s="2" t="s">
         <v>31</v>
       </c>
@@ -8743,7 +8742,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="199" spans="1:51" hidden="1">
+    <row r="199" spans="1:51">
       <c r="A199" s="2" t="s">
         <v>29</v>
       </c>
@@ -8813,7 +8812,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="200" spans="1:51" hidden="1">
+    <row r="200" spans="1:51">
       <c r="A200" t="s">
         <v>28</v>
       </c>
@@ -8870,7 +8869,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="201" spans="1:51" hidden="1">
+    <row r="201" spans="1:51">
       <c r="A201" s="2" t="s">
         <v>28</v>
       </c>
@@ -8989,7 +8988,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="203" spans="1:51" hidden="1">
+    <row r="203" spans="1:51">
       <c r="A203" s="2" t="s">
         <v>24</v>
       </c>
@@ -9023,7 +9022,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="204" spans="1:51" hidden="1">
+    <row r="204" spans="1:51">
       <c r="A204" s="2" t="s">
         <v>25</v>
       </c>
@@ -9057,7 +9056,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="205" spans="1:51" hidden="1">
+    <row r="205" spans="1:51">
       <c r="A205" s="2" t="s">
         <v>24</v>
       </c>
@@ -9094,7 +9093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:51" hidden="1">
+    <row r="206" spans="1:51">
       <c r="A206" s="2" t="s">
         <v>25</v>
       </c>
@@ -9128,7 +9127,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="207" spans="1:51" hidden="1">
+    <row r="207" spans="1:51">
       <c r="A207" s="2" t="s">
         <v>25</v>
       </c>
@@ -9167,7 +9166,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="208" spans="1:51" hidden="1">
+    <row r="208" spans="1:51">
       <c r="A208" s="2" t="s">
         <v>24</v>
       </c>
@@ -9212,7 +9211,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="209" spans="1:43" hidden="1">
+    <row r="209" spans="1:43">
       <c r="A209" s="2" t="s">
         <v>25</v>
       </c>
@@ -9323,7 +9322,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="212" spans="1:43" hidden="1">
+    <row r="212" spans="1:43">
       <c r="A212" s="2" t="s">
         <v>24</v>
       </c>
@@ -9369,7 +9368,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:43" hidden="1">
+    <row r="213" spans="1:43">
       <c r="A213" s="2" t="s">
         <v>25</v>
       </c>
@@ -9412,7 +9411,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:43" hidden="1">
+    <row r="214" spans="1:43">
       <c r="A214" s="2" t="s">
         <v>24</v>
       </c>
@@ -9449,7 +9448,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="215" spans="1:43" hidden="1">
+    <row r="215" spans="1:43">
       <c r="A215" s="2" t="s">
         <v>25</v>
       </c>
@@ -9486,7 +9485,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="216" spans="1:43" hidden="1">
+    <row r="216" spans="1:43">
       <c r="A216" s="2" t="s">
         <v>24</v>
       </c>
@@ -9522,7 +9521,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="217" spans="1:43" hidden="1">
+    <row r="217" spans="1:43">
       <c r="A217" s="2" t="s">
         <v>25</v>
       </c>
@@ -9556,7 +9555,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="218" spans="1:43" hidden="1">
+    <row r="218" spans="1:43">
       <c r="A218" s="2" t="s">
         <v>24</v>
       </c>
@@ -9593,7 +9592,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="219" spans="1:43" hidden="1">
+    <row r="219" spans="1:43">
       <c r="A219" s="2" t="s">
         <v>25</v>
       </c>
@@ -9627,7 +9626,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="220" spans="1:43" hidden="1">
+    <row r="220" spans="1:43">
       <c r="A220" s="2" t="s">
         <v>24</v>
       </c>
@@ -9661,7 +9660,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="221" spans="1:43" hidden="1">
+    <row r="221" spans="1:43">
       <c r="A221" s="2" t="s">
         <v>25</v>
       </c>
@@ -9695,7 +9694,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="222" spans="1:43" hidden="1">
+    <row r="222" spans="1:43">
       <c r="A222" s="2" t="s">
         <v>25</v>
       </c>
@@ -9737,7 +9736,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="223" spans="1:43" hidden="1">
+    <row r="223" spans="1:43">
       <c r="A223" s="2" t="s">
         <v>24</v>
       </c>
@@ -9776,7 +9775,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="224" spans="1:43" hidden="1">
+    <row r="224" spans="1:43">
       <c r="A224" s="2" t="s">
         <v>24</v>
       </c>
@@ -9810,7 +9809,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="225" spans="1:49" hidden="1">
+    <row r="225" spans="1:49">
       <c r="A225" s="2" t="s">
         <v>25</v>
       </c>
@@ -9846,7 +9845,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="226" spans="1:49" hidden="1">
+    <row r="226" spans="1:49">
       <c r="A226" s="2" t="s">
         <v>24</v>
       </c>
@@ -9883,7 +9882,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="227" spans="1:49" hidden="1">
+    <row r="227" spans="1:49">
       <c r="A227" s="2" t="s">
         <v>24</v>
       </c>
@@ -9919,7 +9918,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="228" spans="1:49" hidden="1">
+    <row r="228" spans="1:49">
       <c r="A228" s="2" t="s">
         <v>25</v>
       </c>
@@ -9959,7 +9958,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="229" spans="1:49" hidden="1">
+    <row r="229" spans="1:49">
       <c r="A229" s="2" t="s">
         <v>24</v>
       </c>
@@ -9996,7 +9995,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="230" spans="1:49" hidden="1">
+    <row r="230" spans="1:49">
       <c r="A230" s="2" t="s">
         <v>25</v>
       </c>
@@ -10137,7 +10136,7 @@
         <v>7.83</v>
       </c>
     </row>
-    <row r="233" spans="1:49" hidden="1">
+    <row r="233" spans="1:49">
       <c r="A233" s="2" t="s">
         <v>24</v>
       </c>
@@ -10174,7 +10173,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="234" spans="1:49" hidden="1">
+    <row r="234" spans="1:49">
       <c r="A234" s="2" t="s">
         <v>25</v>
       </c>
@@ -10217,7 +10216,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="235" spans="1:49" hidden="1">
+    <row r="235" spans="1:49">
       <c r="A235" s="2" t="s">
         <v>25</v>
       </c>
@@ -10256,7 +10255,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="236" spans="1:49" hidden="1">
+    <row r="236" spans="1:49">
       <c r="A236" s="2" t="s">
         <v>24</v>
       </c>
@@ -10292,7 +10291,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="237" spans="1:49" hidden="1">
+    <row r="237" spans="1:49">
       <c r="A237" s="2" t="s">
         <v>24</v>
       </c>
@@ -10326,7 +10325,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="238" spans="1:49" hidden="1">
+    <row r="238" spans="1:49">
       <c r="A238" s="2" t="s">
         <v>25</v>
       </c>
@@ -10360,7 +10359,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="239" spans="1:49" hidden="1">
+    <row r="239" spans="1:49">
       <c r="A239" s="2" t="s">
         <v>24</v>
       </c>
@@ -10394,7 +10393,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="240" spans="1:49" hidden="1">
+    <row r="240" spans="1:49">
       <c r="A240" s="2" t="s">
         <v>25</v>
       </c>
@@ -10428,7 +10427,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="241" spans="1:43" hidden="1">
+    <row r="241" spans="1:43">
       <c r="A241" s="2" t="s">
         <v>24</v>
       </c>
@@ -10462,7 +10461,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="242" spans="1:43" hidden="1">
+    <row r="242" spans="1:43">
       <c r="A242" s="2" t="s">
         <v>25</v>
       </c>
@@ -10496,7 +10495,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="243" spans="1:43" hidden="1">
+    <row r="243" spans="1:43">
       <c r="A243" s="2" t="s">
         <v>27</v>
       </c>
@@ -10530,7 +10529,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="244" spans="1:43" hidden="1">
+    <row r="244" spans="1:43">
       <c r="A244" s="2" t="s">
         <v>27</v>
       </c>
@@ -10601,7 +10600,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="246" spans="1:43" hidden="1">
+    <row r="246" spans="1:43">
       <c r="A246" s="2" t="s">
         <v>27</v>
       </c>
@@ -10638,7 +10637,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="247" spans="1:43" hidden="1">
+    <row r="247" spans="1:43">
       <c r="A247" s="2" t="s">
         <v>27</v>
       </c>
@@ -10672,7 +10671,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="248" spans="1:43" hidden="1">
+    <row r="248" spans="1:43">
       <c r="A248" s="2" t="s">
         <v>27</v>
       </c>
@@ -10709,7 +10708,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="249" spans="1:43" hidden="1">
+    <row r="249" spans="1:43">
       <c r="A249" s="2" t="s">
         <v>27</v>
       </c>
@@ -10746,7 +10745,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="250" spans="1:43" hidden="1">
+    <row r="250" spans="1:43">
       <c r="A250" s="2" t="s">
         <v>27</v>
       </c>
@@ -10780,7 +10779,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="251" spans="1:43" hidden="1">
+    <row r="251" spans="1:43">
       <c r="A251" s="2" t="s">
         <v>27</v>
       </c>
@@ -10817,7 +10816,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="252" spans="1:43" hidden="1">
+    <row r="252" spans="1:43">
       <c r="A252" s="2" t="s">
         <v>27</v>
       </c>
@@ -10857,7 +10856,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="253" spans="1:43" hidden="1">
+    <row r="253" spans="1:43">
       <c r="A253" s="2" t="s">
         <v>27</v>
       </c>
@@ -10903,7 +10902,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:43" hidden="1">
+    <row r="254" spans="1:43">
       <c r="A254" s="2" t="s">
         <v>27</v>
       </c>
@@ -10937,7 +10936,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="255" spans="1:43" hidden="1">
+    <row r="255" spans="1:43">
       <c r="A255" s="2" t="s">
         <v>27</v>
       </c>
@@ -10974,7 +10973,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="256" spans="1:43" hidden="1">
+    <row r="256" spans="1:43">
       <c r="A256" s="2" t="s">
         <v>27</v>
       </c>
@@ -11008,7 +11007,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="257" spans="1:50" hidden="1">
+    <row r="257" spans="1:50">
       <c r="A257" s="2" t="s">
         <v>27</v>
       </c>
@@ -11042,7 +11041,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="258" spans="1:50" hidden="1">
+    <row r="258" spans="1:50">
       <c r="A258" s="2" t="s">
         <v>27</v>
       </c>
@@ -11076,7 +11075,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="259" spans="1:50" hidden="1">
+    <row r="259" spans="1:50">
       <c r="A259" s="2" t="s">
         <v>27</v>
       </c>
@@ -11156,7 +11155,7 @@
         <v>4.2699999999999996</v>
       </c>
     </row>
-    <row r="261" spans="1:50" hidden="1">
+    <row r="261" spans="1:50">
       <c r="A261" s="2" t="s">
         <v>27</v>
       </c>
@@ -11196,7 +11195,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="262" spans="1:50" hidden="1">
+    <row r="262" spans="1:50">
       <c r="A262" s="2" t="s">
         <v>27</v>
       </c>
@@ -11233,7 +11232,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="263" spans="1:50" hidden="1">
+    <row r="263" spans="1:50">
       <c r="A263" s="2" t="s">
         <v>27</v>
       </c>
@@ -11270,7 +11269,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="264" spans="1:50" hidden="1">
+    <row r="264" spans="1:50">
       <c r="A264" s="2" t="s">
         <v>27</v>
       </c>
@@ -11304,7 +11303,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="265" spans="1:50" hidden="1">
+    <row r="265" spans="1:50">
       <c r="A265" s="2" t="s">
         <v>27</v>
       </c>
@@ -11338,7 +11337,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="266" spans="1:50" hidden="1">
+    <row r="266" spans="1:50">
       <c r="A266" s="2" t="s">
         <v>27</v>
       </c>
@@ -11372,7 +11371,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="267" spans="1:50" hidden="1">
+    <row r="267" spans="1:50">
       <c r="A267" s="2" t="s">
         <v>27</v>
       </c>
@@ -11443,7 +11442,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="269" spans="1:50" hidden="1">
+    <row r="269" spans="1:50">
       <c r="A269" s="2" t="s">
         <v>27</v>
       </c>
@@ -11477,7 +11476,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="270" spans="1:50" hidden="1">
+    <row r="270" spans="1:50">
       <c r="A270" s="2" t="s">
         <v>27</v>
       </c>
@@ -11520,7 +11519,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="271" spans="1:50" hidden="1">
+    <row r="271" spans="1:50">
       <c r="A271" t="s">
         <v>27</v>
       </c>
@@ -11615,7 +11614,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="273" spans="1:51" hidden="1">
+    <row r="273" spans="1:51">
       <c r="A273" s="2" t="s">
         <v>30</v>
       </c>
@@ -11649,7 +11648,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="274" spans="1:51" hidden="1">
+    <row r="274" spans="1:51">
       <c r="A274" s="2" t="s">
         <v>30</v>
       </c>
@@ -11680,7 +11679,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="275" spans="1:51" hidden="1">
+    <row r="275" spans="1:51">
       <c r="A275" s="2" t="s">
         <v>30</v>
       </c>
@@ -11714,7 +11713,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="276" spans="1:51" hidden="1">
+    <row r="276" spans="1:51">
       <c r="A276" s="2" t="s">
         <v>30</v>
       </c>
@@ -11786,7 +11785,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="278" spans="1:51" hidden="1">
+    <row r="278" spans="1:51">
       <c r="A278" s="2" t="s">
         <v>30</v>
       </c>
@@ -11823,7 +11822,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="279" spans="1:51" hidden="1">
+    <row r="279" spans="1:51">
       <c r="A279" s="2" t="s">
         <v>30</v>
       </c>
@@ -11857,7 +11856,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="280" spans="1:51" hidden="1">
+    <row r="280" spans="1:51">
       <c r="A280" s="2" t="s">
         <v>30</v>
       </c>
@@ -11894,7 +11893,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="281" spans="1:51" hidden="1">
+    <row r="281" spans="1:51">
       <c r="A281" s="2" t="s">
         <v>30</v>
       </c>
@@ -11928,7 +11927,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="282" spans="1:51" hidden="1">
+    <row r="282" spans="1:51">
       <c r="A282" s="2" t="s">
         <v>30</v>
       </c>
@@ -11962,7 +11961,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="283" spans="1:51" hidden="1">
+    <row r="283" spans="1:51">
       <c r="A283" s="2" t="s">
         <v>30</v>
       </c>
@@ -12005,7 +12004,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="284" spans="1:51" hidden="1">
+    <row r="284" spans="1:51">
       <c r="A284" s="2" t="s">
         <v>30</v>
       </c>
@@ -12039,7 +12038,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="285" spans="1:51" hidden="1">
+    <row r="285" spans="1:51">
       <c r="A285" t="s">
         <v>30</v>
       </c>
@@ -12076,7 +12075,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="286" spans="1:51" hidden="1">
+    <row r="286" spans="1:51">
       <c r="A286" s="2" t="s">
         <v>30</v>
       </c>
@@ -12150,7 +12149,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="288" spans="1:51" hidden="1">
+    <row r="288" spans="1:51">
       <c r="A288" s="2" t="s">
         <v>30</v>
       </c>
@@ -12184,7 +12183,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="289" spans="1:51" hidden="1">
+    <row r="289" spans="1:51">
       <c r="A289" s="2" t="s">
         <v>30</v>
       </c>
@@ -12218,7 +12217,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="290" spans="1:51" hidden="1">
+    <row r="290" spans="1:51">
       <c r="A290" s="2" t="s">
         <v>30</v>
       </c>
@@ -12255,7 +12254,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="291" spans="1:51" hidden="1">
+    <row r="291" spans="1:51">
       <c r="A291" s="2" t="s">
         <v>30</v>
       </c>
@@ -12292,7 +12291,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="292" spans="1:51" hidden="1">
+    <row r="292" spans="1:51">
       <c r="A292" s="2" t="s">
         <v>30</v>
       </c>
@@ -12326,7 +12325,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="293" spans="1:51" hidden="1">
+    <row r="293" spans="1:51">
       <c r="A293" s="2" t="s">
         <v>30</v>
       </c>
@@ -12360,7 +12359,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="294" spans="1:51" hidden="1">
+    <row r="294" spans="1:51">
       <c r="A294" t="s">
         <v>30</v>
       </c>
@@ -12443,7 +12442,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="296" spans="1:51" hidden="1">
+    <row r="296" spans="1:51">
       <c r="A296" s="2" t="s">
         <v>31</v>
       </c>
@@ -12492,7 +12491,7 @@
         <v>3.39E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:51" hidden="1">
+    <row r="297" spans="1:51">
       <c r="A297" s="2" t="s">
         <v>30</v>
       </c>
@@ -12529,7 +12528,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="298" spans="1:51" hidden="1">
+    <row r="298" spans="1:51">
       <c r="A298" t="s">
         <v>30</v>
       </c>
@@ -12563,7 +12562,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="299" spans="1:51" hidden="1">
+    <row r="299" spans="1:51">
       <c r="A299" s="2" t="s">
         <v>30</v>
       </c>
@@ -12597,7 +12596,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="300" spans="1:51" hidden="1">
+    <row r="300" spans="1:51">
       <c r="A300" s="2" t="s">
         <v>30</v>
       </c>
@@ -12634,7 +12633,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="301" spans="1:51" hidden="1">
+    <row r="301" spans="1:51">
       <c r="A301" s="2" t="s">
         <v>30</v>
       </c>
@@ -12717,7 +12716,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="303" spans="1:51" hidden="1">
+    <row r="303" spans="1:51">
       <c r="A303" s="2" t="s">
         <v>31</v>
       </c>
@@ -12832,7 +12831,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="304" spans="1:51" hidden="1">
+    <row r="304" spans="1:51">
       <c r="A304" s="2" t="s">
         <v>30</v>
       </c>
@@ -12869,7 +12868,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="305" spans="1:51" hidden="1">
+    <row r="305" spans="1:51">
       <c r="A305" s="2" t="s">
         <v>30</v>
       </c>
@@ -12906,7 +12905,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="306" spans="1:51" hidden="1">
+    <row r="306" spans="1:51">
       <c r="A306" t="s">
         <v>30</v>
       </c>
@@ -12940,7 +12939,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="307" spans="1:51" hidden="1">
+    <row r="307" spans="1:51">
       <c r="A307" s="2" t="s">
         <v>25</v>
       </c>
@@ -12979,7 +12978,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="308" spans="1:51" hidden="1">
+    <row r="308" spans="1:51">
       <c r="A308" s="2" t="s">
         <v>24</v>
       </c>
@@ -13015,7 +13014,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="309" spans="1:51" hidden="1">
+    <row r="309" spans="1:51">
       <c r="A309" s="2" t="s">
         <v>24</v>
       </c>
@@ -13052,7 +13051,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="310" spans="1:51" hidden="1">
+    <row r="310" spans="1:51">
       <c r="A310" s="2" t="s">
         <v>25</v>
       </c>
@@ -13086,7 +13085,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="311" spans="1:51" hidden="1">
+    <row r="311" spans="1:51">
       <c r="A311" s="2" t="s">
         <v>24</v>
       </c>
@@ -13120,7 +13119,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="312" spans="1:51" hidden="1">
+    <row r="312" spans="1:51">
       <c r="A312" s="2" t="s">
         <v>25</v>
       </c>
@@ -13154,7 +13153,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="313" spans="1:51" hidden="1">
+    <row r="313" spans="1:51">
       <c r="A313" s="2" t="s">
         <v>24</v>
       </c>
@@ -13188,7 +13187,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="314" spans="1:51" hidden="1">
+    <row r="314" spans="1:51">
       <c r="A314" s="2" t="s">
         <v>25</v>
       </c>
@@ -13222,7 +13221,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="315" spans="1:51" hidden="1">
+    <row r="315" spans="1:51">
       <c r="A315" s="2" t="s">
         <v>24</v>
       </c>
@@ -13253,7 +13252,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="316" spans="1:51" hidden="1">
+    <row r="316" spans="1:51">
       <c r="A316" s="2" t="s">
         <v>25</v>
       </c>
@@ -13287,7 +13286,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="317" spans="1:51" hidden="1">
+    <row r="317" spans="1:51">
       <c r="A317" s="2" t="s">
         <v>24</v>
       </c>
@@ -13321,7 +13320,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="318" spans="1:51" hidden="1">
+    <row r="318" spans="1:51">
       <c r="A318" s="2" t="s">
         <v>25</v>
       </c>
@@ -13355,7 +13354,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="319" spans="1:51" hidden="1">
+    <row r="319" spans="1:51">
       <c r="A319" s="2" t="s">
         <v>24</v>
       </c>
@@ -13395,7 +13394,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="320" spans="1:51" hidden="1">
+    <row r="320" spans="1:51">
       <c r="A320" s="2" t="s">
         <v>25</v>
       </c>
@@ -13438,7 +13437,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="321" spans="1:50" hidden="1">
+    <row r="321" spans="1:50">
       <c r="A321" s="2" t="s">
         <v>25</v>
       </c>
@@ -13475,7 +13474,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="322" spans="1:50" hidden="1">
+    <row r="322" spans="1:50">
       <c r="A322" s="2" t="s">
         <v>24</v>
       </c>
@@ -13509,7 +13508,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="323" spans="1:50" hidden="1">
+    <row r="323" spans="1:50">
       <c r="A323" s="2" t="s">
         <v>24</v>
       </c>
@@ -13543,7 +13542,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="324" spans="1:50" hidden="1">
+    <row r="324" spans="1:50">
       <c r="A324" s="2" t="s">
         <v>25</v>
       </c>
@@ -13577,7 +13576,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="325" spans="1:50" hidden="1">
+    <row r="325" spans="1:50">
       <c r="A325" s="2" t="s">
         <v>24</v>
       </c>
@@ -13613,7 +13612,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="326" spans="1:50" hidden="1">
+    <row r="326" spans="1:50">
       <c r="A326" s="2" t="s">
         <v>25</v>
       </c>
@@ -13652,7 +13651,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="327" spans="1:50" hidden="1">
+    <row r="327" spans="1:50">
       <c r="A327" s="2" t="s">
         <v>24</v>
       </c>
@@ -13686,7 +13685,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="328" spans="1:50" hidden="1">
+    <row r="328" spans="1:50">
       <c r="A328" s="2" t="s">
         <v>24</v>
       </c>
@@ -13720,7 +13719,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="329" spans="1:50" hidden="1">
+    <row r="329" spans="1:50">
       <c r="A329" s="2" t="s">
         <v>25</v>
       </c>
@@ -13754,7 +13753,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="330" spans="1:50" hidden="1">
+    <row r="330" spans="1:50">
       <c r="A330" s="2" t="s">
         <v>24</v>
       </c>
@@ -13791,7 +13790,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="331" spans="1:50" hidden="1">
+    <row r="331" spans="1:50">
       <c r="A331" s="2" t="s">
         <v>25</v>
       </c>
@@ -13828,7 +13827,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="332" spans="1:50" hidden="1">
+    <row r="332" spans="1:50">
       <c r="A332" s="2" t="s">
         <v>24</v>
       </c>
@@ -13865,7 +13864,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="333" spans="1:50" hidden="1">
+    <row r="333" spans="1:50">
       <c r="A333" s="2" t="s">
         <v>24</v>
       </c>
@@ -13920,7 +13919,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="334" spans="1:50" hidden="1">
+    <row r="334" spans="1:50">
       <c r="A334" s="2" t="s">
         <v>25</v>
       </c>
@@ -13957,7 +13956,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="335" spans="1:50" hidden="1">
+    <row r="335" spans="1:50">
       <c r="A335" s="2" t="s">
         <v>24</v>
       </c>
@@ -13991,7 +13990,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="336" spans="1:50" hidden="1">
+    <row r="336" spans="1:50">
       <c r="A336" s="2" t="s">
         <v>25</v>
       </c>
@@ -14034,7 +14033,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="337" spans="1:50" hidden="1">
+    <row r="337" spans="1:50">
       <c r="A337" s="2" t="s">
         <v>24</v>
       </c>
@@ -14076,7 +14075,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="338" spans="1:50" hidden="1">
+    <row r="338" spans="1:50">
       <c r="A338" s="2" t="s">
         <v>25</v>
       </c>
@@ -14194,7 +14193,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="340" spans="1:50" hidden="1">
+    <row r="340" spans="1:50">
       <c r="A340" s="2" t="s">
         <v>24</v>
       </c>
@@ -14231,7 +14230,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="341" spans="1:50" hidden="1">
+    <row r="341" spans="1:50">
       <c r="A341" s="2" t="s">
         <v>25</v>
       </c>
@@ -14265,7 +14264,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="342" spans="1:50" hidden="1">
+    <row r="342" spans="1:50">
       <c r="A342" s="2" t="s">
         <v>25</v>
       </c>
@@ -14305,7 +14304,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="343" spans="1:50" hidden="1">
+    <row r="343" spans="1:50">
       <c r="A343" s="2" t="s">
         <v>25</v>
       </c>
@@ -14339,7 +14338,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="344" spans="1:50" hidden="1">
+    <row r="344" spans="1:50">
       <c r="A344" s="2" t="s">
         <v>25</v>
       </c>
@@ -14446,7 +14445,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="346" spans="1:50" hidden="1">
+    <row r="346" spans="1:50">
       <c r="A346" s="2" t="s">
         <v>25</v>
       </c>
@@ -14507,7 +14506,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="347" spans="1:50" hidden="1">
+    <row r="347" spans="1:50">
       <c r="A347" s="2" t="s">
         <v>28</v>
       </c>
@@ -14541,7 +14540,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="348" spans="1:50" hidden="1">
+    <row r="348" spans="1:50">
       <c r="A348" s="2" t="s">
         <v>28</v>
       </c>
@@ -14612,7 +14611,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="350" spans="1:50" hidden="1">
+    <row r="350" spans="1:50">
       <c r="A350" s="2" t="s">
         <v>28</v>
       </c>
@@ -14649,7 +14648,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="351" spans="1:50" hidden="1">
+    <row r="351" spans="1:50">
       <c r="A351" s="2" t="s">
         <v>28</v>
       </c>
@@ -14683,7 +14682,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="352" spans="1:50" hidden="1">
+    <row r="352" spans="1:50">
       <c r="A352" s="2" t="s">
         <v>28</v>
       </c>
@@ -14717,7 +14716,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="353" spans="1:49" hidden="1">
+    <row r="353" spans="1:49">
       <c r="A353" s="2" t="s">
         <v>28</v>
       </c>
@@ -14751,7 +14750,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="354" spans="1:49" hidden="1">
+    <row r="354" spans="1:49">
       <c r="A354" s="2" t="s">
         <v>28</v>
       </c>
@@ -14788,7 +14787,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="355" spans="1:49" hidden="1">
+    <row r="355" spans="1:49">
       <c r="A355" s="2" t="s">
         <v>28</v>
       </c>
@@ -14834,7 +14833,7 @@
         <v>3.7200000000000004E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:49" hidden="1">
+    <row r="356" spans="1:49">
       <c r="A356" s="2" t="s">
         <v>28</v>
       </c>
@@ -14868,7 +14867,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="357" spans="1:49" hidden="1">
+    <row r="357" spans="1:49">
       <c r="A357" s="2" t="s">
         <v>28</v>
       </c>
@@ -14902,7 +14901,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="358" spans="1:49" hidden="1">
+    <row r="358" spans="1:49">
       <c r="A358" s="2" t="s">
         <v>28</v>
       </c>
@@ -14936,7 +14935,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="359" spans="1:49" hidden="1">
+    <row r="359" spans="1:49">
       <c r="A359" s="2" t="s">
         <v>28</v>
       </c>
@@ -14970,7 +14969,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="360" spans="1:49" hidden="1">
+    <row r="360" spans="1:49">
       <c r="A360" s="2" t="s">
         <v>28</v>
       </c>
@@ -15004,7 +15003,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="361" spans="1:49" hidden="1">
+    <row r="361" spans="1:49">
       <c r="A361" s="2" t="s">
         <v>28</v>
       </c>
@@ -15044,7 +15043,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="362" spans="1:49" hidden="1">
+    <row r="362" spans="1:49">
       <c r="A362" t="s">
         <v>28</v>
       </c>
@@ -15139,7 +15138,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="364" spans="1:49" hidden="1">
+    <row r="364" spans="1:49">
       <c r="A364" s="2" t="s">
         <v>28</v>
       </c>
@@ -15173,7 +15172,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="365" spans="1:49" hidden="1">
+    <row r="365" spans="1:49">
       <c r="A365" s="2" t="s">
         <v>28</v>
       </c>
@@ -15207,7 +15206,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="366" spans="1:49" hidden="1">
+    <row r="366" spans="1:49">
       <c r="A366" s="2" t="s">
         <v>28</v>
       </c>
@@ -15241,7 +15240,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="367" spans="1:49" hidden="1">
+    <row r="367" spans="1:49">
       <c r="A367" s="2" t="s">
         <v>28</v>
       </c>
@@ -15278,7 +15277,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="368" spans="1:49" hidden="1">
+    <row r="368" spans="1:49">
       <c r="A368" s="2" t="s">
         <v>28</v>
       </c>
@@ -15312,7 +15311,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="369" spans="1:51" hidden="1">
+    <row r="369" spans="1:51">
       <c r="A369" s="2" t="s">
         <v>28</v>
       </c>
@@ -15355,7 +15354,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="370" spans="1:51" hidden="1">
+    <row r="370" spans="1:51">
       <c r="A370" s="2" t="s">
         <v>28</v>
       </c>
@@ -15392,7 +15391,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="371" spans="1:51" hidden="1">
+    <row r="371" spans="1:51">
       <c r="A371" s="2" t="s">
         <v>28</v>
       </c>
@@ -15426,7 +15425,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="372" spans="1:51" hidden="1">
+    <row r="372" spans="1:51">
       <c r="A372" s="2" t="s">
         <v>28</v>
       </c>
@@ -15460,7 +15459,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="373" spans="1:51" hidden="1">
+    <row r="373" spans="1:51">
       <c r="A373" s="2" t="s">
         <v>28</v>
       </c>
@@ -15494,7 +15493,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="374" spans="1:51" hidden="1">
+    <row r="374" spans="1:51">
       <c r="A374" s="2" t="s">
         <v>28</v>
       </c>
@@ -15528,7 +15527,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="375" spans="1:51" hidden="1">
+    <row r="375" spans="1:51">
       <c r="A375" s="2" t="s">
         <v>28</v>
       </c>
@@ -15562,7 +15561,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="376" spans="1:51" hidden="1">
+    <row r="376" spans="1:51">
       <c r="A376" s="2" t="s">
         <v>28</v>
       </c>
@@ -15596,7 +15595,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="377" spans="1:51" hidden="1">
+    <row r="377" spans="1:51">
       <c r="A377" s="2" t="s">
         <v>28</v>
       </c>
@@ -15636,7 +15635,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="378" spans="1:51" hidden="1">
+    <row r="378" spans="1:51">
       <c r="A378" s="2" t="s">
         <v>28</v>
       </c>
@@ -15673,7 +15672,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="379" spans="1:51" hidden="1">
+    <row r="379" spans="1:51">
       <c r="A379" s="2" t="s">
         <v>28</v>
       </c>
@@ -15710,7 +15709,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="380" spans="1:51" hidden="1">
+    <row r="380" spans="1:51">
       <c r="A380" s="2" t="s">
         <v>31</v>
       </c>
@@ -15744,7 +15743,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="381" spans="1:51" hidden="1">
+    <row r="381" spans="1:51">
       <c r="A381" s="2" t="s">
         <v>31</v>
       </c>
@@ -15778,7 +15777,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="382" spans="1:51" hidden="1">
+    <row r="382" spans="1:51">
       <c r="A382" s="2" t="s">
         <v>31</v>
       </c>
@@ -15815,7 +15814,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="383" spans="1:51" hidden="1">
+    <row r="383" spans="1:51">
       <c r="A383" s="2" t="s">
         <v>31</v>
       </c>
@@ -15849,7 +15848,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="384" spans="1:51" hidden="1">
+    <row r="384" spans="1:51">
       <c r="A384" s="2" t="s">
         <v>31</v>
       </c>
@@ -15889,7 +15888,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="385" spans="1:50" hidden="1">
+    <row r="385" spans="1:50">
       <c r="A385" s="2" t="s">
         <v>31</v>
       </c>
@@ -15923,7 +15922,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="386" spans="1:50" hidden="1">
+    <row r="386" spans="1:50">
       <c r="A386" s="2" t="s">
         <v>31</v>
       </c>
@@ -15954,7 +15953,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="387" spans="1:50" hidden="1">
+    <row r="387" spans="1:50">
       <c r="A387" s="2" t="s">
         <v>31</v>
       </c>
@@ -15988,7 +15987,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="388" spans="1:50" hidden="1">
+    <row r="388" spans="1:50">
       <c r="A388" s="2" t="s">
         <v>31</v>
       </c>
@@ -16110,7 +16109,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="391" spans="1:50" hidden="1">
+    <row r="391" spans="1:50">
       <c r="A391" s="2" t="s">
         <v>31</v>
       </c>
@@ -16144,7 +16143,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="392" spans="1:50" hidden="1">
+    <row r="392" spans="1:50">
       <c r="A392" s="2" t="s">
         <v>31</v>
       </c>
@@ -16181,7 +16180,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="393" spans="1:50" hidden="1">
+    <row r="393" spans="1:50">
       <c r="A393" s="2" t="s">
         <v>31</v>
       </c>
@@ -16215,7 +16214,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="394" spans="1:50" hidden="1">
+    <row r="394" spans="1:50">
       <c r="A394" s="2" t="s">
         <v>31</v>
       </c>
@@ -16249,7 +16248,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="395" spans="1:50" hidden="1">
+    <row r="395" spans="1:50">
       <c r="A395" s="2" t="s">
         <v>31</v>
       </c>
@@ -16317,7 +16316,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="397" spans="1:50" hidden="1">
+    <row r="397" spans="1:50">
       <c r="A397" s="2" t="s">
         <v>31</v>
       </c>
@@ -16354,7 +16353,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="398" spans="1:50" hidden="1">
+    <row r="398" spans="1:50">
       <c r="A398" s="2" t="s">
         <v>31</v>
       </c>
@@ -16388,7 +16387,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="399" spans="1:50" hidden="1">
+    <row r="399" spans="1:50">
       <c r="A399" s="2" t="s">
         <v>31</v>
       </c>
@@ -16422,7 +16421,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="400" spans="1:50" hidden="1">
+    <row r="400" spans="1:50">
       <c r="A400" s="2" t="s">
         <v>31</v>
       </c>
@@ -16456,7 +16455,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="401" spans="1:49" hidden="1">
+    <row r="401" spans="1:49">
       <c r="A401" s="2" t="s">
         <v>31</v>
       </c>
@@ -16591,7 +16590,7 @@
         <v>7.05</v>
       </c>
     </row>
-    <row r="404" spans="1:49" hidden="1">
+    <row r="404" spans="1:49">
       <c r="A404" s="2" t="s">
         <v>31</v>
       </c>
@@ -16625,7 +16624,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="405" spans="1:49" hidden="1">
+    <row r="405" spans="1:49">
       <c r="A405" t="s">
         <v>31</v>
       </c>
@@ -16662,7 +16661,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="406" spans="1:49" hidden="1">
+    <row r="406" spans="1:49">
       <c r="A406" t="s">
         <v>31</v>
       </c>
@@ -16699,7 +16698,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="407" spans="1:49" hidden="1">
+    <row r="407" spans="1:49">
       <c r="A407" s="2" t="s">
         <v>31</v>
       </c>
@@ -16739,7 +16738,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="408" spans="1:49" hidden="1">
+    <row r="408" spans="1:49">
       <c r="A408" s="2" t="s">
         <v>31</v>
       </c>
@@ -16773,7 +16772,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="409" spans="1:49" hidden="1">
+    <row r="409" spans="1:49">
       <c r="A409" s="2" t="s">
         <v>26</v>
       </c>
@@ -16806,7 +16805,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="410" spans="1:49" hidden="1">
+    <row r="410" spans="1:49">
       <c r="A410" s="2" t="s">
         <v>26</v>
       </c>
@@ -16877,7 +16876,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="412" spans="1:49" hidden="1">
+    <row r="412" spans="1:49">
       <c r="A412" s="2" t="s">
         <v>26</v>
       </c>
@@ -16914,7 +16913,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="413" spans="1:49" hidden="1">
+    <row r="413" spans="1:49">
       <c r="A413" s="2" t="s">
         <v>26</v>
       </c>
@@ -16948,7 +16947,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="414" spans="1:49" hidden="1">
+    <row r="414" spans="1:49">
       <c r="A414" s="2" t="s">
         <v>26</v>
       </c>
@@ -16982,7 +16981,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="415" spans="1:49" hidden="1">
+    <row r="415" spans="1:49">
       <c r="A415" s="2" t="s">
         <v>26</v>
       </c>
@@ -17016,7 +17015,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="416" spans="1:49" hidden="1">
+    <row r="416" spans="1:49">
       <c r="A416" s="2" t="s">
         <v>26</v>
       </c>
@@ -17050,7 +17049,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="417" spans="1:51" hidden="1">
+    <row r="417" spans="1:51">
       <c r="A417" s="2" t="s">
         <v>26</v>
       </c>
@@ -17084,7 +17083,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="418" spans="1:51" hidden="1">
+    <row r="418" spans="1:51">
       <c r="A418" s="2" t="s">
         <v>26</v>
       </c>
@@ -17118,7 +17117,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="419" spans="1:51" hidden="1">
+    <row r="419" spans="1:51">
       <c r="A419" s="2" t="s">
         <v>26</v>
       </c>
@@ -17152,7 +17151,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="420" spans="1:51" hidden="1">
+    <row r="420" spans="1:51">
       <c r="A420" s="2" t="s">
         <v>26</v>
       </c>
@@ -17226,7 +17225,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="422" spans="1:51" hidden="1">
+    <row r="422" spans="1:51">
       <c r="A422" s="2" t="s">
         <v>26</v>
       </c>
@@ -17275,7 +17274,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="423" spans="1:51" hidden="1">
+    <row r="423" spans="1:51">
       <c r="A423" s="2" t="s">
         <v>26</v>
       </c>
@@ -17309,7 +17308,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="424" spans="1:51" hidden="1">
+    <row r="424" spans="1:51">
       <c r="A424" s="2" t="s">
         <v>26</v>
       </c>
@@ -17340,7 +17339,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="425" spans="1:51" hidden="1">
+    <row r="425" spans="1:51">
       <c r="A425" s="2" t="s">
         <v>26</v>
       </c>
@@ -17374,7 +17373,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="426" spans="1:51" hidden="1">
+    <row r="426" spans="1:51">
       <c r="A426" s="2" t="s">
         <v>26</v>
       </c>
@@ -17408,7 +17407,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="427" spans="1:51" hidden="1">
+    <row r="427" spans="1:51">
       <c r="A427" s="2" t="s">
         <v>26</v>
       </c>
@@ -17500,7 +17499,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="429" spans="1:51" hidden="1">
+    <row r="429" spans="1:51">
       <c r="A429" s="2" t="s">
         <v>26</v>
       </c>
@@ -17546,7 +17545,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="430" spans="1:51" hidden="1">
+    <row r="430" spans="1:51">
       <c r="A430" s="2" t="s">
         <v>26</v>
       </c>
@@ -17586,7 +17585,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="431" spans="1:51" hidden="1">
+    <row r="431" spans="1:51">
       <c r="A431" s="2" t="s">
         <v>26</v>
       </c>
@@ -17620,7 +17619,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="432" spans="1:51" hidden="1">
+    <row r="432" spans="1:51">
       <c r="A432" s="2" t="s">
         <v>26</v>
       </c>
@@ -17654,7 +17653,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="433" spans="1:51" hidden="1">
+    <row r="433" spans="1:51">
       <c r="A433" s="2" t="s">
         <v>26</v>
       </c>
@@ -17691,7 +17690,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="434" spans="1:51" hidden="1">
+    <row r="434" spans="1:51">
       <c r="A434" s="2" t="s">
         <v>26</v>
       </c>
@@ -17725,7 +17724,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="435" spans="1:51" hidden="1">
+    <row r="435" spans="1:51">
       <c r="A435" s="2" t="s">
         <v>26</v>
       </c>
@@ -17759,7 +17758,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="436" spans="1:51" hidden="1">
+    <row r="436" spans="1:51">
       <c r="A436" s="2" t="s">
         <v>26</v>
       </c>
@@ -17839,7 +17838,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="438" spans="1:51" hidden="1">
+    <row r="438" spans="1:51">
       <c r="A438" s="2" t="s">
         <v>26</v>
       </c>
@@ -17876,7 +17875,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="439" spans="1:51" hidden="1">
+    <row r="439" spans="1:51">
       <c r="A439" s="2" t="s">
         <v>26</v>
       </c>
@@ -17913,7 +17912,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="440" spans="1:51" hidden="1">
+    <row r="440" spans="1:51">
       <c r="A440" s="2" t="s">
         <v>26</v>
       </c>
@@ -18047,7 +18046,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="442" spans="1:51" hidden="1">
+    <row r="442" spans="1:51">
       <c r="A442" s="2" t="s">
         <v>26</v>
       </c>
@@ -18084,7 +18083,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="443" spans="1:51" hidden="1">
+    <row r="443" spans="1:51">
       <c r="A443" s="2" t="s">
         <v>29</v>
       </c>
@@ -18118,7 +18117,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="444" spans="1:51" hidden="1">
+    <row r="444" spans="1:51">
       <c r="A444" s="2" t="s">
         <v>29</v>
       </c>
@@ -18152,7 +18151,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="445" spans="1:51" hidden="1">
+    <row r="445" spans="1:51">
       <c r="A445" t="s">
         <v>29</v>
       </c>
@@ -18192,7 +18191,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="446" spans="1:51" hidden="1">
+    <row r="446" spans="1:51">
       <c r="A446" s="2" t="s">
         <v>29</v>
       </c>
@@ -18226,7 +18225,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="447" spans="1:51" hidden="1">
+    <row r="447" spans="1:51">
       <c r="A447" s="2" t="s">
         <v>29</v>
       </c>
@@ -18260,7 +18259,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="448" spans="1:51" hidden="1">
+    <row r="448" spans="1:51">
       <c r="A448" s="2" t="s">
         <v>29</v>
       </c>
@@ -18297,7 +18296,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="449" spans="1:49" hidden="1">
+    <row r="449" spans="1:49">
       <c r="A449" s="2" t="s">
         <v>29</v>
       </c>
@@ -18331,7 +18330,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="450" spans="1:49" hidden="1">
+    <row r="450" spans="1:49">
       <c r="A450" s="2" t="s">
         <v>29</v>
       </c>
@@ -18365,7 +18364,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="451" spans="1:49" hidden="1">
+    <row r="451" spans="1:49">
       <c r="A451" s="2" t="s">
         <v>29</v>
       </c>
@@ -18399,7 +18398,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="452" spans="1:49" hidden="1">
+    <row r="452" spans="1:49">
       <c r="A452" s="2" t="s">
         <v>29</v>
       </c>
@@ -18436,7 +18435,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="453" spans="1:49" hidden="1">
+    <row r="453" spans="1:49">
       <c r="A453" s="2" t="s">
         <v>29</v>
       </c>
@@ -18473,7 +18472,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="454" spans="1:49" hidden="1">
+    <row r="454" spans="1:49">
       <c r="A454" s="2" t="s">
         <v>29</v>
       </c>
@@ -18507,7 +18506,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="455" spans="1:49" hidden="1">
+    <row r="455" spans="1:49">
       <c r="A455" s="2" t="s">
         <v>29</v>
       </c>
@@ -18587,7 +18586,7 @@
         <v>2.2400000000000003E-2</v>
       </c>
     </row>
-    <row r="457" spans="1:49" hidden="1">
+    <row r="457" spans="1:49">
       <c r="A457" s="2" t="s">
         <v>29</v>
       </c>
@@ -18621,7 +18620,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="458" spans="1:49" hidden="1">
+    <row r="458" spans="1:49">
       <c r="A458" s="2" t="s">
         <v>29</v>
       </c>
@@ -18655,7 +18654,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="459" spans="1:49" hidden="1">
+    <row r="459" spans="1:49">
       <c r="A459" s="2" t="s">
         <v>29</v>
       </c>
@@ -18689,7 +18688,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="460" spans="1:49" hidden="1">
+    <row r="460" spans="1:49">
       <c r="A460" s="2" t="s">
         <v>29</v>
       </c>
@@ -18729,7 +18728,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="461" spans="1:49" hidden="1">
+    <row r="461" spans="1:49">
       <c r="A461" s="2" t="s">
         <v>29</v>
       </c>
@@ -18815,7 +18814,7 @@
         <v>4.92</v>
       </c>
     </row>
-    <row r="463" spans="1:49" hidden="1">
+    <row r="463" spans="1:49">
       <c r="A463" s="2" t="s">
         <v>29</v>
       </c>
@@ -18855,7 +18854,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="464" spans="1:49" hidden="1">
+    <row r="464" spans="1:49">
       <c r="A464" s="2" t="s">
         <v>29</v>
       </c>
@@ -18889,7 +18888,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="465" spans="1:50" hidden="1">
+    <row r="465" spans="1:50">
       <c r="A465" s="2" t="s">
         <v>29</v>
       </c>
@@ -18926,7 +18925,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="466" spans="1:50" hidden="1">
+    <row r="466" spans="1:50">
       <c r="A466" s="2" t="s">
         <v>29</v>
       </c>
@@ -18963,7 +18962,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="467" spans="1:50" hidden="1">
+    <row r="467" spans="1:50">
       <c r="A467" s="2" t="s">
         <v>29</v>
       </c>
@@ -19046,7 +19045,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="469" spans="1:50" hidden="1">
+    <row r="469" spans="1:50">
       <c r="A469" s="2" t="s">
         <v>32</v>
       </c>
@@ -19080,7 +19079,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="470" spans="1:50" hidden="1">
+    <row r="470" spans="1:50">
       <c r="A470" s="2" t="s">
         <v>32</v>
       </c>
@@ -19111,7 +19110,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="471" spans="1:50" hidden="1">
+    <row r="471" spans="1:50">
       <c r="A471" s="2" t="s">
         <v>32</v>
       </c>
@@ -19145,7 +19144,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="472" spans="1:50" hidden="1">
+    <row r="472" spans="1:50">
       <c r="A472" s="2" t="s">
         <v>32</v>
       </c>
@@ -19225,7 +19224,7 @@
         <v>2.3799999999999998E-2</v>
       </c>
     </row>
-    <row r="474" spans="1:50" hidden="1">
+    <row r="474" spans="1:50">
       <c r="A474" s="2" t="s">
         <v>32</v>
       </c>
@@ -19259,7 +19258,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="475" spans="1:50" hidden="1">
+    <row r="475" spans="1:50">
       <c r="A475" s="2" t="s">
         <v>32</v>
       </c>
@@ -19293,7 +19292,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="476" spans="1:50" hidden="1">
+    <row r="476" spans="1:50">
       <c r="A476" s="2" t="s">
         <v>32</v>
       </c>
@@ -19327,7 +19326,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="477" spans="1:50" hidden="1">
+    <row r="477" spans="1:50">
       <c r="A477" s="2" t="s">
         <v>32</v>
       </c>
@@ -19364,7 +19363,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="478" spans="1:50" hidden="1">
+    <row r="478" spans="1:50">
       <c r="A478" s="2" t="s">
         <v>32</v>
       </c>
@@ -19398,7 +19397,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="479" spans="1:50" hidden="1">
+    <row r="479" spans="1:50">
       <c r="A479" s="2" t="s">
         <v>32</v>
       </c>
@@ -19432,7 +19431,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="480" spans="1:50" hidden="1">
+    <row r="480" spans="1:50">
       <c r="A480" s="2" t="s">
         <v>32</v>
       </c>
@@ -19469,7 +19468,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="481" spans="1:51" hidden="1">
+    <row r="481" spans="1:51">
       <c r="A481" s="2" t="s">
         <v>32</v>
       </c>
@@ -19503,7 +19502,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="482" spans="1:51" hidden="1">
+    <row r="482" spans="1:51">
       <c r="A482" s="2" t="s">
         <v>32</v>
       </c>
@@ -19540,7 +19539,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="483" spans="1:51" hidden="1">
+    <row r="483" spans="1:51">
       <c r="A483" t="s">
         <v>32</v>
       </c>
@@ -19583,7 +19582,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="484" spans="1:51" hidden="1">
+    <row r="484" spans="1:51">
       <c r="A484" s="2" t="s">
         <v>32</v>
       </c>
@@ -19617,7 +19616,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="485" spans="1:51" hidden="1">
+    <row r="485" spans="1:51">
       <c r="A485" s="2" t="s">
         <v>32</v>
       </c>
@@ -19651,7 +19650,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="486" spans="1:51" hidden="1">
+    <row r="486" spans="1:51">
       <c r="A486" s="2" t="s">
         <v>32</v>
       </c>
@@ -19685,7 +19684,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="487" spans="1:51" hidden="1">
+    <row r="487" spans="1:51">
       <c r="A487" s="2" t="s">
         <v>32</v>
       </c>
@@ -19719,7 +19718,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="488" spans="1:51" hidden="1">
+    <row r="488" spans="1:51">
       <c r="A488" s="2" t="s">
         <v>32</v>
       </c>
@@ -19759,7 +19758,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="489" spans="1:51" hidden="1">
+    <row r="489" spans="1:51">
       <c r="A489" t="s">
         <v>32</v>
       </c>
@@ -19793,7 +19792,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="490" spans="1:51" hidden="1">
+    <row r="490" spans="1:51">
       <c r="A490" s="2" t="s">
         <v>32</v>
       </c>
@@ -19864,7 +19863,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="492" spans="1:51" hidden="1">
+    <row r="492" spans="1:51">
       <c r="A492" s="2" t="s">
         <v>32</v>
       </c>
@@ -19973,7 +19972,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="493" spans="1:51" hidden="1">
+    <row r="493" spans="1:51">
       <c r="A493" s="2" t="s">
         <v>32</v>
       </c>
@@ -20013,7 +20012,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="494" spans="1:51" hidden="1">
+    <row r="494" spans="1:51">
       <c r="A494" s="2" t="s">
         <v>32</v>
       </c>
@@ -20087,7 +20086,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="496" spans="1:51" hidden="1">
+    <row r="496" spans="1:51">
       <c r="A496" s="2" t="s">
         <v>32</v>
       </c>
@@ -20124,7 +20123,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="497" spans="1:37" hidden="1">
+    <row r="497" spans="1:37">
       <c r="A497" t="s">
         <v>32</v>
       </c>
@@ -20158,7 +20157,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="498" spans="1:37" hidden="1">
+    <row r="498" spans="1:37">
       <c r="A498" t="s">
         <v>32</v>
       </c>
@@ -20192,7 +20191,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="499" spans="1:37" hidden="1">
+    <row r="499" spans="1:37">
       <c r="A499" t="s">
         <v>32</v>
       </c>
@@ -20226,102 +20225,91 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="500" spans="1:37" hidden="1"/>
-    <row r="501" spans="1:37" hidden="1"/>
-    <row r="502" spans="1:37" hidden="1"/>
-    <row r="503" spans="1:37" hidden="1">
+    <row r="503" spans="1:37">
       <c r="H503" s="5"/>
     </row>
-    <row r="504" spans="1:37" hidden="1"/>
-    <row r="505" spans="1:37" hidden="1">
+    <row r="505" spans="1:37">
       <c r="H505" s="5"/>
     </row>
-    <row r="506" spans="1:37" hidden="1">
+    <row r="506" spans="1:37">
       <c r="H506" s="5"/>
     </row>
-    <row r="507" spans="1:37" hidden="1">
+    <row r="507" spans="1:37">
       <c r="H507" s="5"/>
     </row>
-    <row r="508" spans="1:37" hidden="1">
+    <row r="508" spans="1:37">
       <c r="H508" s="5"/>
     </row>
-    <row r="509" spans="1:37" hidden="1">
+    <row r="509" spans="1:37">
       <c r="H509" s="5"/>
     </row>
-    <row r="510" spans="1:37" hidden="1">
+    <row r="510" spans="1:37">
       <c r="H510" s="5"/>
     </row>
-    <row r="511" spans="1:37" hidden="1">
+    <row r="511" spans="1:37">
       <c r="H511" s="5"/>
     </row>
-    <row r="512" spans="1:37" hidden="1">
+    <row r="512" spans="1:37">
       <c r="H512" s="5"/>
     </row>
-    <row r="513" spans="8:8" hidden="1">
+    <row r="513" spans="8:8">
       <c r="H513" s="5"/>
     </row>
-    <row r="514" spans="8:8" hidden="1">
+    <row r="514" spans="8:8">
       <c r="H514" s="5"/>
     </row>
-    <row r="515" spans="8:8" hidden="1">
+    <row r="515" spans="8:8">
       <c r="H515" s="5"/>
     </row>
-    <row r="516" spans="8:8" hidden="1">
+    <row r="516" spans="8:8">
       <c r="H516" s="5"/>
     </row>
-    <row r="517" spans="8:8" hidden="1">
+    <row r="517" spans="8:8">
       <c r="H517" s="5"/>
     </row>
-    <row r="518" spans="8:8" hidden="1">
+    <row r="518" spans="8:8">
       <c r="H518" s="5"/>
     </row>
-    <row r="519" spans="8:8" hidden="1">
+    <row r="519" spans="8:8">
       <c r="H519" s="5"/>
     </row>
-    <row r="520" spans="8:8" hidden="1">
+    <row r="520" spans="8:8">
       <c r="H520" s="5"/>
     </row>
-    <row r="521" spans="8:8" hidden="1">
+    <row r="521" spans="8:8">
       <c r="H521" s="5"/>
     </row>
-    <row r="522" spans="8:8" hidden="1">
+    <row r="522" spans="8:8">
       <c r="H522" s="5"/>
     </row>
-    <row r="523" spans="8:8" hidden="1">
+    <row r="523" spans="8:8">
       <c r="H523" s="5"/>
     </row>
-    <row r="524" spans="8:8" hidden="1">
+    <row r="524" spans="8:8">
       <c r="H524" s="5"/>
     </row>
-    <row r="525" spans="8:8" hidden="1">
+    <row r="525" spans="8:8">
       <c r="H525" s="5"/>
     </row>
-    <row r="526" spans="8:8" hidden="1">
+    <row r="526" spans="8:8">
       <c r="H526" s="5"/>
     </row>
-    <row r="527" spans="8:8" hidden="1">
+    <row r="527" spans="8:8">
       <c r="H527" s="5"/>
     </row>
-    <row r="528" spans="8:8" hidden="1">
+    <row r="528" spans="8:8">
       <c r="H528" s="5"/>
     </row>
-    <row r="529" spans="8:8" hidden="1">
+    <row r="529" spans="8:8">
       <c r="H529" s="5"/>
     </row>
-    <row r="530" spans="8:8" hidden="1">
+    <row r="530" spans="8:8">
       <c r="H530" s="5"/>
     </row>
-    <row r="531" spans="8:8" hidden="1">
+    <row r="531" spans="8:8">
       <c r="H531" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AY531" xr:uid="{F0B0C000-3CD0-4997-AEB8-B2A330AF442A}">
-    <filterColumn colId="19">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AY346">
     <sortCondition ref="B2:B499"/>
   </sortState>

--- a/Prototypes/Mungbean/Exp3observed.xlsx
+++ b/Prototypes/Mungbean/Exp3observed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051DFCB2-F63F-410F-8127-8A20DE4263B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F9EF40-7C97-4C7F-9079-8B730333FF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="5505" windowWidth="29040" windowHeight="15840" xr2:uid="{8C69385E-AA3F-4CF3-AF00-E1E4599E61EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28035" windowHeight="16440" xr2:uid="{8C69385E-AA3F-4CF3-AF00-E1E4599E61EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -146,9 +146,6 @@
     <t>Mungbean.Phenology.AccumulatedTT</t>
   </si>
   <si>
-    <t>Mungbean.Grain.Wt</t>
-  </si>
-  <si>
     <t>Mungbean.Leaf.LAI</t>
   </si>
   <si>
@@ -219,6 +216,9 @@
   </si>
   <si>
     <t>Mungbean.Phenology.StartFloweringDASx</t>
+  </si>
+  <si>
+    <t>Mungbean.Grain.Wt</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -633,7 +633,7 @@
         <v>35</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>23</v>
@@ -669,28 +669,28 @@
         <v>11</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>13</v>
@@ -705,52 +705,52 @@
         <v>16</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AE1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="AL1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AN1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="AO1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="AT1" s="3" t="s">
         <v>20</v>
@@ -759,16 +759,16 @@
         <v>21</v>
       </c>
       <c r="AV1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:51">
